--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule_app\sara\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18572689-FEBD-46C2-9475-316990F13230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9A7235-5A8A-4F90-A486-A2FBB76B89D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">CONSOLIDADO_I_2024!$A$2:$DA$396</definedName>
     <definedName name="SegmentaciónDeDatos_14_15L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_20_21L">#N/A</definedName>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -34,7 +34,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="2" r:id="rId5"/>
+        <pivotCache cacheId="5" r:id="rId5"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
@@ -102,7 +102,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROPUESTAS_ÁREA_I_2024" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="543">
   <si>
     <t>Source.Name</t>
   </si>
@@ -1737,6 +1737,9 @@
   </si>
   <si>
     <t>HORAS POR TRIMESTRE</t>
+  </si>
+  <si>
+    <t>RODRIGO JESUS EBRAT CARR</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1851,15 +1854,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="0"/>
@@ -4279,7 +4278,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D73DC85-5FBF-4F24-97CB-8C13C24B8FB6}" name="PivotChartTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D73DC85-5FBF-4F24-97CB-8C13C24B8FB6}" name="PivotChartTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5180,234 +5179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <pivotHierarchies count="107">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
-        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B64BFF8C-3F78-4B77-8F54-62D5C38B45C2}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B64BFF8C-3F78-4B77-8F54-62D5C38B45C2}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5879,6 +5651,233 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="107">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
+        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="3" xr16:uid="{E68D100A-F407-47DF-BCBB-689A9A50067A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="117" unboundColumnsRight="8">
@@ -6047,12 +6046,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C271237-3B14-4B56-B10F-6D7A839BB716}" name="PROPUESTAS_ÁREA_I_2024" displayName="PROPUESTAS_ÁREA_I_2024" ref="A2:DI397" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI396" xr:uid="{8C271237-3B14-4B56-B10F-6D7A839BB716}"/>
   <tableColumns count="113">
-    <tableColumn id="1" xr3:uid="{139F804D-D3ED-474E-8CBB-C94DD993F97B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{139F804D-D3ED-474E-8CBB-C94DD993F97B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{3A5FEDFF-C26F-4869-83E0-957418A2AB27}" uniqueName="2" name="FICHA" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{B469C230-3D72-4995-8004-8C2CBFE694C1}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{31507130-E8D3-4DF7-9341-2C600FF6D5BF}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B469C230-3D72-4995-8004-8C2CBFE694C1}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{31507130-E8D3-4DF7-9341-2C600FF6D5BF}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{B7E739B3-6836-4279-850B-06CE341E9C71}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{CEC45585-22AE-4CEB-A8B0-3A7E3F4A51EA}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{CEC45585-22AE-4CEB-A8B0-3A7E3F4A51EA}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{F139E010-2630-4FB9-9B1E-32AF85157052}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2BDFE95F-D286-47D7-B818-D85F2B5F42E1}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{296065E9-062D-4C9C-90E3-3C3D676134FC}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
@@ -6060,8 +6059,8 @@
     <tableColumn id="11" xr3:uid="{AF541DD2-11B0-4F91-8511-CB027A42D60E}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{1965E789-3798-46E5-A251-C691BEA08667}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{4BE3E982-BCB5-412D-843D-A40CED305885}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{D9412F8C-37E9-4060-AB4A-20E5FD93C42B}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="3"/>
-    <tableColumn id="113" xr3:uid="{7262E2C9-8462-4143-BB35-32D3730C7FA7}" uniqueName="113" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="115" totalsRowDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{D9412F8C-37E9-4060-AB4A-20E5FD93C42B}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="113" xr3:uid="{7262E2C9-8462-4143-BB35-32D3730C7FA7}" uniqueName="113" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="115"/>
     <tableColumn id="16" xr3:uid="{DE7E8746-5212-46BC-AC0B-A0009B17A88B}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="114" xr3:uid="{CC1C7AC8-9808-42C0-B3B8-D8D723E42C45}" uniqueName="114" name="HORAS POR TRIMESTRE" queryTableFieldId="116"/>
     <tableColumn id="18" xr3:uid="{9E18353E-E521-4F58-A077-E989CB32CF29}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -6626,8 +6625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D4503-1E10-47C8-980C-181088D300A7}">
   <dimension ref="A1:DI397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="DF8" sqref="DF8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N402" sqref="N402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13554,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>285</v>
+        <v>542</v>
       </c>
       <c r="P119">
         <v>26</v>
@@ -27573,7 +27572,6 @@
       </c>
     </row>
     <row r="397" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="O397" s="8"/>
       <c r="R397">
         <f>SUBTOTAL(3,R3:R396)</f>
         <v>32</v>
@@ -27946,12 +27944,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R397:CS397 CU397:DA397">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT397">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9A7235-5A8A-4F90-A486-A2FBB76B89D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCDEA0-1EEA-4B90-807C-46D711D4D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">CONSOLIDADO_I_2024!$A$2:$DA$396</definedName>
     <definedName name="SegmentaciónDeDatos_14_15L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_20_21L">#N/A</definedName>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -34,7 +34,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="5" r:id="rId5"/>
+        <pivotCache cacheId="2" r:id="rId5"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
@@ -102,7 +102,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROPUESTAS_ÁREA_I_2024" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1130,9 +1130,6 @@
     <t xml:space="preserve">NEWTON WILLARD POMARE GRINARD </t>
   </si>
   <si>
-    <t>Implementar la solución de software de acuerdo con los requisitos de operación y modelos de referencia - Proyecto 2  + Manual Técnico</t>
-  </si>
-  <si>
     <t>ALVARO PEREZ NIÑO</t>
   </si>
   <si>
@@ -1740,6 +1737,9 @@
   </si>
   <si>
     <t>RODRIGO JESUS EBRAT CARR</t>
+  </si>
+  <si>
+    <t>Implementar la solución de software de acuerdo con los requisitos de operación y modelos de referencia - Proyecto 2 + Manual Técnico</t>
   </si>
 </sst>
 </file>
@@ -2748,11 +2748,6 @@
       <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -4278,7 +4273,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D73DC85-5FBF-4F24-97CB-8C13C24B8FB6}" name="PivotChartTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D73DC85-5FBF-4F24-97CB-8C13C24B8FB6}" name="PivotChartTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5179,7 +5174,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B64BFF8C-3F78-4B77-8F54-62D5C38B45C2}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B64BFF8C-3F78-4B77-8F54-62D5C38B45C2}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -5652,7 +5647,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -6625,8 +6620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D4503-1E10-47C8-980C-181088D300A7}">
   <dimension ref="A1:DI397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N402" sqref="N402"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6668,7 +6663,7 @@
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -6686,7 +6681,7 @@
       <c r="AF1" s="6"/>
       <c r="AG1" s="7"/>
       <c r="AH1" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -6704,7 +6699,7 @@
       <c r="AV1" s="6"/>
       <c r="AW1" s="7"/>
       <c r="AX1" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AY1" s="6"/>
       <c r="AZ1" s="6"/>
@@ -6722,7 +6717,7 @@
       <c r="BL1" s="6"/>
       <c r="BM1" s="7"/>
       <c r="BN1" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BO1" s="6"/>
       <c r="BP1" s="6"/>
@@ -6740,7 +6735,7 @@
       <c r="CB1" s="6"/>
       <c r="CC1" s="7"/>
       <c r="CD1" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
@@ -6759,7 +6754,7 @@
       <c r="CS1" s="7"/>
       <c r="CT1" s="4"/>
       <c r="CU1" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CV1" s="6"/>
       <c r="CW1" s="6"/>
@@ -6812,13 +6807,13 @@
         <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P2" t="s">
         <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -7061,10 +7056,10 @@
         <v>94</v>
       </c>
       <c r="CT2" t="s">
+        <v>529</v>
+      </c>
+      <c r="CU2" t="s">
         <v>530</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>531</v>
       </c>
       <c r="CV2" t="s">
         <v>95</v>
@@ -7085,28 +7080,28 @@
         <v>100</v>
       </c>
       <c r="DB2" t="s">
+        <v>531</v>
+      </c>
+      <c r="DC2" t="s">
         <v>532</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DD2" t="s">
         <v>533</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DE2" t="s">
         <v>534</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DF2" t="s">
         <v>535</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DG2" t="s">
         <v>536</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DH2" t="s">
         <v>537</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
         <v>538</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.3">
@@ -7770,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -8718,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -9818,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -10013,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -10337,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -10775,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -11128,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -11435,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P83">
         <v>2</v>
@@ -12004,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P93">
         <v>2</v>
@@ -12296,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P98">
         <v>2</v>
@@ -12407,7 +12402,7 @@
         <v>252</v>
       </c>
       <c r="B101" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C101" t="s">
         <v>253</v>
@@ -12448,7 +12443,7 @@
         <v>252</v>
       </c>
       <c r="B102" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C102" t="s">
         <v>253</v>
@@ -12561,7 +12556,7 @@
         <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C103" t="s">
         <v>253</v>
@@ -12608,7 +12603,7 @@
         <v>252</v>
       </c>
       <c r="B104" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C104" t="s">
         <v>253</v>
@@ -12655,7 +12650,7 @@
         <v>252</v>
       </c>
       <c r="B105" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C105" t="s">
         <v>253</v>
@@ -12693,7 +12688,7 @@
         <v>252</v>
       </c>
       <c r="B106" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C106" t="s">
         <v>253</v>
@@ -12734,7 +12729,7 @@
         <v>252</v>
       </c>
       <c r="B107" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C107" t="s">
         <v>253</v>
@@ -12847,7 +12842,7 @@
         <v>252</v>
       </c>
       <c r="B108" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C108" t="s">
         <v>253</v>
@@ -12894,7 +12889,7 @@
         <v>252</v>
       </c>
       <c r="B109" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C109" t="s">
         <v>253</v>
@@ -12941,7 +12936,7 @@
         <v>252</v>
       </c>
       <c r="B110" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C110" t="s">
         <v>253</v>
@@ -13119,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P112">
         <v>2</v>
@@ -13553,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P119">
         <v>26</v>
@@ -13727,7 +13722,7 @@
         <v>252</v>
       </c>
       <c r="B122" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C122" t="s">
         <v>269</v>
@@ -13834,7 +13829,7 @@
         <v>252</v>
       </c>
       <c r="B123" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C123" t="s">
         <v>269</v>
@@ -15284,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="N149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P149">
         <v>2</v>
@@ -15654,7 +15649,7 @@
         <v>252</v>
       </c>
       <c r="B157" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C157" t="s">
         <v>269</v>
@@ -15701,7 +15696,7 @@
         <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C158" t="s">
         <v>269</v>
@@ -16352,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="N170" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P170">
         <v>2</v>
@@ -16953,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="N181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P181">
         <v>2</v>
@@ -16970,7 +16965,7 @@
         <v>252</v>
       </c>
       <c r="B182" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C182" t="s">
         <v>253</v>
@@ -16988,7 +16983,7 @@
         <v>255</v>
       </c>
       <c r="N182" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -16999,7 +16994,7 @@
         <v>252</v>
       </c>
       <c r="B183" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C183" t="s">
         <v>253</v>
@@ -17029,7 +17024,7 @@
         <v>1</v>
       </c>
       <c r="N183" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P183">
         <v>18</v>
@@ -17094,7 +17089,7 @@
         <v>252</v>
       </c>
       <c r="B184" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C184" t="s">
         <v>253</v>
@@ -17124,7 +17119,7 @@
         <v>1</v>
       </c>
       <c r="N184" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P184">
         <v>2</v>
@@ -17141,7 +17136,7 @@
         <v>252</v>
       </c>
       <c r="B185" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C185" t="s">
         <v>253</v>
@@ -17188,7 +17183,7 @@
         <v>252</v>
       </c>
       <c r="B186" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C186" t="s">
         <v>253</v>
@@ -17235,7 +17230,7 @@
         <v>252</v>
       </c>
       <c r="B187" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C187" t="s">
         <v>253</v>
@@ -17288,13 +17283,13 @@
         <v>148</v>
       </c>
       <c r="G188" t="s">
+        <v>542</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
         <v>339</v>
-      </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="N188" t="s">
-        <v>340</v>
       </c>
       <c r="P188">
         <v>8</v>
@@ -17344,7 +17339,7 @@
         <v>304</v>
       </c>
       <c r="G189" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K189">
         <v>1</v>
@@ -17406,13 +17401,13 @@
         <v>139</v>
       </c>
       <c r="G190" t="s">
+        <v>341</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="N190" t="s">
         <v>342</v>
-      </c>
-      <c r="L190">
-        <v>1</v>
-      </c>
-      <c r="N190" t="s">
-        <v>343</v>
       </c>
       <c r="P190">
         <v>6</v>
@@ -17456,13 +17451,13 @@
         <v>301</v>
       </c>
       <c r="G191" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J191">
         <v>1</v>
       </c>
       <c r="N191" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P191">
         <v>4</v>
@@ -17523,13 +17518,13 @@
         <v>335</v>
       </c>
       <c r="B193" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C193" t="s">
         <v>337</v>
       </c>
       <c r="D193" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E193">
         <v>7</v>
@@ -17538,13 +17533,13 @@
         <v>304</v>
       </c>
       <c r="G193" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K193">
         <v>1</v>
       </c>
       <c r="N193" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P193">
         <v>4</v>
@@ -17567,13 +17562,13 @@
         <v>335</v>
       </c>
       <c r="B194" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C194" t="s">
         <v>337</v>
       </c>
       <c r="D194" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E194">
         <v>7</v>
@@ -17582,13 +17577,13 @@
         <v>304</v>
       </c>
       <c r="G194" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K194">
         <v>1</v>
       </c>
       <c r="N194" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P194">
         <v>6</v>
@@ -17617,13 +17612,13 @@
         <v>335</v>
       </c>
       <c r="B195" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C195" t="s">
         <v>337</v>
       </c>
       <c r="D195" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E195">
         <v>7</v>
@@ -17632,13 +17627,13 @@
         <v>139</v>
       </c>
       <c r="G195" t="s">
+        <v>341</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="N195" t="s">
         <v>342</v>
-      </c>
-      <c r="L195">
-        <v>1</v>
-      </c>
-      <c r="N195" t="s">
-        <v>343</v>
       </c>
       <c r="P195">
         <v>6</v>
@@ -17667,13 +17662,13 @@
         <v>335</v>
       </c>
       <c r="B196" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C196" t="s">
         <v>337</v>
       </c>
       <c r="D196" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E196">
         <v>7</v>
@@ -17682,13 +17677,13 @@
         <v>301</v>
       </c>
       <c r="G196" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J196">
         <v>1</v>
       </c>
       <c r="N196" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P196">
         <v>4</v>
@@ -17711,13 +17706,13 @@
         <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C197" t="s">
         <v>337</v>
       </c>
       <c r="D197" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E197">
         <v>7</v>
@@ -17726,13 +17721,13 @@
         <v>148</v>
       </c>
       <c r="G197" t="s">
+        <v>542</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="N197" t="s">
         <v>339</v>
-      </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="N197" t="s">
-        <v>340</v>
       </c>
       <c r="P197">
         <v>8</v>
@@ -17767,13 +17762,13 @@
         <v>335</v>
       </c>
       <c r="B198" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C198" t="s">
         <v>337</v>
       </c>
       <c r="D198" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E198">
         <v>7</v>
@@ -17805,13 +17800,13 @@
         <v>335</v>
       </c>
       <c r="B199" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C199" t="s">
         <v>337</v>
       </c>
       <c r="D199" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E199">
         <v>7</v>
@@ -17820,13 +17815,13 @@
         <v>139</v>
       </c>
       <c r="G199" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="N199" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P199">
         <v>6</v>
@@ -17855,13 +17850,13 @@
         <v>335</v>
       </c>
       <c r="B200" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C200" t="s">
         <v>337</v>
       </c>
       <c r="D200" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E200">
         <v>7</v>
@@ -17870,13 +17865,13 @@
         <v>301</v>
       </c>
       <c r="G200" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J200">
         <v>1</v>
       </c>
       <c r="N200" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P200">
         <v>4</v>
@@ -17899,13 +17894,13 @@
         <v>335</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C201" t="s">
         <v>337</v>
       </c>
       <c r="D201" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -17914,13 +17909,13 @@
         <v>304</v>
       </c>
       <c r="G201" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K201">
         <v>1</v>
       </c>
       <c r="N201" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P201">
         <v>4</v>
@@ -17943,13 +17938,13 @@
         <v>335</v>
       </c>
       <c r="B202" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C202" t="s">
         <v>337</v>
       </c>
       <c r="D202" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E202">
         <v>7</v>
@@ -17958,13 +17953,13 @@
         <v>304</v>
       </c>
       <c r="G202" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K202">
         <v>1</v>
       </c>
       <c r="N202" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P202">
         <v>4</v>
@@ -17987,13 +17982,13 @@
         <v>335</v>
       </c>
       <c r="B203" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C203" t="s">
         <v>337</v>
       </c>
       <c r="D203" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E203">
         <v>7</v>
@@ -18002,13 +17997,13 @@
         <v>148</v>
       </c>
       <c r="G203" t="s">
-        <v>339</v>
+        <v>542</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
       <c r="N203" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P203">
         <v>10</v>
@@ -18049,13 +18044,13 @@
         <v>335</v>
       </c>
       <c r="B204" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C204" t="s">
         <v>337</v>
       </c>
       <c r="D204" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E204">
         <v>7</v>
@@ -18070,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="N204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P204">
         <v>2</v>
@@ -18087,13 +18082,13 @@
         <v>335</v>
       </c>
       <c r="B205" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C205" t="s">
         <v>337</v>
       </c>
       <c r="D205" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E205">
         <v>7</v>
@@ -18102,13 +18097,13 @@
         <v>148</v>
       </c>
       <c r="G205" t="s">
-        <v>339</v>
+        <v>542</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="N205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P205">
         <v>8</v>
@@ -18143,13 +18138,13 @@
         <v>335</v>
       </c>
       <c r="B206" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C206" t="s">
         <v>337</v>
       </c>
       <c r="D206" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E206">
         <v>7</v>
@@ -18158,13 +18153,13 @@
         <v>304</v>
       </c>
       <c r="G206" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K206">
         <v>1</v>
       </c>
       <c r="N206" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P206">
         <v>4</v>
@@ -18187,13 +18182,13 @@
         <v>335</v>
       </c>
       <c r="B207" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C207" t="s">
         <v>337</v>
       </c>
       <c r="D207" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E207">
         <v>7</v>
@@ -18202,13 +18197,13 @@
         <v>304</v>
       </c>
       <c r="G207" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K207">
         <v>1</v>
       </c>
       <c r="N207" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P207">
         <v>6</v>
@@ -18237,13 +18232,13 @@
         <v>335</v>
       </c>
       <c r="B208" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C208" t="s">
         <v>337</v>
       </c>
       <c r="D208" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E208">
         <v>7</v>
@@ -18252,13 +18247,13 @@
         <v>139</v>
       </c>
       <c r="G208" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L208">
         <v>1</v>
       </c>
       <c r="N208" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P208">
         <v>6</v>
@@ -18287,13 +18282,13 @@
         <v>335</v>
       </c>
       <c r="B209" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C209" t="s">
         <v>337</v>
       </c>
       <c r="D209" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E209">
         <v>7</v>
@@ -18302,13 +18297,13 @@
         <v>301</v>
       </c>
       <c r="G209" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J209">
         <v>1</v>
       </c>
       <c r="N209" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P209">
         <v>4</v>
@@ -18331,13 +18326,13 @@
         <v>335</v>
       </c>
       <c r="B210" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C210" t="s">
         <v>337</v>
       </c>
       <c r="D210" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E210">
         <v>7</v>
@@ -18369,13 +18364,13 @@
         <v>335</v>
       </c>
       <c r="B211" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C211" t="s">
         <v>337</v>
       </c>
       <c r="D211" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E211">
         <v>2</v>
@@ -18384,7 +18379,7 @@
         <v>214</v>
       </c>
       <c r="G211" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -18393,7 +18388,7 @@
         <v>1</v>
       </c>
       <c r="N211" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P211">
         <v>6</v>
@@ -18422,13 +18417,13 @@
         <v>335</v>
       </c>
       <c r="B212" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C212" t="s">
         <v>337</v>
       </c>
       <c r="D212" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -18437,13 +18432,13 @@
         <v>160</v>
       </c>
       <c r="G212" t="s">
+        <v>355</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="N212" t="s">
         <v>356</v>
-      </c>
-      <c r="J212">
-        <v>1</v>
-      </c>
-      <c r="N212" t="s">
-        <v>357</v>
       </c>
       <c r="P212">
         <v>4</v>
@@ -18466,13 +18461,13 @@
         <v>335</v>
       </c>
       <c r="B213" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C213" t="s">
         <v>337</v>
       </c>
       <c r="D213" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -18481,13 +18476,13 @@
         <v>151</v>
       </c>
       <c r="G213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="N213" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P213">
         <v>12</v>
@@ -18534,37 +18529,37 @@
         <v>335</v>
       </c>
       <c r="B214" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C214" t="s">
         <v>337</v>
       </c>
       <c r="D214" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E214">
         <v>2</v>
       </c>
       <c r="F214" t="s">
+        <v>358</v>
+      </c>
+      <c r="G214" t="s">
         <v>359</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="N214" t="s">
         <v>360</v>
-      </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-      <c r="J214">
-        <v>1</v>
-      </c>
-      <c r="K214">
-        <v>1</v>
-      </c>
-      <c r="N214" t="s">
-        <v>361</v>
       </c>
       <c r="P214">
         <v>2</v>
@@ -18581,13 +18576,13 @@
         <v>335</v>
       </c>
       <c r="B215" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C215" t="s">
         <v>337</v>
       </c>
       <c r="D215" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E215">
         <v>2</v>
@@ -18619,13 +18614,13 @@
         <v>335</v>
       </c>
       <c r="B216" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C216" t="s">
         <v>337</v>
       </c>
       <c r="D216" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -18634,7 +18629,7 @@
         <v>174</v>
       </c>
       <c r="G216" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -18666,13 +18661,13 @@
         <v>335</v>
       </c>
       <c r="B217" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C217" t="s">
         <v>337</v>
       </c>
       <c r="D217" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -18681,22 +18676,22 @@
         <v>126</v>
       </c>
       <c r="G217" t="s">
+        <v>362</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="N217" t="s">
         <v>363</v>
-      </c>
-      <c r="H217">
-        <v>1</v>
-      </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
-      <c r="J217">
-        <v>1</v>
-      </c>
-      <c r="K217">
-        <v>1</v>
-      </c>
-      <c r="N217" t="s">
-        <v>364</v>
       </c>
       <c r="P217">
         <v>2</v>
@@ -18713,13 +18708,13 @@
         <v>335</v>
       </c>
       <c r="B218" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C218" t="s">
         <v>337</v>
       </c>
       <c r="D218" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -18728,7 +18723,7 @@
         <v>214</v>
       </c>
       <c r="G218" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -18737,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="N218" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P218">
         <v>6</v>
@@ -18766,13 +18761,13 @@
         <v>335</v>
       </c>
       <c r="B219" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C219" t="s">
         <v>337</v>
       </c>
       <c r="D219" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E219">
         <v>2</v>
@@ -18781,7 +18776,7 @@
         <v>160</v>
       </c>
       <c r="G219" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J219">
         <v>1</v>
@@ -18810,13 +18805,13 @@
         <v>335</v>
       </c>
       <c r="B220" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C220" t="s">
         <v>337</v>
       </c>
       <c r="D220" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E220">
         <v>2</v>
@@ -18825,13 +18820,13 @@
         <v>151</v>
       </c>
       <c r="G220" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="N220" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P220">
         <v>12</v>
@@ -18878,13 +18873,13 @@
         <v>335</v>
       </c>
       <c r="B221" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C221" t="s">
         <v>337</v>
       </c>
       <c r="D221" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E221">
         <v>2</v>
@@ -18893,7 +18888,7 @@
         <v>162</v>
       </c>
       <c r="G221" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -18925,13 +18920,13 @@
         <v>335</v>
       </c>
       <c r="B222" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C222" t="s">
         <v>337</v>
       </c>
       <c r="D222" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E222">
         <v>2</v>
@@ -18963,13 +18958,13 @@
         <v>335</v>
       </c>
       <c r="B223" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C223" t="s">
         <v>337</v>
       </c>
       <c r="D223" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E223">
         <v>2</v>
@@ -18978,7 +18973,7 @@
         <v>174</v>
       </c>
       <c r="G223" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -19010,13 +19005,13 @@
         <v>335</v>
       </c>
       <c r="B224" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C224" t="s">
         <v>337</v>
       </c>
       <c r="D224" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E224">
         <v>2</v>
@@ -19025,22 +19020,22 @@
         <v>126</v>
       </c>
       <c r="G224" t="s">
+        <v>362</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="N224" t="s">
         <v>363</v>
-      </c>
-      <c r="H224">
-        <v>1</v>
-      </c>
-      <c r="I224">
-        <v>1</v>
-      </c>
-      <c r="J224">
-        <v>1</v>
-      </c>
-      <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="N224" t="s">
-        <v>364</v>
       </c>
       <c r="P224">
         <v>2</v>
@@ -19057,13 +19052,13 @@
         <v>335</v>
       </c>
       <c r="B225" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C225" t="s">
         <v>337</v>
       </c>
       <c r="D225" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -19072,7 +19067,7 @@
         <v>214</v>
       </c>
       <c r="G225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -19081,7 +19076,7 @@
         <v>1</v>
       </c>
       <c r="N225" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P225">
         <v>8</v>
@@ -19116,13 +19111,13 @@
         <v>335</v>
       </c>
       <c r="B226" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C226" t="s">
         <v>337</v>
       </c>
       <c r="D226" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -19131,13 +19126,13 @@
         <v>160</v>
       </c>
       <c r="G226" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J226">
         <v>1</v>
       </c>
       <c r="N226" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P226">
         <v>4</v>
@@ -19160,13 +19155,13 @@
         <v>335</v>
       </c>
       <c r="B227" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C227" t="s">
         <v>337</v>
       </c>
       <c r="D227" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -19175,13 +19170,13 @@
         <v>151</v>
       </c>
       <c r="G227" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H227">
         <v>1</v>
       </c>
       <c r="N227" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P227">
         <v>12</v>
@@ -19228,13 +19223,13 @@
         <v>335</v>
       </c>
       <c r="B228" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C228" t="s">
         <v>337</v>
       </c>
       <c r="D228" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E228">
         <v>2</v>
@@ -19243,7 +19238,7 @@
         <v>162</v>
       </c>
       <c r="G228" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -19275,13 +19270,13 @@
         <v>335</v>
       </c>
       <c r="B229" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C229" t="s">
         <v>337</v>
       </c>
       <c r="D229" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E229">
         <v>2</v>
@@ -19313,13 +19308,13 @@
         <v>335</v>
       </c>
       <c r="B230" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C230" t="s">
         <v>337</v>
       </c>
       <c r="D230" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -19328,22 +19323,22 @@
         <v>126</v>
       </c>
       <c r="G230" t="s">
+        <v>362</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="N230" t="s">
         <v>363</v>
-      </c>
-      <c r="H230">
-        <v>1</v>
-      </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
-      <c r="J230">
-        <v>1</v>
-      </c>
-      <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="N230" t="s">
-        <v>364</v>
       </c>
       <c r="P230">
         <v>2</v>
@@ -19360,13 +19355,13 @@
         <v>335</v>
       </c>
       <c r="B231" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C231" t="s">
         <v>337</v>
       </c>
       <c r="D231" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -19375,7 +19370,7 @@
         <v>214</v>
       </c>
       <c r="G231" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -19384,7 +19379,7 @@
         <v>1</v>
       </c>
       <c r="N231" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P231">
         <v>8</v>
@@ -19419,13 +19414,13 @@
         <v>335</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C232" t="s">
         <v>337</v>
       </c>
       <c r="D232" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E232">
         <v>2</v>
@@ -19434,13 +19429,13 @@
         <v>160</v>
       </c>
       <c r="G232" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J232">
         <v>1</v>
       </c>
       <c r="N232" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P232">
         <v>4</v>
@@ -19463,13 +19458,13 @@
         <v>335</v>
       </c>
       <c r="B233" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C233" t="s">
         <v>337</v>
       </c>
       <c r="D233" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E233">
         <v>2</v>
@@ -19478,13 +19473,13 @@
         <v>151</v>
       </c>
       <c r="G233" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="N233" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P233">
         <v>12</v>
@@ -19531,13 +19526,13 @@
         <v>335</v>
       </c>
       <c r="B234" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C234" t="s">
         <v>337</v>
       </c>
       <c r="D234" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -19546,7 +19541,7 @@
         <v>162</v>
       </c>
       <c r="G234" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -19578,13 +19573,13 @@
         <v>335</v>
       </c>
       <c r="B235" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C235" t="s">
         <v>337</v>
       </c>
       <c r="D235" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E235">
         <v>2</v>
@@ -19616,13 +19611,13 @@
         <v>335</v>
       </c>
       <c r="B236" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C236" t="s">
         <v>337</v>
       </c>
       <c r="D236" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -19631,7 +19626,7 @@
         <v>174</v>
       </c>
       <c r="G236" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -19663,13 +19658,13 @@
         <v>335</v>
       </c>
       <c r="B237" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C237" t="s">
         <v>337</v>
       </c>
       <c r="D237" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E237">
         <v>2</v>
@@ -19678,7 +19673,7 @@
         <v>214</v>
       </c>
       <c r="G237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -19687,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="N237" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P237">
         <v>8</v>
@@ -19722,13 +19717,13 @@
         <v>335</v>
       </c>
       <c r="B238" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C238" t="s">
         <v>337</v>
       </c>
       <c r="D238" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E238">
         <v>2</v>
@@ -19737,13 +19732,13 @@
         <v>160</v>
       </c>
       <c r="G238" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J238">
         <v>1</v>
       </c>
       <c r="N238" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P238">
         <v>4</v>
@@ -19766,13 +19761,13 @@
         <v>335</v>
       </c>
       <c r="B239" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C239" t="s">
         <v>337</v>
       </c>
       <c r="D239" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -19781,13 +19776,13 @@
         <v>151</v>
       </c>
       <c r="G239" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="N239" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P239">
         <v>12</v>
@@ -19834,13 +19829,13 @@
         <v>335</v>
       </c>
       <c r="B240" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C240" t="s">
         <v>337</v>
       </c>
       <c r="D240" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E240">
         <v>2</v>
@@ -19849,7 +19844,7 @@
         <v>162</v>
       </c>
       <c r="G240" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -19881,13 +19876,13 @@
         <v>335</v>
       </c>
       <c r="B241" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C241" t="s">
         <v>337</v>
       </c>
       <c r="D241" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -19919,13 +19914,13 @@
         <v>335</v>
       </c>
       <c r="B242" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C242" t="s">
         <v>337</v>
       </c>
       <c r="D242" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E242">
         <v>2</v>
@@ -19934,22 +19929,22 @@
         <v>126</v>
       </c>
       <c r="G242" t="s">
+        <v>362</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="N242" t="s">
         <v>363</v>
-      </c>
-      <c r="H242">
-        <v>1</v>
-      </c>
-      <c r="I242">
-        <v>1</v>
-      </c>
-      <c r="J242">
-        <v>1</v>
-      </c>
-      <c r="K242">
-        <v>1</v>
-      </c>
-      <c r="N242" t="s">
-        <v>364</v>
       </c>
       <c r="P242">
         <v>2</v>
@@ -19966,13 +19961,13 @@
         <v>335</v>
       </c>
       <c r="B243" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C243" t="s">
         <v>337</v>
       </c>
       <c r="D243" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E243">
         <v>6</v>
@@ -19981,7 +19976,7 @@
         <v>144</v>
       </c>
       <c r="G243" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -19993,7 +19988,7 @@
         <v>1</v>
       </c>
       <c r="N243" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P243">
         <v>6</v>
@@ -20022,13 +20017,13 @@
         <v>335</v>
       </c>
       <c r="B244" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C244" t="s">
         <v>337</v>
       </c>
       <c r="D244" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E244">
         <v>6</v>
@@ -20037,13 +20032,13 @@
         <v>146</v>
       </c>
       <c r="G244" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="N244" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P244">
         <v>4</v>
@@ -20066,13 +20061,13 @@
         <v>335</v>
       </c>
       <c r="B245" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C245" t="s">
         <v>337</v>
       </c>
       <c r="D245" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E245">
         <v>6</v>
@@ -20081,13 +20076,13 @@
         <v>171</v>
       </c>
       <c r="G245" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J245">
         <v>1</v>
       </c>
       <c r="N245" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P245">
         <v>10</v>
@@ -20128,28 +20123,28 @@
         <v>335</v>
       </c>
       <c r="B246" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C246" t="s">
         <v>337</v>
       </c>
       <c r="D246" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E246">
         <v>6</v>
       </c>
       <c r="F246" t="s">
+        <v>379</v>
+      </c>
+      <c r="G246" t="s">
         <v>380</v>
       </c>
-      <c r="G246" t="s">
-        <v>381</v>
-      </c>
       <c r="K246">
         <v>1</v>
       </c>
       <c r="N246" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P246">
         <v>6</v>
@@ -20178,28 +20173,28 @@
         <v>335</v>
       </c>
       <c r="B247" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C247" t="s">
         <v>337</v>
       </c>
       <c r="D247" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E247">
         <v>6</v>
       </c>
       <c r="F247" t="s">
+        <v>379</v>
+      </c>
+      <c r="G247" t="s">
         <v>380</v>
       </c>
-      <c r="G247" t="s">
-        <v>381</v>
-      </c>
       <c r="K247">
         <v>1</v>
       </c>
       <c r="N247" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P247">
         <v>2</v>
@@ -20216,13 +20211,13 @@
         <v>335</v>
       </c>
       <c r="B248" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C248" t="s">
         <v>337</v>
       </c>
       <c r="D248" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E248">
         <v>6</v>
@@ -20254,28 +20249,28 @@
         <v>335</v>
       </c>
       <c r="B249" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C249" t="s">
         <v>337</v>
       </c>
       <c r="D249" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E249">
         <v>6</v>
       </c>
       <c r="F249" t="s">
+        <v>379</v>
+      </c>
+      <c r="G249" t="s">
         <v>380</v>
       </c>
-      <c r="G249" t="s">
-        <v>381</v>
-      </c>
       <c r="K249">
         <v>1</v>
       </c>
       <c r="N249" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P249">
         <v>10</v>
@@ -20316,13 +20311,13 @@
         <v>335</v>
       </c>
       <c r="B250" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C250" t="s">
         <v>337</v>
       </c>
       <c r="D250" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E250">
         <v>6</v>
@@ -20331,13 +20326,13 @@
         <v>171</v>
       </c>
       <c r="G250" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J250">
         <v>1</v>
       </c>
       <c r="N250" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P250">
         <v>8</v>
@@ -20372,13 +20367,13 @@
         <v>335</v>
       </c>
       <c r="B251" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C251" t="s">
         <v>337</v>
       </c>
       <c r="D251" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E251">
         <v>6</v>
@@ -20387,7 +20382,7 @@
         <v>144</v>
       </c>
       <c r="G251" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -20399,7 +20394,7 @@
         <v>1</v>
       </c>
       <c r="N251" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P251">
         <v>6</v>
@@ -20428,13 +20423,13 @@
         <v>335</v>
       </c>
       <c r="B252" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C252" t="s">
         <v>337</v>
       </c>
       <c r="D252" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E252">
         <v>6</v>
@@ -20443,13 +20438,13 @@
         <v>146</v>
       </c>
       <c r="G252" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I252">
         <v>1</v>
       </c>
       <c r="N252" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P252">
         <v>4</v>
@@ -20472,13 +20467,13 @@
         <v>335</v>
       </c>
       <c r="B253" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C253" t="s">
         <v>337</v>
       </c>
       <c r="D253" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E253">
         <v>6</v>
@@ -20493,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="N253" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P253">
         <v>2</v>
@@ -20510,28 +20505,28 @@
         <v>335</v>
       </c>
       <c r="B254" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C254" t="s">
         <v>337</v>
       </c>
       <c r="D254" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E254">
         <v>5</v>
       </c>
       <c r="F254" t="s">
+        <v>385</v>
+      </c>
+      <c r="G254" t="s">
         <v>386</v>
       </c>
-      <c r="G254" t="s">
-        <v>387</v>
-      </c>
       <c r="J254">
         <v>1</v>
       </c>
       <c r="N254" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P254">
         <v>13</v>
@@ -20581,28 +20576,28 @@
         <v>335</v>
       </c>
       <c r="B255" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C255" t="s">
         <v>337</v>
       </c>
       <c r="D255" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E255">
         <v>5</v>
       </c>
       <c r="F255" t="s">
+        <v>387</v>
+      </c>
+      <c r="G255" t="s">
         <v>388</v>
       </c>
-      <c r="G255" t="s">
-        <v>389</v>
-      </c>
       <c r="K255">
         <v>1</v>
       </c>
       <c r="N255" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P255">
         <v>11</v>
@@ -20646,13 +20641,13 @@
         <v>335</v>
       </c>
       <c r="B256" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C256" t="s">
         <v>337</v>
       </c>
       <c r="D256" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E256">
         <v>5</v>
@@ -20661,7 +20656,7 @@
         <v>137</v>
       </c>
       <c r="G256" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -20693,13 +20688,13 @@
         <v>335</v>
       </c>
       <c r="B257" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C257" t="s">
         <v>337</v>
       </c>
       <c r="D257" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E257">
         <v>5</v>
@@ -20708,7 +20703,7 @@
         <v>142</v>
       </c>
       <c r="G257" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -20740,13 +20735,13 @@
         <v>335</v>
       </c>
       <c r="B258" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C258" t="s">
         <v>337</v>
       </c>
       <c r="D258" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E258">
         <v>5</v>
@@ -20778,28 +20773,28 @@
         <v>335</v>
       </c>
       <c r="B259" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C259" t="s">
         <v>337</v>
       </c>
       <c r="D259" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E259">
         <v>5</v>
       </c>
       <c r="F259" t="s">
+        <v>387</v>
+      </c>
+      <c r="G259" t="s">
         <v>388</v>
       </c>
-      <c r="G259" t="s">
-        <v>389</v>
-      </c>
       <c r="K259">
         <v>1</v>
       </c>
       <c r="N259" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P259">
         <v>12</v>
@@ -20846,28 +20841,28 @@
         <v>335</v>
       </c>
       <c r="B260" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C260" t="s">
         <v>337</v>
       </c>
       <c r="D260" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E260">
         <v>5</v>
       </c>
       <c r="F260" t="s">
+        <v>385</v>
+      </c>
+      <c r="G260" t="s">
         <v>386</v>
       </c>
-      <c r="G260" t="s">
-        <v>387</v>
-      </c>
       <c r="J260">
         <v>1</v>
       </c>
       <c r="N260" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P260">
         <v>12</v>
@@ -20914,13 +20909,13 @@
         <v>335</v>
       </c>
       <c r="B261" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C261" t="s">
         <v>337</v>
       </c>
       <c r="D261" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E261">
         <v>5</v>
@@ -20929,22 +20924,22 @@
         <v>110</v>
       </c>
       <c r="G261" t="s">
+        <v>394</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="N261" t="s">
         <v>395</v>
-      </c>
-      <c r="H261">
-        <v>1</v>
-      </c>
-      <c r="I261">
-        <v>1</v>
-      </c>
-      <c r="J261">
-        <v>1</v>
-      </c>
-      <c r="K261">
-        <v>1</v>
-      </c>
-      <c r="N261" t="s">
-        <v>396</v>
       </c>
       <c r="P261">
         <v>2</v>
@@ -20961,13 +20956,13 @@
         <v>335</v>
       </c>
       <c r="B262" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C262" t="s">
         <v>337</v>
       </c>
       <c r="D262" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E262">
         <v>5</v>
@@ -20976,7 +20971,7 @@
         <v>119</v>
       </c>
       <c r="G262" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -21008,13 +21003,13 @@
         <v>335</v>
       </c>
       <c r="B263" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C263" t="s">
         <v>337</v>
       </c>
       <c r="D263" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -21029,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="N263" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P263">
         <v>2</v>
@@ -21046,28 +21041,28 @@
         <v>335</v>
       </c>
       <c r="B264" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C264" t="s">
         <v>337</v>
       </c>
       <c r="D264" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E264">
         <v>5</v>
       </c>
       <c r="F264" t="s">
+        <v>387</v>
+      </c>
+      <c r="G264" t="s">
         <v>388</v>
       </c>
-      <c r="G264" t="s">
-        <v>389</v>
-      </c>
       <c r="K264">
         <v>1</v>
       </c>
       <c r="N264" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P264">
         <v>12</v>
@@ -21114,28 +21109,28 @@
         <v>335</v>
       </c>
       <c r="B265" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C265" t="s">
         <v>337</v>
       </c>
       <c r="D265" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E265">
         <v>5</v>
       </c>
       <c r="F265" t="s">
+        <v>385</v>
+      </c>
+      <c r="G265" t="s">
         <v>386</v>
       </c>
-      <c r="G265" t="s">
-        <v>387</v>
-      </c>
       <c r="J265">
         <v>1</v>
       </c>
       <c r="N265" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P265">
         <v>12</v>
@@ -21182,13 +21177,13 @@
         <v>335</v>
       </c>
       <c r="B266" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C266" t="s">
         <v>337</v>
       </c>
       <c r="D266" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E266">
         <v>5</v>
@@ -21197,7 +21192,7 @@
         <v>119</v>
       </c>
       <c r="G266" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -21229,13 +21224,13 @@
         <v>335</v>
       </c>
       <c r="B267" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C267" t="s">
         <v>337</v>
       </c>
       <c r="D267" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E267">
         <v>5</v>
@@ -21276,13 +21271,13 @@
         <v>335</v>
       </c>
       <c r="B268" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C268" t="s">
         <v>337</v>
       </c>
       <c r="D268" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E268">
         <v>5</v>
@@ -21314,28 +21309,28 @@
         <v>335</v>
       </c>
       <c r="B269" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C269" t="s">
         <v>337</v>
       </c>
       <c r="D269" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E269">
         <v>5</v>
       </c>
       <c r="F269" t="s">
+        <v>385</v>
+      </c>
+      <c r="G269" t="s">
         <v>386</v>
       </c>
-      <c r="G269" t="s">
-        <v>387</v>
-      </c>
       <c r="J269">
         <v>1</v>
       </c>
       <c r="N269" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P269">
         <v>12</v>
@@ -21382,28 +21377,28 @@
         <v>335</v>
       </c>
       <c r="B270" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C270" t="s">
         <v>337</v>
       </c>
       <c r="D270" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E270">
         <v>5</v>
       </c>
       <c r="F270" t="s">
+        <v>387</v>
+      </c>
+      <c r="G270" t="s">
         <v>388</v>
       </c>
-      <c r="G270" t="s">
-        <v>389</v>
-      </c>
       <c r="K270">
         <v>1</v>
       </c>
       <c r="N270" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P270">
         <v>12</v>
@@ -21450,13 +21445,13 @@
         <v>335</v>
       </c>
       <c r="B271" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C271" t="s">
         <v>337</v>
       </c>
       <c r="D271" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -21497,13 +21492,13 @@
         <v>335</v>
       </c>
       <c r="B272" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C272" t="s">
         <v>337</v>
       </c>
       <c r="D272" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E272">
         <v>5</v>
@@ -21512,7 +21507,7 @@
         <v>142</v>
       </c>
       <c r="G272" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -21544,13 +21539,13 @@
         <v>335</v>
       </c>
       <c r="B273" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C273" t="s">
         <v>337</v>
       </c>
       <c r="D273" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -21582,13 +21577,13 @@
         <v>335</v>
       </c>
       <c r="B274" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C274" t="s">
         <v>337</v>
       </c>
       <c r="D274" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E274">
         <v>4</v>
@@ -21597,13 +21592,13 @@
         <v>246</v>
       </c>
       <c r="G274" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I274">
         <v>1</v>
       </c>
       <c r="N274" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P274">
         <v>12</v>
@@ -21650,13 +21645,13 @@
         <v>335</v>
       </c>
       <c r="B275" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C275" t="s">
         <v>337</v>
       </c>
       <c r="D275" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E275">
         <v>4</v>
@@ -21665,13 +21660,13 @@
         <v>112</v>
       </c>
       <c r="G275" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H275">
         <v>1</v>
       </c>
       <c r="N275" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P275">
         <v>6</v>
@@ -21700,13 +21695,13 @@
         <v>335</v>
       </c>
       <c r="B276" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C276" t="s">
         <v>337</v>
       </c>
       <c r="D276" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E276">
         <v>4</v>
@@ -21715,13 +21710,13 @@
         <v>260</v>
       </c>
       <c r="G276" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K276">
         <v>1</v>
       </c>
       <c r="N276" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P276">
         <v>6</v>
@@ -21750,13 +21745,13 @@
         <v>335</v>
       </c>
       <c r="B277" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C277" t="s">
         <v>337</v>
       </c>
       <c r="D277" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E277">
         <v>4</v>
@@ -21765,22 +21760,22 @@
         <v>110</v>
       </c>
       <c r="G277" t="s">
+        <v>394</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="N277" t="s">
         <v>395</v>
-      </c>
-      <c r="H277">
-        <v>1</v>
-      </c>
-      <c r="I277">
-        <v>1</v>
-      </c>
-      <c r="J277">
-        <v>1</v>
-      </c>
-      <c r="K277">
-        <v>1</v>
-      </c>
-      <c r="N277" t="s">
-        <v>396</v>
       </c>
       <c r="P277">
         <v>2</v>
@@ -21797,13 +21792,13 @@
         <v>335</v>
       </c>
       <c r="B278" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C278" t="s">
         <v>337</v>
       </c>
       <c r="D278" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E278">
         <v>4</v>
@@ -21812,7 +21807,7 @@
         <v>142</v>
       </c>
       <c r="G278" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -21844,13 +21839,13 @@
         <v>335</v>
       </c>
       <c r="B279" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C279" t="s">
         <v>337</v>
       </c>
       <c r="D279" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -21882,13 +21877,13 @@
         <v>335</v>
       </c>
       <c r="B280" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C280" t="s">
         <v>337</v>
       </c>
       <c r="D280" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E280">
         <v>4</v>
@@ -21897,13 +21892,13 @@
         <v>112</v>
       </c>
       <c r="G280" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H280">
         <v>1</v>
       </c>
       <c r="N280" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P280">
         <v>6</v>
@@ -21932,13 +21927,13 @@
         <v>335</v>
       </c>
       <c r="B281" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C281" t="s">
         <v>337</v>
       </c>
       <c r="D281" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E281">
         <v>4</v>
@@ -21947,13 +21942,13 @@
         <v>260</v>
       </c>
       <c r="G281" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K281">
         <v>1</v>
       </c>
       <c r="N281" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P281">
         <v>5</v>
@@ -21979,13 +21974,13 @@
         <v>335</v>
       </c>
       <c r="B282" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C282" t="s">
         <v>337</v>
       </c>
       <c r="D282" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E282">
         <v>4</v>
@@ -21994,13 +21989,13 @@
         <v>246</v>
       </c>
       <c r="G282" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="N282" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P282">
         <v>13</v>
@@ -22050,13 +22045,13 @@
         <v>335</v>
       </c>
       <c r="B283" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C283" t="s">
         <v>337</v>
       </c>
       <c r="D283" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E283">
         <v>4</v>
@@ -22065,7 +22060,7 @@
         <v>142</v>
       </c>
       <c r="G283" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -22097,13 +22092,13 @@
         <v>335</v>
       </c>
       <c r="B284" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C284" t="s">
         <v>337</v>
       </c>
       <c r="D284" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E284">
         <v>4</v>
@@ -22112,7 +22107,7 @@
         <v>137</v>
       </c>
       <c r="G284" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -22144,13 +22139,13 @@
         <v>335</v>
       </c>
       <c r="B285" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C285" t="s">
         <v>337</v>
       </c>
       <c r="D285" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E285">
         <v>4</v>
@@ -22182,13 +22177,13 @@
         <v>335</v>
       </c>
       <c r="B286" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C286" t="s">
         <v>337</v>
       </c>
       <c r="D286" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -22197,13 +22192,13 @@
         <v>132</v>
       </c>
       <c r="G286" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J286">
         <v>1</v>
       </c>
       <c r="N286" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P286">
         <v>8</v>
@@ -22238,13 +22233,13 @@
         <v>335</v>
       </c>
       <c r="B287" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C287" t="s">
         <v>337</v>
       </c>
       <c r="D287" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -22253,13 +22248,13 @@
         <v>129</v>
       </c>
       <c r="G287" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J287">
         <v>1</v>
       </c>
       <c r="N287" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P287">
         <v>8</v>
@@ -22294,13 +22289,13 @@
         <v>335</v>
       </c>
       <c r="B288" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C288" t="s">
         <v>337</v>
       </c>
       <c r="D288" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -22309,13 +22304,13 @@
         <v>178</v>
       </c>
       <c r="G288" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="N288" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P288">
         <v>8</v>
@@ -22350,13 +22345,13 @@
         <v>335</v>
       </c>
       <c r="B289" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C289" t="s">
         <v>337</v>
       </c>
       <c r="D289" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -22388,13 +22383,13 @@
         <v>335</v>
       </c>
       <c r="B290" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C290" t="s">
         <v>337</v>
       </c>
       <c r="D290" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -22403,7 +22398,7 @@
         <v>174</v>
       </c>
       <c r="G290" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -22435,13 +22430,13 @@
         <v>335</v>
       </c>
       <c r="B291" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C291" t="s">
         <v>337</v>
       </c>
       <c r="D291" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -22450,7 +22445,7 @@
         <v>176</v>
       </c>
       <c r="G291" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -22465,7 +22460,7 @@
         <v>1</v>
       </c>
       <c r="N291" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P291">
         <v>2</v>
@@ -22482,13 +22477,13 @@
         <v>335</v>
       </c>
       <c r="B292" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C292" t="s">
         <v>337</v>
       </c>
       <c r="D292" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -22497,13 +22492,13 @@
         <v>132</v>
       </c>
       <c r="G292" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J292">
         <v>1</v>
       </c>
       <c r="N292" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P292">
         <v>8</v>
@@ -22538,13 +22533,13 @@
         <v>335</v>
       </c>
       <c r="B293" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C293" t="s">
         <v>337</v>
       </c>
       <c r="D293" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -22553,13 +22548,13 @@
         <v>129</v>
       </c>
       <c r="G293" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J293">
         <v>1</v>
       </c>
       <c r="N293" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P293">
         <v>4</v>
@@ -22582,13 +22577,13 @@
         <v>335</v>
       </c>
       <c r="B294" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C294" t="s">
         <v>337</v>
       </c>
       <c r="D294" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -22597,13 +22592,13 @@
         <v>129</v>
       </c>
       <c r="G294" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J294">
         <v>1</v>
       </c>
       <c r="N294" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P294">
         <v>4</v>
@@ -22626,13 +22621,13 @@
         <v>335</v>
       </c>
       <c r="B295" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C295" t="s">
         <v>337</v>
       </c>
       <c r="D295" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -22641,13 +22636,13 @@
         <v>178</v>
       </c>
       <c r="G295" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I295">
         <v>1</v>
       </c>
       <c r="N295" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P295">
         <v>8</v>
@@ -22682,13 +22677,13 @@
         <v>335</v>
       </c>
       <c r="B296" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C296" t="s">
         <v>337</v>
       </c>
       <c r="D296" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -22703,7 +22698,7 @@
         <v>1</v>
       </c>
       <c r="N296" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P296">
         <v>2</v>
@@ -22720,13 +22715,13 @@
         <v>335</v>
       </c>
       <c r="B297" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C297" t="s">
         <v>337</v>
       </c>
       <c r="D297" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -22735,7 +22730,7 @@
         <v>174</v>
       </c>
       <c r="G297" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -22767,13 +22762,13 @@
         <v>335</v>
       </c>
       <c r="B298" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C298" t="s">
         <v>337</v>
       </c>
       <c r="D298" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -22782,7 +22777,7 @@
         <v>176</v>
       </c>
       <c r="G298" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -22797,7 +22792,7 @@
         <v>1</v>
       </c>
       <c r="N298" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P298">
         <v>2</v>
@@ -22814,13 +22809,13 @@
         <v>335</v>
       </c>
       <c r="B299" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C299" t="s">
         <v>337</v>
       </c>
       <c r="D299" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -22829,13 +22824,13 @@
         <v>132</v>
       </c>
       <c r="G299" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J299">
         <v>1</v>
       </c>
       <c r="N299" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P299">
         <v>8</v>
@@ -22870,13 +22865,13 @@
         <v>335</v>
       </c>
       <c r="B300" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C300" t="s">
         <v>337</v>
       </c>
       <c r="D300" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -22885,13 +22880,13 @@
         <v>129</v>
       </c>
       <c r="G300" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J300">
         <v>1</v>
       </c>
       <c r="N300" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P300">
         <v>8</v>
@@ -22926,13 +22921,13 @@
         <v>335</v>
       </c>
       <c r="B301" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C301" t="s">
         <v>337</v>
       </c>
       <c r="D301" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -22941,13 +22936,13 @@
         <v>178</v>
       </c>
       <c r="G301" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
       <c r="N301" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P301">
         <v>8</v>
@@ -22982,13 +22977,13 @@
         <v>335</v>
       </c>
       <c r="B302" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C302" t="s">
         <v>337</v>
       </c>
       <c r="D302" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -23003,7 +22998,7 @@
         <v>1</v>
       </c>
       <c r="N302" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P302">
         <v>2</v>
@@ -23020,13 +23015,13 @@
         <v>335</v>
       </c>
       <c r="B303" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C303" t="s">
         <v>337</v>
       </c>
       <c r="D303" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -23035,7 +23030,7 @@
         <v>174</v>
       </c>
       <c r="G303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -23067,13 +23062,13 @@
         <v>335</v>
       </c>
       <c r="B304" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C304" t="s">
         <v>337</v>
       </c>
       <c r="D304" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -23082,7 +23077,7 @@
         <v>176</v>
       </c>
       <c r="G304" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -23097,7 +23092,7 @@
         <v>1</v>
       </c>
       <c r="N304" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P304">
         <v>2</v>
@@ -23114,13 +23109,13 @@
         <v>335</v>
       </c>
       <c r="B305" t="s">
+        <v>415</v>
+      </c>
+      <c r="C305" t="s">
         <v>416</v>
       </c>
-      <c r="C305" t="s">
-        <v>417</v>
-      </c>
       <c r="D305" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -23129,13 +23124,13 @@
         <v>232</v>
       </c>
       <c r="G305" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H305">
         <v>1</v>
       </c>
       <c r="N305" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P305">
         <v>8</v>
@@ -23170,28 +23165,28 @@
         <v>335</v>
       </c>
       <c r="B306" t="s">
+        <v>415</v>
+      </c>
+      <c r="C306" t="s">
         <v>416</v>
       </c>
-      <c r="C306" t="s">
-        <v>417</v>
-      </c>
       <c r="D306" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E306">
         <v>1</v>
       </c>
       <c r="F306" t="s">
+        <v>418</v>
+      </c>
+      <c r="G306" t="s">
         <v>419</v>
       </c>
-      <c r="G306" t="s">
-        <v>420</v>
-      </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="N306" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P306">
         <v>6</v>
@@ -23220,28 +23215,28 @@
         <v>335</v>
       </c>
       <c r="B307" t="s">
+        <v>415</v>
+      </c>
+      <c r="C307" t="s">
         <v>416</v>
       </c>
-      <c r="C307" t="s">
-        <v>417</v>
-      </c>
       <c r="D307" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E307">
         <v>1</v>
       </c>
       <c r="F307" t="s">
+        <v>420</v>
+      </c>
+      <c r="G307" t="s">
         <v>421</v>
       </c>
-      <c r="G307" t="s">
-        <v>422</v>
-      </c>
       <c r="H307">
         <v>1</v>
       </c>
       <c r="N307" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P307">
         <v>4</v>
@@ -23264,13 +23259,13 @@
         <v>335</v>
       </c>
       <c r="B308" t="s">
+        <v>415</v>
+      </c>
+      <c r="C308" t="s">
         <v>416</v>
       </c>
-      <c r="C308" t="s">
-        <v>417</v>
-      </c>
       <c r="D308" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -23302,13 +23297,13 @@
         <v>335</v>
       </c>
       <c r="B309" t="s">
+        <v>415</v>
+      </c>
+      <c r="C309" t="s">
         <v>416</v>
       </c>
-      <c r="C309" t="s">
-        <v>417</v>
-      </c>
       <c r="D309" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -23317,7 +23312,7 @@
         <v>174</v>
       </c>
       <c r="G309" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -23349,13 +23344,13 @@
         <v>335</v>
       </c>
       <c r="B310" t="s">
+        <v>415</v>
+      </c>
+      <c r="C310" t="s">
         <v>416</v>
       </c>
-      <c r="C310" t="s">
-        <v>417</v>
-      </c>
       <c r="D310" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -23364,7 +23359,7 @@
         <v>162</v>
       </c>
       <c r="G310" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -23396,13 +23391,13 @@
         <v>335</v>
       </c>
       <c r="B311" t="s">
+        <v>415</v>
+      </c>
+      <c r="C311" t="s">
         <v>416</v>
       </c>
-      <c r="C311" t="s">
-        <v>417</v>
-      </c>
       <c r="D311" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -23411,7 +23406,7 @@
         <v>176</v>
       </c>
       <c r="G311" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -23426,7 +23421,7 @@
         <v>1</v>
       </c>
       <c r="N311" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P311">
         <v>2</v>
@@ -23443,13 +23438,13 @@
         <v>335</v>
       </c>
       <c r="B312" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C312" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D312" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -23458,13 +23453,13 @@
         <v>232</v>
       </c>
       <c r="G312" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H312">
         <v>1</v>
       </c>
       <c r="N312" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P312">
         <v>8</v>
@@ -23499,28 +23494,28 @@
         <v>335</v>
       </c>
       <c r="B313" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C313" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D313" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E313">
         <v>1</v>
       </c>
       <c r="F313" t="s">
+        <v>418</v>
+      </c>
+      <c r="G313" t="s">
         <v>419</v>
       </c>
-      <c r="G313" t="s">
-        <v>420</v>
-      </c>
       <c r="H313">
         <v>1</v>
       </c>
       <c r="N313" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P313">
         <v>6</v>
@@ -23549,28 +23544,28 @@
         <v>335</v>
       </c>
       <c r="B314" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C314" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D314" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E314">
         <v>1</v>
       </c>
       <c r="F314" t="s">
+        <v>420</v>
+      </c>
+      <c r="G314" t="s">
         <v>421</v>
       </c>
-      <c r="G314" t="s">
-        <v>422</v>
-      </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="N314" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P314">
         <v>4</v>
@@ -23593,13 +23588,13 @@
         <v>335</v>
       </c>
       <c r="B315" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C315" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D315" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -23614,7 +23609,7 @@
         <v>1</v>
       </c>
       <c r="N315" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P315">
         <v>2</v>
@@ -23631,13 +23626,13 @@
         <v>335</v>
       </c>
       <c r="B316" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C316" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D316" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -23646,7 +23641,7 @@
         <v>174</v>
       </c>
       <c r="G316" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -23678,13 +23673,13 @@
         <v>335</v>
       </c>
       <c r="B317" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C317" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D317" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -23693,7 +23688,7 @@
         <v>162</v>
       </c>
       <c r="G317" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -23725,13 +23720,13 @@
         <v>335</v>
       </c>
       <c r="B318" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C318" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D318" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -23740,7 +23735,7 @@
         <v>176</v>
       </c>
       <c r="G318" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -23755,7 +23750,7 @@
         <v>1</v>
       </c>
       <c r="N318" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P318">
         <v>2</v>
@@ -23772,13 +23767,13 @@
         <v>335</v>
       </c>
       <c r="B319" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C319" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D319" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E319">
         <v>3</v>
@@ -23787,13 +23782,13 @@
         <v>115</v>
       </c>
       <c r="G319" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J319">
         <v>1</v>
       </c>
       <c r="N319" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P319">
         <v>16</v>
@@ -23852,13 +23847,13 @@
         <v>335</v>
       </c>
       <c r="B320" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C320" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D320" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E320">
         <v>3</v>
@@ -23867,13 +23862,13 @@
         <v>190</v>
       </c>
       <c r="G320" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J320">
         <v>1</v>
       </c>
       <c r="N320" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P320">
         <v>8</v>
@@ -23908,13 +23903,13 @@
         <v>335</v>
       </c>
       <c r="B321" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C321" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D321" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E321">
         <v>3</v>
@@ -23923,7 +23918,7 @@
         <v>119</v>
       </c>
       <c r="G321" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -23955,13 +23950,13 @@
         <v>335</v>
       </c>
       <c r="B322" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C322" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D322" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E322">
         <v>3</v>
@@ -24002,13 +23997,13 @@
         <v>335</v>
       </c>
       <c r="B323" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C323" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D323" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -24040,13 +24035,13 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C324" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D324" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -24055,13 +24050,13 @@
         <v>115</v>
       </c>
       <c r="G324" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I324">
         <v>1</v>
       </c>
       <c r="N324" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P324">
         <v>16</v>
@@ -24120,13 +24115,13 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C325" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D325" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E325">
         <v>3</v>
@@ -24135,7 +24130,7 @@
         <v>190</v>
       </c>
       <c r="G325" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I325">
         <v>1</v>
@@ -24176,13 +24171,13 @@
         <v>335</v>
       </c>
       <c r="B326" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C326" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D326" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E326">
         <v>3</v>
@@ -24223,13 +24218,13 @@
         <v>335</v>
       </c>
       <c r="B327" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C327" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D327" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E327">
         <v>3</v>
@@ -24238,7 +24233,7 @@
         <v>137</v>
       </c>
       <c r="G327" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -24270,13 +24265,13 @@
         <v>335</v>
       </c>
       <c r="B328" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C328" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D328" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -24305,16 +24300,16 @@
     </row>
     <row r="329" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>426</v>
+      </c>
+      <c r="B329" t="s">
         <v>427</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>428</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>429</v>
-      </c>
-      <c r="D329" t="s">
-        <v>430</v>
       </c>
       <c r="E329">
         <v>7</v>
@@ -24323,7 +24318,7 @@
         <v>129</v>
       </c>
       <c r="G329" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H329">
         <v>1</v>
@@ -24358,16 +24353,16 @@
     </row>
     <row r="330" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>426</v>
+      </c>
+      <c r="B330" t="s">
         <v>427</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>428</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
         <v>429</v>
-      </c>
-      <c r="D330" t="s">
-        <v>430</v>
       </c>
       <c r="E330">
         <v>7</v>
@@ -24376,7 +24371,7 @@
         <v>162</v>
       </c>
       <c r="G330" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -24405,16 +24400,16 @@
     </row>
     <row r="331" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
+        <v>426</v>
+      </c>
+      <c r="B331" t="s">
         <v>427</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>428</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>429</v>
-      </c>
-      <c r="D331" t="s">
-        <v>430</v>
       </c>
       <c r="E331">
         <v>7</v>
@@ -24423,13 +24418,13 @@
         <v>146</v>
       </c>
       <c r="G331" t="s">
+        <v>432</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="N331" t="s">
         <v>433</v>
-      </c>
-      <c r="L331">
-        <v>1</v>
-      </c>
-      <c r="N331" t="s">
-        <v>434</v>
       </c>
       <c r="P331">
         <v>4</v>
@@ -24449,16 +24444,16 @@
     </row>
     <row r="332" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>426</v>
+      </c>
+      <c r="B332" t="s">
         <v>427</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>428</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>429</v>
-      </c>
-      <c r="D332" t="s">
-        <v>430</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -24467,13 +24462,13 @@
         <v>165</v>
       </c>
       <c r="G332" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M332">
         <v>1</v>
       </c>
       <c r="N332" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P332">
         <v>4</v>
@@ -24493,16 +24488,16 @@
     </row>
     <row r="333" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>426</v>
+      </c>
+      <c r="B333" t="s">
         <v>427</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>428</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>429</v>
-      </c>
-      <c r="D333" t="s">
-        <v>430</v>
       </c>
       <c r="E333">
         <v>7</v>
@@ -24511,13 +24506,13 @@
         <v>148</v>
       </c>
       <c r="G333" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J333">
         <v>1</v>
       </c>
       <c r="N333" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P333">
         <v>8</v>
@@ -24549,16 +24544,16 @@
     </row>
     <row r="334" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B334" t="s">
+        <v>436</v>
+      </c>
+      <c r="C334" t="s">
+        <v>428</v>
+      </c>
+      <c r="D334" t="s">
         <v>437</v>
-      </c>
-      <c r="C334" t="s">
-        <v>429</v>
-      </c>
-      <c r="D334" t="s">
-        <v>438</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -24567,22 +24562,22 @@
         <v>178</v>
       </c>
       <c r="G334" t="s">
+        <v>438</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+      <c r="N334" t="s">
         <v>439</v>
-      </c>
-      <c r="H334">
-        <v>1</v>
-      </c>
-      <c r="I334">
-        <v>1</v>
-      </c>
-      <c r="J334">
-        <v>1</v>
-      </c>
-      <c r="K334">
-        <v>1</v>
-      </c>
-      <c r="N334" t="s">
-        <v>440</v>
       </c>
       <c r="P334">
         <v>4</v>
@@ -24602,16 +24597,16 @@
     </row>
     <row r="335" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B335" t="s">
+        <v>436</v>
+      </c>
+      <c r="C335" t="s">
+        <v>428</v>
+      </c>
+      <c r="D335" t="s">
         <v>437</v>
-      </c>
-      <c r="C335" t="s">
-        <v>429</v>
-      </c>
-      <c r="D335" t="s">
-        <v>438</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -24620,7 +24615,7 @@
         <v>129</v>
       </c>
       <c r="G335" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H335">
         <v>1</v>
@@ -24655,16 +24650,16 @@
     </row>
     <row r="336" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B336" t="s">
+        <v>436</v>
+      </c>
+      <c r="C336" t="s">
+        <v>428</v>
+      </c>
+      <c r="D336" t="s">
         <v>437</v>
-      </c>
-      <c r="C336" t="s">
-        <v>429</v>
-      </c>
-      <c r="D336" t="s">
-        <v>438</v>
       </c>
       <c r="E336">
         <v>1</v>
@@ -24673,7 +24668,7 @@
         <v>174</v>
       </c>
       <c r="G336" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -24702,16 +24697,16 @@
     </row>
     <row r="337" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B337" t="s">
+        <v>436</v>
+      </c>
+      <c r="C337" t="s">
+        <v>428</v>
+      </c>
+      <c r="D337" t="s">
         <v>437</v>
-      </c>
-      <c r="C337" t="s">
-        <v>429</v>
-      </c>
-      <c r="D337" t="s">
-        <v>438</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -24720,7 +24715,7 @@
         <v>162</v>
       </c>
       <c r="G337" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -24749,16 +24744,16 @@
     </row>
     <row r="338" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B338" t="s">
+        <v>436</v>
+      </c>
+      <c r="C338" t="s">
+        <v>428</v>
+      </c>
+      <c r="D338" t="s">
         <v>437</v>
-      </c>
-      <c r="C338" t="s">
-        <v>429</v>
-      </c>
-      <c r="D338" t="s">
-        <v>438</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -24767,13 +24762,13 @@
         <v>257</v>
       </c>
       <c r="G338" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H338">
         <v>1</v>
       </c>
       <c r="N338" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P338">
         <v>10</v>
@@ -24811,16 +24806,16 @@
     </row>
     <row r="339" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B339" t="s">
+        <v>436</v>
+      </c>
+      <c r="C339" t="s">
+        <v>428</v>
+      </c>
+      <c r="D339" t="s">
         <v>437</v>
-      </c>
-      <c r="C339" t="s">
-        <v>429</v>
-      </c>
-      <c r="D339" t="s">
-        <v>438</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -24829,13 +24824,13 @@
         <v>153</v>
       </c>
       <c r="G339" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I339">
         <v>1</v>
       </c>
       <c r="N339" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P339">
         <v>10</v>
@@ -24873,16 +24868,16 @@
     </row>
     <row r="340" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B340" t="s">
+        <v>443</v>
+      </c>
+      <c r="C340" t="s">
         <v>444</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>445</v>
-      </c>
-      <c r="D340" t="s">
-        <v>446</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -24891,22 +24886,22 @@
         <v>178</v>
       </c>
       <c r="G340" t="s">
+        <v>438</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="N340" t="s">
         <v>439</v>
-      </c>
-      <c r="H340">
-        <v>1</v>
-      </c>
-      <c r="I340">
-        <v>1</v>
-      </c>
-      <c r="J340">
-        <v>1</v>
-      </c>
-      <c r="K340">
-        <v>1</v>
-      </c>
-      <c r="N340" t="s">
-        <v>440</v>
       </c>
       <c r="P340">
         <v>3</v>
@@ -24923,16 +24918,16 @@
     </row>
     <row r="341" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B341" t="s">
+        <v>443</v>
+      </c>
+      <c r="C341" t="s">
         <v>444</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>445</v>
-      </c>
-      <c r="D341" t="s">
-        <v>446</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -24941,7 +24936,7 @@
         <v>129</v>
       </c>
       <c r="G341" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H341">
         <v>1</v>
@@ -24962,7 +24957,7 @@
         <v>1</v>
       </c>
       <c r="N341" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P341">
         <v>2</v>
@@ -24976,16 +24971,16 @@
     </row>
     <row r="342" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B342" t="s">
+        <v>443</v>
+      </c>
+      <c r="C342" t="s">
         <v>444</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>445</v>
-      </c>
-      <c r="D342" t="s">
-        <v>446</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -24994,7 +24989,7 @@
         <v>176</v>
       </c>
       <c r="G342" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H342">
         <v>1</v>
@@ -25023,16 +25018,16 @@
     </row>
     <row r="343" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B343" t="s">
+        <v>443</v>
+      </c>
+      <c r="C343" t="s">
         <v>444</v>
       </c>
-      <c r="C343" t="s">
+      <c r="D343" t="s">
         <v>445</v>
-      </c>
-      <c r="D343" t="s">
-        <v>446</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -25041,7 +25036,7 @@
         <v>174</v>
       </c>
       <c r="G343" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H343">
         <v>1</v>
@@ -25070,16 +25065,16 @@
     </row>
     <row r="344" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B344" t="s">
+        <v>443</v>
+      </c>
+      <c r="C344" t="s">
         <v>444</v>
       </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>445</v>
-      </c>
-      <c r="D344" t="s">
-        <v>446</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -25088,13 +25083,13 @@
         <v>108</v>
       </c>
       <c r="G344" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="N344" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P344">
         <v>3</v>
@@ -25111,16 +25106,16 @@
     </row>
     <row r="345" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B345" t="s">
+        <v>443</v>
+      </c>
+      <c r="C345" t="s">
         <v>444</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>445</v>
-      </c>
-      <c r="D345" t="s">
-        <v>446</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -25129,13 +25124,13 @@
         <v>112</v>
       </c>
       <c r="G345" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I345">
         <v>1</v>
       </c>
       <c r="N345" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P345">
         <v>8</v>
@@ -25167,16 +25162,16 @@
     </row>
     <row r="346" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B346" t="s">
+        <v>443</v>
+      </c>
+      <c r="C346" t="s">
         <v>444</v>
       </c>
-      <c r="C346" t="s">
+      <c r="D346" t="s">
         <v>445</v>
-      </c>
-      <c r="D346" t="s">
-        <v>446</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -25185,13 +25180,13 @@
         <v>246</v>
       </c>
       <c r="G346" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J346">
         <v>1</v>
       </c>
       <c r="N346" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P346">
         <v>5</v>
@@ -25214,16 +25209,16 @@
     </row>
     <row r="347" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B347" t="s">
+        <v>443</v>
+      </c>
+      <c r="C347" t="s">
         <v>444</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>445</v>
-      </c>
-      <c r="D347" t="s">
-        <v>446</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -25232,13 +25227,13 @@
         <v>119</v>
       </c>
       <c r="G347" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H347">
         <v>1</v>
       </c>
       <c r="N347" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P347">
         <v>5</v>
@@ -25261,16 +25256,16 @@
     </row>
     <row r="348" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B348" t="s">
+        <v>451</v>
+      </c>
+      <c r="C348" t="s">
+        <v>428</v>
+      </c>
+      <c r="D348" t="s">
         <v>452</v>
-      </c>
-      <c r="C348" t="s">
-        <v>429</v>
-      </c>
-      <c r="D348" t="s">
-        <v>453</v>
       </c>
       <c r="E348">
         <v>6</v>
@@ -25279,7 +25274,7 @@
         <v>129</v>
       </c>
       <c r="G348" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H348">
         <v>1</v>
@@ -25314,16 +25309,16 @@
     </row>
     <row r="349" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B349" t="s">
+        <v>451</v>
+      </c>
+      <c r="C349" t="s">
+        <v>428</v>
+      </c>
+      <c r="D349" t="s">
         <v>452</v>
-      </c>
-      <c r="C349" t="s">
-        <v>429</v>
-      </c>
-      <c r="D349" t="s">
-        <v>453</v>
       </c>
       <c r="E349">
         <v>6</v>
@@ -25332,13 +25327,13 @@
         <v>301</v>
       </c>
       <c r="G349" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H349">
         <v>1</v>
       </c>
       <c r="N349" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P349">
         <v>4</v>
@@ -25358,16 +25353,16 @@
     </row>
     <row r="350" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B350" t="s">
+        <v>451</v>
+      </c>
+      <c r="C350" t="s">
+        <v>428</v>
+      </c>
+      <c r="D350" t="s">
         <v>452</v>
-      </c>
-      <c r="C350" t="s">
-        <v>429</v>
-      </c>
-      <c r="D350" t="s">
-        <v>453</v>
       </c>
       <c r="E350">
         <v>6</v>
@@ -25376,7 +25371,7 @@
         <v>304</v>
       </c>
       <c r="G350" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I350">
         <v>1</v>
@@ -25385,7 +25380,7 @@
         <v>1</v>
       </c>
       <c r="N350" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P350">
         <v>8</v>
@@ -25417,16 +25412,16 @@
     </row>
     <row r="351" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B351" t="s">
+        <v>451</v>
+      </c>
+      <c r="C351" t="s">
+        <v>428</v>
+      </c>
+      <c r="D351" t="s">
         <v>452</v>
-      </c>
-      <c r="C351" t="s">
-        <v>429</v>
-      </c>
-      <c r="D351" t="s">
-        <v>453</v>
       </c>
       <c r="E351">
         <v>6</v>
@@ -25435,7 +25430,7 @@
         <v>105</v>
       </c>
       <c r="G351" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K351">
         <v>1</v>
@@ -25447,7 +25442,7 @@
         <v>1</v>
       </c>
       <c r="N351" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P351">
         <v>14</v>
@@ -25497,16 +25492,16 @@
     </row>
     <row r="352" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B352" t="s">
+        <v>451</v>
+      </c>
+      <c r="C352" t="s">
+        <v>428</v>
+      </c>
+      <c r="D352" t="s">
         <v>452</v>
-      </c>
-      <c r="C352" t="s">
-        <v>429</v>
-      </c>
-      <c r="D352" t="s">
-        <v>453</v>
       </c>
       <c r="E352">
         <v>6</v>
@@ -25515,7 +25510,7 @@
         <v>126</v>
       </c>
       <c r="G352" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H352">
         <v>1</v>
@@ -25530,7 +25525,7 @@
         <v>1</v>
       </c>
       <c r="N352" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P352">
         <v>2</v>
@@ -25544,16 +25539,16 @@
     </row>
     <row r="353" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B353" t="s">
+        <v>457</v>
+      </c>
+      <c r="C353" t="s">
         <v>458</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>459</v>
-      </c>
-      <c r="D353" t="s">
-        <v>460</v>
       </c>
       <c r="E353">
         <v>1</v>
@@ -25562,7 +25557,7 @@
         <v>178</v>
       </c>
       <c r="G353" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -25577,7 +25572,7 @@
         <v>1</v>
       </c>
       <c r="N353" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P353">
         <v>4</v>
@@ -25597,16 +25592,16 @@
     </row>
     <row r="354" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B354" t="s">
+        <v>457</v>
+      </c>
+      <c r="C354" t="s">
         <v>458</v>
       </c>
-      <c r="C354" t="s">
+      <c r="D354" t="s">
         <v>459</v>
-      </c>
-      <c r="D354" t="s">
-        <v>460</v>
       </c>
       <c r="E354">
         <v>1</v>
@@ -25615,7 +25610,7 @@
         <v>129</v>
       </c>
       <c r="G354" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -25650,16 +25645,16 @@
     </row>
     <row r="355" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B355" t="s">
+        <v>457</v>
+      </c>
+      <c r="C355" t="s">
         <v>458</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>459</v>
-      </c>
-      <c r="D355" t="s">
-        <v>460</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -25668,7 +25663,7 @@
         <v>126</v>
       </c>
       <c r="G355" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -25683,7 +25678,7 @@
         <v>1</v>
       </c>
       <c r="N355" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P355">
         <v>2</v>
@@ -25697,16 +25692,16 @@
     </row>
     <row r="356" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B356" t="s">
+        <v>457</v>
+      </c>
+      <c r="C356" t="s">
         <v>458</v>
       </c>
-      <c r="C356" t="s">
+      <c r="D356" t="s">
         <v>459</v>
-      </c>
-      <c r="D356" t="s">
-        <v>460</v>
       </c>
       <c r="E356">
         <v>1</v>
@@ -25715,7 +25710,7 @@
         <v>151</v>
       </c>
       <c r="G356" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -25730,7 +25725,7 @@
         <v>1</v>
       </c>
       <c r="N356" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P356">
         <v>2</v>
@@ -25744,16 +25739,16 @@
     </row>
     <row r="357" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B357" t="s">
+        <v>457</v>
+      </c>
+      <c r="C357" t="s">
         <v>458</v>
       </c>
-      <c r="C357" t="s">
+      <c r="D357" t="s">
         <v>459</v>
-      </c>
-      <c r="D357" t="s">
-        <v>460</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -25762,7 +25757,7 @@
         <v>162</v>
       </c>
       <c r="G357" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H357">
         <v>1</v>
@@ -25791,16 +25786,16 @@
     </row>
     <row r="358" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B358" t="s">
+        <v>457</v>
+      </c>
+      <c r="C358" t="s">
         <v>458</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>459</v>
-      </c>
-      <c r="D358" t="s">
-        <v>460</v>
       </c>
       <c r="E358">
         <v>1</v>
@@ -25809,13 +25804,13 @@
         <v>226</v>
       </c>
       <c r="G358" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H358">
         <v>1</v>
       </c>
       <c r="N358" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P358">
         <v>2</v>
@@ -25829,31 +25824,31 @@
     </row>
     <row r="359" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B359" t="s">
+        <v>457</v>
+      </c>
+      <c r="C359" t="s">
         <v>458</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>459</v>
       </c>
-      <c r="D359" t="s">
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359" t="s">
+        <v>463</v>
+      </c>
+      <c r="G359" t="s">
+        <v>464</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="N359" t="s">
         <v>460</v>
-      </c>
-      <c r="E359">
-        <v>1</v>
-      </c>
-      <c r="F359" t="s">
-        <v>464</v>
-      </c>
-      <c r="G359" t="s">
-        <v>465</v>
-      </c>
-      <c r="I359">
-        <v>1</v>
-      </c>
-      <c r="N359" t="s">
-        <v>461</v>
       </c>
       <c r="P359">
         <v>2</v>
@@ -25867,31 +25862,31 @@
     </row>
     <row r="360" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B360" t="s">
+        <v>457</v>
+      </c>
+      <c r="C360" t="s">
         <v>458</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" t="s">
         <v>459</v>
       </c>
-      <c r="D360" t="s">
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360" t="s">
+        <v>465</v>
+      </c>
+      <c r="G360" t="s">
+        <v>466</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="N360" t="s">
         <v>460</v>
-      </c>
-      <c r="E360">
-        <v>1</v>
-      </c>
-      <c r="F360" t="s">
-        <v>466</v>
-      </c>
-      <c r="G360" t="s">
-        <v>467</v>
-      </c>
-      <c r="J360">
-        <v>1</v>
-      </c>
-      <c r="N360" t="s">
-        <v>461</v>
       </c>
       <c r="P360">
         <v>3</v>
@@ -25908,31 +25903,31 @@
     </row>
     <row r="361" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B361" t="s">
+        <v>457</v>
+      </c>
+      <c r="C361" t="s">
         <v>458</v>
       </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
         <v>459</v>
       </c>
-      <c r="D361" t="s">
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361" t="s">
+        <v>467</v>
+      </c>
+      <c r="G361" t="s">
+        <v>468</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="N361" t="s">
         <v>460</v>
-      </c>
-      <c r="E361">
-        <v>1</v>
-      </c>
-      <c r="F361" t="s">
-        <v>468</v>
-      </c>
-      <c r="G361" t="s">
-        <v>469</v>
-      </c>
-      <c r="K361">
-        <v>1</v>
-      </c>
-      <c r="N361" t="s">
-        <v>461</v>
       </c>
       <c r="P361">
         <v>3</v>
@@ -25949,31 +25944,31 @@
     </row>
     <row r="362" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B362" t="s">
+        <v>457</v>
+      </c>
+      <c r="C362" t="s">
         <v>458</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
         <v>459</v>
       </c>
-      <c r="D362" t="s">
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" t="s">
+        <v>469</v>
+      </c>
+      <c r="G362" t="s">
+        <v>470</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="N362" t="s">
         <v>460</v>
-      </c>
-      <c r="E362">
-        <v>1</v>
-      </c>
-      <c r="F362" t="s">
-        <v>470</v>
-      </c>
-      <c r="G362" t="s">
-        <v>471</v>
-      </c>
-      <c r="H362">
-        <v>1</v>
-      </c>
-      <c r="N362" t="s">
-        <v>461</v>
       </c>
       <c r="P362">
         <v>4</v>
@@ -25993,31 +25988,31 @@
     </row>
     <row r="363" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B363" t="s">
+        <v>457</v>
+      </c>
+      <c r="C363" t="s">
         <v>458</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>459</v>
       </c>
-      <c r="D363" t="s">
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363" t="s">
+        <v>471</v>
+      </c>
+      <c r="G363" t="s">
+        <v>472</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="N363" t="s">
         <v>460</v>
-      </c>
-      <c r="E363">
-        <v>1</v>
-      </c>
-      <c r="F363" t="s">
-        <v>472</v>
-      </c>
-      <c r="G363" t="s">
-        <v>473</v>
-      </c>
-      <c r="H363">
-        <v>1</v>
-      </c>
-      <c r="N363" t="s">
-        <v>461</v>
       </c>
       <c r="P363">
         <v>4</v>
@@ -26037,31 +26032,31 @@
     </row>
     <row r="364" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B364" t="s">
+        <v>457</v>
+      </c>
+      <c r="C364" t="s">
         <v>458</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>459</v>
       </c>
-      <c r="D364" t="s">
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364" t="s">
+        <v>473</v>
+      </c>
+      <c r="G364" t="s">
+        <v>474</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+      <c r="N364" t="s">
         <v>460</v>
-      </c>
-      <c r="E364">
-        <v>1</v>
-      </c>
-      <c r="F364" t="s">
-        <v>474</v>
-      </c>
-      <c r="G364" t="s">
-        <v>475</v>
-      </c>
-      <c r="H364">
-        <v>1</v>
-      </c>
-      <c r="N364" t="s">
-        <v>461</v>
       </c>
       <c r="P364">
         <v>0</v>
@@ -26069,16 +26064,16 @@
     </row>
     <row r="365" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B365" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C365" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D365" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E365">
         <v>5</v>
@@ -26087,13 +26082,13 @@
         <v>168</v>
       </c>
       <c r="G365" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J365">
         <v>1</v>
       </c>
       <c r="N365" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P365">
         <v>4</v>
@@ -26113,16 +26108,16 @@
     </row>
     <row r="366" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B366" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C366" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D366" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E366">
         <v>5</v>
@@ -26131,13 +26126,13 @@
         <v>219</v>
       </c>
       <c r="G366" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K366">
         <v>1</v>
       </c>
       <c r="N366" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P366">
         <v>5</v>
@@ -26160,16 +26155,16 @@
     </row>
     <row r="367" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B367" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C367" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D367" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E367">
         <v>5</v>
@@ -26178,13 +26173,13 @@
         <v>224</v>
       </c>
       <c r="G367" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M367">
         <v>1</v>
       </c>
       <c r="N367" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P367">
         <v>5</v>
@@ -26207,16 +26202,16 @@
     </row>
     <row r="368" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B368" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C368" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D368" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E368">
         <v>5</v>
@@ -26225,13 +26220,13 @@
         <v>190</v>
       </c>
       <c r="G368" t="s">
+        <v>479</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="N368" t="s">
         <v>480</v>
-      </c>
-      <c r="I368">
-        <v>1</v>
-      </c>
-      <c r="N368" t="s">
-        <v>481</v>
       </c>
       <c r="P368">
         <v>4</v>
@@ -26251,31 +26246,31 @@
     </row>
     <row r="369" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B369" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C369" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D369" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E369">
         <v>5</v>
       </c>
       <c r="F369" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G369" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K369">
         <v>1</v>
       </c>
       <c r="N369" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P369">
         <v>4</v>
@@ -26295,31 +26290,31 @@
     </row>
     <row r="370" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B370" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C370" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D370" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E370">
         <v>5</v>
       </c>
       <c r="F370" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G370" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L370">
         <v>1</v>
       </c>
       <c r="N370" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P370">
         <v>2</v>
@@ -26333,16 +26328,16 @@
     </row>
     <row r="371" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B371" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C371" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D371" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E371">
         <v>5</v>
@@ -26351,7 +26346,7 @@
         <v>129</v>
       </c>
       <c r="G371" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H371">
         <v>1</v>
@@ -26386,16 +26381,16 @@
     </row>
     <row r="372" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B372" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C372" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D372" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E372">
         <v>5</v>
@@ -26404,7 +26399,7 @@
         <v>214</v>
       </c>
       <c r="G372" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H372">
         <v>1</v>
@@ -26433,16 +26428,16 @@
     </row>
     <row r="373" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B373" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C373" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D373" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E373">
         <v>5</v>
@@ -26451,7 +26446,7 @@
         <v>160</v>
       </c>
       <c r="G373" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H373">
         <v>1</v>
@@ -26466,7 +26461,7 @@
         <v>1</v>
       </c>
       <c r="N373" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P373">
         <v>2</v>
@@ -26480,16 +26475,16 @@
     </row>
     <row r="374" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B374" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C374" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D374" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E374">
         <v>5</v>
@@ -26498,13 +26493,13 @@
         <v>168</v>
       </c>
       <c r="G374" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J374">
         <v>1</v>
       </c>
       <c r="N374" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P374">
         <v>4</v>
@@ -26524,16 +26519,16 @@
     </row>
     <row r="375" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B375" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C375" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D375" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E375">
         <v>5</v>
@@ -26542,13 +26537,13 @@
         <v>219</v>
       </c>
       <c r="G375" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K375">
         <v>1</v>
       </c>
       <c r="N375" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P375">
         <v>5</v>
@@ -26571,16 +26566,16 @@
     </row>
     <row r="376" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B376" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C376" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D376" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E376">
         <v>5</v>
@@ -26589,13 +26584,13 @@
         <v>224</v>
       </c>
       <c r="G376" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M376">
         <v>1</v>
       </c>
       <c r="N376" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P376">
         <v>5</v>
@@ -26618,16 +26613,16 @@
     </row>
     <row r="377" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B377" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C377" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D377" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E377">
         <v>5</v>
@@ -26636,13 +26631,13 @@
         <v>190</v>
       </c>
       <c r="G377" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I377">
         <v>1</v>
       </c>
       <c r="N377" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P377">
         <v>4</v>
@@ -26662,31 +26657,31 @@
     </row>
     <row r="378" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B378" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C378" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D378" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E378">
         <v>5</v>
       </c>
       <c r="F378" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G378" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K378">
         <v>1</v>
       </c>
       <c r="N378" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P378">
         <v>4</v>
@@ -26706,31 +26701,31 @@
     </row>
     <row r="379" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B379" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C379" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D379" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E379">
         <v>5</v>
       </c>
       <c r="F379" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G379" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L379">
         <v>1</v>
       </c>
       <c r="N379" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P379">
         <v>2</v>
@@ -26744,16 +26739,16 @@
     </row>
     <row r="380" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B380" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C380" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D380" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E380">
         <v>5</v>
@@ -26762,7 +26757,7 @@
         <v>214</v>
       </c>
       <c r="G380" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H380">
         <v>1</v>
@@ -26791,16 +26786,16 @@
     </row>
     <row r="381" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B381" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C381" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D381" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E381">
         <v>5</v>
@@ -26809,7 +26804,7 @@
         <v>160</v>
       </c>
       <c r="G381" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H381">
         <v>1</v>
@@ -26824,7 +26819,7 @@
         <v>1</v>
       </c>
       <c r="N381" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P381">
         <v>2</v>
@@ -26838,16 +26833,16 @@
     </row>
     <row r="382" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B382" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C382" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D382" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E382">
         <v>5</v>
@@ -26856,7 +26851,7 @@
         <v>129</v>
       </c>
       <c r="G382" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H382">
         <v>1</v>
@@ -26891,16 +26886,16 @@
     </row>
     <row r="383" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B383" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C383" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D383" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E383">
         <v>7</v>
@@ -26909,13 +26904,13 @@
         <v>224</v>
       </c>
       <c r="G383" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M383">
         <v>1</v>
       </c>
       <c r="N383" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P383">
         <v>9</v>
@@ -26950,16 +26945,16 @@
     </row>
     <row r="384" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B384" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C384" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D384" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E384">
         <v>7</v>
@@ -26968,13 +26963,13 @@
         <v>117</v>
       </c>
       <c r="G384" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L384">
         <v>1</v>
       </c>
       <c r="N384" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P384">
         <v>9</v>
@@ -27009,16 +27004,16 @@
     </row>
     <row r="385" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B385" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C385" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D385" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E385">
         <v>7</v>
@@ -27027,13 +27022,13 @@
         <v>115</v>
       </c>
       <c r="G385" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L385">
         <v>1</v>
       </c>
       <c r="N385" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P385">
         <v>8</v>
@@ -27065,16 +27060,16 @@
     </row>
     <row r="386" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B386" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C386" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D386" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E386">
         <v>7</v>
@@ -27083,7 +27078,7 @@
         <v>129</v>
       </c>
       <c r="G386" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H386">
         <v>1</v>
@@ -27118,16 +27113,16 @@
     </row>
     <row r="387" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B387" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C387" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D387" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E387">
         <v>7</v>
@@ -27136,7 +27131,7 @@
         <v>162</v>
       </c>
       <c r="G387" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H387">
         <v>1</v>
@@ -27165,31 +27160,31 @@
     </row>
     <row r="388" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B388" t="s">
+        <v>490</v>
+      </c>
+      <c r="C388" t="s">
         <v>491</v>
       </c>
-      <c r="C388" t="s">
-        <v>492</v>
-      </c>
       <c r="D388" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E388">
         <v>3</v>
       </c>
       <c r="F388" t="s">
+        <v>492</v>
+      </c>
+      <c r="G388" t="s">
         <v>493</v>
       </c>
-      <c r="G388" t="s">
-        <v>494</v>
-      </c>
       <c r="L388">
         <v>1</v>
       </c>
       <c r="N388" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P388">
         <v>4</v>
@@ -27209,31 +27204,31 @@
     </row>
     <row r="389" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B389" t="s">
+        <v>490</v>
+      </c>
+      <c r="C389" t="s">
         <v>491</v>
       </c>
-      <c r="C389" t="s">
-        <v>492</v>
-      </c>
       <c r="D389" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E389">
         <v>3</v>
       </c>
       <c r="F389" t="s">
+        <v>494</v>
+      </c>
+      <c r="G389" t="s">
         <v>495</v>
       </c>
-      <c r="G389" t="s">
-        <v>496</v>
-      </c>
       <c r="J389">
         <v>1</v>
       </c>
       <c r="N389" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P389">
         <v>4</v>
@@ -27253,31 +27248,31 @@
     </row>
     <row r="390" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B390" t="s">
+        <v>490</v>
+      </c>
+      <c r="C390" t="s">
         <v>491</v>
       </c>
-      <c r="C390" t="s">
-        <v>492</v>
-      </c>
       <c r="D390" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E390">
         <v>3</v>
       </c>
       <c r="F390" t="s">
+        <v>496</v>
+      </c>
+      <c r="G390" t="s">
         <v>497</v>
       </c>
-      <c r="G390" t="s">
-        <v>498</v>
-      </c>
       <c r="K390">
         <v>1</v>
       </c>
       <c r="N390" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P390">
         <v>4</v>
@@ -27297,31 +27292,31 @@
     </row>
     <row r="391" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B391" t="s">
+        <v>490</v>
+      </c>
+      <c r="C391" t="s">
         <v>491</v>
       </c>
-      <c r="C391" t="s">
-        <v>492</v>
-      </c>
       <c r="D391" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E391">
         <v>3</v>
       </c>
       <c r="F391" t="s">
+        <v>498</v>
+      </c>
+      <c r="G391" t="s">
         <v>499</v>
       </c>
-      <c r="G391" t="s">
-        <v>500</v>
-      </c>
       <c r="J391">
         <v>1</v>
       </c>
       <c r="N391" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P391">
         <v>4</v>
@@ -27341,31 +27336,31 @@
     </row>
     <row r="392" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B392" t="s">
+        <v>490</v>
+      </c>
+      <c r="C392" t="s">
         <v>491</v>
       </c>
-      <c r="C392" t="s">
-        <v>492</v>
-      </c>
       <c r="D392" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E392">
         <v>3</v>
       </c>
       <c r="F392" t="s">
+        <v>500</v>
+      </c>
+      <c r="G392" t="s">
         <v>501</v>
       </c>
-      <c r="G392" t="s">
-        <v>502</v>
-      </c>
       <c r="K392">
         <v>1</v>
       </c>
       <c r="N392" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P392">
         <v>2</v>
@@ -27379,16 +27374,16 @@
     </row>
     <row r="393" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B393" t="s">
+        <v>490</v>
+      </c>
+      <c r="C393" t="s">
         <v>491</v>
       </c>
-      <c r="C393" t="s">
-        <v>492</v>
-      </c>
       <c r="D393" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E393">
         <v>3</v>
@@ -27397,7 +27392,7 @@
         <v>129</v>
       </c>
       <c r="G393" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -27432,16 +27427,16 @@
     </row>
     <row r="394" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B394" t="s">
+        <v>490</v>
+      </c>
+      <c r="C394" t="s">
         <v>491</v>
       </c>
-      <c r="C394" t="s">
-        <v>492</v>
-      </c>
       <c r="D394" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E394">
         <v>3</v>
@@ -27450,7 +27445,7 @@
         <v>214</v>
       </c>
       <c r="G394" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H394">
         <v>1</v>
@@ -27479,16 +27474,16 @@
     </row>
     <row r="395" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B395" t="s">
+        <v>490</v>
+      </c>
+      <c r="C395" t="s">
         <v>491</v>
       </c>
-      <c r="C395" t="s">
-        <v>492</v>
-      </c>
       <c r="D395" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E395">
         <v>3</v>
@@ -27497,7 +27492,7 @@
         <v>240</v>
       </c>
       <c r="G395" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H395">
         <v>1</v>
@@ -27526,16 +27521,16 @@
     </row>
     <row r="396" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B396" t="s">
+        <v>490</v>
+      </c>
+      <c r="C396" t="s">
         <v>491</v>
       </c>
-      <c r="C396" t="s">
-        <v>492</v>
-      </c>
       <c r="D396" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E396">
         <v>3</v>
@@ -27544,7 +27539,7 @@
         <v>135</v>
       </c>
       <c r="G396" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H396">
         <v>1</v>
@@ -27973,7 +27968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -27987,10 +27982,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -28003,7 +27998,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>28</v>
@@ -28011,7 +28006,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -28019,7 +28014,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -28075,7 +28070,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13">
         <v>28</v>
@@ -28083,7 +28078,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -28091,7 +28086,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -28107,7 +28102,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -28115,7 +28110,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -28123,7 +28118,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -28147,7 +28142,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B22">
         <v>25</v>
@@ -28163,7 +28158,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -28179,7 +28174,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -28187,21 +28182,21 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -28229,7 +28224,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -28277,7 +28272,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -28291,7 +28286,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -28319,7 +28314,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -28369,13 +28364,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -28389,7 +28384,7 @@
         <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -28411,7 +28406,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43">
         <v>30</v>
@@ -28425,7 +28420,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44">
         <v>23</v>
@@ -28445,7 +28440,7 @@
         <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E45">
         <v>69</v>
@@ -28453,7 +28448,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B46">
         <v>20</v>
@@ -28469,7 +28464,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48">
         <v>30</v>
@@ -28477,7 +28472,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B49">
         <v>24</v>
@@ -28493,7 +28488,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51">
         <v>23</v>
@@ -28533,7 +28528,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B56">
         <v>30</v>
@@ -28541,7 +28536,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57">
         <v>28</v>
@@ -28549,7 +28544,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B58">
         <v>20</v>
@@ -28589,7 +28584,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63">
         <v>24</v>
@@ -28597,7 +28592,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B64">
         <v>26</v>
@@ -28613,7 +28608,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B66">
         <v>30</v>
@@ -28621,7 +28616,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B67">
         <v>22</v>
@@ -28629,7 +28624,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68">
         <v>30</v>
@@ -28661,7 +28656,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B72">
         <v>30</v>
@@ -28693,7 +28688,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B76">
         <v>24</v>
@@ -28701,7 +28696,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B77">
         <v>28</v>
@@ -28717,7 +28712,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B79">
         <v>28</v>
@@ -28725,7 +28720,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B80">
         <v>30</v>
@@ -28749,7 +28744,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B83">
         <v>2060</v>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCDEA0-1EEA-4B90-807C-46D711D4D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC24C2B3-45A6-48E3-BA52-EE92394BDA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">CONSOLIDADO_I_2024!$A$2:$DA$396</definedName>
     <definedName name="SegmentaciónDeDatos_14_15L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_20_21L">#N/A</definedName>
@@ -102,7 +102,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROPUESTAS_ÁREA_I_2024" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -2748,6 +2748,11 @@
       <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -5174,6 +5179,233 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="107">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
+        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B64BFF8C-3F78-4B77-8F54-62D5C38B45C2}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5629,233 +5861,6 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
-        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <pivotHierarchies count="107">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -6620,8 +6625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D4503-1E10-47C8-980C-181088D300A7}">
   <dimension ref="A1:DI397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC24C2B3-45A6-48E3-BA52-EE92394BDA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC7199-FA58-46D5-BA7A-A517D556554B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDADO_I_2024" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">CONSOLIDADO_I_2024!$A$2:$DA$396</definedName>
     <definedName name="SegmentaciónDeDatos_14_15L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_20_21L">#N/A</definedName>
@@ -102,7 +102,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROPUESTAS_ÁREA_I_2024" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1860,6 +1860,21 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1878,21 +1893,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1947,7 +1947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1995,7 +1995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2597,7 +2597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1359741120"/>
@@ -2661,7 +2661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1894024800"/>
@@ -2708,7 +2708,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2745,7 +2745,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5179,233 +5179,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <pivotHierarchies count="107">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
-        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B64BFF8C-3F78-4B77-8F54-62D5C38B45C2}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5878,6 +5651,233 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="107">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
+        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="3" xr16:uid="{E68D100A-F407-47DF-BCBB-689A9A50067A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="117" unboundColumnsRight="8">
@@ -6046,12 +6046,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C271237-3B14-4B56-B10F-6D7A839BB716}" name="PROPUESTAS_ÁREA_I_2024" displayName="PROPUESTAS_ÁREA_I_2024" ref="A2:DI397" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI396" xr:uid="{8C271237-3B14-4B56-B10F-6D7A839BB716}"/>
   <tableColumns count="113">
-    <tableColumn id="1" xr3:uid="{139F804D-D3ED-474E-8CBB-C94DD993F97B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{139F804D-D3ED-474E-8CBB-C94DD993F97B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{3A5FEDFF-C26F-4869-83E0-957418A2AB27}" uniqueName="2" name="FICHA" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{B469C230-3D72-4995-8004-8C2CBFE694C1}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{31507130-E8D3-4DF7-9341-2C600FF6D5BF}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B469C230-3D72-4995-8004-8C2CBFE694C1}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{31507130-E8D3-4DF7-9341-2C600FF6D5BF}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{B7E739B3-6836-4279-850B-06CE341E9C71}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{CEC45585-22AE-4CEB-A8B0-3A7E3F4A51EA}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CEC45585-22AE-4CEB-A8B0-3A7E3F4A51EA}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{F139E010-2630-4FB9-9B1E-32AF85157052}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2BDFE95F-D286-47D7-B818-D85F2B5F42E1}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{296065E9-062D-4C9C-90E3-3C3D676134FC}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
@@ -6059,7 +6059,7 @@
     <tableColumn id="11" xr3:uid="{AF541DD2-11B0-4F91-8511-CB027A42D60E}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{1965E789-3798-46E5-A251-C691BEA08667}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{4BE3E982-BCB5-412D-843D-A40CED305885}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{D9412F8C-37E9-4060-AB4A-20E5FD93C42B}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{D9412F8C-37E9-4060-AB4A-20E5FD93C42B}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="0"/>
     <tableColumn id="113" xr3:uid="{7262E2C9-8462-4143-BB35-32D3730C7FA7}" uniqueName="113" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="115"/>
     <tableColumn id="16" xr3:uid="{DE7E8746-5212-46BC-AC0B-A0009B17A88B}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="114" xr3:uid="{CC1C7AC8-9808-42C0-B3B8-D8D723E42C45}" uniqueName="114" name="HORAS POR TRIMESTRE" queryTableFieldId="116"/>
@@ -6625,43 +6625,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D4503-1E10-47C8-980C-181088D300A7}">
   <dimension ref="A1:DI397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="F109" workbookViewId="0">
+      <selection activeCell="N130" sqref="N130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="51.6640625" customWidth="1"/>
-    <col min="8" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.33203125" customWidth="1"/>
-    <col min="16" max="17" width="16.33203125" customWidth="1"/>
-    <col min="18" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="81" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" customWidth="1"/>
+    <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.28515625" customWidth="1"/>
+    <col min="16" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="81" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="97" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="98" max="100" width="7" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
     <col min="102" max="105" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:113" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P1" s="3">
         <f>SUBTOTAL(9,PROPUESTAS_ÁREA_I_2024[HORAS SEMANAL])</f>
         <v>2060</v>
@@ -6768,7 +6768,7 @@
       <c r="CZ1" s="6"/>
       <c r="DA1" s="6"/>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="49" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="50" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="51" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="52" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="53" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="54" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="55" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="56" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="57" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="58" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="59" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="60" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="61" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="62" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="63" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="64" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="65" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="66" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="67" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="68" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="69" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="70" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>186</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="72" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="73" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>186</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="75" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="76" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="77" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>186</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="78" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="79" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>186</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="80" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>186</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="88" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="90" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="91" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="92" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="93" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="94" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="95" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="96" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>186</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="97" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="98" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="99" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>186</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>186</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="101" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>252</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>252</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>252</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>252</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>252</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>252</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>252</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="112" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>252</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>252</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="114" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>252</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="115" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="116" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>252</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="118" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="119" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>252</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="120" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="121" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>252</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="123" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="125" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="126" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>252</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="127" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="129" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="130" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>252</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>252</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>252</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>252</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="135" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>252</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="136" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="137" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>252</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="139" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>252</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>252</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="141" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>252</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>252</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>252</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="144" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="145" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>252</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>252</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>252</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>252</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>252</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>252</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="152" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>252</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>252</v>
       </c>
@@ -15517,7 +15517,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="154" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>252</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="155" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>252</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="156" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>252</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="157" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>252</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="158" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>252</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="159" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>252</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="160" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>252</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="161" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>252</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>252</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="164" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>252</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>252</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="166" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>252</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="167" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>252</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>252</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="169" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>252</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="170" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="171" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>252</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="173" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>252</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="174" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="175" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>252</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>252</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>252</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>252</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>252</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>252</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>252</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>252</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="184" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>252</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="185" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>252</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="186" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>252</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="188" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>335</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="189" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>335</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="190" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>335</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="191" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>335</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="192" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>335</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>335</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="194" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>335</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="195" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>335</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>335</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="197" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="198" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>335</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="199" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>335</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>335</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>335</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>335</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>335</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>335</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>335</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="206" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>335</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="207" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>335</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="208" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>335</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="209" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>335</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="210" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>335</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="211" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>335</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>335</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>335</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="214" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>335</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="215" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>335</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="216" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>335</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="217" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>335</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="218" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>335</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="219" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>335</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="220" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>335</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="221" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>335</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="222" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>335</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="223" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>335</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="224" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>335</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="225" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>335</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="226" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>335</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="227" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>335</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="228" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>335</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="229" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>335</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="230" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>335</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="231" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>335</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="232" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>335</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="233" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>335</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="234" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>335</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="235" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>335</v>
       </c>
@@ -19611,7 +19611,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="236" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>335</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="237" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>335</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>335</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="239" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>335</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="240" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>335</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>335</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="242" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>335</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="243" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>335</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="244" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>335</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="245" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>335</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="246" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>335</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="247" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>335</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="248" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>335</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="249" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>335</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="250" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>335</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="251" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>335</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="252" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>335</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="253" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>335</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="254" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>335</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="255" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>335</v>
       </c>
@@ -20641,7 +20641,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="256" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>335</v>
       </c>
@@ -20688,7 +20688,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="257" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>335</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="258" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>335</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="259" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>335</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="260" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>335</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="261" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>335</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="262" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>335</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="263" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>335</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="264" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>335</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="265" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>335</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="266" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>335</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="267" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>335</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="268" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>335</v>
       </c>
@@ -21309,7 +21309,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="269" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>335</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="270" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>335</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="271" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>335</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="272" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>335</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="273" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>335</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="274" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>335</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="275" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>335</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="276" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>335</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="277" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>335</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="278" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>335</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="279" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>335</v>
       </c>
@@ -21877,7 +21877,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>335</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="281" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>335</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="282" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>335</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="283" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>335</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="284" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>335</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="285" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>335</v>
       </c>
@@ -22177,7 +22177,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="286" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>335</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="287" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>335</v>
       </c>
@@ -22289,7 +22289,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="288" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>335</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="289" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>335</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="290" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>335</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="291" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>335</v>
       </c>
@@ -22477,7 +22477,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="292" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>335</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="293" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>335</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="294" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>335</v>
       </c>
@@ -22621,7 +22621,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="295" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>335</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="296" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>335</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="297" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>335</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="298" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>335</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="299" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>335</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="300" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>335</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="301" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>335</v>
       </c>
@@ -22977,7 +22977,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="302" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>335</v>
       </c>
@@ -23015,7 +23015,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="303" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>335</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="304" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>335</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="305" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>335</v>
       </c>
@@ -23165,7 +23165,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="306" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>335</v>
       </c>
@@ -23215,7 +23215,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="307" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>335</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="308" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>335</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="309" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="311" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>335</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="312" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>335</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="313" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>335</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="314" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>335</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="315" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>335</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="316" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>335</v>
       </c>
@@ -23673,7 +23673,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="317" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -23720,7 +23720,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="318" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>335</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="319" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>335</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="320" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>335</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="321" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>335</v>
       </c>
@@ -23950,7 +23950,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="322" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>335</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="323" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>335</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="324" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>335</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="325" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>335</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="326" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>335</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="327" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>335</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="328" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>335</v>
       </c>
@@ -24303,7 +24303,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="329" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>426</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="330" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>426</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="331" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>426</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="332" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>426</v>
       </c>
@@ -24491,7 +24491,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="333" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>426</v>
       </c>
@@ -24547,7 +24547,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="334" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>426</v>
       </c>
@@ -24600,7 +24600,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="335" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>426</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="336" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>426</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="337" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>426</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="338" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>426</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="339" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>426</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="340" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>426</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="341" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>426</v>
       </c>
@@ -24974,7 +24974,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="342" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>426</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="343" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>426</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="344" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>426</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="345" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>426</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="346" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>426</v>
       </c>
@@ -25212,7 +25212,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="347" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>426</v>
       </c>
@@ -25259,7 +25259,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="348" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>426</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="349" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>426</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="350" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>426</v>
       </c>
@@ -25415,7 +25415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="351" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>426</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="352" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>426</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="353" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>426</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="354" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>426</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="355" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>426</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="356" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>426</v>
       </c>
@@ -25742,7 +25742,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="357" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>426</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="358" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>426</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="359" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>426</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="360" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>426</v>
       </c>
@@ -25906,7 +25906,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="361" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>426</v>
       </c>
@@ -25947,7 +25947,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="362" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>426</v>
       </c>
@@ -25991,7 +25991,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="363" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>426</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="364" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>426</v>
       </c>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>426</v>
       </c>
@@ -26111,7 +26111,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="366" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>426</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="367" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>426</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="368" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>426</v>
       </c>
@@ -26249,7 +26249,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="369" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>426</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="370" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>426</v>
       </c>
@@ -26331,7 +26331,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="371" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>426</v>
       </c>
@@ -26384,7 +26384,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="372" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>426</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="373" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>426</v>
       </c>
@@ -26478,7 +26478,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="374" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>426</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="375" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>426</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="376" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>426</v>
       </c>
@@ -26616,7 +26616,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="377" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>426</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="378" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>426</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="379" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>426</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="380" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>426</v>
       </c>
@@ -26789,7 +26789,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="381" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>426</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="382" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>426</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="383" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>426</v>
       </c>
@@ -26948,7 +26948,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="384" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>426</v>
       </c>
@@ -27007,7 +27007,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="385" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>426</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="386" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>426</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="387" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>426</v>
       </c>
@@ -27163,7 +27163,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="388" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>426</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>426</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>426</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>426</v>
       </c>
@@ -27339,7 +27339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>426</v>
       </c>
@@ -27377,7 +27377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -27430,7 +27430,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="394" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>426</v>
       </c>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="396" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>426</v>
       </c>
@@ -27571,7 +27571,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="397" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:105" x14ac:dyDescent="0.25">
       <c r="R397">
         <f>SUBTOTAL(3,R3:R396)</f>
         <v>32</v>
@@ -27944,12 +27944,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R397:CS397 CU397:DA397">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT397">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27977,15 +27977,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>508</v>
       </c>
@@ -27993,7 +27993,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>317</v>
       </c>
@@ -28001,7 +28001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>349</v>
       </c>
@@ -28009,7 +28009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>433</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>339</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>128</v>
       </c>
@@ -28033,7 +28033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>221</v>
       </c>
@@ -28041,7 +28041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>275</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>170</v>
       </c>
@@ -28065,7 +28065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>272</v>
       </c>
@@ -28073,7 +28073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>509</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>393</v>
       </c>
@@ -28089,7 +28089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>510</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>311</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>511</v>
       </c>
@@ -28113,7 +28113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>480</v>
       </c>
@@ -28121,7 +28121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>512</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>131</v>
       </c>
@@ -28137,7 +28137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>134</v>
       </c>
@@ -28145,7 +28145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>371</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>332</v>
       </c>
@@ -28161,7 +28161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>392</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -28177,7 +28177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>513</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>514</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>515</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>314</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>363</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>207</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>308</v>
       </c>
@@ -28269,7 +28269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>256</v>
       </c>
@@ -28283,7 +28283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>326</v>
       </c>
@@ -28297,7 +28297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>193</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
@@ -28325,7 +28325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>192</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>202</v>
       </c>
@@ -28353,7 +28353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>213</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>360</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>245</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>292</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>374</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>370</v>
       </c>
@@ -28437,7 +28437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>295</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>395</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>321</v>
       </c>
@@ -28467,7 +28467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>346</v>
       </c>
@@ -28475,7 +28475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>345</v>
       </c>
@@ -28483,7 +28483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>266</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>400</v>
       </c>
@@ -28499,7 +28499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>300</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>287</v>
       </c>
@@ -28515,7 +28515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>264</v>
       </c>
@@ -28523,7 +28523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>236</v>
       </c>
@@ -28531,7 +28531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>413</v>
       </c>
@@ -28539,7 +28539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>486</v>
       </c>
@@ -28547,7 +28547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>516</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>282</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>324</v>
       </c>
@@ -28579,7 +28579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>234</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>402</v>
       </c>
@@ -28595,7 +28595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>429</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>294</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>342</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
@@ -28627,7 +28627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>460</v>
       </c>
@@ -28635,7 +28635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>196</v>
       </c>
@@ -28643,7 +28643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>334</v>
       </c>
@@ -28651,7 +28651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>267</v>
       </c>
@@ -28659,7 +28659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>439</v>
       </c>
@@ -28667,7 +28667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>288</v>
       </c>
@@ -28675,7 +28675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>285</v>
       </c>
@@ -28683,7 +28683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>125</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>368</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>518</v>
       </c>
@@ -28707,7 +28707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>318</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>348</v>
       </c>
@@ -28723,7 +28723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>351</v>
       </c>
@@ -28731,7 +28731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>209</v>
       </c>
@@ -28739,7 +28739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>278</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>519</v>
       </c>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FC7199-FA58-46D5-BA7A-A517D556554B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C0980-3A2B-4589-B744-3638EF8B8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDADO_I_2024" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">CONSOLIDADO_I_2024!$A$2:$DA$396</definedName>
     <definedName name="SegmentaciónDeDatos_14_15L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_20_21L">#N/A</definedName>
@@ -102,7 +102,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROPUESTAS_ÁREA_I_2024" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="544">
   <si>
     <t>Source.Name</t>
   </si>
@@ -1740,6 +1740,9 @@
   </si>
   <si>
     <t>Implementar la solución de software de acuerdo con los requisitos de operación y modelos de referencia - Proyecto 2 + Manual Técnico</t>
+  </si>
+  <si>
+    <t>ASTRID YULIETH GUZMÁN BURBANO</t>
   </si>
 </sst>
 </file>
@@ -1860,21 +1863,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1893,6 +1881,21 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1947,7 +1950,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1995,7 +1998,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2597,7 +2600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1359741120"/>
@@ -2661,7 +2664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1894024800"/>
@@ -2708,7 +2711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2745,7 +2748,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5179,6 +5182,233 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="107">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
+        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B64BFF8C-3F78-4B77-8F54-62D5C38B45C2}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5651,233 +5881,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5DEDB00-FD00-413E-B837-ACDF079756D4}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D27:E45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <pivotHierarchies count="107">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024.xlsx!PROPUESTAS_ÁREA_I_2024">
-        <x15:activeTabTopLevelEntity name="[PROPUESTAS_ÁREA_I_2024]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="3" xr16:uid="{E68D100A-F407-47DF-BCBB-689A9A50067A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="117" unboundColumnsRight="8">
@@ -6046,12 +6049,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C271237-3B14-4B56-B10F-6D7A839BB716}" name="PROPUESTAS_ÁREA_I_2024" displayName="PROPUESTAS_ÁREA_I_2024" ref="A2:DI397" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI396" xr:uid="{8C271237-3B14-4B56-B10F-6D7A839BB716}"/>
   <tableColumns count="113">
-    <tableColumn id="1" xr3:uid="{139F804D-D3ED-474E-8CBB-C94DD993F97B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{139F804D-D3ED-474E-8CBB-C94DD993F97B}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{3A5FEDFF-C26F-4869-83E0-957418A2AB27}" uniqueName="2" name="FICHA" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{B469C230-3D72-4995-8004-8C2CBFE694C1}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{31507130-E8D3-4DF7-9341-2C600FF6D5BF}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B469C230-3D72-4995-8004-8C2CBFE694C1}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{31507130-E8D3-4DF7-9341-2C600FF6D5BF}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{B7E739B3-6836-4279-850B-06CE341E9C71}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{CEC45585-22AE-4CEB-A8B0-3A7E3F4A51EA}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CEC45585-22AE-4CEB-A8B0-3A7E3F4A51EA}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{F139E010-2630-4FB9-9B1E-32AF85157052}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2BDFE95F-D286-47D7-B818-D85F2B5F42E1}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{296065E9-062D-4C9C-90E3-3C3D676134FC}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
@@ -6059,7 +6062,7 @@
     <tableColumn id="11" xr3:uid="{AF541DD2-11B0-4F91-8511-CB027A42D60E}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{1965E789-3798-46E5-A251-C691BEA08667}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{4BE3E982-BCB5-412D-843D-A40CED305885}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{D9412F8C-37E9-4060-AB4A-20E5FD93C42B}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{D9412F8C-37E9-4060-AB4A-20E5FD93C42B}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
     <tableColumn id="113" xr3:uid="{7262E2C9-8462-4143-BB35-32D3730C7FA7}" uniqueName="113" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="115"/>
     <tableColumn id="16" xr3:uid="{DE7E8746-5212-46BC-AC0B-A0009B17A88B}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="114" xr3:uid="{CC1C7AC8-9808-42C0-B3B8-D8D723E42C45}" uniqueName="114" name="HORAS POR TRIMESTRE" queryTableFieldId="116"/>
@@ -6625,43 +6628,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D4503-1E10-47C8-980C-181088D300A7}">
   <dimension ref="A1:DI397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F109" workbookViewId="0">
-      <selection activeCell="N130" sqref="N130"/>
+    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" customWidth="1"/>
-    <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="30.28515625" customWidth="1"/>
-    <col min="16" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="81" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" customWidth="1"/>
+    <col min="8" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="30.33203125" customWidth="1"/>
+    <col min="16" max="17" width="16.33203125" customWidth="1"/>
+    <col min="18" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="81" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="98" max="100" width="7" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
     <col min="102" max="105" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P1" s="3">
         <f>SUBTOTAL(9,PROPUESTAS_ÁREA_I_2024[HORAS SEMANAL])</f>
         <v>2060</v>
@@ -6768,7 +6771,7 @@
       <c r="CZ1" s="6"/>
       <c r="DA1" s="6"/>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -7494,7 +7497,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -8198,7 +8201,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -8298,7 +8301,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -8354,7 +8357,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -8586,7 +8589,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -8794,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>170</v>
+        <v>543</v>
       </c>
       <c r="P36">
         <v>10</v>
@@ -8830,7 +8833,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -9345,7 +9348,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -9401,7 +9404,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -9463,7 +9466,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="49" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="50" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="51" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -9598,7 +9601,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="52" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -9654,7 +9657,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="53" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="54" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -9751,7 +9754,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="55" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="56" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="57" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -9925,7 +9928,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="58" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="59" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="60" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -10072,7 +10075,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="61" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -10149,7 +10152,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="62" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="63" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -10249,7 +10252,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="64" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="65" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="66" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -10468,7 +10471,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="67" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -10521,7 +10524,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="68" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="69" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -10687,7 +10690,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="70" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -10740,7 +10743,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="71" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>186</v>
       </c>
@@ -10787,7 +10790,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="72" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="73" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>186</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="75" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -10990,7 +10993,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="76" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -11046,7 +11049,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="77" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>186</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="78" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -11140,7 +11143,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="79" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>186</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="80" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -11353,7 +11356,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>186</v>
       </c>
@@ -11400,7 +11403,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -11447,7 +11450,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -11491,7 +11494,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -11630,7 +11633,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -11677,7 +11680,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -11821,7 +11824,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="92" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="93" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -12016,7 +12019,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -12113,7 +12116,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>186</v>
       </c>
@@ -12208,7 +12211,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>186</v>
       </c>
@@ -12355,7 +12358,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>186</v>
       </c>
@@ -12402,7 +12405,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="101" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>252</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -12556,7 +12559,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>252</v>
       </c>
@@ -12603,7 +12606,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>252</v>
       </c>
@@ -12650,7 +12653,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>252</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>252</v>
       </c>
@@ -12729,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>252</v>
       </c>
@@ -12842,7 +12845,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>252</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>252</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -13093,7 +13096,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>252</v>
       </c>
@@ -13131,7 +13134,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>252</v>
       </c>
@@ -13193,7 +13196,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="114" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>252</v>
       </c>
@@ -13276,7 +13279,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="115" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -13323,7 +13326,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="116" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>252</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -13486,7 +13489,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="118" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -13524,7 +13527,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="119" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>252</v>
       </c>
@@ -13637,7 +13640,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="120" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>252</v>
       </c>
@@ -13684,7 +13687,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="121" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>252</v>
       </c>
@@ -13722,7 +13725,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -13829,7 +13832,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="123" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -13876,7 +13879,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -13938,7 +13941,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="125" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -14021,7 +14024,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="126" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>252</v>
       </c>
@@ -14068,7 +14071,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="127" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -14106,7 +14109,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="129" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>252</v>
       </c>
@@ -14254,7 +14257,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="130" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>252</v>
       </c>
@@ -14301,7 +14304,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>252</v>
       </c>
@@ -14348,7 +14351,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>252</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -14481,7 +14484,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>252</v>
       </c>
@@ -14528,7 +14531,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="135" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>252</v>
       </c>
@@ -14575,7 +14578,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="136" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>252</v>
       </c>
@@ -14622,7 +14625,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="137" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>252</v>
       </c>
@@ -14669,7 +14672,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>252</v>
       </c>
@@ -14707,7 +14710,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="139" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>252</v>
       </c>
@@ -14790,7 +14793,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>252</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="141" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>252</v>
       </c>
@@ -14884,7 +14887,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>252</v>
       </c>
@@ -14931,7 +14934,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>252</v>
       </c>
@@ -14978,7 +14981,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="144" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -15016,7 +15019,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="145" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>252</v>
       </c>
@@ -15117,7 +15120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>252</v>
       </c>
@@ -15164,7 +15167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>252</v>
       </c>
@@ -15211,7 +15214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>252</v>
       </c>
@@ -15258,7 +15261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -15296,7 +15299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>252</v>
       </c>
@@ -15352,7 +15355,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>252</v>
       </c>
@@ -15423,7 +15426,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="152" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>252</v>
       </c>
@@ -15470,7 +15473,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="153" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>252</v>
       </c>
@@ -15517,7 +15520,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="154" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>252</v>
       </c>
@@ -15564,7 +15567,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="155" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>252</v>
       </c>
@@ -15611,7 +15614,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="156" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>252</v>
       </c>
@@ -15649,7 +15652,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="157" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>252</v>
       </c>
@@ -15696,7 +15699,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="158" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>252</v>
       </c>
@@ -15734,7 +15737,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="159" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>252</v>
       </c>
@@ -15829,7 +15832,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="160" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>252</v>
       </c>
@@ -15876,7 +15879,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="161" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>252</v>
       </c>
@@ -15923,7 +15926,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="162" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>252</v>
       </c>
@@ -15970,7 +15973,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="163" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>252</v>
       </c>
@@ -16017,7 +16020,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="164" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>252</v>
       </c>
@@ -16055,7 +16058,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>252</v>
       </c>
@@ -16138,7 +16141,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="166" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>252</v>
       </c>
@@ -16185,7 +16188,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="167" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>252</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>252</v>
       </c>
@@ -16279,7 +16282,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="169" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>252</v>
       </c>
@@ -16326,7 +16329,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="170" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -16364,7 +16367,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="171" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -16405,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>252</v>
       </c>
@@ -16518,7 +16521,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="173" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>252</v>
       </c>
@@ -16556,7 +16559,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="174" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>252</v>
       </c>
@@ -16603,7 +16606,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="175" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>252</v>
       </c>
@@ -16650,7 +16653,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>252</v>
       </c>
@@ -16679,7 +16682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>252</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>252</v>
       </c>
@@ -16833,7 +16836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -16880,7 +16883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>252</v>
       </c>
@@ -16927,7 +16930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>252</v>
       </c>
@@ -16965,7 +16968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>252</v>
       </c>
@@ -16994,7 +16997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>252</v>
       </c>
@@ -17089,7 +17092,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="184" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>252</v>
       </c>
@@ -17136,7 +17139,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="185" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>252</v>
       </c>
@@ -17183,7 +17186,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="186" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>252</v>
       </c>
@@ -17230,7 +17233,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>252</v>
       </c>
@@ -17268,7 +17271,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="188" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>335</v>
       </c>
@@ -17324,7 +17327,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="189" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>335</v>
       </c>
@@ -17386,7 +17389,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="190" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>335</v>
       </c>
@@ -17436,7 +17439,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="191" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>335</v>
       </c>
@@ -17480,7 +17483,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="192" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>335</v>
       </c>
@@ -17518,7 +17521,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>335</v>
       </c>
@@ -17562,7 +17565,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="194" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>335</v>
       </c>
@@ -17612,7 +17615,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="195" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>335</v>
       </c>
@@ -17662,7 +17665,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>335</v>
       </c>
@@ -17706,7 +17709,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="197" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -17762,7 +17765,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="198" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>335</v>
       </c>
@@ -17800,7 +17803,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="199" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>335</v>
       </c>
@@ -17850,7 +17853,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>335</v>
       </c>
@@ -17894,7 +17897,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>335</v>
       </c>
@@ -17938,7 +17941,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>335</v>
       </c>
@@ -17982,7 +17985,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>335</v>
       </c>
@@ -18044,7 +18047,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>335</v>
       </c>
@@ -18082,7 +18085,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>335</v>
       </c>
@@ -18138,7 +18141,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="206" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>335</v>
       </c>
@@ -18182,7 +18185,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="207" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>335</v>
       </c>
@@ -18232,7 +18235,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="208" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>335</v>
       </c>
@@ -18282,7 +18285,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="209" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>335</v>
       </c>
@@ -18326,7 +18329,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="210" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>335</v>
       </c>
@@ -18364,7 +18367,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="211" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>335</v>
       </c>
@@ -18417,7 +18420,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>335</v>
       </c>
@@ -18461,7 +18464,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>335</v>
       </c>
@@ -18529,7 +18532,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="214" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>335</v>
       </c>
@@ -18576,7 +18579,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="215" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>335</v>
       </c>
@@ -18614,7 +18617,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="216" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>335</v>
       </c>
@@ -18661,7 +18664,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="217" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>335</v>
       </c>
@@ -18708,7 +18711,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="218" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>335</v>
       </c>
@@ -18761,7 +18764,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="219" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>335</v>
       </c>
@@ -18805,7 +18808,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="220" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>335</v>
       </c>
@@ -18873,7 +18876,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="221" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>335</v>
       </c>
@@ -18920,7 +18923,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="222" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>335</v>
       </c>
@@ -18958,7 +18961,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="223" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>335</v>
       </c>
@@ -19005,7 +19008,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="224" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>335</v>
       </c>
@@ -19052,7 +19055,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="225" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>335</v>
       </c>
@@ -19111,7 +19114,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="226" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>335</v>
       </c>
@@ -19155,7 +19158,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="227" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>335</v>
       </c>
@@ -19223,7 +19226,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="228" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>335</v>
       </c>
@@ -19270,7 +19273,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="229" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>335</v>
       </c>
@@ -19308,7 +19311,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="230" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>335</v>
       </c>
@@ -19355,7 +19358,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="231" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>335</v>
       </c>
@@ -19414,7 +19417,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="232" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>335</v>
       </c>
@@ -19458,7 +19461,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="233" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>335</v>
       </c>
@@ -19526,7 +19529,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="234" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>335</v>
       </c>
@@ -19573,7 +19576,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="235" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>335</v>
       </c>
@@ -19611,7 +19614,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="236" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>335</v>
       </c>
@@ -19658,7 +19661,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="237" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>335</v>
       </c>
@@ -19717,7 +19720,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>335</v>
       </c>
@@ -19761,7 +19764,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="239" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>335</v>
       </c>
@@ -19829,7 +19832,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="240" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>335</v>
       </c>
@@ -19876,7 +19879,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>335</v>
       </c>
@@ -19914,7 +19917,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="242" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>335</v>
       </c>
@@ -19961,7 +19964,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="243" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>335</v>
       </c>
@@ -20017,7 +20020,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="244" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>335</v>
       </c>
@@ -20061,7 +20064,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="245" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>335</v>
       </c>
@@ -20123,7 +20126,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="246" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>335</v>
       </c>
@@ -20173,7 +20176,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="247" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>335</v>
       </c>
@@ -20211,7 +20214,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="248" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>335</v>
       </c>
@@ -20249,7 +20252,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="249" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>335</v>
       </c>
@@ -20311,7 +20314,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="250" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>335</v>
       </c>
@@ -20367,7 +20370,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="251" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>335</v>
       </c>
@@ -20423,7 +20426,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="252" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>335</v>
       </c>
@@ -20467,7 +20470,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="253" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>335</v>
       </c>
@@ -20505,7 +20508,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="254" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>335</v>
       </c>
@@ -20576,7 +20579,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="255" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>335</v>
       </c>
@@ -20641,7 +20644,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="256" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>335</v>
       </c>
@@ -20688,7 +20691,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="257" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>335</v>
       </c>
@@ -20735,7 +20738,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="258" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>335</v>
       </c>
@@ -20773,7 +20776,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="259" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>335</v>
       </c>
@@ -20841,7 +20844,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="260" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>335</v>
       </c>
@@ -20909,7 +20912,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="261" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>335</v>
       </c>
@@ -20956,7 +20959,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="262" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>335</v>
       </c>
@@ -21003,7 +21006,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="263" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>335</v>
       </c>
@@ -21041,7 +21044,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="264" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>335</v>
       </c>
@@ -21109,7 +21112,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="265" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>335</v>
       </c>
@@ -21177,7 +21180,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="266" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>335</v>
       </c>
@@ -21224,7 +21227,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="267" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>335</v>
       </c>
@@ -21271,7 +21274,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="268" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>335</v>
       </c>
@@ -21309,7 +21312,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="269" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>335</v>
       </c>
@@ -21377,7 +21380,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="270" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>335</v>
       </c>
@@ -21445,7 +21448,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="271" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>335</v>
       </c>
@@ -21492,7 +21495,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="272" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>335</v>
       </c>
@@ -21539,7 +21542,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="273" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>335</v>
       </c>
@@ -21577,7 +21580,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="274" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>335</v>
       </c>
@@ -21645,7 +21648,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="275" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>335</v>
       </c>
@@ -21695,7 +21698,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="276" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>335</v>
       </c>
@@ -21745,7 +21748,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="277" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>335</v>
       </c>
@@ -21792,7 +21795,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="278" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>335</v>
       </c>
@@ -21839,7 +21842,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="279" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>335</v>
       </c>
@@ -21877,7 +21880,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>335</v>
       </c>
@@ -21927,7 +21930,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="281" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>335</v>
       </c>
@@ -21974,7 +21977,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="282" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>335</v>
       </c>
@@ -22045,7 +22048,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="283" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>335</v>
       </c>
@@ -22092,7 +22095,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="284" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>335</v>
       </c>
@@ -22139,7 +22142,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="285" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>335</v>
       </c>
@@ -22177,7 +22180,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="286" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>335</v>
       </c>
@@ -22233,7 +22236,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="287" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>335</v>
       </c>
@@ -22289,7 +22292,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="288" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>335</v>
       </c>
@@ -22345,7 +22348,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="289" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>335</v>
       </c>
@@ -22383,7 +22386,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="290" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>335</v>
       </c>
@@ -22430,7 +22433,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="291" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>335</v>
       </c>
@@ -22477,7 +22480,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="292" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>335</v>
       </c>
@@ -22533,7 +22536,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="293" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>335</v>
       </c>
@@ -22577,7 +22580,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="294" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>335</v>
       </c>
@@ -22621,7 +22624,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="295" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>335</v>
       </c>
@@ -22677,7 +22680,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="296" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>335</v>
       </c>
@@ -22715,7 +22718,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="297" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>335</v>
       </c>
@@ -22762,7 +22765,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="298" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>335</v>
       </c>
@@ -22809,7 +22812,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="299" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>335</v>
       </c>
@@ -22865,7 +22868,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="300" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>335</v>
       </c>
@@ -22921,7 +22924,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="301" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>335</v>
       </c>
@@ -22977,7 +22980,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="302" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>335</v>
       </c>
@@ -23015,7 +23018,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="303" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>335</v>
       </c>
@@ -23062,7 +23065,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="304" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>335</v>
       </c>
@@ -23109,7 +23112,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="305" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>335</v>
       </c>
@@ -23165,7 +23168,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="306" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>335</v>
       </c>
@@ -23215,7 +23218,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="307" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>335</v>
       </c>
@@ -23259,7 +23262,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="308" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>335</v>
       </c>
@@ -23297,7 +23300,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="309" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -23344,7 +23347,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -23391,7 +23394,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="311" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>335</v>
       </c>
@@ -23438,7 +23441,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="312" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>335</v>
       </c>
@@ -23494,7 +23497,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="313" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>335</v>
       </c>
@@ -23544,7 +23547,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="314" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>335</v>
       </c>
@@ -23588,7 +23591,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="315" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>335</v>
       </c>
@@ -23626,7 +23629,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="316" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>335</v>
       </c>
@@ -23673,7 +23676,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="317" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -23720,7 +23723,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="318" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>335</v>
       </c>
@@ -23767,7 +23770,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="319" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>335</v>
       </c>
@@ -23847,7 +23850,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="320" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>335</v>
       </c>
@@ -23903,7 +23906,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="321" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>335</v>
       </c>
@@ -23950,7 +23953,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="322" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>335</v>
       </c>
@@ -23997,7 +24000,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="323" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>335</v>
       </c>
@@ -24035,7 +24038,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="324" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>335</v>
       </c>
@@ -24115,7 +24118,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="325" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>335</v>
       </c>
@@ -24171,7 +24174,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="326" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>335</v>
       </c>
@@ -24218,7 +24221,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="327" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>335</v>
       </c>
@@ -24265,7 +24268,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="328" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>335</v>
       </c>
@@ -24303,7 +24306,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="329" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>426</v>
       </c>
@@ -24356,7 +24359,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="330" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>426</v>
       </c>
@@ -24403,7 +24406,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="331" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>426</v>
       </c>
@@ -24447,7 +24450,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="332" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>426</v>
       </c>
@@ -24491,7 +24494,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="333" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>426</v>
       </c>
@@ -24547,7 +24550,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="334" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>426</v>
       </c>
@@ -24600,7 +24603,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="335" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>426</v>
       </c>
@@ -24653,7 +24656,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="336" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>426</v>
       </c>
@@ -24700,7 +24703,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="337" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>426</v>
       </c>
@@ -24747,7 +24750,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="338" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>426</v>
       </c>
@@ -24809,7 +24812,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="339" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>426</v>
       </c>
@@ -24871,7 +24874,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="340" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>426</v>
       </c>
@@ -24921,7 +24924,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="341" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>426</v>
       </c>
@@ -24974,7 +24977,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="342" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>426</v>
       </c>
@@ -25021,7 +25024,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="343" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>426</v>
       </c>
@@ -25068,7 +25071,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="344" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>426</v>
       </c>
@@ -25109,7 +25112,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="345" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>426</v>
       </c>
@@ -25165,7 +25168,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="346" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>426</v>
       </c>
@@ -25212,7 +25215,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="347" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>426</v>
       </c>
@@ -25259,7 +25262,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="348" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>426</v>
       </c>
@@ -25312,7 +25315,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="349" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>426</v>
       </c>
@@ -25356,7 +25359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="350" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>426</v>
       </c>
@@ -25415,7 +25418,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="351" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>426</v>
       </c>
@@ -25495,7 +25498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="352" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>426</v>
       </c>
@@ -25542,7 +25545,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="353" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>426</v>
       </c>
@@ -25595,7 +25598,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="354" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>426</v>
       </c>
@@ -25648,7 +25651,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="355" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>426</v>
       </c>
@@ -25695,7 +25698,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="356" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>426</v>
       </c>
@@ -25742,7 +25745,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="357" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>426</v>
       </c>
@@ -25789,7 +25792,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="358" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>426</v>
       </c>
@@ -25827,7 +25830,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="359" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>426</v>
       </c>
@@ -25865,7 +25868,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="360" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>426</v>
       </c>
@@ -25906,7 +25909,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="361" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>426</v>
       </c>
@@ -25947,7 +25950,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="362" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>426</v>
       </c>
@@ -25991,7 +25994,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="363" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>426</v>
       </c>
@@ -26035,7 +26038,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="364" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>426</v>
       </c>
@@ -26067,7 +26070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>426</v>
       </c>
@@ -26111,7 +26114,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="366" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>426</v>
       </c>
@@ -26158,7 +26161,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="367" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>426</v>
       </c>
@@ -26205,7 +26208,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="368" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>426</v>
       </c>
@@ -26249,7 +26252,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="369" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>426</v>
       </c>
@@ -26293,7 +26296,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="370" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>426</v>
       </c>
@@ -26331,7 +26334,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="371" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>426</v>
       </c>
@@ -26384,7 +26387,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="372" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>426</v>
       </c>
@@ -26431,7 +26434,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="373" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>426</v>
       </c>
@@ -26478,7 +26481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="374" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>426</v>
       </c>
@@ -26522,7 +26525,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="375" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>426</v>
       </c>
@@ -26569,7 +26572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="376" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>426</v>
       </c>
@@ -26616,7 +26619,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="377" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>426</v>
       </c>
@@ -26660,7 +26663,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="378" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>426</v>
       </c>
@@ -26704,7 +26707,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="379" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>426</v>
       </c>
@@ -26742,7 +26745,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="380" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>426</v>
       </c>
@@ -26789,7 +26792,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="381" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>426</v>
       </c>
@@ -26836,7 +26839,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="382" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>426</v>
       </c>
@@ -26889,7 +26892,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="383" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>426</v>
       </c>
@@ -26948,7 +26951,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="384" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>426</v>
       </c>
@@ -27007,7 +27010,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="385" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>426</v>
       </c>
@@ -27063,7 +27066,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="386" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>426</v>
       </c>
@@ -27116,7 +27119,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="387" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>426</v>
       </c>
@@ -27163,7 +27166,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="388" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>426</v>
       </c>
@@ -27207,7 +27210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>426</v>
       </c>
@@ -27251,7 +27254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>426</v>
       </c>
@@ -27295,7 +27298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>426</v>
       </c>
@@ -27339,7 +27342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>426</v>
       </c>
@@ -27377,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -27430,7 +27433,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="394" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>426</v>
       </c>
@@ -27477,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -27524,7 +27527,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="396" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>426</v>
       </c>
@@ -27571,7 +27574,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="397" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:105" x14ac:dyDescent="0.3">
       <c r="R397">
         <f>SUBTOTAL(3,R3:R396)</f>
         <v>32</v>
@@ -27944,12 +27947,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R397:CS397 CU397:DA397">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT397">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27977,15 +27980,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>508</v>
       </c>
@@ -27993,7 +27996,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>317</v>
       </c>
@@ -28001,7 +28004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>349</v>
       </c>
@@ -28009,7 +28012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>433</v>
       </c>
@@ -28017,7 +28020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>339</v>
       </c>
@@ -28025,7 +28028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>128</v>
       </c>
@@ -28033,7 +28036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>221</v>
       </c>
@@ -28041,7 +28044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
@@ -28049,7 +28052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>275</v>
       </c>
@@ -28057,7 +28060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>170</v>
       </c>
@@ -28065,7 +28068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>272</v>
       </c>
@@ -28073,7 +28076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>509</v>
       </c>
@@ -28081,7 +28084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>393</v>
       </c>
@@ -28089,7 +28092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>510</v>
       </c>
@@ -28097,7 +28100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>311</v>
       </c>
@@ -28105,7 +28108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>511</v>
       </c>
@@ -28113,7 +28116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>480</v>
       </c>
@@ -28121,7 +28124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>512</v>
       </c>
@@ -28129,7 +28132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>131</v>
       </c>
@@ -28137,7 +28140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>134</v>
       </c>
@@ -28145,7 +28148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>371</v>
       </c>
@@ -28153,7 +28156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>332</v>
       </c>
@@ -28161,7 +28164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>392</v>
       </c>
@@ -28169,7 +28172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -28177,7 +28180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>513</v>
       </c>
@@ -28185,7 +28188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>514</v>
       </c>
@@ -28199,7 +28202,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>515</v>
       </c>
@@ -28213,7 +28216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>314</v>
       </c>
@@ -28227,7 +28230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>363</v>
       </c>
@@ -28241,7 +28244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>207</v>
       </c>
@@ -28255,7 +28258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>308</v>
       </c>
@@ -28269,7 +28272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>256</v>
       </c>
@@ -28283,7 +28286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>326</v>
       </c>
@@ -28297,7 +28300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>193</v>
       </c>
@@ -28311,7 +28314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
@@ -28325,7 +28328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>192</v>
       </c>
@@ -28339,7 +28342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>202</v>
       </c>
@@ -28353,7 +28356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>213</v>
       </c>
@@ -28367,7 +28370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>360</v>
       </c>
@@ -28381,7 +28384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>245</v>
       </c>
@@ -28395,7 +28398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>292</v>
       </c>
@@ -28409,7 +28412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>374</v>
       </c>
@@ -28423,7 +28426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>370</v>
       </c>
@@ -28437,7 +28440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>295</v>
       </c>
@@ -28451,7 +28454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>395</v>
       </c>
@@ -28459,7 +28462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>321</v>
       </c>
@@ -28467,7 +28470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>346</v>
       </c>
@@ -28475,7 +28478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>345</v>
       </c>
@@ -28483,7 +28486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>266</v>
       </c>
@@ -28491,7 +28494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>400</v>
       </c>
@@ -28499,7 +28502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>300</v>
       </c>
@@ -28507,7 +28510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>287</v>
       </c>
@@ -28515,7 +28518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>264</v>
       </c>
@@ -28523,7 +28526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>236</v>
       </c>
@@ -28531,7 +28534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>413</v>
       </c>
@@ -28539,7 +28542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>486</v>
       </c>
@@ -28547,7 +28550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>516</v>
       </c>
@@ -28555,7 +28558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
@@ -28563,7 +28566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>282</v>
       </c>
@@ -28571,7 +28574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>324</v>
       </c>
@@ -28579,7 +28582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>234</v>
       </c>
@@ -28587,7 +28590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>402</v>
       </c>
@@ -28595,7 +28598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>429</v>
       </c>
@@ -28603,7 +28606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>294</v>
       </c>
@@ -28611,7 +28614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>342</v>
       </c>
@@ -28619,7 +28622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>517</v>
       </c>
@@ -28627,7 +28630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>460</v>
       </c>
@@ -28635,7 +28638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>196</v>
       </c>
@@ -28643,7 +28646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>334</v>
       </c>
@@ -28651,7 +28654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>267</v>
       </c>
@@ -28659,7 +28662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>439</v>
       </c>
@@ -28667,7 +28670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>288</v>
       </c>
@@ -28675,7 +28678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>285</v>
       </c>
@@ -28683,7 +28686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>125</v>
       </c>
@@ -28691,7 +28694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>368</v>
       </c>
@@ -28699,7 +28702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>518</v>
       </c>
@@ -28707,7 +28710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>318</v>
       </c>
@@ -28715,7 +28718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>348</v>
       </c>
@@ -28723,7 +28726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>351</v>
       </c>
@@ -28731,7 +28734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>209</v>
       </c>
@@ -28739,7 +28742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>278</v>
       </c>
@@ -28747,7 +28750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>519</v>
       </c>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C0980-3A2B-4589-B744-3638EF8B8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EF3B4B-6131-4679-867B-2518E5CA4697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241" hidden="1">PROPUESTAS_ÁREA_I_2024[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">CONSOLIDADO_I_2024!$A$2:$DA$396</definedName>
     <definedName name="SegmentaciónDeDatos_14_15L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_20_21L">#N/A</definedName>
@@ -102,7 +102,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROPUESTAS_ÁREA_I_2024" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_2024"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024.xlsxPROPUESTAS_ÁREA_I_20241"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="545">
   <si>
     <t>Source.Name</t>
   </si>
@@ -1743,6 +1743,9 @@
   </si>
   <si>
     <t>ASTRID YULIETH GUZMÁN BURBANO</t>
+  </si>
+  <si>
+    <t>NUEVO ACTIVIDAD FISICA</t>
   </si>
 </sst>
 </file>
@@ -2751,11 +2754,6 @@
       <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -6606,7 +6604,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -6628,8 +6626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754D4503-1E10-47C8-980C-181088D300A7}">
   <dimension ref="A1:DI397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N143" sqref="N143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8759,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -13314,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="P115">
         <v>2</v>
@@ -14969,7 +14967,7 @@
         <v>1</v>
       </c>
       <c r="N143" t="s">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="P143">
         <v>2</v>
@@ -17221,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="N186" t="s">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="P186">
         <v>2</v>
@@ -27468,7 +27466,7 @@
         <v>1</v>
       </c>
       <c r="N394" t="s">
-        <v>278</v>
+        <v>544</v>
       </c>
       <c r="P394">
         <v>2</v>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C840AC-9258-45AF-9E5A-95D85AD409E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C9039-774D-4D37-BFAC-3E88C665709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$377</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -916,9 +916,6 @@
     <t>Establecer requisitos de la solución de software de acuerdo con estándares y procedimiento técnico - Modelado de artefactos.</t>
   </si>
   <si>
-    <t>2742580 A</t>
-  </si>
-  <si>
     <t>2889927 C</t>
   </si>
   <si>
@@ -1619,6 +1616,9 @@
   </si>
   <si>
     <t>21-22S</t>
+  </si>
+  <si>
+    <t>2742580 C</t>
   </si>
 </sst>
 </file>
@@ -2571,10 +2571,15 @@
       <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[CONSOLIDADO_I_2024_V2.xlsx]PivotChartTable1</c15:name>
+        <c15:name>[1-2024.xlsx]PivotChartTable1</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -6423,8 +6428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:DI377"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6468,7 +6473,7 @@
         <v>2042</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -6486,7 +6491,7 @@
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -6504,7 +6509,7 @@
       <c r="AV1" s="6"/>
       <c r="AW1" s="6"/>
       <c r="AX1" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AY1" s="6"/>
       <c r="AZ1" s="6"/>
@@ -6522,7 +6527,7 @@
       <c r="BL1" s="6"/>
       <c r="BM1" s="6"/>
       <c r="BN1" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BO1" s="6"/>
       <c r="BP1" s="6"/>
@@ -6540,7 +6545,7 @@
       <c r="CB1" s="6"/>
       <c r="CC1" s="6"/>
       <c r="CD1" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
@@ -6559,7 +6564,7 @@
       <c r="CS1" s="6"/>
       <c r="CT1" s="5"/>
       <c r="CU1" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="CV1" s="6"/>
       <c r="CW1" s="6"/>
@@ -6861,10 +6866,10 @@
         <v>96</v>
       </c>
       <c r="CT2" t="s">
+        <v>491</v>
+      </c>
+      <c r="CU2" t="s">
         <v>492</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>493</v>
       </c>
       <c r="CV2" t="s">
         <v>97</v>
@@ -6885,28 +6890,28 @@
         <v>102</v>
       </c>
       <c r="DB2" t="s">
+        <v>493</v>
+      </c>
+      <c r="DC2" t="s">
         <v>494</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DD2" t="s">
         <v>495</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DE2" t="s">
         <v>496</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DF2" t="s">
         <v>497</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DG2" t="s">
         <v>498</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DH2" t="s">
         <v>499</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
         <v>500</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.3">
@@ -7512,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -7713,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -7964,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P18">
         <v>2</v>
@@ -8141,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P21">
         <v>2</v>
@@ -8241,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -8332,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -8536,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -8813,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -8913,7 +8918,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -9202,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -9541,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P46">
         <v>2</v>
@@ -9886,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -9927,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -10093,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -10367,7 +10372,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -10417,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -10738,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -10788,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -11451,7 +11456,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C80" t="s">
         <v>105</v>
@@ -11495,7 +11500,7 @@
         <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C81" t="s">
         <v>105</v>
@@ -11617,7 +11622,7 @@
         <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C82" t="s">
         <v>105</v>
@@ -11658,7 +11663,7 @@
         <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C83" t="s">
         <v>105</v>
@@ -11708,7 +11713,7 @@
         <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C84" t="s">
         <v>105</v>
@@ -11740,7 +11745,7 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C85" t="s">
         <v>105</v>
@@ -11862,7 +11867,7 @@
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C86" t="s">
         <v>105</v>
@@ -11912,7 +11917,7 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C87" t="s">
         <v>105</v>
@@ -11933,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P87">
         <v>2</v>
@@ -12846,7 +12851,7 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O104" t="s">
         <v>195</v>
@@ -13497,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O116" t="s">
         <v>215</v>
@@ -13883,7 +13888,7 @@
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O123" t="s">
         <v>215</v>
@@ -14614,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="N136" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O136" t="s">
         <v>215</v>
@@ -15563,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="N153" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O153" t="s">
         <v>195</v>
@@ -16115,7 +16120,7 @@
         <v>1</v>
       </c>
       <c r="N162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O162" t="s">
         <v>255</v>
@@ -16159,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O163" t="s">
         <v>195</v>
@@ -16360,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O166" t="s">
         <v>255</v>
@@ -17114,7 +17119,7 @@
         <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="C180" t="s">
         <v>186</v>
@@ -17170,7 +17175,7 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="C181" t="s">
         <v>186</v>
@@ -17223,7 +17228,7 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="C182" t="s">
         <v>186</v>
@@ -17300,7 +17305,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="C183" t="s">
         <v>186</v>
@@ -17353,7 +17358,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="C184" t="s">
         <v>186</v>
@@ -17406,7 +17411,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="C185" t="s">
         <v>186</v>
@@ -17450,7 +17455,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C186" t="s">
         <v>186</v>
@@ -17465,7 +17470,7 @@
         <v>107</v>
       </c>
       <c r="G186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -17474,7 +17479,7 @@
         <v>226</v>
       </c>
       <c r="O186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P186">
         <v>8</v>
@@ -17512,7 +17517,7 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C187" t="s">
         <v>186</v>
@@ -17524,10 +17529,10 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
+        <v>269</v>
+      </c>
+      <c r="G187" t="s">
         <v>270</v>
-      </c>
-      <c r="G187" t="s">
-        <v>271</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -17536,7 +17541,7 @@
         <v>201</v>
       </c>
       <c r="O187" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P187">
         <v>8</v>
@@ -17574,7 +17579,7 @@
         <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C188" t="s">
         <v>186</v>
@@ -17589,7 +17594,7 @@
         <v>179</v>
       </c>
       <c r="G188" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17598,7 +17603,7 @@
         <v>223</v>
       </c>
       <c r="O188" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P188">
         <v>8</v>
@@ -17636,7 +17641,7 @@
         <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C189" t="s">
         <v>186</v>
@@ -17680,7 +17685,7 @@
         <v>184</v>
       </c>
       <c r="B190" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C190" t="s">
         <v>186</v>
@@ -17710,7 +17715,7 @@
         <v>1</v>
       </c>
       <c r="N190" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O190" t="s">
         <v>215</v>
@@ -17733,7 +17738,7 @@
         <v>184</v>
       </c>
       <c r="B191" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C191" t="s">
         <v>186</v>
@@ -17745,10 +17750,10 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
+        <v>272</v>
+      </c>
+      <c r="G191" t="s">
         <v>273</v>
-      </c>
-      <c r="G191" t="s">
-        <v>274</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17766,7 +17771,7 @@
         <v>224</v>
       </c>
       <c r="O191" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P191">
         <v>2</v>
@@ -17786,7 +17791,7 @@
         <v>184</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" t="s">
         <v>186</v>
@@ -17801,7 +17806,7 @@
         <v>107</v>
       </c>
       <c r="G192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J192">
         <v>1</v>
@@ -17810,7 +17815,7 @@
         <v>240</v>
       </c>
       <c r="O192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P192">
         <v>8</v>
@@ -17848,7 +17853,7 @@
         <v>184</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C193" t="s">
         <v>186</v>
@@ -17860,19 +17865,19 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>269</v>
+      </c>
+      <c r="G193" t="s">
         <v>270</v>
       </c>
-      <c r="G193" t="s">
-        <v>271</v>
-      </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="N193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O193" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P193">
         <v>4</v>
@@ -17898,7 +17903,7 @@
         <v>184</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C194" t="s">
         <v>186</v>
@@ -17910,10 +17915,10 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
+        <v>269</v>
+      </c>
+      <c r="G194" t="s">
         <v>270</v>
-      </c>
-      <c r="G194" t="s">
-        <v>271</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -17922,7 +17927,7 @@
         <v>229</v>
       </c>
       <c r="O194" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P194">
         <v>4</v>
@@ -17948,7 +17953,7 @@
         <v>184</v>
       </c>
       <c r="B195" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C195" t="s">
         <v>186</v>
@@ -17963,7 +17968,7 @@
         <v>179</v>
       </c>
       <c r="G195" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -17972,7 +17977,7 @@
         <v>228</v>
       </c>
       <c r="O195" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P195">
         <v>8</v>
@@ -18010,7 +18015,7 @@
         <v>184</v>
       </c>
       <c r="B196" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C196" t="s">
         <v>186</v>
@@ -18031,7 +18036,7 @@
         <v>1</v>
       </c>
       <c r="N196" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O196" t="s">
         <v>195</v>
@@ -18054,7 +18059,7 @@
         <v>184</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C197" t="s">
         <v>186</v>
@@ -18084,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="N197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O197" t="s">
         <v>215</v>
@@ -18107,7 +18112,7 @@
         <v>184</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
         <v>186</v>
@@ -18119,10 +18124,10 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
+        <v>272</v>
+      </c>
+      <c r="G198" t="s">
         <v>273</v>
-      </c>
-      <c r="G198" t="s">
-        <v>274</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18140,7 +18145,7 @@
         <v>240</v>
       </c>
       <c r="O198" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P198">
         <v>2</v>
@@ -18160,7 +18165,7 @@
         <v>184</v>
       </c>
       <c r="B199" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C199" t="s">
         <v>186</v>
@@ -18175,7 +18180,7 @@
         <v>107</v>
       </c>
       <c r="G199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J199">
         <v>1</v>
@@ -18184,7 +18189,7 @@
         <v>240</v>
       </c>
       <c r="O199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P199">
         <v>8</v>
@@ -18222,7 +18227,7 @@
         <v>184</v>
       </c>
       <c r="B200" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
         <v>186</v>
@@ -18234,19 +18239,19 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
+        <v>269</v>
+      </c>
+      <c r="G200" t="s">
         <v>270</v>
       </c>
-      <c r="G200" t="s">
-        <v>271</v>
-      </c>
       <c r="J200">
         <v>1</v>
       </c>
       <c r="N200" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O200" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P200">
         <v>8</v>
@@ -18284,7 +18289,7 @@
         <v>184</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
         <v>186</v>
@@ -18299,7 +18304,7 @@
         <v>179</v>
       </c>
       <c r="G201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -18308,7 +18313,7 @@
         <v>241</v>
       </c>
       <c r="O201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P201">
         <v>6</v>
@@ -18340,7 +18345,7 @@
         <v>184</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C202" t="s">
         <v>186</v>
@@ -18355,7 +18360,7 @@
         <v>179</v>
       </c>
       <c r="G202" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -18364,7 +18369,7 @@
         <v>201</v>
       </c>
       <c r="O202" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P202">
         <v>2</v>
@@ -18384,7 +18389,7 @@
         <v>184</v>
       </c>
       <c r="B203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C203" t="s">
         <v>186</v>
@@ -18405,7 +18410,7 @@
         <v>1</v>
       </c>
       <c r="N203" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O203" t="s">
         <v>195</v>
@@ -18428,7 +18433,7 @@
         <v>184</v>
       </c>
       <c r="B204" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C204" t="s">
         <v>186</v>
@@ -18458,7 +18463,7 @@
         <v>1</v>
       </c>
       <c r="N204" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O204" t="s">
         <v>215</v>
@@ -18481,7 +18486,7 @@
         <v>184</v>
       </c>
       <c r="B205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C205" t="s">
         <v>186</v>
@@ -18493,10 +18498,10 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
+        <v>272</v>
+      </c>
+      <c r="G205" t="s">
         <v>273</v>
-      </c>
-      <c r="G205" t="s">
-        <v>274</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18514,7 +18519,7 @@
         <v>240</v>
       </c>
       <c r="O205" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P205">
         <v>2</v>
@@ -18534,31 +18539,31 @@
         <v>184</v>
       </c>
       <c r="B206" t="s">
+        <v>277</v>
+      </c>
+      <c r="C206" t="s">
         <v>278</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
+        <v>275</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
         <v>279</v>
       </c>
-      <c r="D206" t="s">
-        <v>276</v>
-      </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>280</v>
       </c>
-      <c r="G206" t="s">
-        <v>281</v>
-      </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="N206" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O206" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P206">
         <v>8</v>
@@ -18596,31 +18601,31 @@
         <v>184</v>
       </c>
       <c r="B207" t="s">
+        <v>277</v>
+      </c>
+      <c r="C207" t="s">
         <v>278</v>
       </c>
-      <c r="C207" t="s">
-        <v>279</v>
-      </c>
       <c r="D207" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
+        <v>281</v>
+      </c>
+      <c r="G207" t="s">
         <v>282</v>
       </c>
-      <c r="G207" t="s">
-        <v>283</v>
-      </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="N207" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O207" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P207">
         <v>6</v>
@@ -18652,31 +18657,31 @@
         <v>184</v>
       </c>
       <c r="B208" t="s">
+        <v>277</v>
+      </c>
+      <c r="C208" t="s">
         <v>278</v>
       </c>
-      <c r="C208" t="s">
-        <v>279</v>
-      </c>
       <c r="D208" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
+        <v>283</v>
+      </c>
+      <c r="G208" t="s">
         <v>284</v>
       </c>
-      <c r="G208" t="s">
-        <v>285</v>
-      </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="N208" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O208" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P208">
         <v>4</v>
@@ -18702,13 +18707,13 @@
         <v>184</v>
       </c>
       <c r="B209" t="s">
+        <v>277</v>
+      </c>
+      <c r="C209" t="s">
         <v>278</v>
       </c>
-      <c r="C209" t="s">
-        <v>279</v>
-      </c>
       <c r="D209" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -18746,13 +18751,13 @@
         <v>184</v>
       </c>
       <c r="B210" t="s">
+        <v>277</v>
+      </c>
+      <c r="C210" t="s">
         <v>278</v>
       </c>
-      <c r="C210" t="s">
-        <v>279</v>
-      </c>
       <c r="D210" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -18776,7 +18781,7 @@
         <v>1</v>
       </c>
       <c r="N210" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O210" t="s">
         <v>215</v>
@@ -18799,13 +18804,13 @@
         <v>184</v>
       </c>
       <c r="B211" t="s">
+        <v>277</v>
+      </c>
+      <c r="C211" t="s">
         <v>278</v>
       </c>
-      <c r="C211" t="s">
-        <v>279</v>
-      </c>
       <c r="D211" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -18852,22 +18857,22 @@
         <v>184</v>
       </c>
       <c r="B212" t="s">
+        <v>277</v>
+      </c>
+      <c r="C212" t="s">
         <v>278</v>
       </c>
-      <c r="C212" t="s">
-        <v>279</v>
-      </c>
       <c r="D212" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
+        <v>272</v>
+      </c>
+      <c r="G212" t="s">
         <v>273</v>
-      </c>
-      <c r="G212" t="s">
-        <v>274</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -18885,7 +18890,7 @@
         <v>253</v>
       </c>
       <c r="O212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P212">
         <v>2</v>
@@ -18905,10 +18910,10 @@
         <v>184</v>
       </c>
       <c r="B213" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D213" t="s">
         <v>229</v>
@@ -18917,10 +18922,10 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
+        <v>279</v>
+      </c>
+      <c r="G213" t="s">
         <v>280</v>
-      </c>
-      <c r="G213" t="s">
-        <v>281</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -18929,7 +18934,7 @@
         <v>229</v>
       </c>
       <c r="O213" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P213">
         <v>8</v>
@@ -18967,10 +18972,10 @@
         <v>184</v>
       </c>
       <c r="B214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C214" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D214" t="s">
         <v>229</v>
@@ -18979,10 +18984,10 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
+        <v>281</v>
+      </c>
+      <c r="G214" t="s">
         <v>282</v>
-      </c>
-      <c r="G214" t="s">
-        <v>283</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -18991,7 +18996,7 @@
         <v>229</v>
       </c>
       <c r="O214" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P214">
         <v>6</v>
@@ -19023,10 +19028,10 @@
         <v>184</v>
       </c>
       <c r="B215" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C215" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D215" t="s">
         <v>229</v>
@@ -19035,10 +19040,10 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
+        <v>283</v>
+      </c>
+      <c r="G215" t="s">
         <v>284</v>
-      </c>
-      <c r="G215" t="s">
-        <v>285</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19047,7 +19052,7 @@
         <v>229</v>
       </c>
       <c r="O215" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P215">
         <v>4</v>
@@ -19073,10 +19078,10 @@
         <v>184</v>
       </c>
       <c r="B216" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C216" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D216" t="s">
         <v>229</v>
@@ -19094,7 +19099,7 @@
         <v>1</v>
       </c>
       <c r="N216" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O216" t="s">
         <v>195</v>
@@ -19117,10 +19122,10 @@
         <v>184</v>
       </c>
       <c r="B217" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C217" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D217" t="s">
         <v>229</v>
@@ -19147,7 +19152,7 @@
         <v>1</v>
       </c>
       <c r="N217" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O217" t="s">
         <v>215</v>
@@ -19170,10 +19175,10 @@
         <v>184</v>
       </c>
       <c r="B218" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C218" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D218" t="s">
         <v>229</v>
@@ -19223,10 +19228,10 @@
         <v>184</v>
       </c>
       <c r="B219" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C219" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D219" t="s">
         <v>229</v>
@@ -19235,10 +19240,10 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
+        <v>272</v>
+      </c>
+      <c r="G219" t="s">
         <v>273</v>
-      </c>
-      <c r="G219" t="s">
-        <v>274</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -19256,7 +19261,7 @@
         <v>253</v>
       </c>
       <c r="O219" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P219">
         <v>2</v>
@@ -19276,10 +19281,10 @@
         <v>184</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C220" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D220" t="s">
         <v>209</v>
@@ -19288,10 +19293,10 @@
         <v>3</v>
       </c>
       <c r="F220" t="s">
+        <v>287</v>
+      </c>
+      <c r="G220" t="s">
         <v>288</v>
-      </c>
-      <c r="G220" t="s">
-        <v>289</v>
       </c>
       <c r="J220">
         <v>1</v>
@@ -19300,7 +19305,7 @@
         <v>209</v>
       </c>
       <c r="O220" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P220">
         <v>16</v>
@@ -19362,10 +19367,10 @@
         <v>184</v>
       </c>
       <c r="B221" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C221" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D221" t="s">
         <v>209</v>
@@ -19374,10 +19379,10 @@
         <v>3</v>
       </c>
       <c r="F221" t="s">
+        <v>290</v>
+      </c>
+      <c r="G221" t="s">
         <v>291</v>
-      </c>
-      <c r="G221" t="s">
-        <v>292</v>
       </c>
       <c r="J221">
         <v>1</v>
@@ -19386,7 +19391,7 @@
         <v>222</v>
       </c>
       <c r="O221" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P221">
         <v>8</v>
@@ -19424,10 +19429,10 @@
         <v>184</v>
       </c>
       <c r="B222" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C222" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D222" t="s">
         <v>209</v>
@@ -19454,7 +19459,7 @@
         <v>1</v>
       </c>
       <c r="N222" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O222" t="s">
         <v>255</v>
@@ -19477,10 +19482,10 @@
         <v>184</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C223" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D223" t="s">
         <v>209</v>
@@ -19530,10 +19535,10 @@
         <v>184</v>
       </c>
       <c r="B224" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C224" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D224" t="s">
         <v>209</v>
@@ -19574,10 +19579,10 @@
         <v>184</v>
       </c>
       <c r="B225" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C225" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D225" t="s">
         <v>241</v>
@@ -19586,10 +19591,10 @@
         <v>3</v>
       </c>
       <c r="F225" t="s">
+        <v>287</v>
+      </c>
+      <c r="G225" t="s">
         <v>288</v>
-      </c>
-      <c r="G225" t="s">
-        <v>289</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -19598,7 +19603,7 @@
         <v>241</v>
       </c>
       <c r="O225" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P225">
         <v>16</v>
@@ -19660,10 +19665,10 @@
         <v>184</v>
       </c>
       <c r="B226" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C226" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D226" t="s">
         <v>241</v>
@@ -19672,10 +19677,10 @@
         <v>3</v>
       </c>
       <c r="F226" t="s">
+        <v>290</v>
+      </c>
+      <c r="G226" t="s">
         <v>291</v>
-      </c>
-      <c r="G226" t="s">
-        <v>292</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -19684,7 +19689,7 @@
         <v>187</v>
       </c>
       <c r="O226" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P226">
         <v>8</v>
@@ -19722,10 +19727,10 @@
         <v>184</v>
       </c>
       <c r="B227" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C227" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D227" t="s">
         <v>241</v>
@@ -19775,10 +19780,10 @@
         <v>184</v>
       </c>
       <c r="B228" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C228" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D228" t="s">
         <v>241</v>
@@ -19828,10 +19833,10 @@
         <v>184</v>
       </c>
       <c r="B229" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D229" t="s">
         <v>241</v>
@@ -19869,25 +19874,25 @@
     </row>
     <row r="230" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>293</v>
+      </c>
+      <c r="B230" t="s">
         <v>294</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>295</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>296</v>
-      </c>
-      <c r="D230" t="s">
-        <v>297</v>
       </c>
       <c r="E230">
         <v>7</v>
       </c>
       <c r="F230" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G230" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -19925,16 +19930,16 @@
     </row>
     <row r="231" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>293</v>
+      </c>
+      <c r="B231" t="s">
         <v>294</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>295</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>296</v>
-      </c>
-      <c r="D231" t="s">
-        <v>297</v>
       </c>
       <c r="E231">
         <v>7</v>
@@ -19943,7 +19948,7 @@
         <v>121</v>
       </c>
       <c r="G231" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -19975,16 +19980,16 @@
     </row>
     <row r="232" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>293</v>
+      </c>
+      <c r="B232" t="s">
         <v>294</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>295</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>296</v>
-      </c>
-      <c r="D232" t="s">
-        <v>297</v>
       </c>
       <c r="E232">
         <v>7</v>
@@ -19993,13 +19998,13 @@
         <v>233</v>
       </c>
       <c r="G232" t="s">
+        <v>299</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="N232" t="s">
         <v>300</v>
-      </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="N232" t="s">
-        <v>301</v>
       </c>
       <c r="P232">
         <v>6</v>
@@ -20028,16 +20033,16 @@
     </row>
     <row r="233" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>293</v>
+      </c>
+      <c r="B233" t="s">
         <v>294</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>295</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>296</v>
-      </c>
-      <c r="D233" t="s">
-        <v>297</v>
       </c>
       <c r="E233">
         <v>7</v>
@@ -20046,13 +20051,13 @@
         <v>137</v>
       </c>
       <c r="G233" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M233">
         <v>1</v>
       </c>
       <c r="N233" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P233">
         <v>6</v>
@@ -20081,16 +20086,16 @@
     </row>
     <row r="234" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>293</v>
+      </c>
+      <c r="B234" t="s">
         <v>294</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>295</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>296</v>
-      </c>
-      <c r="D234" t="s">
-        <v>297</v>
       </c>
       <c r="E234">
         <v>7</v>
@@ -20099,13 +20104,13 @@
         <v>181</v>
       </c>
       <c r="G234" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J234">
         <v>1</v>
       </c>
       <c r="N234" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P234">
         <v>10</v>
@@ -20146,16 +20151,16 @@
     </row>
     <row r="235" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B235" t="s">
+        <v>303</v>
+      </c>
+      <c r="C235" t="s">
+        <v>295</v>
+      </c>
+      <c r="D235" t="s">
         <v>304</v>
-      </c>
-      <c r="C235" t="s">
-        <v>296</v>
-      </c>
-      <c r="D235" t="s">
-        <v>305</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -20164,22 +20169,22 @@
         <v>179</v>
       </c>
       <c r="G235" t="s">
+        <v>305</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="N235" t="s">
         <v>306</v>
-      </c>
-      <c r="H235">
-        <v>1</v>
-      </c>
-      <c r="I235">
-        <v>1</v>
-      </c>
-      <c r="J235">
-        <v>1</v>
-      </c>
-      <c r="K235">
-        <v>1</v>
-      </c>
-      <c r="N235" t="s">
-        <v>307</v>
       </c>
       <c r="P235">
         <v>4</v>
@@ -20202,25 +20207,25 @@
     </row>
     <row r="236" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B236" t="s">
+        <v>303</v>
+      </c>
+      <c r="C236" t="s">
+        <v>295</v>
+      </c>
+      <c r="D236" t="s">
         <v>304</v>
       </c>
-      <c r="C236" t="s">
-        <v>296</v>
-      </c>
-      <c r="D236" t="s">
-        <v>305</v>
-      </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G236" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -20258,16 +20263,16 @@
     </row>
     <row r="237" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B237" t="s">
+        <v>303</v>
+      </c>
+      <c r="C237" t="s">
+        <v>295</v>
+      </c>
+      <c r="D237" t="s">
         <v>304</v>
-      </c>
-      <c r="C237" t="s">
-        <v>296</v>
-      </c>
-      <c r="D237" t="s">
-        <v>305</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -20276,22 +20281,22 @@
         <v>110</v>
       </c>
       <c r="G237" t="s">
+        <v>307</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="N237" t="s">
         <v>308</v>
-      </c>
-      <c r="H237">
-        <v>1</v>
-      </c>
-      <c r="I237">
-        <v>1</v>
-      </c>
-      <c r="J237">
-        <v>1</v>
-      </c>
-      <c r="K237">
-        <v>1</v>
-      </c>
-      <c r="N237" t="s">
-        <v>309</v>
       </c>
       <c r="P237">
         <v>2</v>
@@ -20308,16 +20313,16 @@
     </row>
     <row r="238" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B238" t="s">
+        <v>303</v>
+      </c>
+      <c r="C238" t="s">
+        <v>295</v>
+      </c>
+      <c r="D238" t="s">
         <v>304</v>
-      </c>
-      <c r="C238" t="s">
-        <v>296</v>
-      </c>
-      <c r="D238" t="s">
-        <v>305</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -20326,7 +20331,7 @@
         <v>121</v>
       </c>
       <c r="G238" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -20358,16 +20363,16 @@
     </row>
     <row r="239" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B239" t="s">
+        <v>303</v>
+      </c>
+      <c r="C239" t="s">
+        <v>295</v>
+      </c>
+      <c r="D239" t="s">
         <v>304</v>
-      </c>
-      <c r="C239" t="s">
-        <v>296</v>
-      </c>
-      <c r="D239" t="s">
-        <v>305</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -20376,13 +20381,13 @@
         <v>170</v>
       </c>
       <c r="G239" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="N239" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P239">
         <v>10</v>
@@ -20423,31 +20428,31 @@
     </row>
     <row r="240" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B240" t="s">
+        <v>303</v>
+      </c>
+      <c r="C240" t="s">
+        <v>295</v>
+      </c>
+      <c r="D240" t="s">
         <v>304</v>
       </c>
-      <c r="C240" t="s">
-        <v>296</v>
-      </c>
-      <c r="D240" t="s">
-        <v>305</v>
-      </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240" t="s">
+        <v>310</v>
+      </c>
+      <c r="G240" t="s">
         <v>311</v>
       </c>
-      <c r="G240" t="s">
-        <v>312</v>
-      </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="N240" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P240">
         <v>10</v>
@@ -20488,16 +20493,16 @@
     </row>
     <row r="241" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B241" t="s">
+        <v>312</v>
+      </c>
+      <c r="C241" t="s">
         <v>313</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>314</v>
-      </c>
-      <c r="D241" t="s">
-        <v>315</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -20506,7 +20511,7 @@
         <v>179</v>
       </c>
       <c r="G241" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -20521,7 +20526,7 @@
         <v>1</v>
       </c>
       <c r="N241" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P241">
         <v>3</v>
@@ -20541,25 +20546,25 @@
     </row>
     <row r="242" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B242" t="s">
+        <v>312</v>
+      </c>
+      <c r="C242" t="s">
         <v>313</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>314</v>
       </c>
-      <c r="D242" t="s">
-        <v>315</v>
-      </c>
       <c r="E242">
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G242" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H242">
         <v>1</v>
@@ -20580,7 +20585,7 @@
         <v>1</v>
       </c>
       <c r="N242" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P242">
         <v>2</v>
@@ -20597,25 +20602,25 @@
     </row>
     <row r="243" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B243" t="s">
+        <v>312</v>
+      </c>
+      <c r="C243" t="s">
         <v>313</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>314</v>
       </c>
-      <c r="D243" t="s">
-        <v>315</v>
-      </c>
       <c r="E243">
         <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G243" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -20647,16 +20652,16 @@
     </row>
     <row r="244" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B244" t="s">
+        <v>312</v>
+      </c>
+      <c r="C244" t="s">
         <v>313</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>314</v>
-      </c>
-      <c r="D244" t="s">
-        <v>315</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -20665,7 +20670,7 @@
         <v>110</v>
       </c>
       <c r="G244" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -20680,7 +20685,7 @@
         <v>1</v>
       </c>
       <c r="N244" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P244">
         <v>2</v>
@@ -20697,16 +20702,16 @@
     </row>
     <row r="245" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B245" t="s">
+        <v>312</v>
+      </c>
+      <c r="C245" t="s">
         <v>313</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>314</v>
-      </c>
-      <c r="D245" t="s">
-        <v>315</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -20715,7 +20720,7 @@
         <v>264</v>
       </c>
       <c r="G245" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -20724,7 +20729,7 @@
         <v>1</v>
       </c>
       <c r="N245" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P245">
         <v>9</v>
@@ -20762,16 +20767,16 @@
     </row>
     <row r="246" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B246" t="s">
+        <v>312</v>
+      </c>
+      <c r="C246" t="s">
         <v>313</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>314</v>
-      </c>
-      <c r="D246" t="s">
-        <v>315</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -20780,13 +20785,13 @@
         <v>262</v>
       </c>
       <c r="G246" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J246">
         <v>1</v>
       </c>
       <c r="N246" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P246">
         <v>8</v>
@@ -20821,16 +20826,16 @@
     </row>
     <row r="247" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B247" t="s">
+        <v>312</v>
+      </c>
+      <c r="C247" t="s">
         <v>313</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>314</v>
-      </c>
-      <c r="D247" t="s">
-        <v>315</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -20839,13 +20844,13 @@
         <v>254</v>
       </c>
       <c r="G247" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H247">
         <v>1</v>
       </c>
       <c r="N247" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P247">
         <v>4</v>
@@ -20868,25 +20873,25 @@
     </row>
     <row r="248" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B248" t="s">
+        <v>320</v>
+      </c>
+      <c r="C248" t="s">
+        <v>295</v>
+      </c>
+      <c r="D248" t="s">
         <v>321</v>
-      </c>
-      <c r="C248" t="s">
-        <v>296</v>
-      </c>
-      <c r="D248" t="s">
-        <v>322</v>
       </c>
       <c r="E248">
         <v>6</v>
       </c>
       <c r="F248" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G248" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -20924,16 +20929,16 @@
     </row>
     <row r="249" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B249" t="s">
+        <v>320</v>
+      </c>
+      <c r="C249" t="s">
+        <v>295</v>
+      </c>
+      <c r="D249" t="s">
         <v>321</v>
-      </c>
-      <c r="C249" t="s">
-        <v>296</v>
-      </c>
-      <c r="D249" t="s">
-        <v>322</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -20942,13 +20947,13 @@
         <v>146</v>
       </c>
       <c r="G249" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H249">
         <v>1</v>
       </c>
       <c r="N249" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P249">
         <v>4</v>
@@ -20971,16 +20976,16 @@
     </row>
     <row r="250" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B250" t="s">
+        <v>320</v>
+      </c>
+      <c r="C250" t="s">
+        <v>295</v>
+      </c>
+      <c r="D250" t="s">
         <v>321</v>
-      </c>
-      <c r="C250" t="s">
-        <v>296</v>
-      </c>
-      <c r="D250" t="s">
-        <v>322</v>
       </c>
       <c r="E250">
         <v>6</v>
@@ -20989,19 +20994,19 @@
         <v>149</v>
       </c>
       <c r="G250" t="s">
+        <v>323</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="N250" t="s">
+        <v>296</v>
+      </c>
+      <c r="O250" t="s">
         <v>324</v>
-      </c>
-      <c r="I250">
-        <v>1</v>
-      </c>
-      <c r="J250">
-        <v>1</v>
-      </c>
-      <c r="N250" t="s">
-        <v>297</v>
-      </c>
-      <c r="O250" t="s">
-        <v>325</v>
       </c>
       <c r="P250">
         <v>8</v>
@@ -21036,16 +21041,16 @@
     </row>
     <row r="251" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B251" t="s">
+        <v>320</v>
+      </c>
+      <c r="C251" t="s">
+        <v>295</v>
+      </c>
+      <c r="D251" t="s">
         <v>321</v>
-      </c>
-      <c r="C251" t="s">
-        <v>296</v>
-      </c>
-      <c r="D251" t="s">
-        <v>322</v>
       </c>
       <c r="E251">
         <v>6</v>
@@ -21054,7 +21059,7 @@
         <v>112</v>
       </c>
       <c r="G251" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K251">
         <v>1</v>
@@ -21066,7 +21071,7 @@
         <v>1</v>
       </c>
       <c r="N251" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P251">
         <v>14</v>
@@ -21119,16 +21124,16 @@
     </row>
     <row r="252" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B252" t="s">
+        <v>320</v>
+      </c>
+      <c r="C252" t="s">
+        <v>295</v>
+      </c>
+      <c r="D252" t="s">
         <v>321</v>
-      </c>
-      <c r="C252" t="s">
-        <v>296</v>
-      </c>
-      <c r="D252" t="s">
-        <v>322</v>
       </c>
       <c r="E252">
         <v>6</v>
@@ -21137,7 +21142,7 @@
         <v>216</v>
       </c>
       <c r="G252" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -21169,31 +21174,31 @@
     </row>
     <row r="253" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B253" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C253" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D253" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E253">
         <v>5</v>
       </c>
       <c r="F253" t="s">
+        <v>328</v>
+      </c>
+      <c r="G253" t="s">
         <v>329</v>
       </c>
-      <c r="G253" t="s">
-        <v>330</v>
-      </c>
       <c r="J253">
         <v>1</v>
       </c>
       <c r="N253" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P253">
         <v>4</v>
@@ -21216,31 +21221,31 @@
     </row>
     <row r="254" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C254" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D254" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E254">
         <v>5</v>
       </c>
       <c r="F254" t="s">
+        <v>330</v>
+      </c>
+      <c r="G254" t="s">
         <v>331</v>
       </c>
-      <c r="G254" t="s">
-        <v>332</v>
-      </c>
       <c r="K254">
         <v>1</v>
       </c>
       <c r="N254" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P254">
         <v>5</v>
@@ -21266,31 +21271,31 @@
     </row>
     <row r="255" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B255" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C255" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D255" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E255">
         <v>5</v>
       </c>
       <c r="F255" t="s">
+        <v>332</v>
+      </c>
+      <c r="G255" t="s">
         <v>333</v>
       </c>
-      <c r="G255" t="s">
-        <v>334</v>
-      </c>
       <c r="M255">
         <v>1</v>
       </c>
       <c r="N255" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P255">
         <v>5</v>
@@ -21316,31 +21321,31 @@
     </row>
     <row r="256" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C256" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D256" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E256">
         <v>5</v>
       </c>
       <c r="F256" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G256" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I256">
         <v>1</v>
       </c>
       <c r="N256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P256">
         <v>4</v>
@@ -21363,16 +21368,16 @@
     </row>
     <row r="257" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D257" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E257">
         <v>5</v>
@@ -21381,13 +21386,13 @@
         <v>243</v>
       </c>
       <c r="G257" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K257">
         <v>1</v>
       </c>
       <c r="N257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P257">
         <v>4</v>
@@ -21410,31 +21415,31 @@
     </row>
     <row r="258" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B258" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C258" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D258" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E258">
         <v>5</v>
       </c>
       <c r="F258" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G258" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L258">
         <v>1</v>
       </c>
       <c r="N258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P258">
         <v>2</v>
@@ -21451,25 +21456,25 @@
     </row>
     <row r="259" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B259" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C259" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D259" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E259">
         <v>5</v>
       </c>
       <c r="F259" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G259" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -21507,16 +21512,16 @@
     </row>
     <row r="260" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C260" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E260">
         <v>5</v>
@@ -21525,7 +21530,7 @@
         <v>205</v>
       </c>
       <c r="G260" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H260">
         <v>1</v>
@@ -21557,16 +21562,16 @@
     </row>
     <row r="261" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B261" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C261" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D261" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E261">
         <v>5</v>
@@ -21575,7 +21580,7 @@
         <v>207</v>
       </c>
       <c r="G261" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -21607,31 +21612,31 @@
     </row>
     <row r="262" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B262" t="s">
+        <v>339</v>
+      </c>
+      <c r="C262" t="s">
+        <v>313</v>
+      </c>
+      <c r="D262" t="s">
         <v>340</v>
-      </c>
-      <c r="C262" t="s">
-        <v>314</v>
-      </c>
-      <c r="D262" t="s">
-        <v>341</v>
       </c>
       <c r="E262">
         <v>5</v>
       </c>
       <c r="F262" t="s">
+        <v>328</v>
+      </c>
+      <c r="G262" t="s">
         <v>329</v>
       </c>
-      <c r="G262" t="s">
-        <v>330</v>
-      </c>
       <c r="J262">
         <v>1</v>
       </c>
       <c r="N262" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P262">
         <v>4</v>
@@ -21654,31 +21659,31 @@
     </row>
     <row r="263" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B263" t="s">
+        <v>339</v>
+      </c>
+      <c r="C263" t="s">
+        <v>313</v>
+      </c>
+      <c r="D263" t="s">
         <v>340</v>
-      </c>
-      <c r="C263" t="s">
-        <v>314</v>
-      </c>
-      <c r="D263" t="s">
-        <v>341</v>
       </c>
       <c r="E263">
         <v>5</v>
       </c>
       <c r="F263" t="s">
+        <v>330</v>
+      </c>
+      <c r="G263" t="s">
         <v>331</v>
       </c>
-      <c r="G263" t="s">
-        <v>332</v>
-      </c>
       <c r="K263">
         <v>1</v>
       </c>
       <c r="N263" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P263">
         <v>5</v>
@@ -21704,31 +21709,31 @@
     </row>
     <row r="264" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B264" t="s">
+        <v>339</v>
+      </c>
+      <c r="C264" t="s">
+        <v>313</v>
+      </c>
+      <c r="D264" t="s">
         <v>340</v>
-      </c>
-      <c r="C264" t="s">
-        <v>314</v>
-      </c>
-      <c r="D264" t="s">
-        <v>341</v>
       </c>
       <c r="E264">
         <v>5</v>
       </c>
       <c r="F264" t="s">
+        <v>332</v>
+      </c>
+      <c r="G264" t="s">
         <v>333</v>
       </c>
-      <c r="G264" t="s">
-        <v>334</v>
-      </c>
       <c r="M264">
         <v>1</v>
       </c>
       <c r="N264" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P264">
         <v>5</v>
@@ -21754,31 +21759,31 @@
     </row>
     <row r="265" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B265" t="s">
+        <v>339</v>
+      </c>
+      <c r="C265" t="s">
+        <v>313</v>
+      </c>
+      <c r="D265" t="s">
         <v>340</v>
-      </c>
-      <c r="C265" t="s">
-        <v>314</v>
-      </c>
-      <c r="D265" t="s">
-        <v>341</v>
       </c>
       <c r="E265">
         <v>5</v>
       </c>
       <c r="F265" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G265" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I265">
         <v>1</v>
       </c>
       <c r="N265" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P265">
         <v>4</v>
@@ -21801,16 +21806,16 @@
     </row>
     <row r="266" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B266" t="s">
+        <v>339</v>
+      </c>
+      <c r="C266" t="s">
+        <v>313</v>
+      </c>
+      <c r="D266" t="s">
         <v>340</v>
-      </c>
-      <c r="C266" t="s">
-        <v>314</v>
-      </c>
-      <c r="D266" t="s">
-        <v>341</v>
       </c>
       <c r="E266">
         <v>5</v>
@@ -21819,13 +21824,13 @@
         <v>243</v>
       </c>
       <c r="G266" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K266">
         <v>1</v>
       </c>
       <c r="N266" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P266">
         <v>4</v>
@@ -21848,31 +21853,31 @@
     </row>
     <row r="267" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B267" t="s">
+        <v>339</v>
+      </c>
+      <c r="C267" t="s">
+        <v>313</v>
+      </c>
+      <c r="D267" t="s">
         <v>340</v>
-      </c>
-      <c r="C267" t="s">
-        <v>314</v>
-      </c>
-      <c r="D267" t="s">
-        <v>341</v>
       </c>
       <c r="E267">
         <v>5</v>
       </c>
       <c r="F267" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G267" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L267">
         <v>1</v>
       </c>
       <c r="N267" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P267">
         <v>2</v>
@@ -21889,16 +21894,16 @@
     </row>
     <row r="268" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B268" t="s">
+        <v>339</v>
+      </c>
+      <c r="C268" t="s">
+        <v>313</v>
+      </c>
+      <c r="D268" t="s">
         <v>340</v>
-      </c>
-      <c r="C268" t="s">
-        <v>314</v>
-      </c>
-      <c r="D268" t="s">
-        <v>341</v>
       </c>
       <c r="E268">
         <v>5</v>
@@ -21907,7 +21912,7 @@
         <v>205</v>
       </c>
       <c r="G268" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -21939,16 +21944,16 @@
     </row>
     <row r="269" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B269" t="s">
+        <v>339</v>
+      </c>
+      <c r="C269" t="s">
+        <v>313</v>
+      </c>
+      <c r="D269" t="s">
         <v>340</v>
-      </c>
-      <c r="C269" t="s">
-        <v>314</v>
-      </c>
-      <c r="D269" t="s">
-        <v>341</v>
       </c>
       <c r="E269">
         <v>5</v>
@@ -21957,7 +21962,7 @@
         <v>207</v>
       </c>
       <c r="G269" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -21989,25 +21994,25 @@
     </row>
     <row r="270" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B270" t="s">
+        <v>339</v>
+      </c>
+      <c r="C270" t="s">
+        <v>313</v>
+      </c>
+      <c r="D270" t="s">
         <v>340</v>
-      </c>
-      <c r="C270" t="s">
-        <v>314</v>
-      </c>
-      <c r="D270" t="s">
-        <v>341</v>
       </c>
       <c r="E270">
         <v>5</v>
       </c>
       <c r="F270" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G270" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -22045,31 +22050,31 @@
     </row>
     <row r="271" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B271" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C271" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D271" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E271">
         <v>7</v>
       </c>
       <c r="F271" t="s">
+        <v>332</v>
+      </c>
+      <c r="G271" t="s">
         <v>333</v>
       </c>
-      <c r="G271" t="s">
-        <v>334</v>
-      </c>
       <c r="M271">
         <v>1</v>
       </c>
       <c r="N271" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P271">
         <v>9</v>
@@ -22107,31 +22112,31 @@
     </row>
     <row r="272" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B272" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C272" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D272" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E272">
         <v>7</v>
       </c>
       <c r="F272" t="s">
+        <v>343</v>
+      </c>
+      <c r="G272" t="s">
         <v>344</v>
       </c>
-      <c r="G272" t="s">
-        <v>345</v>
-      </c>
       <c r="L272">
         <v>1</v>
       </c>
       <c r="N272" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P272">
         <v>9</v>
@@ -22169,31 +22174,31 @@
     </row>
     <row r="273" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B273" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C273" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D273" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E273">
         <v>7</v>
       </c>
       <c r="F273" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G273" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L273">
         <v>1</v>
       </c>
       <c r="N273" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P273">
         <v>8</v>
@@ -22228,25 +22233,25 @@
     </row>
     <row r="274" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B274" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D274" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E274">
         <v>7</v>
       </c>
       <c r="F274" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G274" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -22284,16 +22289,16 @@
     </row>
     <row r="275" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B275" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C275" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D275" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E275">
         <v>7</v>
@@ -22302,7 +22307,7 @@
         <v>121</v>
       </c>
       <c r="G275" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -22334,31 +22339,31 @@
     </row>
     <row r="276" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B276" t="s">
+        <v>346</v>
+      </c>
+      <c r="C276" t="s">
         <v>347</v>
       </c>
-      <c r="C276" t="s">
-        <v>348</v>
-      </c>
       <c r="D276" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E276">
         <v>3</v>
       </c>
       <c r="F276" t="s">
+        <v>348</v>
+      </c>
+      <c r="G276" t="s">
         <v>349</v>
       </c>
-      <c r="G276" t="s">
-        <v>350</v>
-      </c>
       <c r="L276">
         <v>1</v>
       </c>
       <c r="N276" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P276">
         <v>4</v>
@@ -22381,31 +22386,31 @@
     </row>
     <row r="277" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B277" t="s">
+        <v>346</v>
+      </c>
+      <c r="C277" t="s">
         <v>347</v>
       </c>
-      <c r="C277" t="s">
-        <v>348</v>
-      </c>
       <c r="D277" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E277">
         <v>3</v>
       </c>
       <c r="F277" t="s">
+        <v>350</v>
+      </c>
+      <c r="G277" t="s">
         <v>351</v>
       </c>
-      <c r="G277" t="s">
-        <v>352</v>
-      </c>
       <c r="J277">
         <v>1</v>
       </c>
       <c r="N277" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P277">
         <v>4</v>
@@ -22428,31 +22433,31 @@
     </row>
     <row r="278" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B278" t="s">
+        <v>346</v>
+      </c>
+      <c r="C278" t="s">
         <v>347</v>
       </c>
-      <c r="C278" t="s">
-        <v>348</v>
-      </c>
       <c r="D278" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E278">
         <v>3</v>
       </c>
       <c r="F278" t="s">
+        <v>352</v>
+      </c>
+      <c r="G278" t="s">
         <v>353</v>
       </c>
-      <c r="G278" t="s">
-        <v>354</v>
-      </c>
       <c r="K278">
         <v>1</v>
       </c>
       <c r="N278" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P278">
         <v>4</v>
@@ -22475,31 +22480,31 @@
     </row>
     <row r="279" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B279" t="s">
+        <v>346</v>
+      </c>
+      <c r="C279" t="s">
         <v>347</v>
       </c>
-      <c r="C279" t="s">
-        <v>348</v>
-      </c>
       <c r="D279" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E279">
         <v>3</v>
       </c>
       <c r="F279" t="s">
+        <v>354</v>
+      </c>
+      <c r="G279" t="s">
         <v>355</v>
       </c>
-      <c r="G279" t="s">
-        <v>356</v>
-      </c>
       <c r="J279">
         <v>1</v>
       </c>
       <c r="N279" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P279">
         <v>4</v>
@@ -22522,31 +22527,31 @@
     </row>
     <row r="280" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B280" t="s">
+        <v>346</v>
+      </c>
+      <c r="C280" t="s">
         <v>347</v>
       </c>
-      <c r="C280" t="s">
-        <v>348</v>
-      </c>
       <c r="D280" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E280">
         <v>3</v>
       </c>
       <c r="F280" t="s">
+        <v>356</v>
+      </c>
+      <c r="G280" t="s">
         <v>357</v>
       </c>
-      <c r="G280" t="s">
-        <v>358</v>
-      </c>
       <c r="K280">
         <v>1</v>
       </c>
       <c r="N280" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P280">
         <v>2</v>
@@ -22563,25 +22568,25 @@
     </row>
     <row r="281" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B281" t="s">
+        <v>346</v>
+      </c>
+      <c r="C281" t="s">
         <v>347</v>
       </c>
-      <c r="C281" t="s">
-        <v>348</v>
-      </c>
       <c r="D281" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E281">
         <v>3</v>
       </c>
       <c r="F281" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G281" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -22619,16 +22624,16 @@
     </row>
     <row r="282" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B282" t="s">
+        <v>346</v>
+      </c>
+      <c r="C282" t="s">
         <v>347</v>
       </c>
-      <c r="C282" t="s">
-        <v>348</v>
-      </c>
       <c r="D282" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E282">
         <v>3</v>
@@ -22637,7 +22642,7 @@
         <v>205</v>
       </c>
       <c r="G282" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -22652,7 +22657,7 @@
         <v>1</v>
       </c>
       <c r="N282" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P282">
         <v>2</v>
@@ -22669,16 +22674,16 @@
     </row>
     <row r="283" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B283" t="s">
+        <v>346</v>
+      </c>
+      <c r="C283" t="s">
         <v>347</v>
       </c>
-      <c r="C283" t="s">
-        <v>348</v>
-      </c>
       <c r="D283" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E283">
         <v>3</v>
@@ -22687,7 +22692,7 @@
         <v>194</v>
       </c>
       <c r="G283" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -22702,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="N283" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P283">
         <v>2</v>
@@ -22719,25 +22724,25 @@
     </row>
     <row r="284" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B284" t="s">
+        <v>346</v>
+      </c>
+      <c r="C284" t="s">
         <v>347</v>
       </c>
-      <c r="C284" t="s">
-        <v>348</v>
-      </c>
       <c r="D284" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E284">
         <v>3</v>
       </c>
       <c r="F284" t="s">
+        <v>359</v>
+      </c>
+      <c r="G284" t="s">
         <v>360</v>
-      </c>
-      <c r="G284" t="s">
-        <v>361</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -22769,25 +22774,25 @@
     </row>
     <row r="285" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
+        <v>361</v>
+      </c>
+      <c r="B285" t="s">
         <v>362</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>363</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>364</v>
-      </c>
-      <c r="D285" t="s">
-        <v>365</v>
       </c>
       <c r="E285">
         <v>7</v>
       </c>
       <c r="F285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G285" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -22802,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="N285" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P285">
         <v>22</v>
@@ -22879,16 +22884,16 @@
     </row>
     <row r="286" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>361</v>
+      </c>
+      <c r="B286" t="s">
         <v>362</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>363</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>364</v>
-      </c>
-      <c r="D286" t="s">
-        <v>365</v>
       </c>
       <c r="E286">
         <v>7</v>
@@ -22897,7 +22902,7 @@
         <v>121</v>
       </c>
       <c r="G286" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -22912,7 +22917,7 @@
         <v>1</v>
       </c>
       <c r="N286" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P286">
         <v>2</v>
@@ -22929,16 +22934,16 @@
     </row>
     <row r="287" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>361</v>
+      </c>
+      <c r="B287" t="s">
         <v>362</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>363</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>364</v>
-      </c>
-      <c r="D287" t="s">
-        <v>365</v>
       </c>
       <c r="E287">
         <v>7</v>
@@ -22947,7 +22952,7 @@
         <v>107</v>
       </c>
       <c r="G287" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -22962,7 +22967,7 @@
         <v>1</v>
       </c>
       <c r="N287" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P287">
         <v>2</v>
@@ -22979,16 +22984,16 @@
     </row>
     <row r="288" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B288" t="s">
+        <v>368</v>
+      </c>
+      <c r="C288" t="s">
         <v>369</v>
       </c>
-      <c r="C288" t="s">
+      <c r="D288" t="s">
         <v>370</v>
-      </c>
-      <c r="D288" t="s">
-        <v>371</v>
       </c>
       <c r="E288">
         <v>7</v>
@@ -22997,7 +23002,7 @@
         <v>248</v>
       </c>
       <c r="G288" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I288">
         <v>1</v>
@@ -23006,7 +23011,7 @@
         <v>1</v>
       </c>
       <c r="N288" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P288">
         <v>16</v>
@@ -23065,16 +23070,16 @@
     </row>
     <row r="289" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B289" t="s">
+        <v>368</v>
+      </c>
+      <c r="C289" t="s">
         <v>369</v>
       </c>
-      <c r="C289" t="s">
+      <c r="D289" t="s">
         <v>370</v>
-      </c>
-      <c r="D289" t="s">
-        <v>371</v>
       </c>
       <c r="E289">
         <v>7</v>
@@ -23083,13 +23088,13 @@
         <v>248</v>
       </c>
       <c r="G289" t="s">
+        <v>371</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="N289" t="s">
         <v>372</v>
-      </c>
-      <c r="H289">
-        <v>1</v>
-      </c>
-      <c r="N289" t="s">
-        <v>373</v>
       </c>
       <c r="P289">
         <v>4</v>
@@ -23112,16 +23117,16 @@
     </row>
     <row r="290" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B290" t="s">
+        <v>368</v>
+      </c>
+      <c r="C290" t="s">
         <v>369</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>370</v>
-      </c>
-      <c r="D290" t="s">
-        <v>371</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -23130,13 +23135,13 @@
         <v>248</v>
       </c>
       <c r="G290" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J290">
         <v>1</v>
       </c>
       <c r="N290" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P290">
         <v>12</v>
@@ -23183,16 +23188,16 @@
     </row>
     <row r="291" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B291" t="s">
+        <v>368</v>
+      </c>
+      <c r="C291" t="s">
         <v>369</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>370</v>
-      </c>
-      <c r="D291" t="s">
-        <v>371</v>
       </c>
       <c r="E291">
         <v>7</v>
@@ -23201,7 +23206,7 @@
         <v>121</v>
       </c>
       <c r="G291" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -23239,16 +23244,16 @@
     </row>
     <row r="292" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B292" t="s">
+        <v>368</v>
+      </c>
+      <c r="C292" t="s">
         <v>369</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>370</v>
-      </c>
-      <c r="D292" t="s">
-        <v>371</v>
       </c>
       <c r="E292">
         <v>7</v>
@@ -23257,7 +23262,7 @@
         <v>207</v>
       </c>
       <c r="G292" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H292">
         <v>1</v>
@@ -23272,7 +23277,7 @@
         <v>1</v>
       </c>
       <c r="N292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P292">
         <v>2</v>
@@ -23289,40 +23294,40 @@
     </row>
     <row r="293" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B293" t="s">
+        <v>374</v>
+      </c>
+      <c r="C293" t="s">
+        <v>363</v>
+      </c>
+      <c r="D293" t="s">
         <v>375</v>
-      </c>
-      <c r="C293" t="s">
-        <v>364</v>
-      </c>
-      <c r="D293" t="s">
-        <v>376</v>
       </c>
       <c r="E293">
         <v>6</v>
       </c>
       <c r="F293" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G293" t="s">
+        <v>376</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="N293" t="s">
         <v>377</v>
-      </c>
-      <c r="H293">
-        <v>1</v>
-      </c>
-      <c r="I293">
-        <v>1</v>
-      </c>
-      <c r="J293">
-        <v>1</v>
-      </c>
-      <c r="K293">
-        <v>1</v>
-      </c>
-      <c r="N293" t="s">
-        <v>378</v>
       </c>
       <c r="P293">
         <v>26</v>
@@ -23411,16 +23416,16 @@
     </row>
     <row r="294" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B294" t="s">
+        <v>374</v>
+      </c>
+      <c r="C294" t="s">
+        <v>363</v>
+      </c>
+      <c r="D294" t="s">
         <v>375</v>
-      </c>
-      <c r="C294" t="s">
-        <v>364</v>
-      </c>
-      <c r="D294" t="s">
-        <v>376</v>
       </c>
       <c r="E294">
         <v>6</v>
@@ -23429,22 +23434,22 @@
         <v>110</v>
       </c>
       <c r="G294" t="s">
+        <v>378</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="N294" t="s">
         <v>379</v>
-      </c>
-      <c r="H294">
-        <v>1</v>
-      </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
-      <c r="J294">
-        <v>1</v>
-      </c>
-      <c r="K294">
-        <v>1</v>
-      </c>
-      <c r="N294" t="s">
-        <v>380</v>
       </c>
       <c r="P294">
         <v>2</v>
@@ -23461,16 +23466,16 @@
     </row>
     <row r="295" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B295" t="s">
+        <v>374</v>
+      </c>
+      <c r="C295" t="s">
+        <v>363</v>
+      </c>
+      <c r="D295" t="s">
         <v>375</v>
-      </c>
-      <c r="C295" t="s">
-        <v>364</v>
-      </c>
-      <c r="D295" t="s">
-        <v>376</v>
       </c>
       <c r="E295">
         <v>6</v>
@@ -23479,7 +23484,7 @@
         <v>121</v>
       </c>
       <c r="G295" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -23517,16 +23522,16 @@
     </row>
     <row r="296" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B296" t="s">
+        <v>380</v>
+      </c>
+      <c r="C296" t="s">
+        <v>363</v>
+      </c>
+      <c r="D296" t="s">
         <v>381</v>
-      </c>
-      <c r="C296" t="s">
-        <v>364</v>
-      </c>
-      <c r="D296" t="s">
-        <v>382</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -23535,7 +23540,7 @@
         <v>254</v>
       </c>
       <c r="G296" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -23550,7 +23555,7 @@
         <v>1</v>
       </c>
       <c r="N296" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P296">
         <v>28</v>
@@ -23645,16 +23650,16 @@
     </row>
     <row r="297" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B297" t="s">
+        <v>380</v>
+      </c>
+      <c r="C297" t="s">
+        <v>363</v>
+      </c>
+      <c r="D297" t="s">
         <v>381</v>
-      </c>
-      <c r="C297" t="s">
-        <v>364</v>
-      </c>
-      <c r="D297" t="s">
-        <v>382</v>
       </c>
       <c r="E297">
         <v>5</v>
@@ -23663,7 +23668,7 @@
         <v>121</v>
       </c>
       <c r="G297" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -23695,31 +23700,31 @@
     </row>
     <row r="298" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B298" t="s">
+        <v>383</v>
+      </c>
+      <c r="C298" t="s">
         <v>384</v>
       </c>
-      <c r="C298" t="s">
+      <c r="D298" t="s">
         <v>385</v>
-      </c>
-      <c r="D298" t="s">
-        <v>386</v>
       </c>
       <c r="E298">
         <v>3</v>
       </c>
       <c r="F298" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G298" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K298">
         <v>1</v>
       </c>
       <c r="N298" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P298">
         <v>8</v>
@@ -23754,26 +23759,26 @@
     </row>
     <row r="299" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B299" t="s">
+        <v>383</v>
+      </c>
+      <c r="C299" t="s">
         <v>384</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" t="s">
         <v>385</v>
-      </c>
-      <c r="D299" t="s">
-        <v>386</v>
       </c>
       <c r="E299">
         <v>3</v>
       </c>
       <c r="F299" t="s">
+        <v>387</v>
+      </c>
+      <c r="G299" t="s">
         <v>388</v>
       </c>
-      <c r="G299" t="s">
-        <v>389</v>
-      </c>
       <c r="H299">
         <v>1</v>
       </c>
@@ -23784,7 +23789,7 @@
         <v>1</v>
       </c>
       <c r="N299" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P299">
         <v>4</v>
@@ -23807,25 +23812,25 @@
     </row>
     <row r="300" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B300" t="s">
+        <v>383</v>
+      </c>
+      <c r="C300" t="s">
         <v>384</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>385</v>
-      </c>
-      <c r="D300" t="s">
-        <v>386</v>
       </c>
       <c r="E300">
         <v>3</v>
       </c>
       <c r="F300" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G300" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -23837,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="N300" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P300">
         <v>6</v>
@@ -23866,26 +23871,26 @@
     </row>
     <row r="301" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B301" t="s">
+        <v>383</v>
+      </c>
+      <c r="C301" t="s">
         <v>384</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>385</v>
-      </c>
-      <c r="D301" t="s">
-        <v>386</v>
       </c>
       <c r="E301">
         <v>3</v>
       </c>
       <c r="F301" t="s">
+        <v>390</v>
+      </c>
+      <c r="G301" t="s">
         <v>391</v>
       </c>
-      <c r="G301" t="s">
-        <v>392</v>
-      </c>
       <c r="I301">
         <v>1</v>
       </c>
@@ -23893,7 +23898,7 @@
         <v>1</v>
       </c>
       <c r="N301" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P301">
         <v>4</v>
@@ -23916,31 +23921,31 @@
     </row>
     <row r="302" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B302" t="s">
+        <v>383</v>
+      </c>
+      <c r="C302" t="s">
         <v>384</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>385</v>
-      </c>
-      <c r="D302" t="s">
-        <v>386</v>
       </c>
       <c r="E302">
         <v>3</v>
       </c>
       <c r="F302" t="s">
+        <v>390</v>
+      </c>
+      <c r="G302" t="s">
         <v>391</v>
       </c>
-      <c r="G302" t="s">
-        <v>392</v>
-      </c>
       <c r="K302">
         <v>1</v>
       </c>
       <c r="N302" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P302">
         <v>2</v>
@@ -23957,16 +23962,16 @@
     </row>
     <row r="303" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B303" t="s">
+        <v>383</v>
+      </c>
+      <c r="C303" t="s">
         <v>384</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>385</v>
-      </c>
-      <c r="D303" t="s">
-        <v>386</v>
       </c>
       <c r="E303">
         <v>3</v>
@@ -23975,7 +23980,7 @@
         <v>121</v>
       </c>
       <c r="G303" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -24007,16 +24012,16 @@
     </row>
     <row r="304" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B304" t="s">
+        <v>383</v>
+      </c>
+      <c r="C304" t="s">
         <v>384</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>385</v>
-      </c>
-      <c r="D304" t="s">
-        <v>386</v>
       </c>
       <c r="E304">
         <v>3</v>
@@ -24025,7 +24030,7 @@
         <v>179</v>
       </c>
       <c r="G304" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -24040,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="N304" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P304">
         <v>2</v>
@@ -24057,25 +24062,25 @@
     </row>
     <row r="305" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B305" t="s">
+        <v>383</v>
+      </c>
+      <c r="C305" t="s">
         <v>384</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>385</v>
-      </c>
-      <c r="D305" t="s">
-        <v>386</v>
       </c>
       <c r="E305">
         <v>3</v>
       </c>
       <c r="F305" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G305" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -24090,7 +24095,7 @@
         <v>1</v>
       </c>
       <c r="N305" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P305">
         <v>2</v>
@@ -24107,25 +24112,25 @@
     </row>
     <row r="306" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B306" t="s">
+        <v>394</v>
+      </c>
+      <c r="C306" t="s">
+        <v>363</v>
+      </c>
+      <c r="D306" t="s">
         <v>395</v>
-      </c>
-      <c r="C306" t="s">
-        <v>364</v>
-      </c>
-      <c r="D306" t="s">
-        <v>396</v>
       </c>
       <c r="E306">
         <v>2</v>
       </c>
       <c r="F306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G306" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -24140,7 +24145,7 @@
         <v>1</v>
       </c>
       <c r="N306" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P306">
         <v>26</v>
@@ -24229,40 +24234,40 @@
     </row>
     <row r="307" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B307" t="s">
+        <v>394</v>
+      </c>
+      <c r="C307" t="s">
+        <v>363</v>
+      </c>
+      <c r="D307" t="s">
         <v>395</v>
-      </c>
-      <c r="C307" t="s">
-        <v>364</v>
-      </c>
-      <c r="D307" t="s">
-        <v>396</v>
       </c>
       <c r="E307">
         <v>2</v>
       </c>
       <c r="F307" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G307" t="s">
+        <v>397</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="N307" t="s">
         <v>398</v>
-      </c>
-      <c r="H307">
-        <v>1</v>
-      </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-      <c r="J307">
-        <v>1</v>
-      </c>
-      <c r="K307">
-        <v>1</v>
-      </c>
-      <c r="N307" t="s">
-        <v>399</v>
       </c>
       <c r="P307">
         <v>2</v>
@@ -24279,16 +24284,16 @@
     </row>
     <row r="308" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B308" t="s">
+        <v>394</v>
+      </c>
+      <c r="C308" t="s">
+        <v>363</v>
+      </c>
+      <c r="D308" t="s">
         <v>395</v>
-      </c>
-      <c r="C308" t="s">
-        <v>364</v>
-      </c>
-      <c r="D308" t="s">
-        <v>396</v>
       </c>
       <c r="E308">
         <v>2</v>
@@ -24297,7 +24302,7 @@
         <v>121</v>
       </c>
       <c r="G308" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -24335,31 +24340,31 @@
     </row>
     <row r="309" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B309" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C309" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D309" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E309">
         <v>2</v>
       </c>
       <c r="F309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G309" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H309">
         <v>1</v>
       </c>
       <c r="N309" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P309">
         <v>4</v>
@@ -24382,31 +24387,31 @@
     </row>
     <row r="310" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B310" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C310" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D310" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E310">
         <v>2</v>
       </c>
       <c r="F310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G310" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I310">
         <v>1</v>
       </c>
       <c r="N310" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P310">
         <v>18</v>
@@ -24471,16 +24476,16 @@
     </row>
     <row r="311" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B311" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C311" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D311" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E311">
         <v>2</v>
@@ -24489,7 +24494,7 @@
         <v>121</v>
       </c>
       <c r="G311" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -24527,25 +24532,25 @@
     </row>
     <row r="312" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B312" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C312" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D312" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E312">
         <v>2</v>
       </c>
       <c r="F312" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G312" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -24577,16 +24582,16 @@
     </row>
     <row r="313" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B313" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C313" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D313" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E313">
         <v>2</v>
@@ -24595,7 +24600,7 @@
         <v>194</v>
       </c>
       <c r="G313" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -24627,16 +24632,16 @@
     </row>
     <row r="314" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B314" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C314" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D314" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E314">
         <v>2</v>
@@ -24645,22 +24650,22 @@
         <v>110</v>
       </c>
       <c r="G314" t="s">
+        <v>378</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="N314" t="s">
         <v>379</v>
-      </c>
-      <c r="H314">
-        <v>1</v>
-      </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
-      <c r="J314">
-        <v>1</v>
-      </c>
-      <c r="K314">
-        <v>1</v>
-      </c>
-      <c r="N314" t="s">
-        <v>380</v>
       </c>
       <c r="P314">
         <v>2</v>
@@ -24677,16 +24682,16 @@
     </row>
     <row r="315" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B315" t="s">
+        <v>403</v>
+      </c>
+      <c r="C315" t="s">
         <v>404</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>405</v>
-      </c>
-      <c r="D315" t="s">
-        <v>406</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -24695,7 +24700,7 @@
         <v>216</v>
       </c>
       <c r="G315" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -24707,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="N315" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P315">
         <v>4</v>
@@ -24730,16 +24735,16 @@
     </row>
     <row r="316" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B316" t="s">
+        <v>403</v>
+      </c>
+      <c r="C316" t="s">
         <v>404</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
         <v>405</v>
-      </c>
-      <c r="D316" t="s">
-        <v>406</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -24748,7 +24753,7 @@
         <v>262</v>
       </c>
       <c r="G316" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -24763,7 +24768,7 @@
         <v>1</v>
       </c>
       <c r="N316" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P316">
         <v>20</v>
@@ -24834,16 +24839,16 @@
     </row>
     <row r="317" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B317" t="s">
+        <v>403</v>
+      </c>
+      <c r="C317" t="s">
         <v>404</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
         <v>405</v>
-      </c>
-      <c r="D317" t="s">
-        <v>406</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -24852,7 +24857,7 @@
         <v>121</v>
       </c>
       <c r="G317" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -24884,16 +24889,16 @@
     </row>
     <row r="318" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B318" t="s">
+        <v>403</v>
+      </c>
+      <c r="C318" t="s">
         <v>404</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>405</v>
-      </c>
-      <c r="D318" t="s">
-        <v>406</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -24902,7 +24907,7 @@
         <v>179</v>
       </c>
       <c r="G318" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -24917,7 +24922,7 @@
         <v>1</v>
       </c>
       <c r="N318" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P318">
         <v>2</v>
@@ -24934,40 +24939,40 @@
     </row>
     <row r="319" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B319" t="s">
+        <v>403</v>
+      </c>
+      <c r="C319" t="s">
         <v>404</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>405</v>
       </c>
-      <c r="D319" t="s">
-        <v>406</v>
-      </c>
       <c r="E319">
         <v>1</v>
       </c>
       <c r="F319" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G319" t="s">
+        <v>397</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>1</v>
+      </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
+      <c r="N319" t="s">
         <v>398</v>
-      </c>
-      <c r="H319">
-        <v>1</v>
-      </c>
-      <c r="I319">
-        <v>1</v>
-      </c>
-      <c r="J319">
-        <v>1</v>
-      </c>
-      <c r="K319">
-        <v>1</v>
-      </c>
-      <c r="N319" t="s">
-        <v>399</v>
       </c>
       <c r="P319">
         <v>2</v>
@@ -24984,16 +24989,16 @@
     </row>
     <row r="320" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B320" t="s">
+        <v>408</v>
+      </c>
+      <c r="C320" t="s">
         <v>409</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>410</v>
-      </c>
-      <c r="D320" t="s">
-        <v>411</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -25002,7 +25007,7 @@
         <v>216</v>
       </c>
       <c r="G320" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -25014,7 +25019,7 @@
         <v>1</v>
       </c>
       <c r="N320" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P320">
         <v>4</v>
@@ -25037,16 +25042,16 @@
     </row>
     <row r="321" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B321" t="s">
+        <v>408</v>
+      </c>
+      <c r="C321" t="s">
         <v>409</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>410</v>
-      </c>
-      <c r="D321" t="s">
-        <v>411</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -25055,7 +25060,7 @@
         <v>233</v>
       </c>
       <c r="G321" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -25070,7 +25075,7 @@
         <v>1</v>
       </c>
       <c r="N321" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P321">
         <v>22</v>
@@ -25147,16 +25152,16 @@
     </row>
     <row r="322" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B322" t="s">
+        <v>408</v>
+      </c>
+      <c r="C322" t="s">
         <v>409</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>410</v>
-      </c>
-      <c r="D322" t="s">
-        <v>411</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -25165,7 +25170,7 @@
         <v>121</v>
       </c>
       <c r="G322" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -25203,16 +25208,16 @@
     </row>
     <row r="323" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B323" t="s">
+        <v>408</v>
+      </c>
+      <c r="C323" t="s">
         <v>409</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>410</v>
-      </c>
-      <c r="D323" t="s">
-        <v>411</v>
       </c>
       <c r="E323">
         <v>1</v>
@@ -25221,7 +25226,7 @@
         <v>107</v>
       </c>
       <c r="G323" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -25236,7 +25241,7 @@
         <v>1</v>
       </c>
       <c r="N323" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P323">
         <v>2</v>
@@ -25253,16 +25258,16 @@
     </row>
     <row r="324" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>412</v>
+      </c>
+      <c r="B324" t="s">
         <v>413</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>414</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>415</v>
-      </c>
-      <c r="D324" t="s">
-        <v>416</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -25271,13 +25276,13 @@
         <v>112</v>
       </c>
       <c r="G324" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J324">
         <v>3</v>
       </c>
       <c r="N324" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P324">
         <v>8</v>
@@ -25312,16 +25317,16 @@
     </row>
     <row r="325" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>412</v>
+      </c>
+      <c r="B325" t="s">
         <v>413</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>414</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>415</v>
-      </c>
-      <c r="D325" t="s">
-        <v>416</v>
       </c>
       <c r="E325">
         <v>3</v>
@@ -25330,13 +25335,13 @@
         <v>132</v>
       </c>
       <c r="G325" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J325">
         <v>3</v>
       </c>
       <c r="N325" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P325">
         <v>4</v>
@@ -25359,16 +25364,16 @@
     </row>
     <row r="326" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>412</v>
+      </c>
+      <c r="B326" t="s">
         <v>413</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>414</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>415</v>
-      </c>
-      <c r="D326" t="s">
-        <v>416</v>
       </c>
       <c r="E326">
         <v>4</v>
@@ -25377,7 +25382,7 @@
         <v>251</v>
       </c>
       <c r="G326" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -25392,7 +25397,7 @@
         <v>3</v>
       </c>
       <c r="N326" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P326">
         <v>4</v>
@@ -25415,16 +25420,16 @@
     </row>
     <row r="327" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>412</v>
+      </c>
+      <c r="B327" t="s">
         <v>413</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>414</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>415</v>
-      </c>
-      <c r="D327" t="s">
-        <v>416</v>
       </c>
       <c r="E327">
         <v>3</v>
@@ -25433,13 +25438,13 @@
         <v>264</v>
       </c>
       <c r="G327" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K327">
         <v>3</v>
       </c>
       <c r="N327" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P327">
         <v>6</v>
@@ -25468,22 +25473,22 @@
     </row>
     <row r="328" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>412</v>
+      </c>
+      <c r="B328" t="s">
         <v>413</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>414</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>415</v>
-      </c>
-      <c r="D328" t="s">
-        <v>416</v>
       </c>
       <c r="E328">
         <v>3</v>
       </c>
       <c r="F328" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G328" t="s">
         <v>257</v>
@@ -25518,22 +25523,22 @@
     </row>
     <row r="329" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>412</v>
+      </c>
+      <c r="B329" t="s">
         <v>413</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>414</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>415</v>
-      </c>
-      <c r="D329" t="s">
-        <v>416</v>
       </c>
       <c r="E329">
         <v>3</v>
       </c>
       <c r="F329" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G329" t="s">
         <v>195</v>
@@ -25562,16 +25567,16 @@
     </row>
     <row r="330" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>412</v>
+      </c>
+      <c r="B330" t="s">
         <v>413</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>414</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
         <v>415</v>
-      </c>
-      <c r="D330" t="s">
-        <v>416</v>
       </c>
       <c r="E330">
         <v>3</v>
@@ -25580,7 +25585,7 @@
         <v>254</v>
       </c>
       <c r="G330" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H330">
         <v>3</v>
@@ -25595,7 +25600,7 @@
         <v>3</v>
       </c>
       <c r="N330" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P330">
         <v>2</v>
@@ -25612,25 +25617,25 @@
     </row>
     <row r="331" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
+        <v>412</v>
+      </c>
+      <c r="B331" t="s">
         <v>413</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>414</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>415</v>
-      </c>
-      <c r="D331" t="s">
-        <v>416</v>
       </c>
       <c r="E331">
         <v>3</v>
       </c>
       <c r="F331" t="s">
+        <v>423</v>
+      </c>
+      <c r="G331" t="s">
         <v>424</v>
-      </c>
-      <c r="G331" t="s">
-        <v>425</v>
       </c>
       <c r="H331">
         <v>3</v>
@@ -25662,16 +25667,16 @@
     </row>
     <row r="332" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B332" t="s">
+        <v>425</v>
+      </c>
+      <c r="C332" t="s">
         <v>426</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>427</v>
-      </c>
-      <c r="D332" t="s">
-        <v>428</v>
       </c>
       <c r="E332">
         <v>2</v>
@@ -25680,13 +25685,13 @@
         <v>216</v>
       </c>
       <c r="G332" t="s">
+        <v>428</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="N332" t="s">
         <v>429</v>
-      </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
-      <c r="N332" t="s">
-        <v>430</v>
       </c>
       <c r="P332">
         <v>10</v>
@@ -25727,31 +25732,31 @@
     </row>
     <row r="333" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B333" t="s">
+        <v>425</v>
+      </c>
+      <c r="C333" t="s">
         <v>426</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>427</v>
-      </c>
-      <c r="D333" t="s">
-        <v>428</v>
       </c>
       <c r="E333">
         <v>2</v>
       </c>
       <c r="F333" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G333" t="s">
+        <v>430</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="N333" t="s">
         <v>431</v>
-      </c>
-      <c r="I333">
-        <v>1</v>
-      </c>
-      <c r="N333" t="s">
-        <v>432</v>
       </c>
       <c r="P333">
         <v>8</v>
@@ -25786,16 +25791,16 @@
     </row>
     <row r="334" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B334" t="s">
+        <v>425</v>
+      </c>
+      <c r="C334" t="s">
         <v>426</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>427</v>
-      </c>
-      <c r="D334" t="s">
-        <v>428</v>
       </c>
       <c r="E334">
         <v>2</v>
@@ -25804,13 +25809,13 @@
         <v>107</v>
       </c>
       <c r="G334" t="s">
+        <v>432</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+      <c r="N334" t="s">
         <v>433</v>
-      </c>
-      <c r="K334">
-        <v>1</v>
-      </c>
-      <c r="N334" t="s">
-        <v>434</v>
       </c>
       <c r="P334">
         <v>4</v>
@@ -25833,25 +25838,25 @@
     </row>
     <row r="335" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B335" t="s">
+        <v>425</v>
+      </c>
+      <c r="C335" t="s">
         <v>426</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>427</v>
-      </c>
-      <c r="D335" t="s">
-        <v>428</v>
       </c>
       <c r="E335">
         <v>2</v>
       </c>
       <c r="F335" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G335" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K335">
         <v>1</v>
@@ -25860,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="N335" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P335">
         <v>4</v>
@@ -25883,16 +25888,16 @@
     </row>
     <row r="336" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B336" t="s">
+        <v>425</v>
+      </c>
+      <c r="C336" t="s">
         <v>426</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>427</v>
-      </c>
-      <c r="D336" t="s">
-        <v>428</v>
       </c>
       <c r="E336">
         <v>2</v>
@@ -25901,13 +25906,13 @@
         <v>174</v>
       </c>
       <c r="G336" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H336">
         <v>1</v>
       </c>
       <c r="N336" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P336">
         <v>2</v>
@@ -25924,16 +25929,16 @@
     </row>
     <row r="337" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B337" t="s">
+        <v>425</v>
+      </c>
+      <c r="C337" t="s">
         <v>426</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>427</v>
-      </c>
-      <c r="D337" t="s">
-        <v>428</v>
       </c>
       <c r="E337">
         <v>2</v>
@@ -25942,7 +25947,7 @@
         <v>124</v>
       </c>
       <c r="G337" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J337">
         <v>1</v>
@@ -25951,7 +25956,7 @@
         <v>1</v>
       </c>
       <c r="N337" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P337">
         <v>2</v>
@@ -25968,16 +25973,16 @@
     </row>
     <row r="338" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B338" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C338" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D338" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E338">
         <v>6</v>
@@ -25986,7 +25991,7 @@
         <v>248</v>
       </c>
       <c r="G338" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -26001,7 +26006,7 @@
         <v>1</v>
       </c>
       <c r="N338" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P338">
         <v>10</v>
@@ -26042,16 +26047,16 @@
     </row>
     <row r="339" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B339" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C339" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D339" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -26060,7 +26065,7 @@
         <v>231</v>
       </c>
       <c r="G339" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I339">
         <v>1</v>
@@ -26072,7 +26077,7 @@
         <v>1</v>
       </c>
       <c r="N339" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P339">
         <v>8</v>
@@ -26107,16 +26112,16 @@
     </row>
     <row r="340" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B340" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C340" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D340" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E340">
         <v>6</v>
@@ -26125,13 +26130,13 @@
         <v>233</v>
       </c>
       <c r="G340" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H340">
         <v>1</v>
       </c>
       <c r="N340" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P340">
         <v>10</v>
@@ -26172,16 +26177,16 @@
     </row>
     <row r="341" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B341" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C341" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D341" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E341">
         <v>6</v>
@@ -26190,7 +26195,7 @@
         <v>181</v>
       </c>
       <c r="G341" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L341">
         <v>1</v>
@@ -26216,16 +26221,16 @@
     </row>
     <row r="342" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B342" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C342" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D342" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E342">
         <v>5</v>
@@ -26234,13 +26239,13 @@
         <v>210</v>
       </c>
       <c r="G342" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K342">
         <v>1</v>
       </c>
       <c r="N342" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P342">
         <v>8</v>
@@ -26275,31 +26280,31 @@
     </row>
     <row r="343" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B343" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C343" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D343" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E343">
         <v>5</v>
       </c>
       <c r="F343" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G343" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="N343" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P343">
         <v>10</v>
@@ -26340,16 +26345,16 @@
     </row>
     <row r="344" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B344" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C344" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D344" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E344">
         <v>5</v>
@@ -26358,13 +26363,13 @@
         <v>143</v>
       </c>
       <c r="G344" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="N344" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P344">
         <v>10</v>
@@ -26405,16 +26410,16 @@
     </row>
     <row r="345" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B345" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C345" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D345" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E345">
         <v>5</v>
@@ -26423,7 +26428,7 @@
         <v>181</v>
       </c>
       <c r="G345" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L345">
         <v>1</v>
@@ -26446,31 +26451,31 @@
     </row>
     <row r="346" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B346" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C346" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D346" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E346">
         <v>4</v>
       </c>
       <c r="F346" t="s">
+        <v>447</v>
+      </c>
+      <c r="G346" t="s">
         <v>448</v>
       </c>
-      <c r="G346" t="s">
-        <v>449</v>
-      </c>
       <c r="J346">
         <v>1</v>
       </c>
       <c r="N346" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P346">
         <v>10</v>
@@ -26511,16 +26516,16 @@
     </row>
     <row r="347" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B347" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C347" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D347" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E347">
         <v>4</v>
@@ -26529,13 +26534,13 @@
         <v>207</v>
       </c>
       <c r="G347" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J347">
         <v>1</v>
       </c>
       <c r="N347" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P347">
         <v>8</v>
@@ -26570,16 +26575,16 @@
     </row>
     <row r="348" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B348" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C348" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D348" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E348">
         <v>4</v>
@@ -26588,13 +26593,13 @@
         <v>121</v>
       </c>
       <c r="G348" t="s">
+        <v>450</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="N348" t="s">
         <v>451</v>
-      </c>
-      <c r="H348">
-        <v>1</v>
-      </c>
-      <c r="N348" t="s">
-        <v>452</v>
       </c>
       <c r="P348">
         <v>8</v>
@@ -26629,16 +26634,16 @@
     </row>
     <row r="349" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B349" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C349" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D349" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E349">
         <v>4</v>
@@ -26647,7 +26652,7 @@
         <v>137</v>
       </c>
       <c r="G349" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L349">
         <v>1</v>
@@ -26670,16 +26675,16 @@
     </row>
     <row r="350" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B350" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C350" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D350" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E350">
         <v>4</v>
@@ -26688,7 +26693,7 @@
         <v>181</v>
       </c>
       <c r="G350" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L350">
         <v>1</v>
@@ -26711,16 +26716,16 @@
     </row>
     <row r="351" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B351" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C351" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D351" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E351">
         <v>5</v>
@@ -26729,13 +26734,13 @@
         <v>210</v>
       </c>
       <c r="G351" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K351">
         <v>1</v>
       </c>
       <c r="N351" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P351">
         <v>8</v>
@@ -26770,31 +26775,31 @@
     </row>
     <row r="352" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B352" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C352" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D352" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E352">
         <v>5</v>
       </c>
       <c r="F352" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G352" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H352">
         <v>1</v>
       </c>
       <c r="N352" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P352">
         <v>4</v>
@@ -26817,31 +26822,31 @@
     </row>
     <row r="353" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B353" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C353" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D353" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E353">
         <v>5</v>
       </c>
       <c r="F353" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G353" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H353">
         <v>1</v>
       </c>
       <c r="N353" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P353">
         <v>4</v>
@@ -26864,16 +26869,16 @@
     </row>
     <row r="354" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B354" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C354" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D354" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E354">
         <v>5</v>
@@ -26882,13 +26887,13 @@
         <v>143</v>
       </c>
       <c r="G354" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H354">
         <v>1</v>
       </c>
       <c r="N354" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P354">
         <v>10</v>
@@ -26929,16 +26934,16 @@
     </row>
     <row r="355" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B355" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C355" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D355" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E355">
         <v>5</v>
@@ -26947,13 +26952,13 @@
         <v>181</v>
       </c>
       <c r="G355" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L355">
         <v>1</v>
       </c>
       <c r="N355" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P355">
         <v>2</v>
@@ -26970,16 +26975,16 @@
     </row>
     <row r="356" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B356" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C356" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D356" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E356">
         <v>5</v>
@@ -26988,13 +26993,13 @@
         <v>163</v>
       </c>
       <c r="G356" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J356">
         <v>1</v>
       </c>
       <c r="N356" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P356">
         <v>2</v>
@@ -27011,16 +27016,16 @@
     </row>
     <row r="357" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B357" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C357" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D357" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -27029,13 +27034,13 @@
         <v>110</v>
       </c>
       <c r="G357" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="N357" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P357">
         <v>10</v>
@@ -27076,31 +27081,31 @@
     </row>
     <row r="358" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B358" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C358" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D358" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E358">
         <v>1</v>
       </c>
       <c r="F358" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G358" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M358">
         <v>1</v>
       </c>
       <c r="N358" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P358">
         <v>8</v>
@@ -27135,16 +27140,16 @@
     </row>
     <row r="359" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B359" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C359" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D359" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -27153,7 +27158,7 @@
         <v>179</v>
       </c>
       <c r="G359" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H359">
         <v>1</v>
@@ -27168,7 +27173,7 @@
         <v>1</v>
       </c>
       <c r="N359" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P359">
         <v>8</v>
@@ -27203,16 +27208,16 @@
     </row>
     <row r="360" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B360" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C360" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D360" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E360">
         <v>1</v>
@@ -27221,7 +27226,7 @@
         <v>124</v>
       </c>
       <c r="G360" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -27247,16 +27252,16 @@
     </row>
     <row r="361" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B361" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C361" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D361" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E361">
         <v>1</v>
@@ -27265,13 +27270,13 @@
         <v>115</v>
       </c>
       <c r="G361" t="s">
+        <v>461</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="N361" t="s">
         <v>462</v>
-      </c>
-      <c r="I361">
-        <v>1</v>
-      </c>
-      <c r="N361" t="s">
-        <v>463</v>
       </c>
       <c r="P361">
         <v>2</v>
@@ -27288,31 +27293,31 @@
     </row>
     <row r="362" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B362" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C362" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D362" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E362">
         <v>4</v>
       </c>
       <c r="F362" t="s">
+        <v>447</v>
+      </c>
+      <c r="G362" t="s">
         <v>448</v>
       </c>
-      <c r="G362" t="s">
-        <v>449</v>
-      </c>
       <c r="J362">
         <v>1</v>
       </c>
       <c r="N362" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P362">
         <v>8</v>
@@ -27347,16 +27352,16 @@
     </row>
     <row r="363" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B363" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C363" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D363" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E363">
         <v>4</v>
@@ -27365,13 +27370,13 @@
         <v>207</v>
       </c>
       <c r="G363" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J363">
         <v>1</v>
       </c>
       <c r="N363" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P363">
         <v>10</v>
@@ -27412,16 +27417,16 @@
     </row>
     <row r="364" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B364" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C364" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D364" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E364">
         <v>4</v>
@@ -27430,13 +27435,13 @@
         <v>121</v>
       </c>
       <c r="G364" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H364">
         <v>1</v>
       </c>
       <c r="N364" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P364">
         <v>8</v>
@@ -27471,16 +27476,16 @@
     </row>
     <row r="365" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B365" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C365" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D365" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E365">
         <v>4</v>
@@ -27489,7 +27494,7 @@
         <v>137</v>
       </c>
       <c r="G365" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L365">
         <v>1</v>
@@ -27512,16 +27517,16 @@
     </row>
     <row r="366" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B366" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C366" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D366" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E366">
         <v>4</v>
@@ -27530,7 +27535,7 @@
         <v>181</v>
       </c>
       <c r="G366" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K366">
         <v>1</v>
@@ -27553,16 +27558,16 @@
     </row>
     <row r="367" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B367" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C367" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D367" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -27571,7 +27576,7 @@
         <v>179</v>
       </c>
       <c r="G367" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -27586,7 +27591,7 @@
         <v>1</v>
       </c>
       <c r="N367" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P367">
         <v>8</v>
@@ -27621,31 +27626,31 @@
     </row>
     <row r="368" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B368" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C368" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D368" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E368">
         <v>1</v>
       </c>
       <c r="F368" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G368" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M368">
         <v>1</v>
       </c>
       <c r="N368" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P368">
         <v>8</v>
@@ -27680,16 +27685,16 @@
     </row>
     <row r="369" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B369" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C369" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D369" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -27698,13 +27703,13 @@
         <v>110</v>
       </c>
       <c r="G369" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I369">
         <v>1</v>
       </c>
       <c r="N369" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P369">
         <v>10</v>
@@ -27745,16 +27750,16 @@
     </row>
     <row r="370" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B370" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C370" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D370" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E370">
         <v>1</v>
@@ -27763,13 +27768,13 @@
         <v>115</v>
       </c>
       <c r="G370" t="s">
+        <v>461</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="N370" t="s">
         <v>462</v>
-      </c>
-      <c r="I370">
-        <v>1</v>
-      </c>
-      <c r="N370" t="s">
-        <v>463</v>
       </c>
       <c r="P370">
         <v>2</v>
@@ -27786,16 +27791,16 @@
     </row>
     <row r="371" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B371" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C371" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D371" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E371">
         <v>1</v>
@@ -27804,7 +27809,7 @@
         <v>124</v>
       </c>
       <c r="G371" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H371">
         <v>1</v>
@@ -27830,16 +27835,16 @@
     </row>
     <row r="372" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B372" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C372" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D372" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -27848,13 +27853,13 @@
         <v>110</v>
       </c>
       <c r="G372" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="N372" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P372">
         <v>8</v>
@@ -27889,31 +27894,31 @@
     </row>
     <row r="373" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B373" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C373" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D373" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E373">
         <v>1</v>
       </c>
       <c r="F373" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G373" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M373">
         <v>1</v>
       </c>
       <c r="N373" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P373">
         <v>8</v>
@@ -27948,16 +27953,16 @@
     </row>
     <row r="374" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B374" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C374" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D374" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E374">
         <v>1</v>
@@ -27966,7 +27971,7 @@
         <v>179</v>
       </c>
       <c r="G374" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H374">
         <v>1</v>
@@ -27981,7 +27986,7 @@
         <v>1</v>
       </c>
       <c r="N374" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P374">
         <v>6</v>
@@ -28010,16 +28015,16 @@
     </row>
     <row r="375" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B375" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C375" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D375" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -28028,13 +28033,13 @@
         <v>115</v>
       </c>
       <c r="G375" t="s">
+        <v>461</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="N375" t="s">
         <v>462</v>
-      </c>
-      <c r="J375">
-        <v>1</v>
-      </c>
-      <c r="N375" t="s">
-        <v>463</v>
       </c>
       <c r="P375">
         <v>2</v>
@@ -28051,16 +28056,16 @@
     </row>
     <row r="376" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B376" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C376" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D376" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -28069,13 +28074,13 @@
         <v>174</v>
       </c>
       <c r="G376" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I376">
         <v>1</v>
       </c>
       <c r="N376" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P376">
         <v>2</v>
@@ -28092,16 +28097,16 @@
     </row>
     <row r="377" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B377" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C377" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D377" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E377">
         <v>1</v>
@@ -28110,7 +28115,7 @@
         <v>124</v>
       </c>
       <c r="G377" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H377">
         <v>1</v>
@@ -28119,7 +28124,7 @@
         <v>1</v>
       </c>
       <c r="N377" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P377">
         <v>2</v>
@@ -28541,10 +28546,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -28565,7 +28570,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -28581,7 +28586,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -28589,7 +28594,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -28597,7 +28602,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B10">
         <v>34</v>
@@ -28613,7 +28618,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -28629,7 +28634,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -28645,7 +28650,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -28661,7 +28666,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B18">
         <v>14</v>
@@ -28669,7 +28674,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -28677,7 +28682,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -28685,7 +28690,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21">
         <v>34</v>
@@ -28693,7 +28698,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22">
         <v>32</v>
@@ -28725,7 +28730,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -28733,7 +28738,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -28741,7 +28746,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -28749,7 +28754,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -28763,15 +28768,15 @@
         <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B31">
         <v>26</v>
@@ -28791,7 +28796,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -28805,7 +28810,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E33">
         <v>9</v>
@@ -28819,7 +28824,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -28827,13 +28832,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35">
         <v>28</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -28847,7 +28852,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -28855,7 +28860,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -28875,7 +28880,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -28903,7 +28908,7 @@
         <v>32</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -28911,13 +28916,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B41">
         <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -28931,7 +28936,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -28939,13 +28944,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B43">
         <v>24</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -28959,7 +28964,7 @@
         <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -29001,7 +29006,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E47">
         <v>69</v>
@@ -29025,7 +29030,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B50">
         <v>30</v>
@@ -29033,7 +29038,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51">
         <v>28</v>
@@ -29041,7 +29046,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -29049,7 +29054,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B53">
         <v>38</v>
@@ -29073,7 +29078,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B56">
         <v>26</v>
@@ -29089,7 +29094,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B58">
         <v>26</v>
@@ -29113,7 +29118,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B61">
         <v>26</v>
@@ -29121,7 +29126,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B62">
         <v>22</v>
@@ -29145,7 +29150,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B65">
         <v>30</v>
@@ -29153,7 +29158,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B66">
         <v>26</v>
@@ -29161,7 +29166,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B67">
         <v>38</v>
@@ -29169,7 +29174,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B68">
         <v>30</v>
@@ -29177,7 +29182,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -29193,7 +29198,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B71">
         <v>24</v>
@@ -29217,7 +29222,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B74">
         <v>34</v>
@@ -29225,7 +29230,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B75">
         <v>26</v>
@@ -29241,7 +29246,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B77">
         <v>26</v>
@@ -29281,7 +29286,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B82">
         <v>2042</v>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C9039-774D-4D37-BFAC-3E88C665709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42462341-8721-4C0E-96FF-A5768740C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$377</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="503">
   <si>
     <t>Source.Name</t>
   </si>
@@ -1324,9 +1324,6 @@
     <t>GESTIONAR PROCESOS PROPIOS DE LA CULTURA EMPRENDEDORAY EMPRESARIA DE ACUERDO CON EL PERFIL PERSONAL Y LOS REQUERIMIENTOS DE LOS CONTEXTOS PRODICTIVO Y SOCIAL - Emprendimiento</t>
   </si>
   <si>
-    <t>2875572 A</t>
-  </si>
-  <si>
     <t>TEC. ELABORACIÓN AUDIOVISUALES</t>
   </si>
   <si>
@@ -1588,6 +1585,15 @@
     <t>2875444 A</t>
   </si>
   <si>
+    <t>2742580 C</t>
+  </si>
+  <si>
+    <t>TEC303</t>
+  </si>
+  <si>
+    <t>2875586 A</t>
+  </si>
+  <si>
     <t>6-7S</t>
   </si>
   <si>
@@ -1616,9 +1622,6 @@
   </si>
   <si>
     <t>21-22S</t>
-  </si>
-  <si>
-    <t>2742580 C</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1704,6 +1707,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2571,11 +2575,6 @@
       <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -4987,231 +4986,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA41CB7-E3A8-430F-B4AE-F3DE60532250}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D30:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
-          <x15:dataField isCountDistinct="1"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <pivotHierarchies count="109">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E51D2C13-18A8-44E4-9514-17D00C659F63}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -5661,6 +5435,231 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA41CB7-E3A8-430F-B4AE-F3DE60532250}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D30:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Recuento distinto de FICHA" fld="1" subtotal="count" baseField="0" baseItem="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="109">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Recuento distinto de FICHA"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -6108,7 +6107,7 @@
     <tableColumn id="97" xr3:uid="{C47FF5A8-51B9-41AF-8D63-CEB7C92ACB49}" uniqueName="97" name="21-22V" totalsRowFunction="custom" queryTableFieldId="97">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DD845AE9-38B6-4A80-8432-09E4AAC72E7D}" uniqueName="1" name="6-7S" queryTableFieldId="105"/>
+    <tableColumn id="1" xr3:uid="{DA68D4F0-B1F1-4D08-8BBA-5EE8F6703898}" uniqueName="1" name="6-7S" queryTableFieldId="105"/>
     <tableColumn id="98" xr3:uid="{25044A8C-0253-4E22-980E-977A3B5C6C59}" uniqueName="98" name="7-8S" totalsRowFunction="custom" queryTableFieldId="98">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8S])</totalsRowFormula>
     </tableColumn>
@@ -6130,14 +6129,14 @@
     <tableColumn id="104" xr3:uid="{FD79054B-1F48-4B17-8E3F-E8071CD3F12B}" uniqueName="104" name="13-14S" totalsRowFunction="custom" queryTableFieldId="104">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14S])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="106" xr3:uid="{F040B160-123F-41F3-833E-B05E986C4DBF}" uniqueName="106" name="14-15S" queryTableFieldId="106"/>
-    <tableColumn id="107" xr3:uid="{10D02C96-E34A-4B40-8233-841B3C266A70}" uniqueName="107" name="15-16S" queryTableFieldId="107"/>
-    <tableColumn id="108" xr3:uid="{D5E03B02-FE6E-48D4-A664-5FAA42BACB7D}" uniqueName="108" name="16-17S" queryTableFieldId="108"/>
-    <tableColumn id="109" xr3:uid="{758A1885-478F-4515-9C8C-DF421652753D}" uniqueName="109" name="17-18S" queryTableFieldId="109"/>
-    <tableColumn id="110" xr3:uid="{9CCED529-3CAC-460F-AD3A-DD847BD4918E}" uniqueName="110" name="18-19S" queryTableFieldId="110"/>
-    <tableColumn id="111" xr3:uid="{ED6351E4-53CD-42B7-8B6E-E94C6269E09D}" uniqueName="111" name="19-20S" queryTableFieldId="111"/>
-    <tableColumn id="112" xr3:uid="{018626A8-6BC4-4D1A-AF55-EB05137C4C4C}" uniqueName="112" name="20-21S" queryTableFieldId="112"/>
-    <tableColumn id="113" xr3:uid="{DA218E77-EC56-4B52-B643-4E7D054D4396}" uniqueName="113" name="21-22S" queryTableFieldId="113"/>
+    <tableColumn id="106" xr3:uid="{F7C9ADE6-EB7A-429A-8C5A-DB58B52CA8BD}" uniqueName="106" name="14-15S" queryTableFieldId="106"/>
+    <tableColumn id="107" xr3:uid="{C0F52894-9EE5-45F0-8371-0D086A3E656E}" uniqueName="107" name="15-16S" queryTableFieldId="107"/>
+    <tableColumn id="108" xr3:uid="{241E9FC5-1B0A-43B4-842D-347B3CB21248}" uniqueName="108" name="16-17S" queryTableFieldId="108"/>
+    <tableColumn id="109" xr3:uid="{DB43EF92-8B09-47AF-AEC7-A29A0EF9AAC6}" uniqueName="109" name="17-18S" queryTableFieldId="109"/>
+    <tableColumn id="110" xr3:uid="{1DD59851-2B16-49E1-9997-DE25D84F36D4}" uniqueName="110" name="18-19S" queryTableFieldId="110"/>
+    <tableColumn id="111" xr3:uid="{9921D150-7286-485E-A9EE-60E5572AC3E4}" uniqueName="111" name="19-20S" queryTableFieldId="111"/>
+    <tableColumn id="112" xr3:uid="{8D7D2FF1-C4A3-4428-8658-87BE8379F37F}" uniqueName="112" name="20-21S" queryTableFieldId="112"/>
+    <tableColumn id="113" xr3:uid="{4E35FCDC-686A-4555-AD55-FB43AD30547C}" uniqueName="113" name="21-22S" queryTableFieldId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6413,10 +6412,10 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3C9AC298-184D-4F56-A345-DA071939C279}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{160A34EE-E4AE-446D-B0BE-F0187B8A3549}">
   <we:reference id="wa104380263" version="1.1.3.0" store="es-ES" storeType="OMEX"/>
   <we:alternateReferences>
-    <we:reference id="WA104380263" version="1.1.3.0" store="WA104380263" storeType="OMEX"/>
+    <we:reference id="wa104380263" version="1.1.3.0" store="WA104380263" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties/>
   <we:bindings/>
@@ -6428,8 +6427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" topLeftCell="CJ353" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:DI377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6470,10 +6469,10 @@
     <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P1" s="1">
         <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS SEMANAL])</f>
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -6491,7 +6490,7 @@
       <c r="AF1" s="6"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
@@ -6509,7 +6508,7 @@
       <c r="AV1" s="6"/>
       <c r="AW1" s="6"/>
       <c r="AX1" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AY1" s="6"/>
       <c r="AZ1" s="6"/>
@@ -6527,7 +6526,7 @@
       <c r="BL1" s="6"/>
       <c r="BM1" s="6"/>
       <c r="BN1" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BO1" s="6"/>
       <c r="BP1" s="6"/>
@@ -6545,7 +6544,7 @@
       <c r="CB1" s="6"/>
       <c r="CC1" s="6"/>
       <c r="CD1" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="CE1" s="6"/>
       <c r="CF1" s="6"/>
@@ -6564,7 +6563,7 @@
       <c r="CS1" s="6"/>
       <c r="CT1" s="5"/>
       <c r="CU1" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="CV1" s="6"/>
       <c r="CW1" s="6"/>
@@ -6865,53 +6864,53 @@
       <c r="CS2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" t="s">
-        <v>491</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>492</v>
-      </c>
-      <c r="CV2" t="s">
+      <c r="CT2" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="CU2" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="CV2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CW2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CX2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CY2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="CZ2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DA2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="DB2" t="s">
-        <v>493</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>494</v>
-      </c>
-      <c r="DD2" t="s">
+      <c r="DB2" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DC2" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DD2" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DE2" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DF2" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DG2" s="7" t="s">
         <v>500</v>
+      </c>
+      <c r="DH2" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="DI2" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.3">
@@ -7517,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -7718,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -7969,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P18">
         <v>2</v>
@@ -8146,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P21">
         <v>2</v>
@@ -8246,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -8337,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -8918,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -9011,65 +9010,65 @@
       <c r="Q37">
         <v>240</v>
       </c>
-      <c r="Z37">
-        <v>4</v>
-      </c>
-      <c r="AA37">
-        <v>4</v>
-      </c>
-      <c r="AB37">
-        <v>4</v>
-      </c>
-      <c r="AC37">
-        <v>4</v>
-      </c>
-      <c r="AP37">
-        <v>4</v>
-      </c>
-      <c r="AQ37">
-        <v>4</v>
-      </c>
-      <c r="AR37">
-        <v>4</v>
-      </c>
-      <c r="AS37">
-        <v>4</v>
-      </c>
-      <c r="BD37">
-        <v>4</v>
-      </c>
-      <c r="BE37">
-        <v>4</v>
-      </c>
-      <c r="BF37">
-        <v>4</v>
-      </c>
-      <c r="BG37">
-        <v>4</v>
-      </c>
-      <c r="BV37">
-        <v>4</v>
-      </c>
-      <c r="BW37">
-        <v>4</v>
-      </c>
-      <c r="BX37">
-        <v>4</v>
-      </c>
-      <c r="BY37">
-        <v>4</v>
-      </c>
-      <c r="CL37">
-        <v>4</v>
-      </c>
-      <c r="CM37">
-        <v>4</v>
-      </c>
-      <c r="CN37">
-        <v>4</v>
-      </c>
-      <c r="CO37">
-        <v>4</v>
+      <c r="Z37" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>491</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>491</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>491</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>491</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>491</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>491</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>491</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>491</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:105" x14ac:dyDescent="0.3">
@@ -9115,11 +9114,11 @@
       <c r="Q38">
         <v>24</v>
       </c>
-      <c r="X38">
-        <v>4</v>
-      </c>
-      <c r="Y38">
-        <v>4</v>
+      <c r="X38" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:105" x14ac:dyDescent="0.3">
@@ -9165,11 +9164,11 @@
       <c r="Q39">
         <v>24</v>
       </c>
-      <c r="AN39">
-        <v>4</v>
-      </c>
-      <c r="AO39">
-        <v>4</v>
+      <c r="AN39" t="s">
+        <v>491</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:105" x14ac:dyDescent="0.3">
@@ -9215,11 +9214,11 @@
       <c r="Q40">
         <v>24</v>
       </c>
-      <c r="BH40">
-        <v>4</v>
-      </c>
-      <c r="BI40">
-        <v>4</v>
+      <c r="BH40" t="s">
+        <v>491</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:105" x14ac:dyDescent="0.3">
@@ -9265,11 +9264,11 @@
       <c r="Q41">
         <v>24</v>
       </c>
-      <c r="CJ41">
-        <v>4</v>
-      </c>
-      <c r="CK41">
-        <v>4</v>
+      <c r="CJ41" t="s">
+        <v>491</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:105" x14ac:dyDescent="0.3">
@@ -9306,11 +9305,11 @@
       <c r="Q42">
         <v>24</v>
       </c>
-      <c r="BT42">
-        <v>4</v>
-      </c>
-      <c r="BU42">
-        <v>4</v>
+      <c r="BT42" t="s">
+        <v>491</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:105" x14ac:dyDescent="0.3">
@@ -9932,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -10098,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -10422,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -10743,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -10793,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -10936,77 +10935,77 @@
       <c r="Q71">
         <v>288</v>
       </c>
-      <c r="R71">
-        <v>4</v>
-      </c>
-      <c r="S71">
-        <v>4</v>
-      </c>
-      <c r="T71">
-        <v>4</v>
-      </c>
-      <c r="U71">
-        <v>4</v>
-      </c>
-      <c r="AH71">
-        <v>4</v>
-      </c>
-      <c r="AI71">
-        <v>4</v>
-      </c>
-      <c r="AJ71">
-        <v>4</v>
-      </c>
-      <c r="AK71">
-        <v>4</v>
-      </c>
-      <c r="AL71">
-        <v>4</v>
-      </c>
-      <c r="AM71">
-        <v>4</v>
-      </c>
-      <c r="AX71">
-        <v>4</v>
-      </c>
-      <c r="AY71">
-        <v>4</v>
-      </c>
-      <c r="AZ71">
-        <v>4</v>
-      </c>
-      <c r="BA71">
-        <v>4</v>
-      </c>
-      <c r="BB71">
-        <v>4</v>
-      </c>
-      <c r="BC71">
-        <v>4</v>
-      </c>
-      <c r="BN71">
-        <v>4</v>
-      </c>
-      <c r="BO71">
-        <v>4</v>
-      </c>
-      <c r="BP71">
-        <v>4</v>
-      </c>
-      <c r="BQ71">
-        <v>4</v>
-      </c>
-      <c r="CD71">
-        <v>4</v>
-      </c>
-      <c r="CE71">
-        <v>4</v>
-      </c>
-      <c r="CF71">
-        <v>4</v>
-      </c>
-      <c r="CG71">
-        <v>4</v>
+      <c r="R71" t="s">
+        <v>491</v>
+      </c>
+      <c r="S71" t="s">
+        <v>491</v>
+      </c>
+      <c r="T71" t="s">
+        <v>491</v>
+      </c>
+      <c r="U71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>491</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>491</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>491</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>491</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>491</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>491</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>491</v>
+      </c>
+      <c r="BP71" t="s">
+        <v>491</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>491</v>
+      </c>
+      <c r="CD71" t="s">
+        <v>491</v>
+      </c>
+      <c r="CE71" t="s">
+        <v>491</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>491</v>
+      </c>
+      <c r="CG71" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:105" x14ac:dyDescent="0.3">
@@ -11052,11 +11051,11 @@
       <c r="Q72">
         <v>24</v>
       </c>
-      <c r="BR72">
-        <v>4</v>
-      </c>
-      <c r="BS72">
-        <v>4</v>
+      <c r="BR72" t="s">
+        <v>491</v>
+      </c>
+      <c r="BS72" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:105" x14ac:dyDescent="0.3">
@@ -11102,11 +11101,11 @@
       <c r="Q73">
         <v>24</v>
       </c>
-      <c r="CH73">
-        <v>4</v>
-      </c>
-      <c r="CI73">
-        <v>4</v>
+      <c r="CH73" t="s">
+        <v>491</v>
+      </c>
+      <c r="CI73" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:105" x14ac:dyDescent="0.3">
@@ -11143,11 +11142,11 @@
       <c r="Q74">
         <v>24</v>
       </c>
-      <c r="V74">
-        <v>4</v>
-      </c>
-      <c r="W74">
-        <v>4</v>
+      <c r="V74" t="s">
+        <v>491</v>
+      </c>
+      <c r="W74" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:105" x14ac:dyDescent="0.3">
@@ -11456,7 +11455,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C80" t="s">
         <v>105</v>
@@ -11500,7 +11499,7 @@
         <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C81" t="s">
         <v>105</v>
@@ -11622,7 +11621,7 @@
         <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C82" t="s">
         <v>105</v>
@@ -11663,7 +11662,7 @@
         <v>103</v>
       </c>
       <c r="B83" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C83" t="s">
         <v>105</v>
@@ -11713,7 +11712,7 @@
         <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C84" t="s">
         <v>105</v>
@@ -11745,7 +11744,7 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C85" t="s">
         <v>105</v>
@@ -11867,7 +11866,7 @@
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" t="s">
         <v>105</v>
@@ -11917,7 +11916,7 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C87" t="s">
         <v>105</v>
@@ -11938,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P87">
         <v>2</v>
@@ -12851,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O104" t="s">
         <v>195</v>
@@ -13502,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O116" t="s">
         <v>215</v>
@@ -15568,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="N153" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O153" t="s">
         <v>195</v>
@@ -16164,7 +16163,7 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O163" t="s">
         <v>195</v>
@@ -16365,7 +16364,7 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O166" t="s">
         <v>255</v>
@@ -17119,7 +17118,7 @@
         <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C180" t="s">
         <v>186</v>
@@ -17175,7 +17174,7 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C181" t="s">
         <v>186</v>
@@ -17228,7 +17227,7 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C182" t="s">
         <v>186</v>
@@ -17305,7 +17304,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C183" t="s">
         <v>186</v>
@@ -17358,7 +17357,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C184" t="s">
         <v>186</v>
@@ -17411,7 +17410,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C185" t="s">
         <v>186</v>
@@ -17715,7 +17714,7 @@
         <v>1</v>
       </c>
       <c r="N190" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O190" t="s">
         <v>215</v>
@@ -18036,7 +18035,7 @@
         <v>1</v>
       </c>
       <c r="N196" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O196" t="s">
         <v>195</v>
@@ -18410,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="N203" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O203" t="s">
         <v>195</v>
@@ -19099,7 +19098,7 @@
         <v>1</v>
       </c>
       <c r="N216" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O216" t="s">
         <v>195</v>
@@ -20585,7 +20584,7 @@
         <v>1</v>
       </c>
       <c r="N242" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P242">
         <v>2</v>
@@ -20685,7 +20684,7 @@
         <v>1</v>
       </c>
       <c r="N244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P244">
         <v>2</v>
@@ -22657,7 +22656,7 @@
         <v>1</v>
       </c>
       <c r="N282" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P282">
         <v>2</v>
@@ -22707,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="N283" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P283">
         <v>2</v>
@@ -22917,7 +22916,7 @@
         <v>1</v>
       </c>
       <c r="N286" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P286">
         <v>2</v>
@@ -24095,7 +24094,7 @@
         <v>1</v>
       </c>
       <c r="N305" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P305">
         <v>2</v>
@@ -24685,13 +24684,13 @@
         <v>361</v>
       </c>
       <c r="B315" t="s">
+        <v>492</v>
+      </c>
+      <c r="C315" t="s">
         <v>403</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>404</v>
-      </c>
-      <c r="D315" t="s">
-        <v>405</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -24700,7 +24699,7 @@
         <v>216</v>
       </c>
       <c r="G315" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -24712,7 +24711,7 @@
         <v>1</v>
       </c>
       <c r="N315" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P315">
         <v>4</v>
@@ -24738,13 +24737,13 @@
         <v>361</v>
       </c>
       <c r="B316" t="s">
+        <v>492</v>
+      </c>
+      <c r="C316" t="s">
         <v>403</v>
       </c>
-      <c r="C316" t="s">
+      <c r="D316" t="s">
         <v>404</v>
-      </c>
-      <c r="D316" t="s">
-        <v>405</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -24753,7 +24752,7 @@
         <v>262</v>
       </c>
       <c r="G316" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -24768,7 +24767,7 @@
         <v>1</v>
       </c>
       <c r="N316" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P316">
         <v>20</v>
@@ -24842,13 +24841,13 @@
         <v>361</v>
       </c>
       <c r="B317" t="s">
+        <v>492</v>
+      </c>
+      <c r="C317" t="s">
         <v>403</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
         <v>404</v>
-      </c>
-      <c r="D317" t="s">
-        <v>405</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -24892,13 +24891,13 @@
         <v>361</v>
       </c>
       <c r="B318" t="s">
+        <v>492</v>
+      </c>
+      <c r="C318" t="s">
         <v>403</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>404</v>
-      </c>
-      <c r="D318" t="s">
-        <v>405</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -24922,7 +24921,7 @@
         <v>1</v>
       </c>
       <c r="N318" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P318">
         <v>2</v>
@@ -24942,13 +24941,13 @@
         <v>361</v>
       </c>
       <c r="B319" t="s">
+        <v>492</v>
+      </c>
+      <c r="C319" t="s">
         <v>403</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>404</v>
-      </c>
-      <c r="D319" t="s">
-        <v>405</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -24992,13 +24991,13 @@
         <v>361</v>
       </c>
       <c r="B320" t="s">
+        <v>407</v>
+      </c>
+      <c r="C320" t="s">
         <v>408</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>409</v>
-      </c>
-      <c r="D320" t="s">
-        <v>410</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -25007,7 +25006,7 @@
         <v>216</v>
       </c>
       <c r="G320" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -25019,7 +25018,7 @@
         <v>1</v>
       </c>
       <c r="N320" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P320">
         <v>4</v>
@@ -25045,13 +25044,13 @@
         <v>361</v>
       </c>
       <c r="B321" t="s">
+        <v>407</v>
+      </c>
+      <c r="C321" t="s">
         <v>408</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>409</v>
-      </c>
-      <c r="D321" t="s">
-        <v>410</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -25060,7 +25059,7 @@
         <v>233</v>
       </c>
       <c r="G321" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -25075,7 +25074,7 @@
         <v>1</v>
       </c>
       <c r="N321" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P321">
         <v>22</v>
@@ -25155,13 +25154,13 @@
         <v>361</v>
       </c>
       <c r="B322" t="s">
+        <v>407</v>
+      </c>
+      <c r="C322" t="s">
         <v>408</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>409</v>
-      </c>
-      <c r="D322" t="s">
-        <v>410</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -25211,13 +25210,13 @@
         <v>361</v>
       </c>
       <c r="B323" t="s">
+        <v>407</v>
+      </c>
+      <c r="C323" t="s">
         <v>408</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>409</v>
-      </c>
-      <c r="D323" t="s">
-        <v>410</v>
       </c>
       <c r="E323">
         <v>1</v>
@@ -25258,16 +25257,16 @@
     </row>
     <row r="324" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>411</v>
+      </c>
+      <c r="B324" t="s">
         <v>412</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>413</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>414</v>
-      </c>
-      <c r="D324" t="s">
-        <v>415</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -25276,13 +25275,13 @@
         <v>112</v>
       </c>
       <c r="G324" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J324">
         <v>3</v>
       </c>
       <c r="N324" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P324">
         <v>8</v>
@@ -25317,16 +25316,16 @@
     </row>
     <row r="325" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>411</v>
+      </c>
+      <c r="B325" t="s">
         <v>412</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>413</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>414</v>
-      </c>
-      <c r="D325" t="s">
-        <v>415</v>
       </c>
       <c r="E325">
         <v>3</v>
@@ -25335,13 +25334,13 @@
         <v>132</v>
       </c>
       <c r="G325" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J325">
         <v>3</v>
       </c>
       <c r="N325" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P325">
         <v>4</v>
@@ -25364,16 +25363,16 @@
     </row>
     <row r="326" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>411</v>
+      </c>
+      <c r="B326" t="s">
         <v>412</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>413</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>414</v>
-      </c>
-      <c r="D326" t="s">
-        <v>415</v>
       </c>
       <c r="E326">
         <v>4</v>
@@ -25382,7 +25381,7 @@
         <v>251</v>
       </c>
       <c r="G326" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -25397,7 +25396,7 @@
         <v>3</v>
       </c>
       <c r="N326" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P326">
         <v>4</v>
@@ -25420,16 +25419,16 @@
     </row>
     <row r="327" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>411</v>
+      </c>
+      <c r="B327" t="s">
         <v>412</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>413</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>414</v>
-      </c>
-      <c r="D327" t="s">
-        <v>415</v>
       </c>
       <c r="E327">
         <v>3</v>
@@ -25438,13 +25437,13 @@
         <v>264</v>
       </c>
       <c r="G327" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K327">
         <v>3</v>
       </c>
       <c r="N327" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P327">
         <v>6</v>
@@ -25473,16 +25472,16 @@
     </row>
     <row r="328" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>411</v>
+      </c>
+      <c r="B328" t="s">
         <v>412</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>413</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>414</v>
-      </c>
-      <c r="D328" t="s">
-        <v>415</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -25523,16 +25522,16 @@
     </row>
     <row r="329" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>411</v>
+      </c>
+      <c r="B329" t="s">
         <v>412</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>413</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>414</v>
-      </c>
-      <c r="D329" t="s">
-        <v>415</v>
       </c>
       <c r="E329">
         <v>3</v>
@@ -25567,16 +25566,16 @@
     </row>
     <row r="330" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
+        <v>411</v>
+      </c>
+      <c r="B330" t="s">
         <v>412</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>413</v>
       </c>
-      <c r="C330" t="s">
+      <c r="D330" t="s">
         <v>414</v>
-      </c>
-      <c r="D330" t="s">
-        <v>415</v>
       </c>
       <c r="E330">
         <v>3</v>
@@ -25585,7 +25584,7 @@
         <v>254</v>
       </c>
       <c r="G330" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H330">
         <v>3</v>
@@ -25600,7 +25599,7 @@
         <v>3</v>
       </c>
       <c r="N330" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P330">
         <v>2</v>
@@ -25617,25 +25616,25 @@
     </row>
     <row r="331" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
+        <v>411</v>
+      </c>
+      <c r="B331" t="s">
         <v>412</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>413</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>414</v>
-      </c>
-      <c r="D331" t="s">
-        <v>415</v>
       </c>
       <c r="E331">
         <v>3</v>
       </c>
       <c r="F331" t="s">
+        <v>422</v>
+      </c>
+      <c r="G331" t="s">
         <v>423</v>
-      </c>
-      <c r="G331" t="s">
-        <v>424</v>
       </c>
       <c r="H331">
         <v>3</v>
@@ -25667,16 +25666,16 @@
     </row>
     <row r="332" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B332" t="s">
+        <v>424</v>
+      </c>
+      <c r="C332" t="s">
         <v>425</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>426</v>
-      </c>
-      <c r="D332" t="s">
-        <v>427</v>
       </c>
       <c r="E332">
         <v>2</v>
@@ -25685,13 +25684,13 @@
         <v>216</v>
       </c>
       <c r="G332" t="s">
+        <v>427</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="N332" t="s">
         <v>428</v>
-      </c>
-      <c r="I332">
-        <v>1</v>
-      </c>
-      <c r="N332" t="s">
-        <v>429</v>
       </c>
       <c r="P332">
         <v>10</v>
@@ -25732,16 +25731,16 @@
     </row>
     <row r="333" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B333" t="s">
+        <v>424</v>
+      </c>
+      <c r="C333" t="s">
         <v>425</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>426</v>
-      </c>
-      <c r="D333" t="s">
-        <v>427</v>
       </c>
       <c r="E333">
         <v>2</v>
@@ -25750,13 +25749,13 @@
         <v>269</v>
       </c>
       <c r="G333" t="s">
+        <v>429</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="N333" t="s">
         <v>430</v>
-      </c>
-      <c r="I333">
-        <v>1</v>
-      </c>
-      <c r="N333" t="s">
-        <v>431</v>
       </c>
       <c r="P333">
         <v>8</v>
@@ -25791,16 +25790,16 @@
     </row>
     <row r="334" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B334" t="s">
+        <v>424</v>
+      </c>
+      <c r="C334" t="s">
         <v>425</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>426</v>
-      </c>
-      <c r="D334" t="s">
-        <v>427</v>
       </c>
       <c r="E334">
         <v>2</v>
@@ -25809,13 +25808,13 @@
         <v>107</v>
       </c>
       <c r="G334" t="s">
+        <v>431</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+      <c r="N334" t="s">
         <v>432</v>
-      </c>
-      <c r="K334">
-        <v>1</v>
-      </c>
-      <c r="N334" t="s">
-        <v>433</v>
       </c>
       <c r="P334">
         <v>4</v>
@@ -25838,16 +25837,16 @@
     </row>
     <row r="335" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B335" t="s">
+        <v>424</v>
+      </c>
+      <c r="C335" t="s">
         <v>425</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>426</v>
-      </c>
-      <c r="D335" t="s">
-        <v>427</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -25856,7 +25855,7 @@
         <v>359</v>
       </c>
       <c r="G335" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K335">
         <v>1</v>
@@ -25865,7 +25864,7 @@
         <v>1</v>
       </c>
       <c r="N335" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P335">
         <v>4</v>
@@ -25888,16 +25887,16 @@
     </row>
     <row r="336" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B336" t="s">
+        <v>424</v>
+      </c>
+      <c r="C336" t="s">
         <v>425</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>426</v>
-      </c>
-      <c r="D336" t="s">
-        <v>427</v>
       </c>
       <c r="E336">
         <v>2</v>
@@ -25906,7 +25905,7 @@
         <v>174</v>
       </c>
       <c r="G336" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -25929,16 +25928,16 @@
     </row>
     <row r="337" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B337" t="s">
+        <v>424</v>
+      </c>
+      <c r="C337" t="s">
         <v>425</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>426</v>
-      </c>
-      <c r="D337" t="s">
-        <v>427</v>
       </c>
       <c r="E337">
         <v>2</v>
@@ -25947,7 +25946,7 @@
         <v>124</v>
       </c>
       <c r="G337" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J337">
         <v>1</v>
@@ -25956,7 +25955,7 @@
         <v>1</v>
       </c>
       <c r="N337" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P337">
         <v>2</v>
@@ -25973,16 +25972,16 @@
     </row>
     <row r="338" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B338" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C338" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D338" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E338">
         <v>6</v>
@@ -25991,7 +25990,7 @@
         <v>248</v>
       </c>
       <c r="G338" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H338">
         <v>1</v>
@@ -26006,7 +26005,7 @@
         <v>1</v>
       </c>
       <c r="N338" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P338">
         <v>10</v>
@@ -26047,16 +26046,16 @@
     </row>
     <row r="339" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B339" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C339" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D339" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -26065,7 +26064,7 @@
         <v>231</v>
       </c>
       <c r="G339" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I339">
         <v>1</v>
@@ -26077,7 +26076,7 @@
         <v>1</v>
       </c>
       <c r="N339" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P339">
         <v>8</v>
@@ -26112,16 +26111,16 @@
     </row>
     <row r="340" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B340" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C340" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D340" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E340">
         <v>6</v>
@@ -26130,13 +26129,13 @@
         <v>233</v>
       </c>
       <c r="G340" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H340">
         <v>1</v>
       </c>
       <c r="N340" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P340">
         <v>10</v>
@@ -26177,16 +26176,16 @@
     </row>
     <row r="341" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B341" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C341" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D341" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E341">
         <v>6</v>
@@ -26195,7 +26194,7 @@
         <v>181</v>
       </c>
       <c r="G341" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L341">
         <v>1</v>
@@ -26221,16 +26220,16 @@
     </row>
     <row r="342" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B342" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C342" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D342" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E342">
         <v>5</v>
@@ -26239,13 +26238,13 @@
         <v>210</v>
       </c>
       <c r="G342" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K342">
         <v>1</v>
       </c>
       <c r="N342" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P342">
         <v>8</v>
@@ -26280,16 +26279,16 @@
     </row>
     <row r="343" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B343" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C343" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D343" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E343">
         <v>5</v>
@@ -26298,13 +26297,13 @@
         <v>310</v>
       </c>
       <c r="G343" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H343">
         <v>1</v>
       </c>
       <c r="N343" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P343">
         <v>10</v>
@@ -26345,16 +26344,16 @@
     </row>
     <row r="344" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B344" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C344" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D344" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E344">
         <v>5</v>
@@ -26363,13 +26362,13 @@
         <v>143</v>
       </c>
       <c r="G344" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H344">
         <v>1</v>
       </c>
       <c r="N344" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P344">
         <v>10</v>
@@ -26410,16 +26409,16 @@
     </row>
     <row r="345" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B345" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C345" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D345" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E345">
         <v>5</v>
@@ -26428,7 +26427,7 @@
         <v>181</v>
       </c>
       <c r="G345" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L345">
         <v>1</v>
@@ -26451,31 +26450,31 @@
     </row>
     <row r="346" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B346" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C346" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D346" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E346">
         <v>4</v>
       </c>
       <c r="F346" t="s">
+        <v>446</v>
+      </c>
+      <c r="G346" t="s">
         <v>447</v>
       </c>
-      <c r="G346" t="s">
-        <v>448</v>
-      </c>
       <c r="J346">
         <v>1</v>
       </c>
       <c r="N346" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P346">
         <v>10</v>
@@ -26516,16 +26515,16 @@
     </row>
     <row r="347" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B347" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C347" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D347" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E347">
         <v>4</v>
@@ -26534,13 +26533,13 @@
         <v>207</v>
       </c>
       <c r="G347" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J347">
         <v>1</v>
       </c>
       <c r="N347" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P347">
         <v>8</v>
@@ -26575,16 +26574,16 @@
     </row>
     <row r="348" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B348" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C348" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D348" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E348">
         <v>4</v>
@@ -26593,13 +26592,13 @@
         <v>121</v>
       </c>
       <c r="G348" t="s">
+        <v>449</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="N348" t="s">
         <v>450</v>
-      </c>
-      <c r="H348">
-        <v>1</v>
-      </c>
-      <c r="N348" t="s">
-        <v>451</v>
       </c>
       <c r="P348">
         <v>8</v>
@@ -26634,16 +26633,16 @@
     </row>
     <row r="349" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B349" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C349" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D349" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E349">
         <v>4</v>
@@ -26652,7 +26651,7 @@
         <v>137</v>
       </c>
       <c r="G349" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L349">
         <v>1</v>
@@ -26675,16 +26674,16 @@
     </row>
     <row r="350" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B350" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C350" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D350" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E350">
         <v>4</v>
@@ -26693,7 +26692,7 @@
         <v>181</v>
       </c>
       <c r="G350" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L350">
         <v>1</v>
@@ -26716,16 +26715,16 @@
     </row>
     <row r="351" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B351" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C351" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D351" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E351">
         <v>5</v>
@@ -26734,13 +26733,13 @@
         <v>210</v>
       </c>
       <c r="G351" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K351">
         <v>1</v>
       </c>
       <c r="N351" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P351">
         <v>8</v>
@@ -26775,16 +26774,16 @@
     </row>
     <row r="352" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B352" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C352" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D352" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E352">
         <v>5</v>
@@ -26793,13 +26792,13 @@
         <v>310</v>
       </c>
       <c r="G352" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H352">
         <v>1</v>
       </c>
       <c r="N352" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P352">
         <v>4</v>
@@ -26822,16 +26821,16 @@
     </row>
     <row r="353" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B353" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C353" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D353" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E353">
         <v>5</v>
@@ -26840,13 +26839,13 @@
         <v>328</v>
       </c>
       <c r="G353" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H353">
         <v>1</v>
       </c>
       <c r="N353" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P353">
         <v>4</v>
@@ -26869,16 +26868,16 @@
     </row>
     <row r="354" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B354" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C354" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D354" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E354">
         <v>5</v>
@@ -26887,13 +26886,13 @@
         <v>143</v>
       </c>
       <c r="G354" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H354">
         <v>1</v>
       </c>
       <c r="N354" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P354">
         <v>10</v>
@@ -26934,16 +26933,16 @@
     </row>
     <row r="355" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B355" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C355" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D355" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E355">
         <v>5</v>
@@ -26952,13 +26951,13 @@
         <v>181</v>
       </c>
       <c r="G355" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L355">
         <v>1</v>
       </c>
       <c r="N355" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P355">
         <v>2</v>
@@ -26975,16 +26974,16 @@
     </row>
     <row r="356" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B356" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C356" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D356" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E356">
         <v>5</v>
@@ -26993,13 +26992,13 @@
         <v>163</v>
       </c>
       <c r="G356" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J356">
         <v>1</v>
       </c>
       <c r="N356" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P356">
         <v>2</v>
@@ -27016,16 +27015,16 @@
     </row>
     <row r="357" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B357" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C357" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D357" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -27034,13 +27033,13 @@
         <v>110</v>
       </c>
       <c r="G357" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="N357" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P357">
         <v>10</v>
@@ -27081,16 +27080,16 @@
     </row>
     <row r="358" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B358" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C358" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D358" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E358">
         <v>1</v>
@@ -27099,13 +27098,13 @@
         <v>272</v>
       </c>
       <c r="G358" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M358">
         <v>1</v>
       </c>
       <c r="N358" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P358">
         <v>8</v>
@@ -27140,16 +27139,16 @@
     </row>
     <row r="359" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B359" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C359" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D359" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -27158,7 +27157,7 @@
         <v>179</v>
       </c>
       <c r="G359" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H359">
         <v>1</v>
@@ -27173,7 +27172,7 @@
         <v>1</v>
       </c>
       <c r="N359" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P359">
         <v>8</v>
@@ -27208,16 +27207,16 @@
     </row>
     <row r="360" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B360" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C360" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D360" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E360">
         <v>1</v>
@@ -27226,7 +27225,7 @@
         <v>124</v>
       </c>
       <c r="G360" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -27252,16 +27251,16 @@
     </row>
     <row r="361" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B361" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C361" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D361" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E361">
         <v>1</v>
@@ -27270,13 +27269,13 @@
         <v>115</v>
       </c>
       <c r="G361" t="s">
+        <v>460</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="N361" t="s">
         <v>461</v>
-      </c>
-      <c r="I361">
-        <v>1</v>
-      </c>
-      <c r="N361" t="s">
-        <v>462</v>
       </c>
       <c r="P361">
         <v>2</v>
@@ -27293,31 +27292,31 @@
     </row>
     <row r="362" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B362" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C362" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D362" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E362">
         <v>4</v>
       </c>
       <c r="F362" t="s">
+        <v>446</v>
+      </c>
+      <c r="G362" t="s">
         <v>447</v>
       </c>
-      <c r="G362" t="s">
-        <v>448</v>
-      </c>
       <c r="J362">
         <v>1</v>
       </c>
       <c r="N362" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P362">
         <v>8</v>
@@ -27352,16 +27351,16 @@
     </row>
     <row r="363" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B363" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C363" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D363" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E363">
         <v>4</v>
@@ -27370,13 +27369,13 @@
         <v>207</v>
       </c>
       <c r="G363" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J363">
         <v>1</v>
       </c>
       <c r="N363" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P363">
         <v>10</v>
@@ -27417,16 +27416,16 @@
     </row>
     <row r="364" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B364" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C364" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D364" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E364">
         <v>4</v>
@@ -27435,13 +27434,13 @@
         <v>121</v>
       </c>
       <c r="G364" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H364">
         <v>1</v>
       </c>
       <c r="N364" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P364">
         <v>8</v>
@@ -27476,16 +27475,16 @@
     </row>
     <row r="365" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B365" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C365" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D365" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E365">
         <v>4</v>
@@ -27494,7 +27493,7 @@
         <v>137</v>
       </c>
       <c r="G365" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L365">
         <v>1</v>
@@ -27517,16 +27516,16 @@
     </row>
     <row r="366" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B366" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C366" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D366" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E366">
         <v>4</v>
@@ -27535,7 +27534,7 @@
         <v>181</v>
       </c>
       <c r="G366" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K366">
         <v>1</v>
@@ -27558,16 +27557,16 @@
     </row>
     <row r="367" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B367" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C367" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D367" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -27576,7 +27575,7 @@
         <v>179</v>
       </c>
       <c r="G367" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -27591,7 +27590,7 @@
         <v>1</v>
       </c>
       <c r="N367" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P367">
         <v>8</v>
@@ -27626,16 +27625,16 @@
     </row>
     <row r="368" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B368" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C368" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D368" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -27644,13 +27643,13 @@
         <v>272</v>
       </c>
       <c r="G368" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M368">
         <v>1</v>
       </c>
       <c r="N368" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P368">
         <v>8</v>
@@ -27685,16 +27684,16 @@
     </row>
     <row r="369" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B369" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C369" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D369" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -27703,13 +27702,13 @@
         <v>110</v>
       </c>
       <c r="G369" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I369">
         <v>1</v>
       </c>
       <c r="N369" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P369">
         <v>10</v>
@@ -27750,16 +27749,16 @@
     </row>
     <row r="370" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B370" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C370" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D370" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E370">
         <v>1</v>
@@ -27768,13 +27767,13 @@
         <v>115</v>
       </c>
       <c r="G370" t="s">
+        <v>460</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="N370" t="s">
         <v>461</v>
-      </c>
-      <c r="I370">
-        <v>1</v>
-      </c>
-      <c r="N370" t="s">
-        <v>462</v>
       </c>
       <c r="P370">
         <v>2</v>
@@ -27791,16 +27790,16 @@
     </row>
     <row r="371" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B371" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C371" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D371" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E371">
         <v>1</v>
@@ -27809,7 +27808,7 @@
         <v>124</v>
       </c>
       <c r="G371" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H371">
         <v>1</v>
@@ -27835,16 +27834,16 @@
     </row>
     <row r="372" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B372" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C372" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D372" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -27853,16 +27852,16 @@
         <v>110</v>
       </c>
       <c r="G372" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="N372" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P372">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q372">
         <v>96</v>
@@ -27891,19 +27890,25 @@
       <c r="BU372">
         <v>1004</v>
       </c>
+      <c r="CN372">
+        <v>1004</v>
+      </c>
+      <c r="CO372">
+        <v>1004</v>
+      </c>
     </row>
     <row r="373" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B373" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C373" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D373" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E373">
         <v>1</v>
@@ -27912,13 +27917,13 @@
         <v>272</v>
       </c>
       <c r="G373" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M373">
         <v>1</v>
       </c>
       <c r="N373" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P373">
         <v>8</v>
@@ -27953,16 +27958,16 @@
     </row>
     <row r="374" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B374" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C374" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D374" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E374">
         <v>1</v>
@@ -27971,7 +27976,7 @@
         <v>179</v>
       </c>
       <c r="G374" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H374">
         <v>1</v>
@@ -27986,7 +27991,7 @@
         <v>1</v>
       </c>
       <c r="N374" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P374">
         <v>6</v>
@@ -28015,16 +28020,16 @@
     </row>
     <row r="375" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B375" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C375" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D375" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -28033,13 +28038,13 @@
         <v>115</v>
       </c>
       <c r="G375" t="s">
+        <v>460</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="N375" t="s">
         <v>461</v>
-      </c>
-      <c r="J375">
-        <v>1</v>
-      </c>
-      <c r="N375" t="s">
-        <v>462</v>
       </c>
       <c r="P375">
         <v>2</v>
@@ -28056,16 +28061,16 @@
     </row>
     <row r="376" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B376" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C376" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D376" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -28074,7 +28079,7 @@
         <v>174</v>
       </c>
       <c r="G376" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -28097,16 +28102,16 @@
     </row>
     <row r="377" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B377" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C377" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D377" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E377">
         <v>1</v>
@@ -28115,7 +28120,7 @@
         <v>124</v>
       </c>
       <c r="G377" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H377">
         <v>1</v>
@@ -28124,7 +28129,7 @@
         <v>1</v>
       </c>
       <c r="N377" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P377">
         <v>2</v>
@@ -28438,11 +28443,11 @@
       </c>
       <c r="CN378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17V])</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CO378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18V])</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CP378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19V])</f>
@@ -28546,10 +28551,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -28586,7 +28591,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -28602,7 +28607,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B10">
         <v>34</v>
@@ -28618,7 +28623,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -28634,7 +28639,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -28650,7 +28655,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -28666,7 +28671,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B18">
         <v>14</v>
@@ -28682,7 +28687,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -28690,7 +28695,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B21">
         <v>34</v>
@@ -28698,7 +28703,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B22">
         <v>32</v>
@@ -28730,7 +28735,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -28738,7 +28743,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -28746,7 +28751,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -28754,7 +28759,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B29">
         <v>25</v>
@@ -28768,10 +28773,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -28796,7 +28801,7 @@
         <v>36</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -28810,7 +28815,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E33">
         <v>9</v>
@@ -28838,7 +28843,7 @@
         <v>28</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -28916,13 +28921,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B41">
         <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -29006,7 +29011,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E47">
         <v>69</v>
@@ -29046,7 +29051,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -29054,7 +29059,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B53">
         <v>38</v>
@@ -29118,7 +29123,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B61">
         <v>26</v>
@@ -29126,7 +29131,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62">
         <v>22</v>
@@ -29158,7 +29163,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66">
         <v>26</v>
@@ -29174,7 +29179,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B68">
         <v>30</v>
@@ -29182,7 +29187,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -29222,7 +29227,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B74">
         <v>34</v>
@@ -29246,7 +29251,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B77">
         <v>26</v>
@@ -29286,7 +29291,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B82">
         <v>2042</v>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B382BFF-444E-4D94-9019-968E0F3328E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDDCDC9-BCAF-432E-B4CA-6FBCEC526C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMACIÓN I 2024" sheetId="2" r:id="rId1"/>
@@ -1710,7 +1710,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1734,14 +1741,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1796,7 +1796,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1844,7 +1844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2420,7 +2420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="533591440"/>
@@ -2484,7 +2484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1267078032"/>
@@ -2531,7 +2531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2568,7 +2568,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2657,7 +2657,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3928,7 +3928,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3984,7 +3984,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4040,7 +4040,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4096,7 +4096,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4152,7 +4152,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4208,7 +4208,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4264,7 +4264,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5028,7 +5028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1835362880"/>
@@ -5092,7 +5092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089398640"/>
@@ -5139,7 +5139,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5176,7 +5176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10116,29 +10116,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI378" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A2:DI377" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2651714 C"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:DI377" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10701,49 +10695,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E384" sqref="E384"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="81.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="81" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.28515625" customWidth="1"/>
+    <col min="18" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="81" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.33203125" customWidth="1"/>
     <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
     <col min="102" max="105" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P1" s="1">
         <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS SEMANAL])</f>
-        <v>30</v>
+        <v>2044</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>463</v>
@@ -10846,7 +10840,7 @@
       <c r="CZ1" s="6"/>
       <c r="DA1" s="6"/>
     </row>
-    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11187,7 +11181,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -11252,7 +11246,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -11338,7 +11332,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -11388,7 +11382,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -11429,7 +11423,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -11551,7 +11545,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -11601,7 +11595,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -11642,7 +11636,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -11764,7 +11758,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -11805,7 +11799,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -11870,7 +11864,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -11956,7 +11950,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -12006,7 +12000,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12047,7 +12041,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -12157,7 +12151,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -12207,7 +12201,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -12257,7 +12251,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -12298,7 +12292,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -12384,7 +12378,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -12434,7 +12428,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -12484,7 +12478,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -12534,7 +12528,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -12584,7 +12578,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -12625,7 +12619,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -12729,7 +12723,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -12779,7 +12773,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -12829,7 +12823,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -12879,7 +12873,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -12920,7 +12914,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -13006,7 +13000,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -13056,7 +13050,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -13106,7 +13100,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -13156,7 +13150,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -13206,7 +13200,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -13247,7 +13241,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -13345,7 +13339,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -13395,7 +13389,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -13445,7 +13439,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -13495,7 +13489,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -13545,7 +13539,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -13586,7 +13580,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -13684,7 +13678,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -13734,7 +13728,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -13784,7 +13778,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -13834,7 +13828,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -13884,7 +13878,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -13925,7 +13919,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -14029,7 +14023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -14079,7 +14073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -14129,7 +14123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -14179,7 +14173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -14220,7 +14214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -14336,7 +14330,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -14386,7 +14380,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -14427,7 +14421,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14486,7 +14480,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -14560,7 +14554,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -14610,7 +14604,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -14660,7 +14654,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -14710,7 +14704,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -14760,7 +14754,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -14801,7 +14795,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="64" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -14833,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -14931,7 +14925,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -14981,7 +14975,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -15031,7 +15025,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -15081,7 +15075,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -15122,7 +15116,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -15166,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -15282,7 +15276,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -15332,7 +15326,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -15382,7 +15376,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -15423,7 +15417,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -15467,7 +15461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -15583,7 +15577,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -15633,7 +15627,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -15683,7 +15677,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -15724,7 +15718,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -15768,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -15890,7 +15884,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -15931,7 +15925,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -15981,7 +15975,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -16013,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -16135,7 +16129,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -16185,7 +16179,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -16226,7 +16220,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -16288,7 +16282,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="89" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -16356,7 +16350,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -16412,7 +16406,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -16462,7 +16456,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -16506,7 +16500,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -16556,7 +16550,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="94" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -16612,7 +16606,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="95" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -16668,7 +16662,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -16718,7 +16712,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -16780,7 +16774,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -16824,7 +16818,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -16880,7 +16874,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="100" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -16930,7 +16924,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -16980,7 +16974,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -17030,7 +17024,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="103" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>184</v>
       </c>
@@ -17098,7 +17092,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="104" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -17142,7 +17136,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -17204,7 +17198,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="106" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -17254,7 +17248,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -17310,7 +17304,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="108" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -17366,7 +17360,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -17416,7 +17410,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="110" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -17460,7 +17454,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -17519,7 +17513,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="112" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -17569,7 +17563,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -17643,7 +17637,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>184</v>
       </c>
@@ -17696,7 +17690,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -17740,7 +17734,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="116" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -17793,7 +17787,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -17846,7 +17840,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -17905,7 +17899,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="119" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>184</v>
       </c>
@@ -17955,7 +17949,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="120" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>184</v>
       </c>
@@ -18029,7 +18023,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -18082,7 +18076,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>184</v>
       </c>
@@ -18126,7 +18120,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -18179,7 +18173,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="124" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -18232,7 +18226,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="125" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>184</v>
       </c>
@@ -18297,7 +18291,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -18347,7 +18341,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>184</v>
       </c>
@@ -18421,7 +18415,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="128" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -18474,7 +18468,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>184</v>
       </c>
@@ -18518,7 +18512,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="130" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -18571,7 +18565,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -18636,7 +18630,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="132" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -18686,7 +18680,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -18760,7 +18754,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -18813,7 +18807,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>184</v>
       </c>
@@ -18857,7 +18851,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -18910,7 +18904,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="137" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -18975,7 +18969,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="138" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -19025,7 +19019,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="139" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -19099,7 +19093,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="140" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>184</v>
       </c>
@@ -19152,7 +19146,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="141" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -19196,7 +19190,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="142" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -19249,7 +19243,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="143" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>184</v>
       </c>
@@ -19311,7 +19305,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>184</v>
       </c>
@@ -19361,7 +19355,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -19429,7 +19423,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -19485,7 +19479,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -19529,7 +19523,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -19573,7 +19567,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="149" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -19641,7 +19635,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>184</v>
       </c>
@@ -19703,7 +19697,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -19765,7 +19759,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -19815,7 +19809,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -19859,7 +19853,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -19936,7 +19930,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>184</v>
       </c>
@@ -20007,7 +20001,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -20060,7 +20054,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -20113,7 +20107,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="158" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -20157,7 +20151,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -20231,7 +20225,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="160" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -20305,7 +20299,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="161" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -20358,7 +20352,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="162" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -20411,7 +20405,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="163" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -20455,7 +20449,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -20529,7 +20523,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="165" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -20603,7 +20597,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="166" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -20656,7 +20650,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -20709,7 +20703,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -20753,7 +20747,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="169" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -20827,7 +20821,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="170" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -20901,7 +20895,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="171" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -20954,7 +20948,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -21007,7 +21001,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -21051,7 +21045,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="174" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -21125,7 +21119,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -21181,7 +21175,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -21237,7 +21231,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -21290,7 +21284,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -21343,7 +21337,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -21387,7 +21381,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -21443,7 +21437,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="181" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -21496,7 +21490,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="182" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -21573,7 +21567,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="183" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -21626,7 +21620,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="184" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -21679,7 +21673,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="185" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -21723,7 +21717,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -21785,7 +21779,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -21847,7 +21841,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -21909,7 +21903,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="189" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -21953,7 +21947,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -22006,7 +22000,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -22059,7 +22053,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -22121,7 +22115,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -22171,7 +22165,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -22221,7 +22215,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -22283,7 +22277,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="196" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>184</v>
       </c>
@@ -22327,7 +22321,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -22380,7 +22374,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>184</v>
       </c>
@@ -22433,7 +22427,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>184</v>
       </c>
@@ -22495,7 +22489,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -22557,7 +22551,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>184</v>
       </c>
@@ -22613,7 +22607,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>184</v>
       </c>
@@ -22657,7 +22651,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -22701,7 +22695,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -22754,7 +22748,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>184</v>
       </c>
@@ -22807,7 +22801,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>184</v>
       </c>
@@ -22869,7 +22863,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="207" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -22925,7 +22919,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="208" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -22975,7 +22969,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="209" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>184</v>
       </c>
@@ -23019,7 +23013,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="210" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>184</v>
       </c>
@@ -23072,7 +23066,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="211" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>184</v>
       </c>
@@ -23125,7 +23119,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>184</v>
       </c>
@@ -23178,7 +23172,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>184</v>
       </c>
@@ -23240,7 +23234,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -23296,7 +23290,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="215" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>184</v>
       </c>
@@ -23346,7 +23340,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -23390,7 +23384,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="217" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -23443,7 +23437,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="218" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>184</v>
       </c>
@@ -23496,7 +23490,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -23549,7 +23543,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -23635,7 +23629,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>184</v>
       </c>
@@ -23697,7 +23691,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -23750,7 +23744,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="223" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>184</v>
       </c>
@@ -23803,7 +23797,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="224" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>184</v>
       </c>
@@ -23847,7 +23841,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="225" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -23933,7 +23927,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>184</v>
       </c>
@@ -23995,7 +23989,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>184</v>
       </c>
@@ -24048,7 +24042,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>184</v>
       </c>
@@ -24101,7 +24095,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="229" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>184</v>
       </c>
@@ -24145,7 +24139,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="230" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>293</v>
       </c>
@@ -24201,7 +24195,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>293</v>
       </c>
@@ -24251,7 +24245,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -24304,7 +24298,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>293</v>
       </c>
@@ -24357,7 +24351,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>293</v>
       </c>
@@ -24422,7 +24416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>293</v>
       </c>
@@ -24478,7 +24472,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="236" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>293</v>
       </c>
@@ -24534,7 +24528,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>293</v>
       </c>
@@ -24584,7 +24578,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>293</v>
       </c>
@@ -24634,7 +24628,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -24699,7 +24693,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>293</v>
       </c>
@@ -24764,7 +24758,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -24817,7 +24811,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>293</v>
       </c>
@@ -24873,7 +24867,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="243" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>293</v>
       </c>
@@ -24923,7 +24917,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>293</v>
       </c>
@@ -24973,7 +24967,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>293</v>
       </c>
@@ -25038,7 +25032,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>293</v>
       </c>
@@ -25097,7 +25091,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -25144,7 +25138,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>293</v>
       </c>
@@ -25200,7 +25194,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="249" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>293</v>
       </c>
@@ -25247,7 +25241,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>293</v>
       </c>
@@ -25312,7 +25306,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>293</v>
       </c>
@@ -25395,7 +25389,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>293</v>
       </c>
@@ -25445,7 +25439,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>293</v>
       </c>
@@ -25492,7 +25486,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="254" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -25542,7 +25536,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>293</v>
       </c>
@@ -25592,7 +25586,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>293</v>
       </c>
@@ -25639,7 +25633,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>293</v>
       </c>
@@ -25686,7 +25680,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>293</v>
       </c>
@@ -25727,7 +25721,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>293</v>
       </c>
@@ -25783,7 +25777,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="260" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -25833,7 +25827,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>293</v>
       </c>
@@ -25883,7 +25877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>293</v>
       </c>
@@ -25930,7 +25924,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>293</v>
       </c>
@@ -25980,7 +25974,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -26030,7 +26024,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>293</v>
       </c>
@@ -26077,7 +26071,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="266" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>293</v>
       </c>
@@ -26124,7 +26118,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -26165,7 +26159,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -26215,7 +26209,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -26265,7 +26259,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="270" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -26321,7 +26315,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="271" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>293</v>
       </c>
@@ -26383,7 +26377,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -26445,7 +26439,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>293</v>
       </c>
@@ -26504,7 +26498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>293</v>
       </c>
@@ -26560,7 +26554,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -26610,7 +26604,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -26657,7 +26651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>293</v>
       </c>
@@ -26704,7 +26698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -26751,7 +26745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -26798,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -26839,7 +26833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -26895,7 +26889,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="282" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -26945,7 +26939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -26995,7 +26989,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="284" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -27045,7 +27039,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="285" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>359</v>
       </c>
@@ -27155,7 +27149,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="286" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>359</v>
       </c>
@@ -27205,7 +27199,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="287" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>359</v>
       </c>
@@ -27255,7 +27249,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>359</v>
       </c>
@@ -27341,7 +27335,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="289" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>359</v>
       </c>
@@ -27388,7 +27382,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="290" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>359</v>
       </c>
@@ -27459,7 +27453,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="291" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>359</v>
       </c>
@@ -27515,7 +27509,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="292" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>359</v>
       </c>
@@ -27565,7 +27559,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="293" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>359</v>
       </c>
@@ -27687,7 +27681,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="294" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -27737,7 +27731,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>359</v>
       </c>
@@ -27793,7 +27787,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>359</v>
       </c>
@@ -27921,7 +27915,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="297" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>359</v>
       </c>
@@ -27971,7 +27965,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="298" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -28030,7 +28024,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="299" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>359</v>
       </c>
@@ -28083,7 +28077,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>359</v>
       </c>
@@ -28142,7 +28136,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="301" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>359</v>
       </c>
@@ -28192,7 +28186,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>359</v>
       </c>
@@ -28233,7 +28227,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="303" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -28283,7 +28277,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>359</v>
       </c>
@@ -28333,7 +28327,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="305" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>359</v>
       </c>
@@ -28383,7 +28377,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>359</v>
       </c>
@@ -28505,7 +28499,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="307" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>359</v>
       </c>
@@ -28555,7 +28549,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="308" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>359</v>
       </c>
@@ -28611,7 +28605,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="309" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>359</v>
       </c>
@@ -28658,7 +28652,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="310" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>359</v>
       </c>
@@ -28747,7 +28741,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="311" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>359</v>
       </c>
@@ -28803,7 +28797,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>359</v>
       </c>
@@ -28853,7 +28847,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="313" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>359</v>
       </c>
@@ -28903,7 +28897,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>359</v>
       </c>
@@ -28953,7 +28947,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="315" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>359</v>
       </c>
@@ -29006,7 +29000,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="316" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>359</v>
       </c>
@@ -29110,7 +29104,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="317" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>359</v>
       </c>
@@ -29160,7 +29154,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="318" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>359</v>
       </c>
@@ -29210,7 +29204,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="319" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>359</v>
       </c>
@@ -29260,7 +29254,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="320" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>359</v>
       </c>
@@ -29313,7 +29307,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="321" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>359</v>
       </c>
@@ -29423,7 +29417,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="322" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>359</v>
       </c>
@@ -29479,7 +29473,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>359</v>
       </c>
@@ -29529,7 +29523,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="324" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>409</v>
       </c>
@@ -29588,7 +29582,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="325" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>409</v>
       </c>
@@ -29635,7 +29629,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="326" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>409</v>
       </c>
@@ -29691,7 +29685,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="327" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -29744,7 +29738,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="328" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -29794,7 +29788,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="329" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -29838,7 +29832,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="330" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>409</v>
       </c>
@@ -29888,7 +29882,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="331" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>409</v>
       </c>
@@ -29938,7 +29932,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="332" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>409</v>
       </c>
@@ -30003,7 +29997,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="333" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>409</v>
       </c>
@@ -30062,7 +30056,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="334" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>409</v>
       </c>
@@ -30109,7 +30103,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -30159,7 +30153,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>409</v>
       </c>
@@ -30200,7 +30194,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="337" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -30244,7 +30238,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="338" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -30318,7 +30312,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="339" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -30383,7 +30377,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="340" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>409</v>
       </c>
@@ -30448,7 +30442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="341" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -30492,7 +30486,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="342" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>409</v>
       </c>
@@ -30551,7 +30545,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="343" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -30616,7 +30610,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="344" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -30681,7 +30675,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -30722,7 +30716,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="346" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>409</v>
       </c>
@@ -30787,7 +30781,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="347" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -30846,7 +30840,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="348" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -30905,7 +30899,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="349" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>409</v>
       </c>
@@ -30946,7 +30940,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -30987,7 +30981,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="351" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>409</v>
       </c>
@@ -31046,7 +31040,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="352" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>409</v>
       </c>
@@ -31093,7 +31087,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="353" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>409</v>
       </c>
@@ -31140,7 +31134,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="354" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -31205,7 +31199,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -31246,7 +31240,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="356" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>409</v>
       </c>
@@ -31287,7 +31281,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="357" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>409</v>
       </c>
@@ -31352,7 +31346,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="358" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>409</v>
       </c>
@@ -31411,7 +31405,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="359" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>409</v>
       </c>
@@ -31479,7 +31473,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -31523,7 +31517,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="361" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>409</v>
       </c>
@@ -31564,7 +31558,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>409</v>
       </c>
@@ -31623,7 +31617,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="363" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -31688,7 +31682,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="364" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>409</v>
       </c>
@@ -31747,7 +31741,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="365" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -31788,7 +31782,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="366" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -31829,7 +31823,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="367" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>409</v>
       </c>
@@ -31897,7 +31891,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="368" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>409</v>
       </c>
@@ -31956,7 +31950,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="369" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>409</v>
       </c>
@@ -32021,7 +32015,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="370" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -32062,7 +32056,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="371" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>409</v>
       </c>
@@ -32106,7 +32100,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="372" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>409</v>
       </c>
@@ -32171,7 +32165,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="373" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>409</v>
       </c>
@@ -32230,7 +32224,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="374" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -32292,7 +32286,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="375" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>409</v>
       </c>
@@ -32333,7 +32327,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="376" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>409</v>
       </c>
@@ -32374,7 +32368,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="377" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>409</v>
       </c>
@@ -32418,326 +32412,326 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="378" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:105" x14ac:dyDescent="0.3">
       <c r="R378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="S378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="T378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="U378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="V378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="W378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="X378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AI378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AJ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AK378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AL378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AM378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AN378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AP378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AQ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AR378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AY378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AZ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BB378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BC378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BD378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BF378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BH378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BI378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BJ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BK378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BM378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BN378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BO378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BP378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BQ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BR378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BS378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BT378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BU378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BV378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BW378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BX378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BY378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BZ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CD378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CE378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CF378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CG378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CH378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CI378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CJ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CK378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CL378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CM378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CN378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CO378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CP378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CQ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CR378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CS378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CU378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8S])</f>
@@ -32745,27 +32739,27 @@
       </c>
       <c r="CV378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CW378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CX378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CY378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CZ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -32788,7 +32782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R378:DA378">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32815,15 +32809,15 @@
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>469</v>
       </c>
@@ -32831,7 +32825,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
@@ -32839,7 +32833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
@@ -32847,7 +32841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>314</v>
       </c>
@@ -32855,7 +32849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>189</v>
       </c>
@@ -32863,7 +32857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>426</v>
       </c>
@@ -32871,7 +32865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>383</v>
       </c>
@@ -32879,7 +32873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>414</v>
       </c>
@@ -32887,7 +32881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>109</v>
       </c>
@@ -32895,7 +32889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>452</v>
       </c>
@@ -32903,7 +32897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -32911,7 +32905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>470</v>
       </c>
@@ -32919,7 +32913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>238</v>
       </c>
@@ -32927,7 +32921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>471</v>
       </c>
@@ -32935,7 +32929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
@@ -32943,7 +32937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>472</v>
       </c>
@@ -32951,7 +32945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>313</v>
       </c>
@@ -32959,7 +32953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>473</v>
       </c>
@@ -32967,7 +32961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>428</v>
       </c>
@@ -32975,7 +32969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>430</v>
       </c>
@@ -32983,7 +32977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>198</v>
       </c>
@@ -32991,7 +32985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>120</v>
       </c>
@@ -32999,7 +32993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>220</v>
       </c>
@@ -33007,7 +33001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>412</v>
       </c>
@@ -33015,7 +33009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>474</v>
       </c>
@@ -33023,7 +33017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>475</v>
       </c>
@@ -33031,7 +33025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>476</v>
       </c>
@@ -33039,7 +33033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>166</v>
       </c>
@@ -33053,7 +33047,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>375</v>
       </c>
@@ -33067,7 +33061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>145</v>
       </c>
@@ -33081,7 +33075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>142</v>
       </c>
@@ -33095,7 +33089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>168</v>
       </c>
@@ -33109,7 +33103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>379</v>
       </c>
@@ -33123,7 +33117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -33137,7 +33131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>362</v>
       </c>
@@ -33151,7 +33145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>229</v>
       </c>
@@ -33165,7 +33159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>226</v>
       </c>
@@ -33179,7 +33173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -33193,7 +33187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>407</v>
       </c>
@@ -33207,7 +33201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>253</v>
       </c>
@@ -33221,7 +33215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>370</v>
       </c>
@@ -33235,7 +33229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>197</v>
       </c>
@@ -33249,7 +33243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>162</v>
       </c>
@@ -33263,7 +33257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>153</v>
       </c>
@@ -33277,7 +33271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>154</v>
       </c>
@@ -33291,7 +33285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
@@ -33299,7 +33293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>183</v>
       </c>
@@ -33307,7 +33301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>275</v>
       </c>
@@ -33315,7 +33309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>339</v>
       </c>
@@ -33323,7 +33317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>477</v>
       </c>
@@ -33331,7 +33325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>448</v>
       </c>
@@ -33339,7 +33333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -33347,7 +33341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>176</v>
       </c>
@@ -33355,7 +33349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>393</v>
       </c>
@@ -33363,7 +33357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>224</v>
       </c>
@@ -33371,7 +33365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>296</v>
       </c>
@@ -33379,7 +33373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
@@ -33387,7 +33381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>192</v>
       </c>
@@ -33395,7 +33389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>402</v>
       </c>
@@ -33403,7 +33397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>478</v>
       </c>
@@ -33411,7 +33405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>212</v>
       </c>
@@ -33419,7 +33413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>260</v>
       </c>
@@ -33427,7 +33421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>485</v>
       </c>
@@ -33435,7 +33429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>307</v>
       </c>
@@ -33443,7 +33437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>484</v>
       </c>
@@ -33451,7 +33445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>483</v>
       </c>
@@ -33459,7 +33453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -33467,7 +33461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>305</v>
       </c>
@@ -33475,7 +33469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>136</v>
       </c>
@@ -33483,7 +33477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>106</v>
       </c>
@@ -33491,7 +33485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>424</v>
       </c>
@@ -33499,7 +33493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>368</v>
       </c>
@@ -33507,7 +33501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>491</v>
       </c>
@@ -33515,7 +33509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>223</v>
       </c>
@@ -33523,7 +33517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>479</v>
       </c>
@@ -33531,7 +33525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>139</v>
       </c>
@@ -33539,7 +33533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>200</v>
       </c>
@@ -33547,7 +33541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>148</v>
       </c>
@@ -33555,7 +33549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>134</v>
       </c>
@@ -33563,7 +33557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>480</v>
       </c>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B382BFF-444E-4D94-9019-968E0F3328E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F65FD5F-ED6F-4315-A30E-6EF2B6B684D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$377</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -7565,6 +7565,893 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="78">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="111">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>31</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2044</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1864DD7E-914F-4129-81BE-DE6895877F42}" name="PivotChartTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -8362,893 +9249,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="78">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="111">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>31</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2044</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA41CB7-E3A8-430F-B4AE-F3DE60532250}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D30:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -10116,13 +10116,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI378" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A2:DI377" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2651714 C"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:DI377" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
     <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
@@ -10701,8 +10695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E384" sqref="E384"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10743,7 +10737,7 @@
     <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P1" s="1">
         <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS SEMANAL])</f>
-        <v>30</v>
+        <v>2044</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>463</v>
@@ -11187,7 +11181,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -11252,7 +11246,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -11338,7 +11332,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -11388,7 +11382,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -11429,7 +11423,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -11551,7 +11545,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -11601,7 +11595,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -11642,7 +11636,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -11764,7 +11758,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -11805,7 +11799,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -11870,7 +11864,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -11956,7 +11950,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -12006,7 +12000,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12047,7 +12041,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -12157,7 +12151,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -12207,7 +12201,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -12257,7 +12251,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -12298,7 +12292,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -12384,7 +12378,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -12434,7 +12428,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -12484,7 +12478,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -12534,7 +12528,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -12584,7 +12578,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -12625,7 +12619,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -12729,7 +12723,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -12779,7 +12773,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -12829,7 +12823,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -12879,7 +12873,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -12920,7 +12914,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -13006,7 +13000,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -13056,7 +13050,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -13106,7 +13100,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -13156,7 +13150,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -13206,7 +13200,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -13247,7 +13241,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -13345,7 +13339,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -13395,7 +13389,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -13445,7 +13439,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -13495,7 +13489,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -13545,7 +13539,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -13586,7 +13580,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -13684,7 +13678,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -13734,7 +13728,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -13784,7 +13778,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -13834,7 +13828,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -13884,7 +13878,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -13925,7 +13919,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -14029,7 +14023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -14079,7 +14073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -14129,7 +14123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -14179,7 +14173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -14220,7 +14214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -14336,7 +14330,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -14386,7 +14380,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -14427,7 +14421,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14486,7 +14480,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -14560,7 +14554,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -14610,7 +14604,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -14660,7 +14654,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -14710,7 +14704,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -14760,7 +14754,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -14801,7 +14795,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="64" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -14833,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -14931,7 +14925,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -14981,7 +14975,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -15031,7 +15025,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -15081,7 +15075,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -15122,7 +15116,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -15166,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -15282,7 +15276,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -15332,7 +15326,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -15382,7 +15376,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -15423,7 +15417,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -15467,7 +15461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -15583,7 +15577,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -15633,7 +15627,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -15683,7 +15677,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -15724,7 +15718,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -15768,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -15890,7 +15884,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -15931,7 +15925,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -15981,7 +15975,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -16013,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -16135,7 +16129,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -16185,7 +16179,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -16226,7 +16220,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -16288,7 +16282,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="89" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -16356,7 +16350,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -16412,7 +16406,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -16462,7 +16456,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -16506,7 +16500,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -16556,7 +16550,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="94" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -16612,7 +16606,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="95" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -16668,7 +16662,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -16718,7 +16712,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -16780,7 +16774,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -16824,7 +16818,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -16880,7 +16874,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="100" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -16930,7 +16924,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -16980,7 +16974,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -17030,7 +17024,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="103" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>184</v>
       </c>
@@ -17098,7 +17092,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="104" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -17142,7 +17136,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -17204,7 +17198,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="106" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -17254,7 +17248,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -17310,7 +17304,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="108" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -17366,7 +17360,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -17416,7 +17410,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="110" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -17460,7 +17454,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -17519,7 +17513,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="112" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -17569,7 +17563,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -17643,7 +17637,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>184</v>
       </c>
@@ -17696,7 +17690,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -17740,7 +17734,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="116" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -17793,7 +17787,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -17846,7 +17840,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -17905,7 +17899,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="119" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>184</v>
       </c>
@@ -17955,7 +17949,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="120" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>184</v>
       </c>
@@ -18029,7 +18023,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -18082,7 +18076,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>184</v>
       </c>
@@ -18126,7 +18120,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -18179,7 +18173,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="124" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -18232,7 +18226,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="125" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>184</v>
       </c>
@@ -18297,7 +18291,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -18347,7 +18341,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>184</v>
       </c>
@@ -18421,7 +18415,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="128" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -18474,7 +18468,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>184</v>
       </c>
@@ -18518,7 +18512,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="130" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -18571,7 +18565,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -18636,7 +18630,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="132" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -18686,7 +18680,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -18760,7 +18754,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -18813,7 +18807,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>184</v>
       </c>
@@ -18857,7 +18851,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -18910,7 +18904,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="137" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -18975,7 +18969,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="138" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -19025,7 +19019,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="139" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -19099,7 +19093,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="140" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>184</v>
       </c>
@@ -19152,7 +19146,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="141" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -19196,7 +19190,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="142" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -19249,7 +19243,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="143" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>184</v>
       </c>
@@ -19311,7 +19305,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>184</v>
       </c>
@@ -19361,7 +19355,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -19429,7 +19423,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -19485,7 +19479,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -19529,7 +19523,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -19573,7 +19567,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="149" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -19641,7 +19635,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>184</v>
       </c>
@@ -19703,7 +19697,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -19765,7 +19759,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -19815,7 +19809,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -19859,7 +19853,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -19936,7 +19930,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>184</v>
       </c>
@@ -20007,7 +20001,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -20060,7 +20054,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -20113,7 +20107,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="158" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -20157,7 +20151,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -20231,7 +20225,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="160" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -20305,7 +20299,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="161" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -20358,7 +20352,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="162" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -20411,7 +20405,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="163" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -20455,7 +20449,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -20529,7 +20523,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="165" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -20603,7 +20597,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="166" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -20656,7 +20650,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -20709,7 +20703,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -20753,7 +20747,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="169" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -20827,7 +20821,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="170" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -20901,7 +20895,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="171" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -20954,7 +20948,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -21007,7 +21001,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -21051,7 +21045,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="174" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -21125,7 +21119,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -21181,7 +21175,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -21237,7 +21231,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -21290,7 +21284,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -21343,7 +21337,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -21387,7 +21381,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -21443,7 +21437,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="181" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -21496,7 +21490,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="182" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -21573,7 +21567,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="183" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -21626,7 +21620,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="184" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -21679,7 +21673,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="185" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -21723,7 +21717,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -21785,7 +21779,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -21847,7 +21841,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -21909,7 +21903,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="189" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -21953,7 +21947,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -22006,7 +22000,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -22059,7 +22053,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -22121,7 +22115,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -22171,7 +22165,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -22221,7 +22215,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -22283,7 +22277,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="196" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>184</v>
       </c>
@@ -22327,7 +22321,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -22380,7 +22374,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>184</v>
       </c>
@@ -22433,7 +22427,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>184</v>
       </c>
@@ -22495,7 +22489,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -22557,7 +22551,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>184</v>
       </c>
@@ -22613,7 +22607,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>184</v>
       </c>
@@ -22657,7 +22651,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -22701,7 +22695,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -22754,7 +22748,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>184</v>
       </c>
@@ -22807,7 +22801,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>184</v>
       </c>
@@ -22869,7 +22863,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="207" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -22925,7 +22919,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="208" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -22975,7 +22969,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="209" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>184</v>
       </c>
@@ -23019,7 +23013,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="210" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>184</v>
       </c>
@@ -23072,7 +23066,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="211" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>184</v>
       </c>
@@ -23125,7 +23119,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>184</v>
       </c>
@@ -23178,7 +23172,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>184</v>
       </c>
@@ -23240,7 +23234,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -23296,7 +23290,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="215" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>184</v>
       </c>
@@ -23346,7 +23340,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -23390,7 +23384,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="217" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -23443,7 +23437,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="218" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>184</v>
       </c>
@@ -23496,7 +23490,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -23549,7 +23543,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -23635,7 +23629,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>184</v>
       </c>
@@ -23697,7 +23691,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -23750,7 +23744,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="223" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>184</v>
       </c>
@@ -23803,7 +23797,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="224" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>184</v>
       </c>
@@ -23847,7 +23841,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="225" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -23933,7 +23927,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>184</v>
       </c>
@@ -23995,7 +23989,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>184</v>
       </c>
@@ -24048,7 +24042,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>184</v>
       </c>
@@ -24101,7 +24095,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="229" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>184</v>
       </c>
@@ -24145,7 +24139,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="230" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>293</v>
       </c>
@@ -24201,7 +24195,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>293</v>
       </c>
@@ -24251,7 +24245,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -24304,7 +24298,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>293</v>
       </c>
@@ -24357,7 +24351,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>293</v>
       </c>
@@ -24422,7 +24416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>293</v>
       </c>
@@ -24478,7 +24472,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="236" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>293</v>
       </c>
@@ -24534,7 +24528,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>293</v>
       </c>
@@ -24584,7 +24578,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>293</v>
       </c>
@@ -24634,7 +24628,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -24699,7 +24693,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>293</v>
       </c>
@@ -24764,7 +24758,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -24817,7 +24811,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>293</v>
       </c>
@@ -24873,7 +24867,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="243" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>293</v>
       </c>
@@ -24923,7 +24917,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>293</v>
       </c>
@@ -24973,7 +24967,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>293</v>
       </c>
@@ -25038,7 +25032,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>293</v>
       </c>
@@ -25097,7 +25091,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -25445,7 +25439,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>293</v>
       </c>
@@ -25492,7 +25486,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="254" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -25542,7 +25536,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>293</v>
       </c>
@@ -25592,7 +25586,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>293</v>
       </c>
@@ -25639,7 +25633,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>293</v>
       </c>
@@ -25686,7 +25680,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>293</v>
       </c>
@@ -25727,7 +25721,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>293</v>
       </c>
@@ -25783,7 +25777,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="260" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -25833,7 +25827,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>293</v>
       </c>
@@ -25883,7 +25877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>293</v>
       </c>
@@ -25930,7 +25924,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>293</v>
       </c>
@@ -25980,7 +25974,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -26030,7 +26024,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>293</v>
       </c>
@@ -26077,7 +26071,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="266" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>293</v>
       </c>
@@ -26124,7 +26118,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -26165,7 +26159,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -26215,7 +26209,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -26265,7 +26259,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="270" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -26321,7 +26315,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="271" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>293</v>
       </c>
@@ -26383,7 +26377,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="272" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -26445,7 +26439,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>293</v>
       </c>
@@ -26504,7 +26498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>293</v>
       </c>
@@ -26560,7 +26554,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -26610,7 +26604,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -26657,7 +26651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>293</v>
       </c>
@@ -26704,7 +26698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -26751,7 +26745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -26798,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -26839,7 +26833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -26895,7 +26889,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="282" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -26945,7 +26939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -26995,7 +26989,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="284" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -27045,7 +27039,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="285" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>359</v>
       </c>
@@ -27155,7 +27149,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="286" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>359</v>
       </c>
@@ -27205,7 +27199,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="287" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>359</v>
       </c>
@@ -27255,7 +27249,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>359</v>
       </c>
@@ -27341,7 +27335,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="289" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>359</v>
       </c>
@@ -27388,7 +27382,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="290" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>359</v>
       </c>
@@ -27459,7 +27453,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="291" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>359</v>
       </c>
@@ -27515,7 +27509,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="292" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>359</v>
       </c>
@@ -27565,7 +27559,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="293" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>359</v>
       </c>
@@ -27687,7 +27681,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="294" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -27737,7 +27731,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>359</v>
       </c>
@@ -27793,7 +27787,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>359</v>
       </c>
@@ -27921,7 +27915,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="297" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>359</v>
       </c>
@@ -27971,7 +27965,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="298" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -28030,7 +28024,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="299" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>359</v>
       </c>
@@ -28083,7 +28077,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>359</v>
       </c>
@@ -28142,7 +28136,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="301" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>359</v>
       </c>
@@ -28192,7 +28186,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>359</v>
       </c>
@@ -28233,7 +28227,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="303" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -28283,7 +28277,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>359</v>
       </c>
@@ -28333,7 +28327,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="305" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>359</v>
       </c>
@@ -28383,7 +28377,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>359</v>
       </c>
@@ -28505,7 +28499,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="307" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>359</v>
       </c>
@@ -28555,7 +28549,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="308" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>359</v>
       </c>
@@ -28611,7 +28605,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="309" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>359</v>
       </c>
@@ -28658,7 +28652,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="310" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>359</v>
       </c>
@@ -28747,7 +28741,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="311" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>359</v>
       </c>
@@ -28803,7 +28797,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>359</v>
       </c>
@@ -28853,7 +28847,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="313" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>359</v>
       </c>
@@ -28903,7 +28897,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>359</v>
       </c>
@@ -28953,7 +28947,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="315" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>359</v>
       </c>
@@ -29006,7 +29000,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="316" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>359</v>
       </c>
@@ -29110,7 +29104,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="317" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>359</v>
       </c>
@@ -29160,7 +29154,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="318" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>359</v>
       </c>
@@ -29210,7 +29204,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="319" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>359</v>
       </c>
@@ -29260,7 +29254,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="320" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>359</v>
       </c>
@@ -29313,7 +29307,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="321" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>359</v>
       </c>
@@ -29423,7 +29417,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="322" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>359</v>
       </c>
@@ -29479,7 +29473,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>359</v>
       </c>
@@ -29529,7 +29523,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="324" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>409</v>
       </c>
@@ -29588,7 +29582,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="325" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>409</v>
       </c>
@@ -29635,7 +29629,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="326" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>409</v>
       </c>
@@ -29691,7 +29685,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="327" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -29744,7 +29738,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="328" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -29794,7 +29788,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="329" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -29838,7 +29832,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="330" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>409</v>
       </c>
@@ -29888,7 +29882,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="331" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>409</v>
       </c>
@@ -29938,7 +29932,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="332" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>409</v>
       </c>
@@ -30003,7 +29997,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="333" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>409</v>
       </c>
@@ -30062,7 +30056,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="334" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>409</v>
       </c>
@@ -30109,7 +30103,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -30159,7 +30153,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>409</v>
       </c>
@@ -30200,7 +30194,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="337" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -30244,7 +30238,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="338" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -30318,7 +30312,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="339" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -30383,7 +30377,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="340" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>409</v>
       </c>
@@ -30448,7 +30442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="341" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -30492,7 +30486,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="342" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>409</v>
       </c>
@@ -30551,7 +30545,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="343" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -30616,7 +30610,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="344" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -30681,7 +30675,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -30722,7 +30716,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="346" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>409</v>
       </c>
@@ -30787,7 +30781,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="347" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -30846,7 +30840,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="348" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -30905,7 +30899,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="349" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>409</v>
       </c>
@@ -30946,7 +30940,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -30987,7 +30981,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="351" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>409</v>
       </c>
@@ -31046,7 +31040,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="352" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>409</v>
       </c>
@@ -31093,7 +31087,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="353" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>409</v>
       </c>
@@ -31140,7 +31134,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="354" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -31205,7 +31199,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -31246,7 +31240,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="356" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>409</v>
       </c>
@@ -31287,7 +31281,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="357" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>409</v>
       </c>
@@ -31352,7 +31346,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="358" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>409</v>
       </c>
@@ -31411,7 +31405,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="359" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>409</v>
       </c>
@@ -31479,7 +31473,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -31523,7 +31517,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="361" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>409</v>
       </c>
@@ -31564,7 +31558,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>409</v>
       </c>
@@ -31623,7 +31617,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="363" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -31688,7 +31682,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="364" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>409</v>
       </c>
@@ -31747,7 +31741,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="365" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -31788,7 +31782,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="366" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -31829,7 +31823,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="367" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>409</v>
       </c>
@@ -31897,7 +31891,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="368" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>409</v>
       </c>
@@ -31956,7 +31950,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="369" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>409</v>
       </c>
@@ -32021,7 +32015,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="370" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -32062,7 +32056,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="371" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>409</v>
       </c>
@@ -32106,7 +32100,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="372" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>409</v>
       </c>
@@ -32171,7 +32165,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="373" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>409</v>
       </c>
@@ -32230,7 +32224,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="374" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -32292,7 +32286,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="375" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>409</v>
       </c>
@@ -32333,7 +32327,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="376" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>409</v>
       </c>
@@ -32374,7 +32368,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="377" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>409</v>
       </c>
@@ -32421,323 +32415,323 @@
     <row r="378" spans="1:105" x14ac:dyDescent="0.25">
       <c r="R378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="S378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="T378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="U378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="V378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="W378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="X378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AI378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AJ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AK378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AL378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AM378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AN378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AP378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AQ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AR378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AY378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AZ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BB378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BC378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12MI])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BD378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BF378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BH378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BI378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BJ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BK378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BM378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BN378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BO378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BP378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BQ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BR378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BS378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BT378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BU378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BV378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BW378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BX378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BY378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BZ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CD378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CE378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CF378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CG378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CH378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CI378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CJ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CK378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CL378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CM378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CN378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CO378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18V])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CP378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CQ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CR378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CS378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CU378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8S])</f>
@@ -32745,27 +32739,27 @@
       </c>
       <c r="CV378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CW378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CX378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CY378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CZ378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DA378">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E779C-4168-477E-9B0F-4AB83B013DA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD55AE7C-206A-45DD-8A44-73186DC0A363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$378</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1713,14 +1713,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1744,7 +1737,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2574,6 +2574,11 @@
       <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -5177,6 +5182,11 @@
       <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -7558,6 +7568,893 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="78">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="111">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>31</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2044</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1864DD7E-914F-4129-81BE-DE6895877F42}" name="PivotChartTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -8355,893 +9252,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="78">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="111">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>31</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2044</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA41CB7-E3A8-430F-B4AE-F3DE60532250}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D30:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -10111,21 +10121,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10666,7 +10676,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -10688,8 +10698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="N92" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:DI378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10702,7 +10712,7 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="81.140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
@@ -13375,10 +13385,10 @@
       <c r="Q38">
         <v>24</v>
       </c>
-      <c r="X38" t="s">
+      <c r="BT38" t="s">
         <v>489</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="BU38" t="s">
         <v>489</v>
       </c>
     </row>
@@ -13566,10 +13576,10 @@
       <c r="Q42">
         <v>24</v>
       </c>
-      <c r="BT42" t="s">
+      <c r="X42" t="s">
         <v>489</v>
       </c>
-      <c r="BU42" t="s">
+      <c r="Y42" t="s">
         <v>489</v>
       </c>
     </row>
@@ -21747,10 +21757,10 @@
       <c r="Q186">
         <v>96</v>
       </c>
-      <c r="R186">
+      <c r="AH186">
         <v>501</v>
       </c>
-      <c r="S186">
+      <c r="AI186">
         <v>501</v>
       </c>
       <c r="AX186">
@@ -21933,10 +21943,10 @@
       <c r="Q189">
         <v>24</v>
       </c>
-      <c r="AH189">
+      <c r="R189">
         <v>501</v>
       </c>
-      <c r="AI189">
+      <c r="S189">
         <v>501</v>
       </c>
     </row>
@@ -22028,7 +22038,7 @@
         <v>1</v>
       </c>
       <c r="N191" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O191" t="s">
         <v>273</v>
@@ -25230,10 +25240,10 @@
       <c r="Q249">
         <v>24</v>
       </c>
-      <c r="CD249">
+      <c r="CH249">
         <v>411</v>
       </c>
-      <c r="CE249">
+      <c r="CI249">
         <v>411</v>
       </c>
     </row>
@@ -25422,13 +25432,13 @@
       <c r="BS252">
         <v>411</v>
       </c>
+      <c r="CD252">
+        <v>411</v>
+      </c>
+      <c r="CE252">
+        <v>411</v>
+      </c>
       <c r="CG252">
-        <v>411</v>
-      </c>
-      <c r="CH252">
-        <v>411</v>
-      </c>
-      <c r="CI252">
         <v>411</v>
       </c>
     </row>
@@ -26343,7 +26353,7 @@
         <v>1</v>
       </c>
       <c r="N271" t="s">
-        <v>117</v>
+        <v>484</v>
       </c>
       <c r="P271">
         <v>2</v>
@@ -26976,10 +26986,10 @@
         <v>24</v>
       </c>
       <c r="CV283">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="CW283">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="284" spans="1:105" x14ac:dyDescent="0.25">
@@ -29134,10 +29144,10 @@
       <c r="BY317">
         <v>1007</v>
       </c>
-      <c r="CJ317">
+      <c r="CL317">
         <v>1007</v>
       </c>
-      <c r="CK317">
+      <c r="CM317">
         <v>1007</v>
       </c>
       <c r="CN317">
@@ -29290,10 +29300,10 @@
       <c r="Q320">
         <v>24</v>
       </c>
-      <c r="CL320">
+      <c r="CJ320">
         <v>1007</v>
       </c>
-      <c r="CM320">
+      <c r="CK320">
         <v>1007</v>
       </c>
     </row>
@@ -29501,7 +29511,7 @@
         <v>1</v>
       </c>
       <c r="N323" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="P323">
         <v>2</v>
@@ -29601,28 +29611,28 @@
         <v>96</v>
       </c>
       <c r="R325">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="S325">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AH325">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AI325">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AX325">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AY325">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BN325">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BO325">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:93" x14ac:dyDescent="0.25">
@@ -29660,16 +29670,16 @@
         <v>48</v>
       </c>
       <c r="T326">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AJ326">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AZ326">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BP326">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:93" x14ac:dyDescent="0.25">
@@ -29716,16 +29726,16 @@
         <v>48</v>
       </c>
       <c r="U327">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AK327">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BA327">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BQ327">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:93" x14ac:dyDescent="0.25">
@@ -29763,22 +29773,22 @@
         <v>72</v>
       </c>
       <c r="V328">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="W328">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AL328">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="AM328">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BB328">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BC328">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:93" x14ac:dyDescent="0.25">
@@ -29825,10 +29835,10 @@
         <v>24</v>
       </c>
       <c r="BR329">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="BS329">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:93" x14ac:dyDescent="0.25">
@@ -29869,10 +29879,10 @@
         <v>24</v>
       </c>
       <c r="CD330">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="CE330">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:93" x14ac:dyDescent="0.25">
@@ -29919,10 +29929,10 @@
         <v>24</v>
       </c>
       <c r="CF331">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="CG331">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:93" x14ac:dyDescent="0.25">
@@ -29969,10 +29979,10 @@
         <v>24</v>
       </c>
       <c r="CH332">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="CI332">
-        <v>804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:93" x14ac:dyDescent="0.25">
@@ -30325,34 +30335,34 @@
         <v>120</v>
       </c>
       <c r="R339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="S339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AH339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AI339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AX339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AY339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BN339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BO339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="CD339">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="CE339">
-        <v>411</v>
+        <v>804</v>
       </c>
     </row>
     <row r="340" spans="1:89" x14ac:dyDescent="0.25">
@@ -30396,28 +30406,28 @@
         <v>96</v>
       </c>
       <c r="T340">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="U340">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AJ340">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AK340">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AZ340">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BA340">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BP340">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BQ340">
-        <v>411</v>
+        <v>804</v>
       </c>
     </row>
     <row r="341" spans="1:89" x14ac:dyDescent="0.25">
@@ -30455,34 +30465,34 @@
         <v>120</v>
       </c>
       <c r="V341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="W341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AL341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="AM341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BB341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BC341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BR341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="BS341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="CH341">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="CI341">
-        <v>411</v>
+        <v>804</v>
       </c>
     </row>
     <row r="342" spans="1:89" x14ac:dyDescent="0.25">
@@ -30523,10 +30533,10 @@
         <v>24</v>
       </c>
       <c r="CF342">
-        <v>411</v>
+        <v>804</v>
       </c>
       <c r="CG342">
-        <v>411</v>
+        <v>804</v>
       </c>
     </row>
     <row r="343" spans="1:89" x14ac:dyDescent="0.25">
@@ -32201,10 +32211,10 @@
       <c r="BU373">
         <v>1004</v>
       </c>
-      <c r="CN373">
+      <c r="CJ373">
         <v>1004</v>
       </c>
-      <c r="CO373">
+      <c r="CK373">
         <v>1004</v>
       </c>
     </row>
@@ -32363,10 +32373,10 @@
       <c r="Q376">
         <v>24</v>
       </c>
-      <c r="CJ376">
+      <c r="CN376">
         <v>1004</v>
       </c>
-      <c r="CK376">
+      <c r="CO376">
         <v>1004</v>
       </c>
     </row>
@@ -32825,7 +32835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32863,8 +32873,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD55AE7C-206A-45DD-8A44-73186DC0A363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33316D5-5C85-41E5-8A45-64005519E78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMACIÓN I 2024" sheetId="2" r:id="rId1"/>
@@ -1799,7 +1799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1847,7 +1847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2423,7 +2423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="533591440"/>
@@ -2487,7 +2487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1267078032"/>
@@ -2534,7 +2534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2571,7 +2571,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2660,7 +2660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3931,7 +3931,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3987,7 +3987,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4043,7 +4043,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4099,7 +4099,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4155,7 +4155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4211,7 +4211,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4267,7 +4267,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5031,7 +5031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1835362880"/>
@@ -5095,7 +5095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089398640"/>
@@ -5142,7 +5142,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5179,7 +5179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10676,7 +10676,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -10698,46 +10698,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N92" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:DI378"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="81.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="81" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.28515625" customWidth="1"/>
+    <col min="18" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="81" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.33203125" customWidth="1"/>
     <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
     <col min="102" max="105" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P1" s="1">
         <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS SEMANAL])</f>
         <v>2038</v>
@@ -10843,7 +10843,7 @@
       <c r="CZ1" s="6"/>
       <c r="DA1" s="6"/>
     </row>
-    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="64" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="103" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>184</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="104" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>184</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="116" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="119" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>184</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="120" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>184</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>184</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="124" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="125" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>184</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>184</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="128" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>184</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="130" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="132" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>184</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="137" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="138" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="139" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="140" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>184</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="141" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -19193,7 +19193,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="142" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="143" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>184</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>184</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="149" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>184</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -19856,7 +19856,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>184</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -20110,7 +20110,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="158" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="160" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="161" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="162" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="163" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="165" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="166" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="169" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="170" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="171" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="174" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="181" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="182" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="183" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="184" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="185" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -21720,7 +21720,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -21782,7 +21782,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="189" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -22118,7 +22118,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="196" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>184</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>184</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>184</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>184</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>184</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -22698,7 +22698,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>184</v>
       </c>
@@ -22804,7 +22804,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>184</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="207" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="208" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="209" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>184</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="210" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>184</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="211" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>184</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>184</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>184</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -23293,7 +23293,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="215" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>184</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="217" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="218" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>184</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>184</v>
       </c>
@@ -23694,7 +23694,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -23747,7 +23747,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="223" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>184</v>
       </c>
@@ -23800,7 +23800,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="224" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>184</v>
       </c>
@@ -23844,7 +23844,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="225" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -23930,7 +23930,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>184</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>184</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>184</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="229" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>184</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="230" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>293</v>
       </c>
@@ -24198,7 +24198,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>293</v>
       </c>
@@ -24241,14 +24241,14 @@
       <c r="Q231">
         <v>24</v>
       </c>
-      <c r="AT231">
+      <c r="AD231">
         <v>203</v>
       </c>
-      <c r="AU231">
+      <c r="AE231">
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -24282,6 +24282,12 @@
       <c r="Q232">
         <v>72</v>
       </c>
+      <c r="AT232">
+        <v>203</v>
+      </c>
+      <c r="AU232">
+        <v>203</v>
+      </c>
       <c r="BZ232">
         <v>203</v>
       </c>
@@ -24301,7 +24307,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>293</v>
       </c>
@@ -24354,7 +24360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>293</v>
       </c>
@@ -24388,12 +24394,6 @@
       <c r="Q234">
         <v>120</v>
       </c>
-      <c r="AD234">
-        <v>203</v>
-      </c>
-      <c r="AE234">
-        <v>203</v>
-      </c>
       <c r="AF234">
         <v>203</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>293</v>
       </c>
@@ -24462,20 +24462,20 @@
       <c r="Q235">
         <v>48</v>
       </c>
-      <c r="R235">
-        <v>605</v>
-      </c>
-      <c r="S235">
-        <v>605</v>
-      </c>
       <c r="AH235">
         <v>605</v>
       </c>
       <c r="AI235">
         <v>605</v>
       </c>
-    </row>
-    <row r="236" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="AX235">
+        <v>605</v>
+      </c>
+      <c r="AY235">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="236" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>293</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>293</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>293</v>
       </c>
@@ -24624,14 +24624,14 @@
       <c r="Q238">
         <v>24</v>
       </c>
-      <c r="AX238">
+      <c r="R238">
         <v>605</v>
       </c>
-      <c r="AY238">
+      <c r="S238">
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>293</v>
       </c>
@@ -24761,7 +24761,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>293</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="243" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>293</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>293</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>293</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>293</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>293</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>293</v>
       </c>
@@ -25247,7 +25247,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>293</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>293</v>
       </c>
@@ -25359,7 +25359,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>293</v>
       </c>
@@ -25442,7 +25442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>293</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="254" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -25539,7 +25539,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>293</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>293</v>
       </c>
@@ -25639,7 +25639,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>293</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>293</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>293</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="260" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>293</v>
       </c>
@@ -25880,7 +25880,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>293</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>293</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -26027,7 +26027,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>293</v>
       </c>
@@ -26077,7 +26077,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="266" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>293</v>
       </c>
@@ -26124,7 +26124,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -26171,7 +26171,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -26262,7 +26262,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="270" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -26312,7 +26312,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="271" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>293</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>293</v>
       </c>
@@ -26492,7 +26492,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>293</v>
       </c>
@@ -26551,7 +26551,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="277" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>293</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -26751,7 +26751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -26845,7 +26845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="283" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -26986,13 +26986,13 @@
         <v>24</v>
       </c>
       <c r="CV283">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="CW283">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="284" spans="1:105" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="285" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>293</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="286" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>359</v>
       </c>
@@ -27202,7 +27202,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="287" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>359</v>
       </c>
@@ -27252,7 +27252,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>359</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="289" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>359</v>
       </c>
@@ -27388,7 +27388,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="290" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>359</v>
       </c>
@@ -27435,7 +27435,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="291" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>359</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="292" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>359</v>
       </c>
@@ -27562,7 +27562,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="293" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>359</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="294" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -27734,7 +27734,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>359</v>
       </c>
@@ -27784,7 +27784,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>359</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="297" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>359</v>
       </c>
@@ -27968,7 +27968,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="298" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -28018,7 +28018,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="299" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>359</v>
       </c>
@@ -28077,7 +28077,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>359</v>
       </c>
@@ -28130,7 +28130,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="301" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>359</v>
       </c>
@@ -28189,7 +28189,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>359</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="303" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -28280,7 +28280,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>359</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="305" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>359</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>359</v>
       </c>
@@ -28430,7 +28430,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>359</v>
       </c>
@@ -28552,7 +28552,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="308" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>359</v>
       </c>
@@ -28602,7 +28602,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="309" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>359</v>
       </c>
@@ -28658,7 +28658,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="310" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>359</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="311" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>359</v>
       </c>
@@ -28794,7 +28794,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>359</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="313" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>359</v>
       </c>
@@ -28900,7 +28900,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>359</v>
       </c>
@@ -28950,7 +28950,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="315" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>359</v>
       </c>
@@ -29000,7 +29000,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="316" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>359</v>
       </c>
@@ -29053,7 +29053,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="317" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>359</v>
       </c>
@@ -29157,7 +29157,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="318" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>359</v>
       </c>
@@ -29207,7 +29207,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="319" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>359</v>
       </c>
@@ -29257,7 +29257,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="320" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>359</v>
       </c>
@@ -29307,7 +29307,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="321" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>359</v>
       </c>
@@ -29360,7 +29360,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="322" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>359</v>
       </c>
@@ -29470,7 +29470,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>359</v>
       </c>
@@ -29526,7 +29526,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="324" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>359</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="325" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>409</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>409</v>
       </c>
@@ -29682,7 +29682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -29738,7 +29738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -29841,7 +29841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>409</v>
       </c>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>409</v>
       </c>
@@ -29935,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>409</v>
       </c>
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>409</v>
       </c>
@@ -30050,7 +30050,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="334" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>409</v>
       </c>
@@ -30109,7 +30109,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>409</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="337" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -30247,7 +30247,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="338" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -30291,7 +30291,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="339" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -30365,7 +30365,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="340" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>409</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="341" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="342" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>409</v>
       </c>
@@ -30539,7 +30539,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="343" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="344" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -30728,7 +30728,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="346" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>409</v>
       </c>
@@ -30769,7 +30769,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="347" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="348" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -30893,7 +30893,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="349" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>409</v>
       </c>
@@ -30952,7 +30952,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="351" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>409</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="352" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>409</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="353" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>409</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="354" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -31252,7 +31252,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="356" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>409</v>
       </c>
@@ -31293,7 +31293,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="357" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>409</v>
       </c>
@@ -31334,7 +31334,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="358" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>409</v>
       </c>
@@ -31399,7 +31399,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="359" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>409</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -31526,7 +31526,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="361" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>409</v>
       </c>
@@ -31570,7 +31570,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>409</v>
       </c>
@@ -31611,7 +31611,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="363" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="364" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>409</v>
       </c>
@@ -31735,7 +31735,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="365" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -31794,7 +31794,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="366" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -31835,7 +31835,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="367" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>409</v>
       </c>
@@ -31876,7 +31876,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="368" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>409</v>
       </c>
@@ -31944,7 +31944,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="369" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>409</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="370" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="371" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>409</v>
       </c>
@@ -32109,7 +32109,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="372" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>409</v>
       </c>
@@ -32153,7 +32153,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="373" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>409</v>
       </c>
@@ -32218,7 +32218,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="374" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -32277,7 +32277,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="375" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>409</v>
       </c>
@@ -32339,7 +32339,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="376" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>409</v>
       </c>
@@ -32380,7 +32380,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="377" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>409</v>
       </c>
@@ -32421,7 +32421,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="378" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>409</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="379" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:105" x14ac:dyDescent="0.3">
       <c r="R379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7L])</f>
         <v>32</v>
@@ -32834,11 +32834,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H245:M245">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
@@ -32846,6 +32841,11 @@
         <cfvo type="num" val="0" gte="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R379:DA379">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32871,15 +32871,15 @@
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>469</v>
       </c>
@@ -32887,7 +32887,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
@@ -32895,7 +32895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
@@ -32903,7 +32903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>314</v>
       </c>
@@ -32911,7 +32911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>189</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>426</v>
       </c>
@@ -32927,7 +32927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>383</v>
       </c>
@@ -32935,7 +32935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>414</v>
       </c>
@@ -32943,7 +32943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>109</v>
       </c>
@@ -32951,7 +32951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>452</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>470</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>238</v>
       </c>
@@ -32983,7 +32983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>471</v>
       </c>
@@ -32991,7 +32991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
@@ -32999,7 +32999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>472</v>
       </c>
@@ -33007,7 +33007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>313</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>473</v>
       </c>
@@ -33023,7 +33023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>428</v>
       </c>
@@ -33031,7 +33031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>430</v>
       </c>
@@ -33039,7 +33039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>198</v>
       </c>
@@ -33047,7 +33047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>120</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>220</v>
       </c>
@@ -33063,7 +33063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>412</v>
       </c>
@@ -33071,7 +33071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>474</v>
       </c>
@@ -33079,7 +33079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>475</v>
       </c>
@@ -33087,7 +33087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>476</v>
       </c>
@@ -33095,7 +33095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>166</v>
       </c>
@@ -33109,7 +33109,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>375</v>
       </c>
@@ -33123,7 +33123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>145</v>
       </c>
@@ -33137,7 +33137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>142</v>
       </c>
@@ -33151,7 +33151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>168</v>
       </c>
@@ -33165,7 +33165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>379</v>
       </c>
@@ -33179,7 +33179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>362</v>
       </c>
@@ -33207,7 +33207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>229</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>226</v>
       </c>
@@ -33235,7 +33235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -33249,7 +33249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>407</v>
       </c>
@@ -33263,7 +33263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>253</v>
       </c>
@@ -33277,7 +33277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>370</v>
       </c>
@@ -33291,7 +33291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>197</v>
       </c>
@@ -33305,7 +33305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>162</v>
       </c>
@@ -33319,7 +33319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>153</v>
       </c>
@@ -33333,7 +33333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>154</v>
       </c>
@@ -33347,7 +33347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>183</v>
       </c>
@@ -33363,7 +33363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>275</v>
       </c>
@@ -33371,7 +33371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>339</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>477</v>
       </c>
@@ -33387,7 +33387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>448</v>
       </c>
@@ -33395,7 +33395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>176</v>
       </c>
@@ -33411,7 +33411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>393</v>
       </c>
@@ -33419,7 +33419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>224</v>
       </c>
@@ -33427,7 +33427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>296</v>
       </c>
@@ -33435,7 +33435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
@@ -33443,7 +33443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>192</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>402</v>
       </c>
@@ -33459,7 +33459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>478</v>
       </c>
@@ -33467,7 +33467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>212</v>
       </c>
@@ -33475,7 +33475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>260</v>
       </c>
@@ -33483,7 +33483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>485</v>
       </c>
@@ -33491,7 +33491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>307</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>484</v>
       </c>
@@ -33507,7 +33507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>483</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -33523,7 +33523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>305</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>136</v>
       </c>
@@ -33539,7 +33539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>106</v>
       </c>
@@ -33547,7 +33547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>424</v>
       </c>
@@ -33555,7 +33555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>368</v>
       </c>
@@ -33563,7 +33563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>491</v>
       </c>
@@ -33571,7 +33571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>223</v>
       </c>
@@ -33579,7 +33579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>479</v>
       </c>
@@ -33587,7 +33587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>139</v>
       </c>
@@ -33595,7 +33595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>200</v>
       </c>
@@ -33603,7 +33603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>148</v>
       </c>
@@ -33611,7 +33611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>134</v>
       </c>
@@ -33619,7 +33619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>480</v>
       </c>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33316D5-5C85-41E5-8A45-64005519E78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B355AF8-3BC8-4D79-A1A8-DC3AAB21C957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$378</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1713,7 +1713,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1737,14 +1744,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7568,893 +7568,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="78">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="111">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>31</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2044</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1864DD7E-914F-4129-81BE-DE6895877F42}" name="PivotChartTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -9252,6 +8365,893 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="78">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="111">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>31</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2044</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA41CB7-E3A8-430F-B4AE-F3DE60532250}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D30:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -10121,21 +10121,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10698,8 +10698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AN323" sqref="AN323:AO323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29519,10 +29519,10 @@
       <c r="Q323">
         <v>24</v>
       </c>
-      <c r="AN323">
+      <c r="BD323">
         <v>1001</v>
       </c>
-      <c r="AO323">
+      <c r="BE323">
         <v>1001</v>
       </c>
     </row>
@@ -32556,11 +32556,11 @@
       </c>
       <c r="AN379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13M])</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14M])</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15M])</f>
@@ -32620,11 +32620,11 @@
       </c>
       <c r="BD379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13MI])</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14MI])</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BF379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15MI])</f>
@@ -32844,7 +32844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\SENA\DOCUMENTOS 2024\COORDINACIÓN 2024\PROGRAMADOR\PRIMETRIMESTRE 2024 V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B355AF8-3BC8-4D79-A1A8-DC3AAB21C957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34813CA-12C1-4C21-876C-7FEE20D01A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMACIÓN I 2024" sheetId="2" r:id="rId1"/>
@@ -1799,7 +1799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1847,7 +1847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2423,7 +2423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="533591440"/>
@@ -2487,7 +2487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1267078032"/>
@@ -2534,7 +2534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2571,18 +2571,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[1-2024.xlsx]PivotChartTable1</c15:name>
+        <c15:name>[1-2024_V6.xlsx]PivotChartTable1</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -2660,7 +2655,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3931,7 +3926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3987,7 +3982,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4043,7 +4038,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4099,7 +4094,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4155,7 +4150,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4211,7 +4206,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4267,7 +4262,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5031,7 +5026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1835362880"/>
@@ -5095,7 +5090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089398640"/>
@@ -5142,7 +5137,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5179,18 +5174,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[1-2024.xlsx]PivotChartTable2</c15:name>
+        <c15:name>[1-2024_V6.xlsx]PivotChartTable2</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -10119,7 +10109,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
+  <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="KENIA NAYIVER LOPEZ RAMIREZ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="113">
     <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
@@ -10698,49 +10694,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN323" sqref="AN323:AO323"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CQ383" sqref="CQ383"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="81.109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="81" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.33203125" customWidth="1"/>
+    <col min="18" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="81" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="97" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.28515625" customWidth="1"/>
     <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
     <col min="102" max="105" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P1" s="1">
         <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS SEMANAL])</f>
-        <v>2038</v>
+        <v>28</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>463</v>
@@ -10843,7 +10839,7 @@
       <c r="CZ1" s="6"/>
       <c r="DA1" s="6"/>
     </row>
-    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11184,7 +11180,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -11249,7 +11245,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -11335,7 +11331,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -11385,7 +11381,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -11426,7 +11422,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -11548,7 +11544,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -11598,7 +11594,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -11639,7 +11635,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -11761,7 +11757,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -11802,7 +11798,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -11867,7 +11863,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -11953,7 +11949,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -12003,7 +11999,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12044,7 +12040,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -12154,7 +12150,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -12204,7 +12200,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -12254,7 +12250,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -12295,7 +12291,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -12381,7 +12377,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -12431,7 +12427,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -12481,7 +12477,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -12531,7 +12527,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -12581,7 +12577,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -12622,7 +12618,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -12726,7 +12722,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -12776,7 +12772,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -12826,7 +12822,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -12876,7 +12872,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -12917,7 +12913,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -13003,7 +12999,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -13053,7 +13049,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -13103,7 +13099,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -13153,7 +13149,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -13203,7 +13199,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -13244,7 +13240,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -13342,7 +13338,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -13392,7 +13388,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -13442,7 +13438,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -13492,7 +13488,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -13542,7 +13538,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -13583,7 +13579,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -13681,7 +13677,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -13731,7 +13727,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -13781,7 +13777,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -13831,7 +13827,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -13881,7 +13877,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -13922,7 +13918,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -14026,7 +14022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -14076,7 +14072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -14126,7 +14122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -14176,7 +14172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -14217,7 +14213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -14333,7 +14329,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -14383,7 +14379,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -14424,7 +14420,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14483,7 +14479,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -14557,7 +14553,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -14607,7 +14603,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -14657,7 +14653,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -14707,7 +14703,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -14757,7 +14753,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -14798,7 +14794,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="64" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -14830,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -14928,7 +14924,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -14978,7 +14974,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -15028,7 +15024,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -15078,7 +15074,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -15119,7 +15115,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -15163,7 +15159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -15279,7 +15275,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -15329,7 +15325,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -15379,7 +15375,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -15420,7 +15416,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -15464,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -15580,7 +15576,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -15630,7 +15626,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -15680,7 +15676,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -15721,7 +15717,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -15765,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -15887,7 +15883,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -15928,7 +15924,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -15978,7 +15974,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -16010,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -16132,7 +16128,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -16182,7 +16178,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -16223,7 +16219,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -16285,7 +16281,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -16353,7 +16349,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -16409,7 +16405,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -16459,7 +16455,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -16503,7 +16499,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -16553,7 +16549,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="94" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -16609,7 +16605,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="95" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -16665,7 +16661,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -16715,7 +16711,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -16777,7 +16773,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -16821,7 +16817,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -16877,7 +16873,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -16927,7 +16923,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -16977,7 +16973,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -17027,7 +17023,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="103" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>184</v>
       </c>
@@ -17095,7 +17091,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="104" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -17139,7 +17135,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -17201,7 +17197,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="106" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -17251,7 +17247,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -17307,7 +17303,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="108" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -17363,7 +17359,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -17413,7 +17409,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="110" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -17457,7 +17453,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -17516,7 +17512,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="112" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -17566,7 +17562,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -17640,7 +17636,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>184</v>
       </c>
@@ -17693,7 +17689,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -17737,7 +17733,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="116" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -17790,7 +17786,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -17843,7 +17839,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -17902,7 +17898,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="119" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>184</v>
       </c>
@@ -17952,7 +17948,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="120" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>184</v>
       </c>
@@ -18026,7 +18022,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -18079,7 +18075,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>184</v>
       </c>
@@ -18123,7 +18119,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -18176,7 +18172,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="124" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -18229,7 +18225,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="125" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>184</v>
       </c>
@@ -18294,7 +18290,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -18344,7 +18340,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>184</v>
       </c>
@@ -18418,7 +18414,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="128" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -18471,7 +18467,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>184</v>
       </c>
@@ -18515,7 +18511,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="130" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -18568,7 +18564,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -18633,7 +18629,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="132" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -18683,7 +18679,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -18757,7 +18753,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -18810,7 +18806,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>184</v>
       </c>
@@ -18854,7 +18850,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -18907,7 +18903,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="137" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -18972,7 +18968,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="138" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -19022,7 +19018,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="139" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -19096,7 +19092,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="140" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>184</v>
       </c>
@@ -19149,7 +19145,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="141" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -19193,7 +19189,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="142" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -19246,7 +19242,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="143" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>184</v>
       </c>
@@ -19308,7 +19304,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>184</v>
       </c>
@@ -19358,7 +19354,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -19426,7 +19422,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -19482,7 +19478,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -19526,7 +19522,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -19570,7 +19566,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="149" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -19638,7 +19634,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>184</v>
       </c>
@@ -19700,7 +19696,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -19762,7 +19758,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -19812,7 +19808,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -19856,7 +19852,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -19933,7 +19929,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>184</v>
       </c>
@@ -20004,7 +20000,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -20057,7 +20053,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -20110,7 +20106,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="158" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -20154,7 +20150,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -20228,7 +20224,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="160" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -20302,7 +20298,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="161" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -20355,7 +20351,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="162" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -20408,7 +20404,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="163" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -20452,7 +20448,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -20526,7 +20522,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="165" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -20600,7 +20596,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="166" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -20653,7 +20649,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -20706,7 +20702,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -20750,7 +20746,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="169" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -20824,7 +20820,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="170" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -20898,7 +20894,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="171" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -20951,7 +20947,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -21004,7 +21000,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -21048,7 +21044,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="174" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -21122,7 +21118,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -21178,7 +21174,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -21234,7 +21230,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -21287,7 +21283,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -21340,7 +21336,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -21384,7 +21380,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -21440,7 +21436,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="181" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -21493,7 +21489,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="182" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -21570,7 +21566,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="183" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -21623,7 +21619,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="184" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -21676,7 +21672,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="185" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -21720,7 +21716,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -21782,7 +21778,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -21844,7 +21840,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -21906,7 +21902,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="189" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -21950,7 +21946,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -22003,7 +21999,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -22056,7 +22052,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -22118,7 +22114,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -22168,7 +22164,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -22218,7 +22214,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -22280,7 +22276,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="196" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>184</v>
       </c>
@@ -22324,7 +22320,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -22377,7 +22373,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>184</v>
       </c>
@@ -22430,7 +22426,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>184</v>
       </c>
@@ -22492,7 +22488,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -22554,7 +22550,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>184</v>
       </c>
@@ -22610,7 +22606,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>184</v>
       </c>
@@ -22654,7 +22650,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -22698,7 +22694,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -22751,7 +22747,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>184</v>
       </c>
@@ -22804,7 +22800,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>184</v>
       </c>
@@ -22866,7 +22862,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="207" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -22922,7 +22918,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="208" spans="1:97" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -22972,7 +22968,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="209" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>184</v>
       </c>
@@ -23016,7 +23012,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="210" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>184</v>
       </c>
@@ -23069,7 +23065,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="211" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>184</v>
       </c>
@@ -23122,7 +23118,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>184</v>
       </c>
@@ -23175,7 +23171,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>184</v>
       </c>
@@ -23237,7 +23233,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -23293,7 +23289,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="215" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>184</v>
       </c>
@@ -23343,7 +23339,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -23387,7 +23383,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="217" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -23440,7 +23436,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="218" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>184</v>
       </c>
@@ -23493,7 +23489,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -23546,7 +23542,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -23632,7 +23628,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>184</v>
       </c>
@@ -23694,7 +23690,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -23747,7 +23743,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="223" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>184</v>
       </c>
@@ -23800,7 +23796,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="224" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>184</v>
       </c>
@@ -23844,7 +23840,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="225" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -23930,7 +23926,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>184</v>
       </c>
@@ -23992,7 +23988,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>184</v>
       </c>
@@ -24045,7 +24041,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>184</v>
       </c>
@@ -24098,7 +24094,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="229" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>184</v>
       </c>
@@ -24142,7 +24138,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="230" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>293</v>
       </c>
@@ -24198,7 +24194,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>293</v>
       </c>
@@ -24248,7 +24244,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -24307,7 +24303,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>293</v>
       </c>
@@ -24360,7 +24356,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>293</v>
       </c>
@@ -24419,7 +24415,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>293</v>
       </c>
@@ -24475,7 +24471,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="236" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>293</v>
       </c>
@@ -24531,7 +24527,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>293</v>
       </c>
@@ -24581,7 +24577,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>293</v>
       </c>
@@ -24631,7 +24627,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -24696,7 +24692,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>293</v>
       </c>
@@ -24761,7 +24757,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -24814,7 +24810,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>293</v>
       </c>
@@ -24870,7 +24866,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="243" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>293</v>
       </c>
@@ -24920,7 +24916,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>293</v>
       </c>
@@ -24970,7 +24966,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>293</v>
       </c>
@@ -25020,7 +25016,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>293</v>
       </c>
@@ -25085,7 +25081,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -25144,7 +25140,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>293</v>
       </c>
@@ -25191,7 +25187,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>293</v>
       </c>
@@ -25247,7 +25243,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>293</v>
       </c>
@@ -25294,7 +25290,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>293</v>
       </c>
@@ -25359,7 +25355,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>293</v>
       </c>
@@ -25442,7 +25438,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>293</v>
       </c>
@@ -25492,7 +25488,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="254" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -25539,7 +25535,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>293</v>
       </c>
@@ -25589,7 +25585,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>293</v>
       </c>
@@ -25639,7 +25635,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>293</v>
       </c>
@@ -25686,7 +25682,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>293</v>
       </c>
@@ -25733,7 +25729,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>293</v>
       </c>
@@ -25774,7 +25770,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="260" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -25830,7 +25826,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>293</v>
       </c>
@@ -25880,7 +25876,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>293</v>
       </c>
@@ -25930,7 +25926,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>293</v>
       </c>
@@ -25977,7 +25973,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -26027,7 +26023,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>293</v>
       </c>
@@ -26077,7 +26073,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="266" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>293</v>
       </c>
@@ -26124,7 +26120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -26171,7 +26167,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -26212,7 +26208,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -26262,7 +26258,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="270" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -26312,7 +26308,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="271" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>293</v>
       </c>
@@ -26368,7 +26364,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -26430,7 +26426,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>293</v>
       </c>
@@ -26492,7 +26488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>293</v>
       </c>
@@ -26551,7 +26547,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -26607,7 +26603,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -26657,7 +26653,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="277" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>293</v>
       </c>
@@ -26704,7 +26700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -26751,7 +26747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -26798,7 +26794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -26845,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -26886,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -26942,7 +26938,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="283" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -26992,7 +26988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -27042,7 +27038,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="285" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>293</v>
       </c>
@@ -27092,7 +27088,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="286" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>359</v>
       </c>
@@ -27202,7 +27198,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="287" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>359</v>
       </c>
@@ -27252,7 +27248,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>359</v>
       </c>
@@ -27302,7 +27298,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="289" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>359</v>
       </c>
@@ -27388,7 +27384,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="290" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>359</v>
       </c>
@@ -27435,7 +27431,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="291" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>359</v>
       </c>
@@ -27506,7 +27502,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="292" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>359</v>
       </c>
@@ -27562,7 +27558,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="293" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>359</v>
       </c>
@@ -27612,7 +27608,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="294" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -27734,7 +27730,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>359</v>
       </c>
@@ -27784,7 +27780,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>359</v>
       </c>
@@ -27840,7 +27836,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="297" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>359</v>
       </c>
@@ -27968,7 +27964,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="298" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -28018,7 +28014,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="299" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>359</v>
       </c>
@@ -28077,7 +28073,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>359</v>
       </c>
@@ -28130,7 +28126,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="301" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>359</v>
       </c>
@@ -28189,7 +28185,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>359</v>
       </c>
@@ -28239,7 +28235,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="303" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -28280,7 +28276,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>359</v>
       </c>
@@ -28330,7 +28326,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="305" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>359</v>
       </c>
@@ -28380,7 +28376,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>359</v>
       </c>
@@ -28430,7 +28426,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>359</v>
       </c>
@@ -28552,7 +28548,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="308" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>359</v>
       </c>
@@ -28602,7 +28598,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="309" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>359</v>
       </c>
@@ -28658,7 +28654,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="310" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>359</v>
       </c>
@@ -28705,7 +28701,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="311" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>359</v>
       </c>
@@ -28794,7 +28790,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>359</v>
       </c>
@@ -28850,7 +28846,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="313" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>359</v>
       </c>
@@ -28900,7 +28896,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>359</v>
       </c>
@@ -28950,7 +28946,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="315" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>359</v>
       </c>
@@ -29000,7 +28996,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="316" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>359</v>
       </c>
@@ -29053,7 +29049,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="317" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>359</v>
       </c>
@@ -29157,7 +29153,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="318" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>359</v>
       </c>
@@ -29207,7 +29203,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="319" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>359</v>
       </c>
@@ -29257,7 +29253,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="320" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>359</v>
       </c>
@@ -29307,7 +29303,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="321" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>359</v>
       </c>
@@ -29360,7 +29356,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="322" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>359</v>
       </c>
@@ -29470,7 +29466,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>359</v>
       </c>
@@ -29519,14 +29515,14 @@
       <c r="Q323">
         <v>24</v>
       </c>
-      <c r="BD323">
+      <c r="AN323">
         <v>1001</v>
       </c>
-      <c r="BE323">
+      <c r="AO323">
         <v>1001</v>
       </c>
     </row>
-    <row r="324" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>359</v>
       </c>
@@ -29576,7 +29572,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="325" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>409</v>
       </c>
@@ -29635,7 +29631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>409</v>
       </c>
@@ -29682,7 +29678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -29738,7 +29734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -29791,7 +29787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -29841,7 +29837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>409</v>
       </c>
@@ -29885,7 +29881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>409</v>
       </c>
@@ -29935,7 +29931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>409</v>
       </c>
@@ -29985,7 +29981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>409</v>
       </c>
@@ -30050,7 +30046,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="334" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>409</v>
       </c>
@@ -30109,7 +30105,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -30156,7 +30152,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>409</v>
       </c>
@@ -30206,7 +30202,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="337" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -30247,7 +30243,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="338" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -30291,7 +30287,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="339" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -30365,7 +30361,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="340" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>409</v>
       </c>
@@ -30430,7 +30426,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="341" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -30495,7 +30491,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="342" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>409</v>
       </c>
@@ -30539,7 +30535,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="343" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -30598,7 +30594,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="344" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -30663,7 +30659,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -30728,7 +30724,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="346" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>409</v>
       </c>
@@ -30769,7 +30765,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="347" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -30834,7 +30830,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="348" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -30893,7 +30889,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="349" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>409</v>
       </c>
@@ -30952,7 +30948,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -30993,7 +30989,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="351" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>409</v>
       </c>
@@ -31034,7 +31030,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="352" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>409</v>
       </c>
@@ -31093,7 +31089,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="353" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>409</v>
       </c>
@@ -31140,7 +31136,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="354" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -31187,7 +31183,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -31252,7 +31248,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="356" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>409</v>
       </c>
@@ -31293,7 +31289,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="357" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>409</v>
       </c>
@@ -31334,7 +31330,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="358" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>409</v>
       </c>
@@ -31399,7 +31395,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="359" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>409</v>
       </c>
@@ -31458,7 +31454,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -31526,7 +31522,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="361" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>409</v>
       </c>
@@ -31570,7 +31566,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>409</v>
       </c>
@@ -31611,7 +31607,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="363" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -31670,7 +31666,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="364" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>409</v>
       </c>
@@ -31735,7 +31731,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="365" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -31794,7 +31790,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="366" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -31835,7 +31831,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="367" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>409</v>
       </c>
@@ -31876,7 +31872,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="368" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>409</v>
       </c>
@@ -31944,7 +31940,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="369" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>409</v>
       </c>
@@ -32003,7 +31999,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="370" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -32068,7 +32064,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="371" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>409</v>
       </c>
@@ -32109,7 +32105,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="372" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>409</v>
       </c>
@@ -32153,7 +32149,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="373" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>409</v>
       </c>
@@ -32218,7 +32214,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="374" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -32277,7 +32273,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="375" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>409</v>
       </c>
@@ -32339,7 +32335,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="376" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>409</v>
       </c>
@@ -32373,14 +32369,14 @@
       <c r="Q376">
         <v>24</v>
       </c>
-      <c r="CN376">
+      <c r="CL376">
         <v>1004</v>
       </c>
-      <c r="CO376">
+      <c r="CM376">
         <v>1004</v>
       </c>
     </row>
-    <row r="377" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>409</v>
       </c>
@@ -32421,7 +32417,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="378" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>409</v>
       </c>
@@ -32465,326 +32461,326 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="379" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:105" x14ac:dyDescent="0.25">
       <c r="R379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7L])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="S379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8L])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="T379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9L])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="U379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10L])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="V379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11L])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12L])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="X379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13L])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14L])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15L])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16L])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AB379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17L])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AC379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18L])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AD379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19L])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20L])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21L])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22L])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7M])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AI379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8M])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AJ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9M])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AK379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10M])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AL379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11M])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12M])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AN379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13M])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14M])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AP379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15M])</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AQ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16M])</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AR379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17M])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AS379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18M])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19M])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20M])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21M])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22M])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7MI])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AY379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8MI])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AZ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9MI])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10MI])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BB379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11MI])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BC379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12MI])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BD379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13MI])</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BE379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14MI])</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BF379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15MI])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="BG379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16MI])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="BH379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17MI])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BI379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18MI])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BJ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19MI])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BK379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20MI])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BL379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21MI])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BM379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22MI])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BN379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7J])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BO379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8J])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BP379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9J])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="BQ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10J])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="BR379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11J])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BS379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12J])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BT379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13J])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BU379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14J])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BV379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15J])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BW379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16J])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BX379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17J])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BY379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18J])</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BZ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19J])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20J])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CB379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21J])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CC379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22J])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CD379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7V])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="CE379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8V])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="CF379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9V])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="CG379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10V])</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="CH379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11V])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="CI379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12V])</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="CJ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13V])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="CK379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14V])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="CL379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15V])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="CM379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16V])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="CN379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17V])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="CO379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18V])</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="CP379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19V])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CQ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20V])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CR379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21V])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CS379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22V])</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CU379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8S])</f>
@@ -32792,27 +32788,27 @@
       </c>
       <c r="CV379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9S])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CW379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10S])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CX379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11S])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CY379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12S])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CZ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13S])</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="DA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14S])</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32871,15 +32867,15 @@
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>469</v>
       </c>
@@ -32887,7 +32883,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>160</v>
       </c>
@@ -32895,7 +32891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
@@ -32903,7 +32899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>314</v>
       </c>
@@ -32911,7 +32907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>189</v>
       </c>
@@ -32919,7 +32915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>426</v>
       </c>
@@ -32927,7 +32923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>383</v>
       </c>
@@ -32935,7 +32931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>414</v>
       </c>
@@ -32943,7 +32939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>109</v>
       </c>
@@ -32951,7 +32947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>452</v>
       </c>
@@ -32959,7 +32955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -32967,7 +32963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>470</v>
       </c>
@@ -32975,7 +32971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>238</v>
       </c>
@@ -32983,7 +32979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>471</v>
       </c>
@@ -32991,7 +32987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
@@ -32999,7 +32995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>472</v>
       </c>
@@ -33007,7 +33003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>313</v>
       </c>
@@ -33015,7 +33011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>473</v>
       </c>
@@ -33023,7 +33019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>428</v>
       </c>
@@ -33031,7 +33027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>430</v>
       </c>
@@ -33039,7 +33035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>198</v>
       </c>
@@ -33047,7 +33043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>120</v>
       </c>
@@ -33055,7 +33051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>220</v>
       </c>
@@ -33063,7 +33059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>412</v>
       </c>
@@ -33071,7 +33067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>474</v>
       </c>
@@ -33079,7 +33075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>475</v>
       </c>
@@ -33087,7 +33083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>476</v>
       </c>
@@ -33095,7 +33091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>166</v>
       </c>
@@ -33109,7 +33105,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>375</v>
       </c>
@@ -33123,7 +33119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>145</v>
       </c>
@@ -33137,7 +33133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>142</v>
       </c>
@@ -33151,7 +33147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>168</v>
       </c>
@@ -33165,7 +33161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>379</v>
       </c>
@@ -33179,7 +33175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>131</v>
       </c>
@@ -33193,7 +33189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>362</v>
       </c>
@@ -33207,7 +33203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>229</v>
       </c>
@@ -33221,7 +33217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>226</v>
       </c>
@@ -33235,7 +33231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -33249,7 +33245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>407</v>
       </c>
@@ -33263,7 +33259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>253</v>
       </c>
@@ -33277,7 +33273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>370</v>
       </c>
@@ -33291,7 +33287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>197</v>
       </c>
@@ -33305,7 +33301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>162</v>
       </c>
@@ -33319,7 +33315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>153</v>
       </c>
@@ -33333,7 +33329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>154</v>
       </c>
@@ -33347,7 +33343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
@@ -33355,7 +33351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>183</v>
       </c>
@@ -33363,7 +33359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>275</v>
       </c>
@@ -33371,7 +33367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>339</v>
       </c>
@@ -33379,7 +33375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>477</v>
       </c>
@@ -33387,7 +33383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>448</v>
       </c>
@@ -33395,7 +33391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -33403,7 +33399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>176</v>
       </c>
@@ -33411,7 +33407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>393</v>
       </c>
@@ -33419,7 +33415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>224</v>
       </c>
@@ -33427,7 +33423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>296</v>
       </c>
@@ -33435,7 +33431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>114</v>
       </c>
@@ -33443,7 +33439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>192</v>
       </c>
@@ -33451,7 +33447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>402</v>
       </c>
@@ -33459,7 +33455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>478</v>
       </c>
@@ -33467,7 +33463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>212</v>
       </c>
@@ -33475,7 +33471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>260</v>
       </c>
@@ -33483,7 +33479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>485</v>
       </c>
@@ -33491,7 +33487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>307</v>
       </c>
@@ -33499,7 +33495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>484</v>
       </c>
@@ -33507,7 +33503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>483</v>
       </c>
@@ -33515,7 +33511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -33523,7 +33519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>305</v>
       </c>
@@ -33531,7 +33527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>136</v>
       </c>
@@ -33539,7 +33535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>106</v>
       </c>
@@ -33547,7 +33543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>424</v>
       </c>
@@ -33555,7 +33551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>368</v>
       </c>
@@ -33563,7 +33559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>491</v>
       </c>
@@ -33571,7 +33567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>223</v>
       </c>
@@ -33579,7 +33575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>479</v>
       </c>
@@ -33587,7 +33583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>139</v>
       </c>
@@ -33595,7 +33591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>200</v>
       </c>
@@ -33603,7 +33599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>148</v>
       </c>
@@ -33611,7 +33607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>134</v>
       </c>
@@ -33619,7 +33615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>480</v>
       </c>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\SENA\DOCUMENTOS 2024\COORDINACIÓN 2024\PROGRAMADOR\PRIMETRIMESTRE 2024 V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34813CA-12C1-4C21-876C-7FEE20D01A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5851104A-20AA-4387-9DCC-BCDBAE600402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMACIÓN I 2024" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$378</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1713,14 +1713,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1744,7 +1737,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1799,7 +1799,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1847,7 +1847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2423,7 +2423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="533591440"/>
@@ -2487,7 +2487,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1267078032"/>
@@ -2534,7 +2534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2571,13 +2571,18 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[1-2024_V6.xlsx]PivotChartTable1</c15:name>
+        <c15:name>[1-2024.xlsx]PivotChartTable1</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -2655,7 +2660,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3926,7 +3931,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3982,7 +3987,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4038,7 +4043,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4094,7 +4099,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4150,7 +4155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4206,7 +4211,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4262,7 +4267,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-419"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5026,7 +5031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1835362880"/>
@@ -5090,7 +5095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089398640"/>
@@ -5137,7 +5142,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5174,13 +5179,18 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[1-2024_V6.xlsx]PivotChartTable2</c15:name>
+        <c15:name>[1-2024.xlsx]PivotChartTable2</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -7558,6 +7568,893 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="78">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="111">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>31</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2044</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1864DD7E-914F-4129-81BE-DE6895877F42}" name="PivotChartTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -8355,893 +9252,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="78">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="111">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>31</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2044</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA41CB7-E3A8-430F-B4AE-F3DE60532250}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D30:E47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -10109,29 +10119,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="KENIA NAYIVER LOPEZ RAMIREZ"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10694,7 +10698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="CQ383" sqref="CQ383"/>
     </sheetView>
   </sheetViews>
@@ -10736,7 +10740,7 @@
     <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P1" s="1">
         <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS SEMANAL])</f>
-        <v>28</v>
+        <v>2038</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>463</v>
@@ -11180,7 +11184,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -11331,7 +11335,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -11381,7 +11385,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -11422,7 +11426,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -11544,7 +11548,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -11757,7 +11761,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -11798,7 +11802,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -11863,7 +11867,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -11999,7 +12003,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -12040,7 +12044,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:113" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -12150,7 +12154,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -12200,7 +12204,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -12250,7 +12254,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -12291,7 +12295,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -12427,7 +12431,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -12477,7 +12481,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -12577,7 +12581,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -12618,7 +12622,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -12772,7 +12776,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -12822,7 +12826,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -12872,7 +12876,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -12999,7 +13003,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -13049,7 +13053,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -13099,7 +13103,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -13149,7 +13153,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -13199,7 +13203,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -13240,7 +13244,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -13338,7 +13342,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -13388,7 +13392,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -13438,7 +13442,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="40" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -13488,7 +13492,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -13538,7 +13542,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="42" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -13579,7 +13583,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="43" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -13727,7 +13731,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -13777,7 +13781,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -13827,7 +13831,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -13877,7 +13881,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -14022,7 +14026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -14072,7 +14076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -14172,7 +14176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -14213,7 +14217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -14329,7 +14333,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -14379,7 +14383,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -14420,7 +14424,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -14479,7 +14483,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -14553,7 +14557,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -14603,7 +14607,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -14753,7 +14757,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -14794,7 +14798,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="64" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -14826,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -14924,7 +14928,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -14974,7 +14978,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -15024,7 +15028,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -15159,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -15275,7 +15279,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -15325,7 +15329,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -15416,7 +15420,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -15576,7 +15580,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -15626,7 +15630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -15676,7 +15680,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -15761,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -15883,7 +15887,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -15974,7 +15978,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -16006,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -16178,7 +16182,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -16219,7 +16223,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -16281,7 +16285,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="89" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -16349,7 +16353,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -16405,7 +16409,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -16455,7 +16459,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -16499,7 +16503,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -16549,7 +16553,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="94" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -16605,7 +16609,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="95" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -16661,7 +16665,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>184</v>
       </c>
@@ -16711,7 +16715,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -16773,7 +16777,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -16817,7 +16821,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -16873,7 +16877,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="100" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>184</v>
       </c>
@@ -16923,7 +16927,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -16973,7 +16977,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -17023,7 +17027,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="103" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>184</v>
       </c>
@@ -17091,7 +17095,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="104" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -17135,7 +17139,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>184</v>
       </c>
@@ -17197,7 +17201,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="106" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>184</v>
       </c>
@@ -17247,7 +17251,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -17303,7 +17307,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="108" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -17359,7 +17363,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -17409,7 +17413,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="110" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -17453,7 +17457,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -17512,7 +17516,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="112" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -17562,7 +17566,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -17636,7 +17640,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>184</v>
       </c>
@@ -17689,7 +17693,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -17733,7 +17737,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="116" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -17786,7 +17790,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -17898,7 +17902,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="119" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>184</v>
       </c>
@@ -17948,7 +17952,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="120" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>184</v>
       </c>
@@ -18075,7 +18079,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>184</v>
       </c>
@@ -18119,7 +18123,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -18172,7 +18176,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="124" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -18225,7 +18229,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="125" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>184</v>
       </c>
@@ -18290,7 +18294,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -18340,7 +18344,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>184</v>
       </c>
@@ -18467,7 +18471,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>184</v>
       </c>
@@ -18511,7 +18515,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="130" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -18564,7 +18568,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -18629,7 +18633,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="132" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -18679,7 +18683,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -18806,7 +18810,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>184</v>
       </c>
@@ -18850,7 +18854,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -18903,7 +18907,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="137" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -18968,7 +18972,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="138" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -19018,7 +19022,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="139" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -19145,7 +19149,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="141" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -19189,7 +19193,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="142" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -19242,7 +19246,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="143" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>184</v>
       </c>
@@ -19304,7 +19308,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>184</v>
       </c>
@@ -19354,7 +19358,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>184</v>
       </c>
@@ -19422,7 +19426,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -19478,7 +19482,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>184</v>
       </c>
@@ -19522,7 +19526,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -19566,7 +19570,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="149" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>184</v>
       </c>
@@ -19634,7 +19638,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>184</v>
       </c>
@@ -19696,7 +19700,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -19758,7 +19762,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -19808,7 +19812,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -19852,7 +19856,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -19929,7 +19933,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>184</v>
       </c>
@@ -20000,7 +20004,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -20053,7 +20057,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>184</v>
       </c>
@@ -20106,7 +20110,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="158" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -20150,7 +20154,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -20224,7 +20228,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="160" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -20298,7 +20302,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="161" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -20351,7 +20355,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="162" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>184</v>
       </c>
@@ -20404,7 +20408,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="163" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>184</v>
       </c>
@@ -20448,7 +20452,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -20522,7 +20526,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="165" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -20596,7 +20600,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="166" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -20649,7 +20653,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -20702,7 +20706,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -20746,7 +20750,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="169" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -20820,7 +20824,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="170" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -20894,7 +20898,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="171" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -20947,7 +20951,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -21000,7 +21004,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>184</v>
       </c>
@@ -21044,7 +21048,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="174" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>184</v>
       </c>
@@ -21118,7 +21122,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -21174,7 +21178,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -21230,7 +21234,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -21283,7 +21287,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -21336,7 +21340,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -21380,7 +21384,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -21436,7 +21440,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="181" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -21489,7 +21493,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="182" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -21566,7 +21570,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="183" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -21619,7 +21623,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="184" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -21672,7 +21676,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="185" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -21716,7 +21720,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -21778,7 +21782,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -21840,7 +21844,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -21902,7 +21906,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="189" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -21946,7 +21950,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -21999,7 +22003,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -22052,7 +22056,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -22114,7 +22118,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -22164,7 +22168,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -22214,7 +22218,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -22276,7 +22280,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="196" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>184</v>
       </c>
@@ -22320,7 +22324,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -22373,7 +22377,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>184</v>
       </c>
@@ -22426,7 +22430,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>184</v>
       </c>
@@ -22488,7 +22492,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -22550,7 +22554,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>184</v>
       </c>
@@ -22606,7 +22610,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>184</v>
       </c>
@@ -22650,7 +22654,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -22694,7 +22698,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -22747,7 +22751,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>184</v>
       </c>
@@ -22800,7 +22804,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>184</v>
       </c>
@@ -22862,7 +22866,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="207" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -22918,7 +22922,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="208" spans="1:97" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -22968,7 +22972,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="209" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>184</v>
       </c>
@@ -23012,7 +23016,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="210" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>184</v>
       </c>
@@ -23118,7 +23122,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>184</v>
       </c>
@@ -23171,7 +23175,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>184</v>
       </c>
@@ -23233,7 +23237,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -23289,7 +23293,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="215" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>184</v>
       </c>
@@ -23339,7 +23343,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -23383,7 +23387,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="217" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -23489,7 +23493,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -23542,7 +23546,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -23628,7 +23632,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>184</v>
       </c>
@@ -23690,7 +23694,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -23743,7 +23747,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="223" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>184</v>
       </c>
@@ -23796,7 +23800,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="224" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>184</v>
       </c>
@@ -23840,7 +23844,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="225" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -23926,7 +23930,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>184</v>
       </c>
@@ -23988,7 +23992,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>184</v>
       </c>
@@ -24041,7 +24045,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>184</v>
       </c>
@@ -24094,7 +24098,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="229" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>184</v>
       </c>
@@ -24138,7 +24142,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="230" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>293</v>
       </c>
@@ -24194,7 +24198,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>293</v>
       </c>
@@ -24244,7 +24248,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -24303,7 +24307,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>293</v>
       </c>
@@ -24356,7 +24360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>293</v>
       </c>
@@ -24415,7 +24419,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>293</v>
       </c>
@@ -24471,7 +24475,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="236" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>293</v>
       </c>
@@ -24527,7 +24531,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>293</v>
       </c>
@@ -24577,7 +24581,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>293</v>
       </c>
@@ -24627,7 +24631,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -24692,7 +24696,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>293</v>
       </c>
@@ -24757,7 +24761,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>293</v>
       </c>
@@ -24810,7 +24814,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>293</v>
       </c>
@@ -24916,7 +24920,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>293</v>
       </c>
@@ -24966,7 +24970,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>293</v>
       </c>
@@ -25016,7 +25020,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>293</v>
       </c>
@@ -25081,7 +25085,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>293</v>
       </c>
@@ -25140,7 +25144,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>293</v>
       </c>
@@ -25187,7 +25191,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>293</v>
       </c>
@@ -25243,7 +25247,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>293</v>
       </c>
@@ -25290,7 +25294,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>293</v>
       </c>
@@ -25355,7 +25359,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>293</v>
       </c>
@@ -25438,7 +25442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>293</v>
       </c>
@@ -25488,7 +25492,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="254" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -25535,7 +25539,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>293</v>
       </c>
@@ -25585,7 +25589,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>293</v>
       </c>
@@ -25635,7 +25639,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>293</v>
       </c>
@@ -25682,7 +25686,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>293</v>
       </c>
@@ -25729,7 +25733,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>293</v>
       </c>
@@ -25770,7 +25774,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="260" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -25826,7 +25830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>293</v>
       </c>
@@ -25876,7 +25880,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>293</v>
       </c>
@@ -25926,7 +25930,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>293</v>
       </c>
@@ -25973,7 +25977,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -26023,7 +26027,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>293</v>
       </c>
@@ -26073,7 +26077,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="266" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>293</v>
       </c>
@@ -26120,7 +26124,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -26167,7 +26171,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -26208,7 +26212,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -26258,7 +26262,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="270" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -26308,7 +26312,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="271" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>293</v>
       </c>
@@ -26364,7 +26368,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -26426,7 +26430,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>293</v>
       </c>
@@ -26488,7 +26492,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>293</v>
       </c>
@@ -26547,7 +26551,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -26603,7 +26607,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -26653,7 +26657,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="277" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>293</v>
       </c>
@@ -26700,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -26747,7 +26751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>293</v>
       </c>
@@ -26794,7 +26798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -26841,7 +26845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>293</v>
       </c>
@@ -26882,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -26938,7 +26942,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="283" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -26988,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -27038,7 +27042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="285" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>293</v>
       </c>
@@ -27088,7 +27092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="286" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>359</v>
       </c>
@@ -27198,7 +27202,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="287" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>359</v>
       </c>
@@ -27248,7 +27252,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>359</v>
       </c>
@@ -27298,7 +27302,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="289" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>359</v>
       </c>
@@ -27384,7 +27388,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="290" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>359</v>
       </c>
@@ -27431,7 +27435,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="291" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>359</v>
       </c>
@@ -27502,7 +27506,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="292" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>359</v>
       </c>
@@ -27558,7 +27562,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="293" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>359</v>
       </c>
@@ -27608,7 +27612,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="294" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>359</v>
       </c>
@@ -27730,7 +27734,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>359</v>
       </c>
@@ -27780,7 +27784,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>359</v>
       </c>
@@ -27836,7 +27840,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="297" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>359</v>
       </c>
@@ -27964,7 +27968,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="298" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -28014,7 +28018,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="299" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>359</v>
       </c>
@@ -28073,7 +28077,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>359</v>
       </c>
@@ -28126,7 +28130,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="301" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>359</v>
       </c>
@@ -28185,7 +28189,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>359</v>
       </c>
@@ -28235,7 +28239,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="303" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -28276,7 +28280,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>359</v>
       </c>
@@ -28326,7 +28330,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="305" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>359</v>
       </c>
@@ -28376,7 +28380,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>359</v>
       </c>
@@ -28426,7 +28430,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>359</v>
       </c>
@@ -28598,7 +28602,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="309" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>359</v>
       </c>
@@ -28654,7 +28658,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="310" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>359</v>
       </c>
@@ -28701,7 +28705,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="311" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>359</v>
       </c>
@@ -28790,7 +28794,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>359</v>
       </c>
@@ -28846,7 +28850,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="313" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>359</v>
       </c>
@@ -28896,7 +28900,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>359</v>
       </c>
@@ -28946,7 +28950,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="315" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>359</v>
       </c>
@@ -28996,7 +29000,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="316" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>359</v>
       </c>
@@ -29049,7 +29053,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="317" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>359</v>
       </c>
@@ -29153,7 +29157,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="318" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>359</v>
       </c>
@@ -29203,7 +29207,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="319" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>359</v>
       </c>
@@ -29303,7 +29307,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="321" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>359</v>
       </c>
@@ -29356,7 +29360,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="322" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>359</v>
       </c>
@@ -29466,7 +29470,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>359</v>
       </c>
@@ -29522,7 +29526,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="324" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>359</v>
       </c>
@@ -29572,7 +29576,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="325" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>409</v>
       </c>
@@ -29631,7 +29635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>409</v>
       </c>
@@ -29678,7 +29682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -29734,7 +29738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -29787,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -29837,7 +29841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>409</v>
       </c>
@@ -29881,7 +29885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>409</v>
       </c>
@@ -29931,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>409</v>
       </c>
@@ -29981,7 +29985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>409</v>
       </c>
@@ -30046,7 +30050,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="334" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>409</v>
       </c>
@@ -30105,7 +30109,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -30152,7 +30156,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>409</v>
       </c>
@@ -30202,7 +30206,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="337" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -30243,7 +30247,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="338" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -30287,7 +30291,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="339" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -30361,7 +30365,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="340" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>409</v>
       </c>
@@ -30426,7 +30430,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="341" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -30491,7 +30495,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="342" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>409</v>
       </c>
@@ -30535,7 +30539,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="343" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -30594,7 +30598,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="344" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -30659,7 +30663,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -30724,7 +30728,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="346" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>409</v>
       </c>
@@ -30765,7 +30769,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="347" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -30830,7 +30834,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="348" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -30889,7 +30893,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="349" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>409</v>
       </c>
@@ -30948,7 +30952,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -30989,7 +30993,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="351" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>409</v>
       </c>
@@ -31030,7 +31034,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="352" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>409</v>
       </c>
@@ -31089,7 +31093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="353" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>409</v>
       </c>
@@ -31136,7 +31140,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="354" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -31183,7 +31187,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -31248,7 +31252,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="356" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>409</v>
       </c>
@@ -31289,7 +31293,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="357" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>409</v>
       </c>
@@ -31330,7 +31334,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="358" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>409</v>
       </c>
@@ -31395,7 +31399,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="359" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>409</v>
       </c>
@@ -31454,7 +31458,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -31522,7 +31526,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="361" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>409</v>
       </c>
@@ -31607,7 +31611,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="363" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -31666,7 +31670,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="364" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>409</v>
       </c>
@@ -31731,7 +31735,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="365" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -31790,7 +31794,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="366" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -31831,7 +31835,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="367" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>409</v>
       </c>
@@ -31872,7 +31876,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="368" spans="1:93" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>409</v>
       </c>
@@ -31940,7 +31944,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="369" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>409</v>
       </c>
@@ -31999,7 +32003,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="370" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -32105,7 +32109,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="372" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>409</v>
       </c>
@@ -32149,7 +32153,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="373" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>409</v>
       </c>
@@ -32214,7 +32218,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="374" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -32273,7 +32277,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="375" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>409</v>
       </c>
@@ -32376,7 +32380,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="377" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>409</v>
       </c>
@@ -32417,7 +32421,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="378" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>409</v>
       </c>
@@ -32464,323 +32468,323 @@
     <row r="379" spans="1:105" x14ac:dyDescent="0.25">
       <c r="R379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7L])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8L])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="U379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10L])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="V379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11L])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12L])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15L])</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="AA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16L])</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="AB379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18L])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22L])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AI379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AJ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AK379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10M])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="AL379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11M])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12M])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AN379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13M])</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14M])</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15M])</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AQ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16M])</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AR379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18M])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AT379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22M])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7MI])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AY379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8MI])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AZ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9MI])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10MI])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BB379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11MI])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BC379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12MI])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BD379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BF379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15MI])</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="BG379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16MI])</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="BH379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BI379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18MI])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BJ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BK379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BM379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22MI])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BN379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7J])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BO379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8J])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BP379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BQ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10J])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="BR379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11J])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BS379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12J])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BT379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BU379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BV379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BW379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BX379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BY379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18J])</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BZ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22J])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CD379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CE379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CF379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CG379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10V])</f>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="CH379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11V])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CI379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12V])</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CJ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13V])</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="CK379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14V])</f>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="CL379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15V])</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="CM379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16V])</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="CN379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17V])</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="CO379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18V])</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="CP379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CQ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CR379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CS379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22V])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CU379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8S])</f>
@@ -32788,27 +32792,27 @@
       </c>
       <c r="CV379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9S])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CW379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10S])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CX379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11S])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CY379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12S])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CZ379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DA379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14S])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -32840,7 +32844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3532FC2-44B5-47F2-973C-D5F33484A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3434D68-7BBF-4DE4-8F73-0BF1C76F9759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$378</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -106,7 +106,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="504">
   <si>
     <t>Source.Name</t>
   </si>
@@ -1624,6 +1624,9 @@
   </si>
   <si>
     <t>2903769 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yorman Andrés Calderón Yepes</t>
   </si>
 </sst>
 </file>
@@ -1715,14 +1718,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1746,7 +1742,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7570,893 +7573,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="78">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="111">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>31</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2044</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1864DD7E-914F-4129-81BE-DE6895877F42}" name="PivotChartTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -9254,6 +8370,893 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="78">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="111">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>31</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2044</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E51D2C13-18A8-44E4-9514-17D00C659F63}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -10123,21 +10126,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10700,8 +10703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:DI378"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N378" sqref="N378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11789,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -12609,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -14204,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -16210,7 +16213,7 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P87">
         <v>2</v>
@@ -17123,7 +17126,7 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O104" t="s">
         <v>195</v>
@@ -19840,7 +19843,7 @@
         <v>1</v>
       </c>
       <c r="N153" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O153" t="s">
         <v>195</v>
@@ -20436,7 +20439,7 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O163" t="s">
         <v>195</v>
@@ -22308,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="N196" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O196" t="s">
         <v>195</v>
@@ -22682,7 +22685,7 @@
         <v>1</v>
       </c>
       <c r="N203" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O203" t="s">
         <v>195</v>
@@ -23371,7 +23374,7 @@
         <v>1</v>
       </c>
       <c r="N216" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="O216" t="s">
         <v>195</v>
@@ -24857,7 +24860,7 @@
         <v>1</v>
       </c>
       <c r="N242" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P242">
         <v>2</v>
@@ -26355,7 +26358,7 @@
         <v>1</v>
       </c>
       <c r="N271" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P271">
         <v>2</v>
@@ -27239,7 +27242,7 @@
         <v>1</v>
       </c>
       <c r="N287" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P287">
         <v>2</v>
@@ -30278,7 +30281,7 @@
         <v>1</v>
       </c>
       <c r="N338" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P338">
         <v>2</v>
@@ -31280,7 +31283,7 @@
         <v>1</v>
       </c>
       <c r="N356" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P356">
         <v>2</v>
@@ -32452,7 +32455,7 @@
         <v>1</v>
       </c>
       <c r="N378" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="P378">
         <v>2</v>
@@ -32846,7 +32849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3434D68-7BBF-4DE4-8F73-0BF1C76F9759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021555C-C2E0-4A32-B210-BE937505148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$378</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -106,7 +106,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1626,7 +1626,7 @@
     <t>2903769 C</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yorman Andrés Calderón Yepes</t>
+    <t>YORMAN ANDRÉS CALDERÓN YEPES</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1718,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1742,14 +1749,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10126,21 +10126,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE DE LA COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10704,7 +10704,7 @@
   <dimension ref="A1:DI379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N378" sqref="N378"/>
+      <selection activeCell="N203" sqref="N203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32849,7 +32849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E85A19-F965-43A9-A76F-E2FA1A057C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73D35C-A80E-4B59-B26B-330838CAE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMACIÓN I 2024" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$378</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="508">
   <si>
     <t>Source.Name</t>
   </si>
@@ -1634,6 +1634,9 @@
   </si>
   <si>
     <t>HORAS_SEMANAL</t>
+  </si>
+  <si>
+    <t>JANER ALFONSO PAREJA GUTIERREZ</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1728,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1749,14 +1759,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1811,7 +1814,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1859,7 +1862,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2435,7 +2438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="533591440"/>
@@ -2499,7 +2502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1267078032"/>
@@ -2546,7 +2549,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2583,9 +2586,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -2667,7 +2675,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3938,7 +3946,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3994,7 +4002,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4050,7 +4058,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4106,7 +4114,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4162,7 +4170,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4218,7 +4226,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4274,7 +4282,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5038,7 +5046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1835362880"/>
@@ -5102,7 +5110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089398640"/>
@@ -5149,7 +5157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5186,9 +5194,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -10123,21 +10136,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE_ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE_COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE_COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS_SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10678,7 +10691,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -10701,45 +10714,45 @@
   <dimension ref="A1:DI379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="81.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="81" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.28515625" customWidth="1"/>
+    <col min="18" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="81" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.33203125" customWidth="1"/>
     <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
     <col min="102" max="105" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P1" s="1">
         <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS_SEMANAL])</f>
         <v>2038</v>
@@ -10845,7 +10858,7 @@
       <c r="CZ1" s="6"/>
       <c r="DA1" s="6"/>
     </row>
-    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11186,7 +11199,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -11251,7 +11264,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -11337,7 +11350,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -11387,7 +11400,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -11428,7 +11441,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -11550,7 +11563,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -11600,7 +11613,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -11641,7 +11654,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -11763,7 +11776,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -11804,7 +11817,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -11869,7 +11882,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -11955,7 +11968,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -12005,7 +12018,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -12046,7 +12059,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -12156,7 +12169,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -12206,7 +12219,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -12256,7 +12269,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -12297,7 +12310,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -12383,7 +12396,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -12433,7 +12446,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -12483,7 +12496,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -12533,7 +12546,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -12583,7 +12596,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -12624,7 +12637,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -12728,7 +12741,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -12778,7 +12791,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -12828,7 +12841,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -12878,7 +12891,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -12919,7 +12932,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -13005,7 +13018,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -13055,7 +13068,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -13105,7 +13118,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -13155,7 +13168,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -13205,7 +13218,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -13246,7 +13259,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -13344,7 +13357,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -13394,7 +13407,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -13444,7 +13457,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="40" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -13494,7 +13507,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -13544,7 +13557,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -13585,7 +13598,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="43" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -13683,7 +13696,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -13733,7 +13746,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="45" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -13783,7 +13796,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="46" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -13833,7 +13846,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -13883,7 +13896,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -13924,7 +13937,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="49" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -14028,7 +14041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -14078,7 +14091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -14128,7 +14141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -14178,7 +14191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -14219,7 +14232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -14335,7 +14348,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -14385,7 +14398,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -14426,7 +14439,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -14485,7 +14498,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -14559,7 +14572,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -14609,7 +14622,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -14659,7 +14672,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -14709,7 +14722,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -14759,7 +14772,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -14800,7 +14813,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="64" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -14832,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -14930,7 +14943,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -14980,7 +14993,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="67" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -15030,7 +15043,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -15080,7 +15093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -15121,7 +15134,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -15165,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -15281,7 +15294,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="72" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -15331,7 +15344,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="73" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -15381,7 +15394,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -15422,7 +15435,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="75" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -15466,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -15582,7 +15595,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -15632,7 +15645,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -15682,7 +15695,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -15723,7 +15736,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -15767,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -15889,7 +15902,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -15930,7 +15943,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -15980,7 +15993,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -16012,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -16134,7 +16147,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -16184,7 +16197,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -16225,7 +16238,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -16287,7 +16300,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -16355,7 +16368,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>181</v>
       </c>
@@ -16411,7 +16424,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -16461,7 +16474,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -16505,7 +16518,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -16555,7 +16568,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -16611,7 +16624,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -16667,7 +16680,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -16717,7 +16730,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="97" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -16779,7 +16792,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="98" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>181</v>
       </c>
@@ -16823,7 +16836,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="99" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -16879,7 +16892,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="100" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -16929,7 +16942,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>181</v>
       </c>
@@ -16979,7 +16992,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -17029,7 +17042,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="103" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>181</v>
       </c>
@@ -17097,7 +17110,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="104" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -17141,7 +17154,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>181</v>
       </c>
@@ -17203,7 +17216,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="106" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>181</v>
       </c>
@@ -17253,7 +17266,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>181</v>
       </c>
@@ -17309,7 +17322,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="108" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -17365,7 +17378,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="109" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -17415,7 +17428,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="110" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>181</v>
       </c>
@@ -17459,7 +17472,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="111" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>181</v>
       </c>
@@ -17518,7 +17531,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="112" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>181</v>
       </c>
@@ -17568,7 +17581,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>181</v>
       </c>
@@ -17594,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>209</v>
+        <v>507</v>
       </c>
       <c r="O113" t="s">
         <v>208</v>
@@ -17642,7 +17655,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -17695,7 +17708,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>181</v>
       </c>
@@ -17739,7 +17752,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="116" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>181</v>
       </c>
@@ -17792,7 +17805,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="117" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -17845,7 +17858,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>181</v>
       </c>
@@ -17904,7 +17917,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="119" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>181</v>
       </c>
@@ -17954,7 +17967,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="120" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -17980,7 +17993,7 @@
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>209</v>
+        <v>507</v>
       </c>
       <c r="O120" t="s">
         <v>208</v>
@@ -18028,7 +18041,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>181</v>
       </c>
@@ -18081,7 +18094,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="122" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>181</v>
       </c>
@@ -18125,7 +18138,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>181</v>
       </c>
@@ -18178,7 +18191,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="124" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>181</v>
       </c>
@@ -18231,7 +18244,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="125" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>181</v>
       </c>
@@ -18296,7 +18309,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>181</v>
       </c>
@@ -18346,7 +18359,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="127" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>181</v>
       </c>
@@ -18420,7 +18433,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="128" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -18473,7 +18486,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="129" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>181</v>
       </c>
@@ -18517,7 +18530,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="130" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>181</v>
       </c>
@@ -18570,7 +18583,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="131" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>181</v>
       </c>
@@ -18635,7 +18648,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="132" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>181</v>
       </c>
@@ -18685,7 +18698,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="133" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -18759,7 +18772,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="134" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>181</v>
       </c>
@@ -18812,7 +18825,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="135" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -18856,7 +18869,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -18909,7 +18922,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="137" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>181</v>
       </c>
@@ -18974,7 +18987,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="138" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -19024,7 +19037,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="139" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>181</v>
       </c>
@@ -19098,7 +19111,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="140" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>181</v>
       </c>
@@ -19151,7 +19164,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="141" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -19195,7 +19208,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="142" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -19248,7 +19261,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="143" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>181</v>
       </c>
@@ -19310,7 +19323,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="144" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>181</v>
       </c>
@@ -19360,7 +19373,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>181</v>
       </c>
@@ -19428,7 +19441,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="146" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -19484,7 +19497,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="147" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>181</v>
       </c>
@@ -19528,7 +19541,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="148" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -19572,7 +19585,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="149" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>181</v>
       </c>
@@ -19640,7 +19653,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -19702,7 +19715,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>181</v>
       </c>
@@ -19764,7 +19777,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>181</v>
       </c>
@@ -19814,7 +19827,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="153" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>181</v>
       </c>
@@ -19858,7 +19871,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="154" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>181</v>
       </c>
@@ -19935,7 +19948,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -20006,7 +20019,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>181</v>
       </c>
@@ -20059,7 +20072,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -20112,7 +20125,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="158" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>181</v>
       </c>
@@ -20156,7 +20169,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -20230,7 +20243,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="160" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -20304,7 +20317,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="161" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -20357,7 +20370,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="162" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>181</v>
       </c>
@@ -20410,7 +20423,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="163" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -20454,7 +20467,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="164" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -20528,7 +20541,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="165" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -20602,7 +20615,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="166" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -20655,7 +20668,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="167" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -20708,7 +20721,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -20752,7 +20765,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="169" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -20826,7 +20839,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="170" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -20900,7 +20913,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="171" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -20953,7 +20966,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>181</v>
       </c>
@@ -21006,7 +21019,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="173" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -21050,7 +21063,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="174" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -21124,7 +21137,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="175" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -21180,7 +21193,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="176" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -21236,7 +21249,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="177" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -21289,7 +21302,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="178" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -21342,7 +21355,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -21386,7 +21399,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -21442,7 +21455,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="181" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -21495,7 +21508,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="182" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -21572,7 +21585,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="183" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -21625,7 +21638,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="184" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -21678,7 +21691,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="185" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -21722,7 +21735,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -21784,7 +21797,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>181</v>
       </c>
@@ -21846,7 +21859,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>181</v>
       </c>
@@ -21908,7 +21921,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="189" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>181</v>
       </c>
@@ -21952,7 +21965,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>181</v>
       </c>
@@ -22005,7 +22018,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -22058,7 +22071,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -22120,7 +22133,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -22170,7 +22183,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>181</v>
       </c>
@@ -22220,7 +22233,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>181</v>
       </c>
@@ -22282,7 +22295,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="196" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>181</v>
       </c>
@@ -22326,7 +22339,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>181</v>
       </c>
@@ -22379,7 +22392,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>181</v>
       </c>
@@ -22432,7 +22445,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>181</v>
       </c>
@@ -22494,7 +22507,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="200" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>181</v>
       </c>
@@ -22556,7 +22569,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>181</v>
       </c>
@@ -22612,7 +22625,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="202" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>181</v>
       </c>
@@ -22656,7 +22669,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="203" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>181</v>
       </c>
@@ -22700,7 +22713,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>181</v>
       </c>
@@ -22753,7 +22766,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>181</v>
       </c>
@@ -22806,7 +22819,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>181</v>
       </c>
@@ -22868,7 +22881,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="207" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>181</v>
       </c>
@@ -22924,7 +22937,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="208" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>181</v>
       </c>
@@ -22974,7 +22987,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="209" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>181</v>
       </c>
@@ -23018,7 +23031,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="210" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>181</v>
       </c>
@@ -23071,7 +23084,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="211" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>181</v>
       </c>
@@ -23124,7 +23137,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="212" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>181</v>
       </c>
@@ -23177,7 +23190,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>181</v>
       </c>
@@ -23239,7 +23252,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="214" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>181</v>
       </c>
@@ -23295,7 +23308,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="215" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>181</v>
       </c>
@@ -23345,7 +23358,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>181</v>
       </c>
@@ -23389,7 +23402,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="217" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>181</v>
       </c>
@@ -23442,7 +23455,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="218" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>181</v>
       </c>
@@ -23495,7 +23508,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="219" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>181</v>
       </c>
@@ -23548,7 +23561,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="220" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>181</v>
       </c>
@@ -23634,7 +23647,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="221" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>181</v>
       </c>
@@ -23696,7 +23709,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="222" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>181</v>
       </c>
@@ -23749,7 +23762,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="223" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>181</v>
       </c>
@@ -23802,7 +23815,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="224" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>181</v>
       </c>
@@ -23846,7 +23859,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="225" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>181</v>
       </c>
@@ -23932,7 +23945,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>181</v>
       </c>
@@ -23994,7 +24007,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>181</v>
       </c>
@@ -24047,7 +24060,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>181</v>
       </c>
@@ -24100,7 +24113,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="229" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>181</v>
       </c>
@@ -24144,7 +24157,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="230" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>289</v>
       </c>
@@ -24200,7 +24213,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="231" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>289</v>
       </c>
@@ -24250,7 +24263,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>289</v>
       </c>
@@ -24309,7 +24322,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="233" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>289</v>
       </c>
@@ -24362,7 +24375,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>289</v>
       </c>
@@ -24421,7 +24434,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>289</v>
       </c>
@@ -24477,7 +24490,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="236" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>289</v>
       </c>
@@ -24533,7 +24546,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="237" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>289</v>
       </c>
@@ -24583,7 +24596,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>289</v>
       </c>
@@ -24633,7 +24646,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="239" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>289</v>
       </c>
@@ -24698,7 +24711,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="240" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>289</v>
       </c>
@@ -24763,7 +24776,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="241" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>289</v>
       </c>
@@ -24816,7 +24829,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="242" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>289</v>
       </c>
@@ -24872,7 +24885,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="243" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>289</v>
       </c>
@@ -24922,7 +24935,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>289</v>
       </c>
@@ -24972,7 +24985,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="245" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>289</v>
       </c>
@@ -25022,7 +25035,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>289</v>
       </c>
@@ -25087,7 +25100,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="247" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>289</v>
       </c>
@@ -25146,7 +25159,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="248" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>289</v>
       </c>
@@ -25193,7 +25206,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="249" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>289</v>
       </c>
@@ -25249,7 +25262,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>289</v>
       </c>
@@ -25296,7 +25309,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>289</v>
       </c>
@@ -25361,7 +25374,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="252" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>289</v>
       </c>
@@ -25444,7 +25457,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>289</v>
       </c>
@@ -25494,7 +25507,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="254" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>289</v>
       </c>
@@ -25541,7 +25554,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="255" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>289</v>
       </c>
@@ -25591,7 +25604,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>289</v>
       </c>
@@ -25641,7 +25654,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="257" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>289</v>
       </c>
@@ -25688,7 +25701,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>289</v>
       </c>
@@ -25735,7 +25748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>289</v>
       </c>
@@ -25776,7 +25789,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="260" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -25832,7 +25845,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="261" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>289</v>
       </c>
@@ -25882,7 +25895,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>289</v>
       </c>
@@ -25932,7 +25945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>289</v>
       </c>
@@ -25979,7 +25992,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>289</v>
       </c>
@@ -26029,7 +26042,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="265" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>289</v>
       </c>
@@ -26079,7 +26092,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="266" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -26126,7 +26139,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="267" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>289</v>
       </c>
@@ -26173,7 +26186,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -26214,7 +26227,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="269" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>289</v>
       </c>
@@ -26264,7 +26277,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="270" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -26314,7 +26327,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="271" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>289</v>
       </c>
@@ -26370,7 +26383,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>289</v>
       </c>
@@ -26432,7 +26445,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="273" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>289</v>
       </c>
@@ -26494,7 +26507,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -26553,7 +26566,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="275" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -26609,7 +26622,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>289</v>
       </c>
@@ -26659,7 +26672,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="277" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>289</v>
       </c>
@@ -26706,7 +26719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>289</v>
       </c>
@@ -26753,7 +26766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>289</v>
       </c>
@@ -26800,7 +26813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>289</v>
       </c>
@@ -26847,7 +26860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>289</v>
       </c>
@@ -26888,7 +26901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>289</v>
       </c>
@@ -26944,7 +26957,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="283" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -26994,7 +27007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -27044,7 +27057,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="285" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>289</v>
       </c>
@@ -27094,7 +27107,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="286" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>355</v>
       </c>
@@ -27204,7 +27217,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="287" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>355</v>
       </c>
@@ -27254,7 +27267,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>355</v>
       </c>
@@ -27304,7 +27317,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="289" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>355</v>
       </c>
@@ -27390,7 +27403,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="290" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>355</v>
       </c>
@@ -27437,7 +27450,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="291" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>355</v>
       </c>
@@ -27508,7 +27521,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="292" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>355</v>
       </c>
@@ -27564,7 +27577,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="293" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>355</v>
       </c>
@@ -27614,7 +27627,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="294" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>355</v>
       </c>
@@ -27736,7 +27749,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="295" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>355</v>
       </c>
@@ -27786,7 +27799,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>355</v>
       </c>
@@ -27842,7 +27855,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="297" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>355</v>
       </c>
@@ -27970,7 +27983,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="298" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>355</v>
       </c>
@@ -28020,7 +28033,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="299" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>355</v>
       </c>
@@ -28079,7 +28092,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>355</v>
       </c>
@@ -28132,7 +28145,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="301" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>355</v>
       </c>
@@ -28191,7 +28204,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>355</v>
       </c>
@@ -28241,7 +28254,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="303" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>355</v>
       </c>
@@ -28282,7 +28295,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>355</v>
       </c>
@@ -28332,7 +28345,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="305" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>355</v>
       </c>
@@ -28382,7 +28395,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>355</v>
       </c>
@@ -28432,7 +28445,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>355</v>
       </c>
@@ -28554,7 +28567,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="308" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>355</v>
       </c>
@@ -28604,7 +28617,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="309" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>355</v>
       </c>
@@ -28660,7 +28673,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="310" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>355</v>
       </c>
@@ -28707,7 +28720,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="311" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>355</v>
       </c>
@@ -28796,7 +28809,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>355</v>
       </c>
@@ -28852,7 +28865,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="313" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>355</v>
       </c>
@@ -28902,7 +28915,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>355</v>
       </c>
@@ -28952,7 +28965,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="315" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>355</v>
       </c>
@@ -29002,7 +29015,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="316" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>355</v>
       </c>
@@ -29055,7 +29068,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="317" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>355</v>
       </c>
@@ -29159,7 +29172,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="318" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>355</v>
       </c>
@@ -29209,7 +29222,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="319" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>355</v>
       </c>
@@ -29259,7 +29272,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="320" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>355</v>
       </c>
@@ -29309,7 +29322,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="321" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>355</v>
       </c>
@@ -29362,7 +29375,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="322" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>355</v>
       </c>
@@ -29472,7 +29485,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>355</v>
       </c>
@@ -29528,7 +29541,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="324" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>355</v>
       </c>
@@ -29578,7 +29591,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="325" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>405</v>
       </c>
@@ -29637,7 +29650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>405</v>
       </c>
@@ -29684,7 +29697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>405</v>
       </c>
@@ -29740,7 +29753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>405</v>
       </c>
@@ -29793,7 +29806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>405</v>
       </c>
@@ -29843,7 +29856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>405</v>
       </c>
@@ -29887,7 +29900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>405</v>
       </c>
@@ -29937,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>405</v>
       </c>
@@ -29987,7 +30000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>405</v>
       </c>
@@ -30052,7 +30065,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="334" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>405</v>
       </c>
@@ -30111,7 +30124,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="335" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>405</v>
       </c>
@@ -30158,7 +30171,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="336" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>405</v>
       </c>
@@ -30208,7 +30221,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="337" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>405</v>
       </c>
@@ -30249,7 +30262,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="338" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>405</v>
       </c>
@@ -30293,7 +30306,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="339" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>405</v>
       </c>
@@ -30367,7 +30380,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="340" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>405</v>
       </c>
@@ -30432,7 +30445,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="341" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>405</v>
       </c>
@@ -30497,7 +30510,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="342" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>405</v>
       </c>
@@ -30541,7 +30554,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="343" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>405</v>
       </c>
@@ -30600,7 +30613,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="344" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>405</v>
       </c>
@@ -30665,7 +30678,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="345" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>405</v>
       </c>
@@ -30730,7 +30743,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="346" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>405</v>
       </c>
@@ -30771,7 +30784,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="347" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>405</v>
       </c>
@@ -30836,7 +30849,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="348" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>405</v>
       </c>
@@ -30895,7 +30908,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="349" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>405</v>
       </c>
@@ -30954,7 +30967,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>405</v>
       </c>
@@ -30995,7 +31008,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="351" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>405</v>
       </c>
@@ -31036,7 +31049,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="352" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>405</v>
       </c>
@@ -31095,7 +31108,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="353" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>405</v>
       </c>
@@ -31142,7 +31155,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="354" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>405</v>
       </c>
@@ -31189,7 +31202,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="355" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>405</v>
       </c>
@@ -31254,7 +31267,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="356" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>405</v>
       </c>
@@ -31295,7 +31308,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="357" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>405</v>
       </c>
@@ -31336,7 +31349,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="358" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>405</v>
       </c>
@@ -31401,7 +31414,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="359" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>405</v>
       </c>
@@ -31460,7 +31473,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>405</v>
       </c>
@@ -31528,7 +31541,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="361" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>405</v>
       </c>
@@ -31572,7 +31585,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>405</v>
       </c>
@@ -31613,7 +31626,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="363" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>405</v>
       </c>
@@ -31672,7 +31685,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="364" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>405</v>
       </c>
@@ -31737,7 +31750,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="365" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>405</v>
       </c>
@@ -31796,7 +31809,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="366" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>405</v>
       </c>
@@ -31837,7 +31850,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="367" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>405</v>
       </c>
@@ -31878,7 +31891,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="368" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>405</v>
       </c>
@@ -31946,7 +31959,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="369" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>405</v>
       </c>
@@ -32005,7 +32018,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="370" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>405</v>
       </c>
@@ -32070,7 +32083,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="371" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>405</v>
       </c>
@@ -32111,7 +32124,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="372" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>405</v>
       </c>
@@ -32155,7 +32168,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="373" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>405</v>
       </c>
@@ -32220,7 +32233,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="374" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>405</v>
       </c>
@@ -32279,7 +32292,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="375" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -32341,7 +32354,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="376" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>405</v>
       </c>
@@ -32382,7 +32395,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="377" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>405</v>
       </c>
@@ -32423,7 +32436,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="378" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>405</v>
       </c>
@@ -32467,7 +32480,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="379" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:105" x14ac:dyDescent="0.3">
       <c r="R379">
         <f>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7L])</f>
         <v>32</v>
@@ -32846,7 +32859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32874,15 +32887,15 @@
       <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>465</v>
       </c>
@@ -32890,7 +32903,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>157</v>
       </c>
@@ -32898,7 +32911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>198</v>
       </c>
@@ -32906,7 +32919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>310</v>
       </c>
@@ -32914,7 +32927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>186</v>
       </c>
@@ -32922,7 +32935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>422</v>
       </c>
@@ -32930,7 +32943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
@@ -32938,7 +32951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>410</v>
       </c>
@@ -32946,7 +32959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>106</v>
       </c>
@@ -32954,7 +32967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>448</v>
       </c>
@@ -32962,7 +32975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>126</v>
       </c>
@@ -32970,7 +32983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>466</v>
       </c>
@@ -32978,7 +32991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>235</v>
       </c>
@@ -32986,7 +32999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>467</v>
       </c>
@@ -32994,7 +33007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>123</v>
       </c>
@@ -33002,7 +33015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>468</v>
       </c>
@@ -33010,7 +33023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>309</v>
       </c>
@@ -33018,7 +33031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>469</v>
       </c>
@@ -33026,7 +33039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>424</v>
       </c>
@@ -33034,7 +33047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>426</v>
       </c>
@@ -33042,7 +33055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>195</v>
       </c>
@@ -33050,7 +33063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
@@ -33058,7 +33071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>217</v>
       </c>
@@ -33066,7 +33079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>408</v>
       </c>
@@ -33074,7 +33087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>470</v>
       </c>
@@ -33082,7 +33095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>471</v>
       </c>
@@ -33090,7 +33103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>472</v>
       </c>
@@ -33098,7 +33111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>163</v>
       </c>
@@ -33112,7 +33125,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>371</v>
       </c>
@@ -33126,7 +33139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>142</v>
       </c>
@@ -33140,7 +33153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>139</v>
       </c>
@@ -33154,7 +33167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>165</v>
       </c>
@@ -33168,7 +33181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>375</v>
       </c>
@@ -33182,7 +33195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>128</v>
       </c>
@@ -33196,7 +33209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>358</v>
       </c>
@@ -33210,7 +33223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>226</v>
       </c>
@@ -33224,7 +33237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>223</v>
       </c>
@@ -33238,7 +33251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>114</v>
       </c>
@@ -33252,7 +33265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>403</v>
       </c>
@@ -33266,7 +33279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>250</v>
       </c>
@@ -33280,7 +33293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>366</v>
       </c>
@@ -33294,7 +33307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>194</v>
       </c>
@@ -33308,7 +33321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>159</v>
       </c>
@@ -33322,7 +33335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>150</v>
       </c>
@@ -33336,7 +33349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>151</v>
       </c>
@@ -33350,7 +33363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>124</v>
       </c>
@@ -33358,7 +33371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>180</v>
       </c>
@@ -33366,7 +33379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>272</v>
       </c>
@@ -33374,7 +33387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>335</v>
       </c>
@@ -33382,7 +33395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>473</v>
       </c>
@@ -33390,7 +33403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>444</v>
       </c>
@@ -33398,7 +33411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
@@ -33406,7 +33419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>173</v>
       </c>
@@ -33414,7 +33427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>389</v>
       </c>
@@ -33422,7 +33435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>221</v>
       </c>
@@ -33430,7 +33443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>292</v>
       </c>
@@ -33438,7 +33451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>111</v>
       </c>
@@ -33446,7 +33459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>189</v>
       </c>
@@ -33454,7 +33467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>398</v>
       </c>
@@ -33462,7 +33475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>474</v>
       </c>
@@ -33470,7 +33483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>209</v>
       </c>
@@ -33478,7 +33491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>257</v>
       </c>
@@ -33486,7 +33499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>481</v>
       </c>
@@ -33494,7 +33507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>303</v>
       </c>
@@ -33502,7 +33515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>480</v>
       </c>
@@ -33510,7 +33523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>479</v>
       </c>
@@ -33518,7 +33531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>152</v>
       </c>
@@ -33526,7 +33539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>301</v>
       </c>
@@ -33534,7 +33547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>133</v>
       </c>
@@ -33542,7 +33555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>103</v>
       </c>
@@ -33550,7 +33563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>420</v>
       </c>
@@ -33558,7 +33571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>364</v>
       </c>
@@ -33566,7 +33579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>487</v>
       </c>
@@ -33574,7 +33587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>220</v>
       </c>
@@ -33582,7 +33595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>475</v>
       </c>
@@ -33590,7 +33603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>136</v>
       </c>
@@ -33598,7 +33611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>197</v>
       </c>
@@ -33606,7 +33619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>145</v>
       </c>
@@ -33614,7 +33627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>131</v>
       </c>
@@ -33622,7 +33635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>476</v>
       </c>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73D35C-A80E-4B59-B26B-330838CAE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B8CAC-13F1-4EAA-AE8B-D33F1332265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1" hidden="1">PROGRAMACIONES_PARCIALES[]</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'PROGRAMACIÓN I 2024'!$A$2:$DA$378</definedName>
     <definedName name="SegmentaciónDeDatos_13_14L">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_19_20L">#N/A</definedName>
@@ -104,7 +104,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="PROGRAMACIONES_PARCIALES" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsxPROGRAMACIONES_PARCIALES1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1728,14 +1728,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1759,7 +1752,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7583,893 +7583,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="78">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="111">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>31</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>10</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2044</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1864DD7E-914F-4129-81BE-DE6895877F42}" name="PivotChartTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -9267,6 +8380,893 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="78">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="111">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>31</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>10</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2044</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E51D2C13-18A8-44E4-9514-17D00C659F63}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -10136,21 +10136,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE_ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE_COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE_COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS_SEMANAL" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
     <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
@@ -10714,7 +10714,7 @@
   <dimension ref="A1:DI379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23228,28 +23228,28 @@
         <v>96</v>
       </c>
       <c r="AD213">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="AE213">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="BJ213">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="BK213">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="BL213">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="BM213">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CR213">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CS213">
-        <v>806</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="214" spans="1:105" x14ac:dyDescent="0.3">
@@ -23290,22 +23290,22 @@
         <v>72</v>
       </c>
       <c r="AT214">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="AU214">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="BZ214">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CA214">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CB214">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CC214">
-        <v>806</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="215" spans="1:105" x14ac:dyDescent="0.3">
@@ -23346,16 +23346,16 @@
         <v>48</v>
       </c>
       <c r="AV215">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="AW215">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CP215">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CQ215">
-        <v>806</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="216" spans="1:105" x14ac:dyDescent="0.3">
@@ -23396,10 +23396,10 @@
         <v>24</v>
       </c>
       <c r="AF216">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="AG216">
-        <v>806</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="217" spans="1:105" x14ac:dyDescent="0.3">
@@ -23449,10 +23449,10 @@
         <v>24</v>
       </c>
       <c r="CZ217">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="DA217">
-        <v>806</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="218" spans="1:105" x14ac:dyDescent="0.3">
@@ -23502,10 +23502,10 @@
         <v>24</v>
       </c>
       <c r="CV218">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CW218">
-        <v>806</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="219" spans="1:105" x14ac:dyDescent="0.3">
@@ -23555,10 +23555,10 @@
         <v>24</v>
       </c>
       <c r="CX219">
-        <v>806</v>
+        <v>1003</v>
       </c>
       <c r="CY219">
-        <v>806</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="220" spans="1:105" x14ac:dyDescent="0.3">
@@ -32859,7 +32859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R379:DA379">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/static/horarios/1-2024.xlsx
+++ b/static/horarios/1-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\schedule\static\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E28DD78-BF3A-4CB6-A775-B63E29120DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353CBF7C-3EF7-4549-B99E-E9923115FAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMACIÓN I 2024" sheetId="2" r:id="rId1"/>
@@ -1636,10 +1636,10 @@
     <t>HORAS_SEMANAL</t>
   </si>
   <si>
-    <t>20-21S2</t>
-  </si>
-  <si>
-    <t>21-22S3</t>
+    <t>NOMBRE DE LA COMPETENCIA 2</t>
+  </si>
+  <si>
+    <t>HORAS POR TRIMESTRE</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1731,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1755,14 +1762,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1817,7 +1817,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1865,7 +1865,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2441,7 +2441,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="533591440"/>
@@ -2505,7 +2505,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1267078032"/>
@@ -2552,7 +2552,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2589,7 +2589,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:extLst>
@@ -2673,7 +2673,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3944,7 +3944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4000,7 +4000,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4056,7 +4056,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4112,7 +4112,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4168,7 +4168,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4224,7 +4224,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -4280,7 +4280,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -5044,7 +5044,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1835362880"/>
@@ -5108,7 +5108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089398640"/>
@@ -5155,7 +5155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5192,7 +5192,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:extLst>
@@ -7612,902 +7612,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="78">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="120">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>38</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>36</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>34</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>32</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>31</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>30</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>28</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>26</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>25</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>24</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>23</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>22</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>20</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>18</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>14</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>12</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>2038</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
-        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1864DD7E-914F-4129-81BE-DE6895877F42}" name="PivotChartTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -9314,6 +8418,902 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C494C86E-4DC1-488C-A314-1E315242265A}" name="PivotChartTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="78">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de HORAS SEMANAL" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="120">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="79" columnCount="1" cacheId="531005254">
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>38</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>36</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>34</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>32</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>31</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>30</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>28</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>26</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>25</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>24</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>23</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>22</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>20</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>18</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>14</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>12</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>2038</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CONSOLIDADO_I_2024_V2.xlsx!PROGRAMACIONES_PARCIALES">
+        <x15:activeTabTopLevelEntity name="[PROGRAMACIONES_PARCIALES]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E51D2C13-18A8-44E4-9514-17D00C659F63}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -10151,7 +10151,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_6_7L" xr10:uid="{1FB90F47-4992-4118-88C6-E6BEB60BB48C}" sourceName="8-9L">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_6_7L" xr10:uid="{1FB90F47-4992-4118-88C6-E6BEB60BB48C}" sourceName="6-7L">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="1" column="18"/>
@@ -10164,7 +10164,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_13_14L" xr10:uid="{89D53522-83AC-4154-BE0B-78D4DAD82DA9}" sourceName="15-16L">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_13_14L" xr10:uid="{89D53522-83AC-4154-BE0B-78D4DAD82DA9}" sourceName="13-14L">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="1" column="25"/>
@@ -10177,7 +10177,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_19_20L" xr10:uid="{966D99B7-A90D-4649-8ED6-77F8779DDD57}" sourceName="21-22L">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_19_20L" xr10:uid="{966D99B7-A90D-4649-8ED6-77F8779DDD57}" sourceName="19-20L">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="1" column="31"/>
@@ -10201,293 +10201,293 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}" name="PROGRAMACIONES_PARCIALES" displayName="PROGRAMACIONES_PARCIALES" ref="A2:DI379" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A2:DI378" xr:uid="{078F9945-76D9-4C04-BF83-65B682ED43CC}"/>
   <tableColumns count="113">
-    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="105" xr3:uid="{87D8DA09-394D-4852-A9F6-06583A29B0FC}" uniqueName="105" name="Source.Name" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{61E6697F-673F-4B06-8904-614D56FA179F}" uniqueName="2" name="FICHA" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3DE7CF3C-20A5-45C3-A939-9C88D01D0FE9}" uniqueName="3" name="FORMACIÓN" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{363CDC32-9FD0-4CEB-8D8D-B919E15FAA38}" uniqueName="4" name="TITULAR" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{8B226D1B-BFF2-49BB-B758-EE4B851E70DA}" uniqueName="5" name="TRIMESTRE_ACADÉMICO" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE_COMPETENCIA" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{78A28FE9-7887-4ACB-88EB-DFAD7F40A943}" uniqueName="6" name="COMPETENCIA" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{BF62391A-F89A-44CC-A8B6-3E506A304062}" uniqueName="7" name="NOMBRE_COMPETENCIA" queryTableFieldId="7" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{5C00E006-DEB8-4B45-B7E3-B775FAC56914}" uniqueName="8" name="RAP 1" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{49EFD39C-728B-4C81-8193-D20CD8923D69}" uniqueName="9" name="RAP 2" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{B6F8F457-5381-4426-9F22-D87B3BAE1E1B}" uniqueName="10" name="RAP 3" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{0EECA1C3-E5FD-4979-BEEB-1A297BEFAD06}" uniqueName="11" name="RAP 4" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D0A977BB-7A27-4EF0-B307-4BAD18A1D841}" uniqueName="12" name="RAP 5" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F8C8EBB1-C23A-49D5-B16B-0380006A1DDD}" uniqueName="13" name="RAP 6" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="HORAS_SEMANAL" queryTableFieldId="15" dataDxfId="0"/>
-    <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="6-7L" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="7-8L" queryTableFieldId="17"/>
-    <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="8-9L" totalsRowFunction="custom" queryTableFieldId="18">
+    <tableColumn id="14" xr3:uid="{E8FBDA0F-CDFB-4BBD-AF1C-B9773372BC4C}" uniqueName="14" name="INSTRUCTOR" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{81F91995-5EA0-4D2A-9C41-99CFC65133C2}" uniqueName="15" name="NOMBRE DE LA COMPETENCIA 2" queryTableFieldId="15" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{34761CDE-83A0-4FFA-B1E9-1FEBE9DC1075}" uniqueName="16" name="HORAS_SEMANAL" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{B25F73F1-9F14-47B9-B123-7A878796CCA7}" uniqueName="17" name="HORAS POR TRIMESTRE" queryTableFieldId="17"/>
+    <tableColumn id="18" xr3:uid="{3F05A4C2-F912-4CB3-AA16-A7656C50765A}" uniqueName="18" name="6-7L" totalsRowFunction="custom" queryTableFieldId="18">
+      <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7L])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{BDEF08C1-71CB-485A-AB74-C17C18E89D49}" uniqueName="19" name="7-8L" totalsRowFunction="custom" queryTableFieldId="19">
+      <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8L])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{52A095D2-DDBC-41F0-B9D0-67ED24E45C27}" uniqueName="20" name="8-9L" totalsRowFunction="custom" queryTableFieldId="20">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{BDEF08C1-71CB-485A-AB74-C17C18E89D49}" uniqueName="19" name="9-10L" totalsRowFunction="custom" queryTableFieldId="19">
+    <tableColumn id="21" xr3:uid="{DE4BE1C9-1A96-4647-8269-3F70BB405FEF}" uniqueName="21" name="9-10L" totalsRowFunction="custom" queryTableFieldId="21">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{52A095D2-DDBC-41F0-B9D0-67ED24E45C27}" uniqueName="20" name="10-11L" totalsRowFunction="custom" queryTableFieldId="20">
+    <tableColumn id="22" xr3:uid="{891D3715-27D2-47E8-B275-ACEB6747DCD1}" uniqueName="22" name="10-11L" totalsRowFunction="custom" queryTableFieldId="22">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{DE4BE1C9-1A96-4647-8269-3F70BB405FEF}" uniqueName="21" name="11-12L" totalsRowFunction="custom" queryTableFieldId="21">
+    <tableColumn id="23" xr3:uid="{6A9BC042-3845-4B52-BF21-2EE76DD69A65}" uniqueName="23" name="11-12L" totalsRowFunction="custom" queryTableFieldId="23">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{891D3715-27D2-47E8-B275-ACEB6747DCD1}" uniqueName="22" name="12-13L" totalsRowFunction="custom" queryTableFieldId="22">
+    <tableColumn id="24" xr3:uid="{67A1CFEF-E056-4C06-A2C3-5094F3E7557A}" uniqueName="24" name="12-13L" totalsRowFunction="custom" queryTableFieldId="24">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{6A9BC042-3845-4B52-BF21-2EE76DD69A65}" uniqueName="23" name="13-14L" totalsRowFunction="custom" queryTableFieldId="23">
+    <tableColumn id="25" xr3:uid="{07539403-A066-454E-BF5A-4C15A0C2A85C}" uniqueName="25" name="13-14L" totalsRowFunction="custom" queryTableFieldId="25">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{67A1CFEF-E056-4C06-A2C3-5094F3E7557A}" uniqueName="24" name="14-15L" totalsRowFunction="custom" queryTableFieldId="24">
+    <tableColumn id="26" xr3:uid="{FB67CB5F-5A63-4D71-981F-55B994A7ACEA}" uniqueName="26" name="14-15L" totalsRowFunction="custom" queryTableFieldId="26">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{07539403-A066-454E-BF5A-4C15A0C2A85C}" uniqueName="25" name="15-16L" totalsRowFunction="custom" queryTableFieldId="25">
+    <tableColumn id="27" xr3:uid="{FE4DA208-B1AF-41A4-A82B-4589D9E2678F}" uniqueName="27" name="15-16L" totalsRowFunction="custom" queryTableFieldId="27">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{FB67CB5F-5A63-4D71-981F-55B994A7ACEA}" uniqueName="26" name="16-17L" totalsRowFunction="custom" queryTableFieldId="26">
+    <tableColumn id="28" xr3:uid="{61811A08-39D3-4997-B958-AA4A806C1B8B}" uniqueName="28" name="16-17L" totalsRowFunction="custom" queryTableFieldId="28">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{FE4DA208-B1AF-41A4-A82B-4589D9E2678F}" uniqueName="27" name="17-18L" totalsRowFunction="custom" queryTableFieldId="27">
+    <tableColumn id="29" xr3:uid="{97955E7B-6421-46C7-8314-A5010AD25162}" uniqueName="29" name="17-18L" totalsRowFunction="custom" queryTableFieldId="29">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{61811A08-39D3-4997-B958-AA4A806C1B8B}" uniqueName="28" name="18-19L" totalsRowFunction="custom" queryTableFieldId="28">
+    <tableColumn id="30" xr3:uid="{7026F833-37DA-41DA-AE70-665F9BAA9DA3}" uniqueName="30" name="18-19L" totalsRowFunction="custom" queryTableFieldId="30">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{97955E7B-6421-46C7-8314-A5010AD25162}" uniqueName="29" name="19-20L" totalsRowFunction="custom" queryTableFieldId="29">
+    <tableColumn id="31" xr3:uid="{F08CB3A2-23F4-4EDB-83E4-C3F4B42FFD3F}" uniqueName="31" name="19-20L" totalsRowFunction="custom" queryTableFieldId="31">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{7026F833-37DA-41DA-AE70-665F9BAA9DA3}" uniqueName="30" name="20-21L" totalsRowFunction="custom" queryTableFieldId="30">
+    <tableColumn id="32" xr3:uid="{A39A9D53-1BA0-408F-976B-123EF3017074}" uniqueName="32" name="20-21L" totalsRowFunction="custom" queryTableFieldId="32">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{F08CB3A2-23F4-4EDB-83E4-C3F4B42FFD3F}" uniqueName="31" name="21-22L" totalsRowFunction="custom" queryTableFieldId="31">
+    <tableColumn id="33" xr3:uid="{7740C04B-E7B3-4E6C-9D67-6C539215A970}" uniqueName="33" name="21-22L" totalsRowFunction="custom" queryTableFieldId="33">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22L])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{A39A9D53-1BA0-408F-976B-123EF3017074}" uniqueName="32" name="6-7M" totalsRowFunction="custom" queryTableFieldId="32">
+    <tableColumn id="34" xr3:uid="{15B3CF5E-1E36-49C3-8587-D97630FD3F8B}" uniqueName="34" name="6-7M" totalsRowFunction="custom" queryTableFieldId="34">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{7740C04B-E7B3-4E6C-9D67-6C539215A970}" uniqueName="33" name="7-8M" totalsRowFunction="custom" queryTableFieldId="33">
+    <tableColumn id="35" xr3:uid="{DD8A729A-4557-417F-A653-BCC5EA12ED2F}" uniqueName="35" name="7-8M" totalsRowFunction="custom" queryTableFieldId="35">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{15B3CF5E-1E36-49C3-8587-D97630FD3F8B}" uniqueName="34" name="8-9M" totalsRowFunction="custom" queryTableFieldId="34">
+    <tableColumn id="36" xr3:uid="{26AC143A-DF86-46BD-914E-BCEE5FDF7ED0}" uniqueName="36" name="8-9M" totalsRowFunction="custom" queryTableFieldId="36">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{DD8A729A-4557-417F-A653-BCC5EA12ED2F}" uniqueName="35" name="9-10M" totalsRowFunction="custom" queryTableFieldId="35">
+    <tableColumn id="37" xr3:uid="{85300FE8-3AE0-4393-8509-BD248C9EECC4}" uniqueName="37" name="9-10M" totalsRowFunction="custom" queryTableFieldId="37">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{26AC143A-DF86-46BD-914E-BCEE5FDF7ED0}" uniqueName="36" name="10-11M" totalsRowFunction="custom" queryTableFieldId="36">
+    <tableColumn id="38" xr3:uid="{A976D95A-4686-4767-A065-469479BD5CF6}" uniqueName="38" name="10-11M" totalsRowFunction="custom" queryTableFieldId="38">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{85300FE8-3AE0-4393-8509-BD248C9EECC4}" uniqueName="37" name="11-12M" totalsRowFunction="custom" queryTableFieldId="37">
+    <tableColumn id="39" xr3:uid="{A2776303-749F-4D5A-8E1D-8DD71329D923}" uniqueName="39" name="11-12M" totalsRowFunction="custom" queryTableFieldId="39">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{A976D95A-4686-4767-A065-469479BD5CF6}" uniqueName="38" name="12-13M" totalsRowFunction="custom" queryTableFieldId="38">
+    <tableColumn id="40" xr3:uid="{F3A4ABC4-BE7F-4825-8F06-05051139E8F6}" uniqueName="40" name="12-13M" totalsRowFunction="custom" queryTableFieldId="40">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{A2776303-749F-4D5A-8E1D-8DD71329D923}" uniqueName="39" name="13-14M" totalsRowFunction="custom" queryTableFieldId="39">
+    <tableColumn id="41" xr3:uid="{F520504E-F66E-40B6-A2C2-542B0C214C39}" uniqueName="41" name="13-14M" totalsRowFunction="custom" queryTableFieldId="41">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{F3A4ABC4-BE7F-4825-8F06-05051139E8F6}" uniqueName="40" name="14-15M" totalsRowFunction="custom" queryTableFieldId="40">
+    <tableColumn id="42" xr3:uid="{C15BF29A-DC66-41C9-9580-EAF2AA0C922F}" uniqueName="42" name="14-15M" totalsRowFunction="custom" queryTableFieldId="42">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{F520504E-F66E-40B6-A2C2-542B0C214C39}" uniqueName="41" name="15-16M" totalsRowFunction="custom" queryTableFieldId="41">
+    <tableColumn id="43" xr3:uid="{E7BDD123-DAD6-40F1-BDB3-77732AB2C4C5}" uniqueName="43" name="15-16M" totalsRowFunction="custom" queryTableFieldId="43">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{C15BF29A-DC66-41C9-9580-EAF2AA0C922F}" uniqueName="42" name="16-17M" totalsRowFunction="custom" queryTableFieldId="42">
+    <tableColumn id="44" xr3:uid="{CB584DAE-EC9B-4F9A-88F7-D571994A9A55}" uniqueName="44" name="16-17M" totalsRowFunction="custom" queryTableFieldId="44">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{E7BDD123-DAD6-40F1-BDB3-77732AB2C4C5}" uniqueName="43" name="17-18M" totalsRowFunction="custom" queryTableFieldId="43">
+    <tableColumn id="45" xr3:uid="{19CCEFDA-57F1-4F60-8B02-02F3B0EE3D74}" uniqueName="45" name="17-18M" totalsRowFunction="custom" queryTableFieldId="45">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{CB584DAE-EC9B-4F9A-88F7-D571994A9A55}" uniqueName="44" name="18-19M" totalsRowFunction="custom" queryTableFieldId="44">
+    <tableColumn id="46" xr3:uid="{BD0A3013-0D55-4BC5-8DB0-465654EE350E}" uniqueName="46" name="18-19M" totalsRowFunction="custom" queryTableFieldId="46">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{19CCEFDA-57F1-4F60-8B02-02F3B0EE3D74}" uniqueName="45" name="19-20M" totalsRowFunction="custom" queryTableFieldId="45">
+    <tableColumn id="47" xr3:uid="{31E850C1-B723-4426-86EC-83263C742D38}" uniqueName="47" name="19-20M" totalsRowFunction="custom" queryTableFieldId="47">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{BD0A3013-0D55-4BC5-8DB0-465654EE350E}" uniqueName="46" name="20-21M" totalsRowFunction="custom" queryTableFieldId="46">
+    <tableColumn id="48" xr3:uid="{48C4AC2F-8F74-4BA1-92D1-9E8F7E171DEF}" uniqueName="48" name="20-21M" totalsRowFunction="custom" queryTableFieldId="48">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{31E850C1-B723-4426-86EC-83263C742D38}" uniqueName="47" name="21-22M" totalsRowFunction="custom" queryTableFieldId="47">
+    <tableColumn id="49" xr3:uid="{6E27B89C-4887-456A-9A1D-A17E399BF621}" uniqueName="49" name="21-22M" totalsRowFunction="custom" queryTableFieldId="49">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22M])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{48C4AC2F-8F74-4BA1-92D1-9E8F7E171DEF}" uniqueName="48" name="6-7MI" totalsRowFunction="custom" queryTableFieldId="48">
+    <tableColumn id="50" xr3:uid="{18A386FE-10D9-47C9-836D-7D157F509F04}" uniqueName="50" name="6-7MI" totalsRowFunction="custom" queryTableFieldId="50">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{6E27B89C-4887-456A-9A1D-A17E399BF621}" uniqueName="49" name="7-8MI" totalsRowFunction="custom" queryTableFieldId="49">
+    <tableColumn id="51" xr3:uid="{8DABD137-9583-4D47-92E0-5C3BA0E24B91}" uniqueName="51" name="7-8MI" totalsRowFunction="custom" queryTableFieldId="51">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{18A386FE-10D9-47C9-836D-7D157F509F04}" uniqueName="50" name="8-9MI" totalsRowFunction="custom" queryTableFieldId="50">
+    <tableColumn id="52" xr3:uid="{797F1668-79AA-4EE1-A202-266A6BEDE6EA}" uniqueName="52" name="8-9MI" totalsRowFunction="custom" queryTableFieldId="52">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{8DABD137-9583-4D47-92E0-5C3BA0E24B91}" uniqueName="51" name="9-10MI" totalsRowFunction="custom" queryTableFieldId="51">
+    <tableColumn id="53" xr3:uid="{6BAE0458-104E-41B2-8364-1F5DD6D5DB8A}" uniqueName="53" name="9-10MI" totalsRowFunction="custom" queryTableFieldId="53">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{797F1668-79AA-4EE1-A202-266A6BEDE6EA}" uniqueName="52" name="10-11MI" totalsRowFunction="custom" queryTableFieldId="52">
+    <tableColumn id="54" xr3:uid="{C115ECD9-BC8F-4584-9B16-02C63E78D5B9}" uniqueName="54" name="10-11MI" totalsRowFunction="custom" queryTableFieldId="54">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{6BAE0458-104E-41B2-8364-1F5DD6D5DB8A}" uniqueName="53" name="11-12MI" totalsRowFunction="custom" queryTableFieldId="53">
+    <tableColumn id="55" xr3:uid="{EE27EF8E-336C-4EE9-9604-EC7E12D5533D}" uniqueName="55" name="11-12MI" totalsRowFunction="custom" queryTableFieldId="55">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="54" xr3:uid="{C115ECD9-BC8F-4584-9B16-02C63E78D5B9}" uniqueName="54" name="12-13MI" totalsRowFunction="custom" queryTableFieldId="54">
+    <tableColumn id="56" xr3:uid="{084C9AAB-79EF-47FC-BE15-FB1ADE8B4782}" uniqueName="56" name="12-13MI" totalsRowFunction="custom" queryTableFieldId="56">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" xr3:uid="{EE27EF8E-336C-4EE9-9604-EC7E12D5533D}" uniqueName="55" name="13-14MI" totalsRowFunction="custom" queryTableFieldId="55">
+    <tableColumn id="57" xr3:uid="{954C2F6B-27A2-4284-BBDC-364863BE2E58}" uniqueName="57" name="13-14MI" totalsRowFunction="custom" queryTableFieldId="57">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="56" xr3:uid="{084C9AAB-79EF-47FC-BE15-FB1ADE8B4782}" uniqueName="56" name="14-15MI" totalsRowFunction="custom" queryTableFieldId="56">
+    <tableColumn id="58" xr3:uid="{795A1462-B524-47EF-9383-B1CD928BE0BA}" uniqueName="58" name="14-15MI" totalsRowFunction="custom" queryTableFieldId="58">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="57" xr3:uid="{954C2F6B-27A2-4284-BBDC-364863BE2E58}" uniqueName="57" name="15-16MI" totalsRowFunction="custom" queryTableFieldId="57">
+    <tableColumn id="59" xr3:uid="{31B8CD2D-CA47-4BCB-B8EB-6CF7227209A2}" uniqueName="59" name="15-16MI" totalsRowFunction="custom" queryTableFieldId="59">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="58" xr3:uid="{795A1462-B524-47EF-9383-B1CD928BE0BA}" uniqueName="58" name="16-17MI" totalsRowFunction="custom" queryTableFieldId="58">
+    <tableColumn id="60" xr3:uid="{76295A4B-FAD4-43FD-82DF-62C148FBD9AA}" uniqueName="60" name="16-17MI" totalsRowFunction="custom" queryTableFieldId="60">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="59" xr3:uid="{31B8CD2D-CA47-4BCB-B8EB-6CF7227209A2}" uniqueName="59" name="17-18MI" totalsRowFunction="custom" queryTableFieldId="59">
+    <tableColumn id="61" xr3:uid="{D7972E29-AFC6-4FF8-A1AA-017896412C64}" uniqueName="61" name="17-18MI" totalsRowFunction="custom" queryTableFieldId="61">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="60" xr3:uid="{76295A4B-FAD4-43FD-82DF-62C148FBD9AA}" uniqueName="60" name="18-19MI" totalsRowFunction="custom" queryTableFieldId="60">
+    <tableColumn id="62" xr3:uid="{8D249152-ABA1-4617-8894-CCA8A2328763}" uniqueName="62" name="18-19MI" totalsRowFunction="custom" queryTableFieldId="62">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="61" xr3:uid="{D7972E29-AFC6-4FF8-A1AA-017896412C64}" uniqueName="61" name="19-20MI" totalsRowFunction="custom" queryTableFieldId="61">
+    <tableColumn id="63" xr3:uid="{C5D1C2A5-9F15-4A5E-85E3-5F2F9967E621}" uniqueName="63" name="19-20MI" totalsRowFunction="custom" queryTableFieldId="63">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="62" xr3:uid="{8D249152-ABA1-4617-8894-CCA8A2328763}" uniqueName="62" name="20-21MI" totalsRowFunction="custom" queryTableFieldId="62">
+    <tableColumn id="64" xr3:uid="{15443D01-707F-4F42-93AA-53BCA8AA0332}" uniqueName="64" name="20-21MI" totalsRowFunction="custom" queryTableFieldId="64">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="63" xr3:uid="{C5D1C2A5-9F15-4A5E-85E3-5F2F9967E621}" uniqueName="63" name="21-22MI" totalsRowFunction="custom" queryTableFieldId="63">
+    <tableColumn id="65" xr3:uid="{70DFC539-9B8E-408E-A4D7-3C4D1B468875}" uniqueName="65" name="21-22MI" totalsRowFunction="custom" queryTableFieldId="65">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22MI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="64" xr3:uid="{15443D01-707F-4F42-93AA-53BCA8AA0332}" uniqueName="64" name="6-7J" totalsRowFunction="custom" queryTableFieldId="64">
+    <tableColumn id="66" xr3:uid="{C2217015-C230-4D0A-A626-C799E25F60F4}" uniqueName="66" name="6-7J" totalsRowFunction="custom" queryTableFieldId="66">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="65" xr3:uid="{70DFC539-9B8E-408E-A4D7-3C4D1B468875}" uniqueName="65" name="7-8J" totalsRowFunction="custom" queryTableFieldId="65">
+    <tableColumn id="67" xr3:uid="{8E37BDF4-66F4-41AE-8E8F-DEEC29359DE9}" uniqueName="67" name="7-8J" totalsRowFunction="custom" queryTableFieldId="67">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="66" xr3:uid="{C2217015-C230-4D0A-A626-C799E25F60F4}" uniqueName="66" name="8-9J" totalsRowFunction="custom" queryTableFieldId="66">
+    <tableColumn id="68" xr3:uid="{6DD71951-47A8-4CC7-88BB-595C9B48BE70}" uniqueName="68" name="8-9J" totalsRowFunction="custom" queryTableFieldId="68">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="67" xr3:uid="{8E37BDF4-66F4-41AE-8E8F-DEEC29359DE9}" uniqueName="67" name="9-10J" totalsRowFunction="custom" queryTableFieldId="67">
+    <tableColumn id="69" xr3:uid="{41C18551-02DE-4722-B87D-F215CCFDB404}" uniqueName="69" name="9-10J" totalsRowFunction="custom" queryTableFieldId="69">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="68" xr3:uid="{6DD71951-47A8-4CC7-88BB-595C9B48BE70}" uniqueName="68" name="10-11J" totalsRowFunction="custom" queryTableFieldId="68">
+    <tableColumn id="70" xr3:uid="{CF0F29B8-3AA0-4E51-8CB5-0ED315EB92A6}" uniqueName="70" name="10-11J" totalsRowFunction="custom" queryTableFieldId="70">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="69" xr3:uid="{41C18551-02DE-4722-B87D-F215CCFDB404}" uniqueName="69" name="11-12J" totalsRowFunction="custom" queryTableFieldId="69">
+    <tableColumn id="71" xr3:uid="{03F103DC-6786-4FAE-B35C-38776F8810A7}" uniqueName="71" name="11-12J" totalsRowFunction="custom" queryTableFieldId="71">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="70" xr3:uid="{CF0F29B8-3AA0-4E51-8CB5-0ED315EB92A6}" uniqueName="70" name="12-13J" totalsRowFunction="custom" queryTableFieldId="70">
+    <tableColumn id="72" xr3:uid="{DA2D88D8-42C1-42B8-AD73-0FFCE74A16F3}" uniqueName="72" name="12-13J" totalsRowFunction="custom" queryTableFieldId="72">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="71" xr3:uid="{03F103DC-6786-4FAE-B35C-38776F8810A7}" uniqueName="71" name="13-14J" totalsRowFunction="custom" queryTableFieldId="71">
+    <tableColumn id="73" xr3:uid="{EE0FF2DE-705A-4309-8378-87DF21A809BF}" uniqueName="73" name="13-14J" totalsRowFunction="custom" queryTableFieldId="73">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="72" xr3:uid="{DA2D88D8-42C1-42B8-AD73-0FFCE74A16F3}" uniqueName="72" name="14-15J" totalsRowFunction="custom" queryTableFieldId="72">
+    <tableColumn id="74" xr3:uid="{BA7F7800-CCAE-4A5F-B78A-29938CD01751}" uniqueName="74" name="14-15J" totalsRowFunction="custom" queryTableFieldId="74">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="73" xr3:uid="{EE0FF2DE-705A-4309-8378-87DF21A809BF}" uniqueName="73" name="15-16J" totalsRowFunction="custom" queryTableFieldId="73">
+    <tableColumn id="75" xr3:uid="{9656EEC6-0ECB-428B-86A3-1D0FCBD32F31}" uniqueName="75" name="15-16J" totalsRowFunction="custom" queryTableFieldId="75">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="74" xr3:uid="{BA7F7800-CCAE-4A5F-B78A-29938CD01751}" uniqueName="74" name="16-17J" totalsRowFunction="custom" queryTableFieldId="74">
+    <tableColumn id="76" xr3:uid="{E60FC273-CEF7-4542-8607-D2B7A351825E}" uniqueName="76" name="16-17J" totalsRowFunction="custom" queryTableFieldId="76">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="75" xr3:uid="{9656EEC6-0ECB-428B-86A3-1D0FCBD32F31}" uniqueName="75" name="17-18J" totalsRowFunction="custom" queryTableFieldId="75">
+    <tableColumn id="77" xr3:uid="{2C4928EA-4A43-485C-A840-CA020303D9C5}" uniqueName="77" name="17-18J" totalsRowFunction="custom" queryTableFieldId="77">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="76" xr3:uid="{E60FC273-CEF7-4542-8607-D2B7A351825E}" uniqueName="76" name="18-19J" totalsRowFunction="custom" queryTableFieldId="76">
+    <tableColumn id="78" xr3:uid="{629804DF-2C85-4E3F-8AB7-3F62709F97D5}" uniqueName="78" name="18-19J" totalsRowFunction="custom" queryTableFieldId="78">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="77" xr3:uid="{2C4928EA-4A43-485C-A840-CA020303D9C5}" uniqueName="77" name="19-20J" totalsRowFunction="custom" queryTableFieldId="77">
+    <tableColumn id="79" xr3:uid="{A7CD8280-4EC3-43B7-ACF2-4EF7692CCB35}" uniqueName="79" name="19-20J" totalsRowFunction="custom" queryTableFieldId="79">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="78" xr3:uid="{629804DF-2C85-4E3F-8AB7-3F62709F97D5}" uniqueName="78" name="20-21J" totalsRowFunction="custom" queryTableFieldId="78">
+    <tableColumn id="80" xr3:uid="{5E847164-D60A-4CA6-A702-551C3ED3375E}" uniqueName="80" name="20-21J" totalsRowFunction="custom" queryTableFieldId="80">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="79" xr3:uid="{A7CD8280-4EC3-43B7-ACF2-4EF7692CCB35}" uniqueName="79" name="21-22J" totalsRowFunction="custom" queryTableFieldId="79">
+    <tableColumn id="81" xr3:uid="{75F72673-D248-4824-AEC5-D381ED5B9084}" uniqueName="81" name="21-22J" totalsRowFunction="custom" queryTableFieldId="81">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22J])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="80" xr3:uid="{5E847164-D60A-4CA6-A702-551C3ED3375E}" uniqueName="80" name="6-7V" totalsRowFunction="custom" queryTableFieldId="80">
+    <tableColumn id="82" xr3:uid="{91A3273B-A707-439C-868F-9ABE50C5D6E9}" uniqueName="82" name="6-7V" totalsRowFunction="custom" queryTableFieldId="82">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="81" xr3:uid="{75F72673-D248-4824-AEC5-D381ED5B9084}" uniqueName="81" name="7-8V" totalsRowFunction="custom" queryTableFieldId="81">
+    <tableColumn id="83" xr3:uid="{3698F594-C6C3-418D-8B79-2788198E9AC2}" uniqueName="83" name="7-8V" totalsRowFunction="custom" queryTableFieldId="83">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="82" xr3:uid="{91A3273B-A707-439C-868F-9ABE50C5D6E9}" uniqueName="82" name="8-9V" totalsRowFunction="custom" queryTableFieldId="82">
+    <tableColumn id="84" xr3:uid="{CD2B2221-B94C-4A96-8252-03CF64C17C73}" uniqueName="84" name="8-9V" totalsRowFunction="custom" queryTableFieldId="84">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="83" xr3:uid="{3698F594-C6C3-418D-8B79-2788198E9AC2}" uniqueName="83" name="9-10V" totalsRowFunction="custom" queryTableFieldId="83">
+    <tableColumn id="85" xr3:uid="{03EEE035-771C-4B91-ACC6-095A10A20700}" uniqueName="85" name="9-10V" totalsRowFunction="custom" queryTableFieldId="85">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="84" xr3:uid="{CD2B2221-B94C-4A96-8252-03CF64C17C73}" uniqueName="84" name="10-11V" totalsRowFunction="custom" queryTableFieldId="84">
+    <tableColumn id="86" xr3:uid="{D0E62AC3-FB12-47BC-B3F5-10D6B8448E1C}" uniqueName="86" name="10-11V" totalsRowFunction="custom" queryTableFieldId="86">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="85" xr3:uid="{03EEE035-771C-4B91-ACC6-095A10A20700}" uniqueName="85" name="11-12V" totalsRowFunction="custom" queryTableFieldId="85">
+    <tableColumn id="87" xr3:uid="{27D52F98-CB89-46F8-AF8C-516361126D70}" uniqueName="87" name="11-12V" totalsRowFunction="custom" queryTableFieldId="87">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="86" xr3:uid="{D0E62AC3-FB12-47BC-B3F5-10D6B8448E1C}" uniqueName="86" name="12-13V" totalsRowFunction="custom" queryTableFieldId="86">
+    <tableColumn id="88" xr3:uid="{EA634748-C39A-4A9E-8E34-2BF6D3F86DDA}" uniqueName="88" name="12-13V" totalsRowFunction="custom" queryTableFieldId="88">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="87" xr3:uid="{27D52F98-CB89-46F8-AF8C-516361126D70}" uniqueName="87" name="13-14V" totalsRowFunction="custom" queryTableFieldId="87">
+    <tableColumn id="89" xr3:uid="{1FABB02B-B309-49CA-A883-CAF84C362731}" uniqueName="89" name="13-14V" totalsRowFunction="custom" queryTableFieldId="89">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="88" xr3:uid="{EA634748-C39A-4A9E-8E34-2BF6D3F86DDA}" uniqueName="88" name="14-15V" totalsRowFunction="custom" queryTableFieldId="88">
+    <tableColumn id="90" xr3:uid="{8EBA44D7-6B01-4416-8B55-82EF6E0D8861}" uniqueName="90" name="14-15V" totalsRowFunction="custom" queryTableFieldId="90">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="89" xr3:uid="{1FABB02B-B309-49CA-A883-CAF84C362731}" uniqueName="89" name="15-16V" totalsRowFunction="custom" queryTableFieldId="89">
+    <tableColumn id="91" xr3:uid="{26DFBD40-1EA7-461C-A6EB-C96A6E25B727}" uniqueName="91" name="15-16V" totalsRowFunction="custom" queryTableFieldId="91">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="90" xr3:uid="{8EBA44D7-6B01-4416-8B55-82EF6E0D8861}" uniqueName="90" name="16-17V" totalsRowFunction="custom" queryTableFieldId="90">
+    <tableColumn id="92" xr3:uid="{C8D47FF2-B24B-4DA0-B552-2EC96CB72C12}" uniqueName="92" name="16-17V" totalsRowFunction="custom" queryTableFieldId="92">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[16-17V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="91" xr3:uid="{26DFBD40-1EA7-461C-A6EB-C96A6E25B727}" uniqueName="91" name="17-18V" totalsRowFunction="custom" queryTableFieldId="91">
+    <tableColumn id="93" xr3:uid="{7709591B-7E4D-4846-A371-49A54D8C9FF4}" uniqueName="93" name="17-18V" totalsRowFunction="custom" queryTableFieldId="93">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[17-18V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="92" xr3:uid="{C8D47FF2-B24B-4DA0-B552-2EC96CB72C12}" uniqueName="92" name="18-19V" totalsRowFunction="custom" queryTableFieldId="92">
+    <tableColumn id="94" xr3:uid="{503DF5D8-8315-4C62-BF9C-87501FFBDBDB}" uniqueName="94" name="18-19V" totalsRowFunction="custom" queryTableFieldId="94">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[18-19V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="93" xr3:uid="{7709591B-7E4D-4846-A371-49A54D8C9FF4}" uniqueName="93" name="19-20V" totalsRowFunction="custom" queryTableFieldId="93">
+    <tableColumn id="95" xr3:uid="{C8B43F86-CABC-48E5-A1B0-5EB8AC257382}" uniqueName="95" name="19-20V" totalsRowFunction="custom" queryTableFieldId="95">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[19-20V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="94" xr3:uid="{503DF5D8-8315-4C62-BF9C-87501FFBDBDB}" uniqueName="94" name="20-21V" totalsRowFunction="custom" queryTableFieldId="94">
+    <tableColumn id="96" xr3:uid="{DEDF78B8-91FB-44A9-BE2F-60B6B400A1E3}" uniqueName="96" name="20-21V" totalsRowFunction="custom" queryTableFieldId="96">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[20-21V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="95" xr3:uid="{C8B43F86-CABC-48E5-A1B0-5EB8AC257382}" uniqueName="95" name="21-22V" totalsRowFunction="custom" queryTableFieldId="95">
+    <tableColumn id="97" xr3:uid="{C47FF5A8-51B9-41AF-8D63-CEB7C92ACB49}" uniqueName="97" name="21-22V" totalsRowFunction="custom" queryTableFieldId="97">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[21-22V])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="96" xr3:uid="{DEDF78B8-91FB-44A9-BE2F-60B6B400A1E3}" uniqueName="96" name="6-7S" totalsRowFunction="custom" queryTableFieldId="96">
-      <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[6-7S])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="97" xr3:uid="{C47FF5A8-51B9-41AF-8D63-CEB7C92ACB49}" uniqueName="97" name="7-8S" totalsRowFunction="custom" queryTableFieldId="97">
+    <tableColumn id="106" xr3:uid="{8E8DC894-DA3A-4826-9903-2887BD1F29DF}" uniqueName="106" name="6-7S" queryTableFieldId="105"/>
+    <tableColumn id="98" xr3:uid="{25044A8C-0253-4E22-980E-977A3B5C6C59}" uniqueName="98" name="7-8S" totalsRowFunction="custom" queryTableFieldId="98">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[7-8S])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="106" xr3:uid="{8E8DC894-DA3A-4826-9903-2887BD1F29DF}" uniqueName="106" name="8-9S" queryTableFieldId="105"/>
-    <tableColumn id="98" xr3:uid="{25044A8C-0253-4E22-980E-977A3B5C6C59}" uniqueName="98" name="9-10S" totalsRowFunction="custom" queryTableFieldId="98">
+    <tableColumn id="99" xr3:uid="{06442895-16E0-4ECD-8EBF-3B1CE6D40543}" uniqueName="99" name="8-9S" totalsRowFunction="custom" queryTableFieldId="99">
+      <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[8-9S])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="100" xr3:uid="{AA9513E9-29C9-4519-94D4-0A9191FCB7B9}" uniqueName="100" name="9-10S" totalsRowFunction="custom" queryTableFieldId="100">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[9-10S])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="99" xr3:uid="{06442895-16E0-4ECD-8EBF-3B1CE6D40543}" uniqueName="99" name="10-11S" totalsRowFunction="custom" queryTableFieldId="99">
+    <tableColumn id="101" xr3:uid="{BE7F29A5-3E73-48CC-B6AC-F4BD54B440C9}" uniqueName="101" name="10-11S" totalsRowFunction="custom" queryTableFieldId="101">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[10-11S])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="100" xr3:uid="{AA9513E9-29C9-4519-94D4-0A9191FCB7B9}" uniqueName="100" name="11-12S" totalsRowFunction="custom" queryTableFieldId="100">
+    <tableColumn id="102" xr3:uid="{787D2725-71F2-4D01-BEC3-CCABAE6FE285}" uniqueName="102" name="11-12S" totalsRowFunction="custom" queryTableFieldId="102">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[11-12S])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="101" xr3:uid="{BE7F29A5-3E73-48CC-B6AC-F4BD54B440C9}" uniqueName="101" name="12-13S" totalsRowFunction="custom" queryTableFieldId="101">
+    <tableColumn id="103" xr3:uid="{95A9821F-88C4-4EA6-99C0-D528E88E450E}" uniqueName="103" name="12-13S" totalsRowFunction="custom" queryTableFieldId="103">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[12-13S])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="102" xr3:uid="{787D2725-71F2-4D01-BEC3-CCABAE6FE285}" uniqueName="102" name="13-14S" totalsRowFunction="custom" queryTableFieldId="102">
+    <tableColumn id="104" xr3:uid="{FD79054B-1F48-4B17-8E3F-E8071CD3F12B}" uniqueName="104" name="13-14S" totalsRowFunction="custom" queryTableFieldId="104">
       <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[13-14S])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="103" xr3:uid="{95A9821F-88C4-4EA6-99C0-D528E88E450E}" uniqueName="103" name="14-15S" totalsRowFunction="custom" queryTableFieldId="103">
-      <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[14-15S])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="104" xr3:uid="{FD79054B-1F48-4B17-8E3F-E8071CD3F12B}" uniqueName="104" name="15-16S" totalsRowFunction="custom" queryTableFieldId="104">
-      <totalsRowFormula>SUBTOTAL(3,PROGRAMACIONES_PARCIALES[15-16S])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="107" xr3:uid="{A3CF5FA6-0BC1-4EE0-ACBA-7D12CD4F69CB}" uniqueName="107" name="16-17S" queryTableFieldId="106"/>
-    <tableColumn id="108" xr3:uid="{7CEF20B3-5C3F-462E-8136-781CC7B1D78E}" uniqueName="108" name="17-18S" queryTableFieldId="107"/>
-    <tableColumn id="109" xr3:uid="{18A83807-EABB-4CDE-8D7A-9FDF98FD27D9}" uniqueName="109" name="18-19S" queryTableFieldId="108"/>
-    <tableColumn id="110" xr3:uid="{D32D010A-2968-4033-9872-6B7850ECF681}" uniqueName="110" name="19-20S" queryTableFieldId="109"/>
-    <tableColumn id="111" xr3:uid="{4E3019B6-69C3-4758-BD70-7BD08C1761D6}" uniqueName="111" name="20-21S" queryTableFieldId="110"/>
-    <tableColumn id="112" xr3:uid="{9635A481-7A2D-42F0-887A-543975A5D13D}" uniqueName="112" name="21-22S" queryTableFieldId="111"/>
-    <tableColumn id="113" xr3:uid="{1D8A03D8-2149-49B6-9666-8BF287F9439C}" uniqueName="113" name="20-21S2" queryTableFieldId="112"/>
-    <tableColumn id="114" xr3:uid="{4E113227-453F-4C1E-AC06-94C33B00FFFE}" uniqueName="114" name="21-22S3" queryTableFieldId="113"/>
+    <tableColumn id="107" xr3:uid="{A3CF5FA6-0BC1-4EE0-ACBA-7D12CD4F69CB}" uniqueName="107" name="14-15S" queryTableFieldId="106"/>
+    <tableColumn id="108" xr3:uid="{7CEF20B3-5C3F-462E-8136-781CC7B1D78E}" uniqueName="108" name="15-16S" queryTableFieldId="107"/>
+    <tableColumn id="109" xr3:uid="{18A83807-EABB-4CDE-8D7A-9FDF98FD27D9}" uniqueName="109" name="16-17S" queryTableFieldId="108"/>
+    <tableColumn id="110" xr3:uid="{D32D010A-2968-4033-9872-6B7850ECF681}" uniqueName="110" name="17-18S" queryTableFieldId="109"/>
+    <tableColumn id="111" xr3:uid="{4E3019B6-69C3-4758-BD70-7BD08C1761D6}" uniqueName="111" name="18-19S" queryTableFieldId="110"/>
+    <tableColumn id="112" xr3:uid="{9635A481-7A2D-42F0-887A-543975A5D13D}" uniqueName="112" name="19-20S" queryTableFieldId="111"/>
+    <tableColumn id="113" xr3:uid="{1D8A03D8-2149-49B6-9666-8BF287F9439C}" uniqueName="113" name="20-21S" queryTableFieldId="112"/>
+    <tableColumn id="114" xr3:uid="{4E113227-453F-4C1E-AC06-94C33B00FFFE}" uniqueName="114" name="21-22S" queryTableFieldId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10778,48 +10778,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C46E5B-3CE7-4F67-9F7E-3BDF34AAB992}">
   <dimension ref="A1:DI379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D382" sqref="D382"/>
+    <sheetView tabSelected="1" topLeftCell="DA347" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:DI378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="81.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="81" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="97" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="33" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="81" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="97" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.33203125" customWidth="1"/>
     <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
     <col min="102" max="105" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P1" s="1">
-        <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[6-7L])</f>
+        <f>SUBTOTAL(9,PROGRAMACIONES_PARCIALES[HORAS_SEMANAL])</f>
         <v>2038</v>
       </c>
       <c r="R1" s="6" t="s">
@@ -10923,7 +10923,7 @@
       <c r="CZ1" s="6"/>
       <c r="DA1" s="6"/>
     </row>
-    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:113" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10967,304 +10967,304 @@
         <v>11</v>
       </c>
       <c r="O2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P2" t="s">
         <v>506</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>508</v>
+      </c>
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>33</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>34</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>36</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>42</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>44</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>47</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>48</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>49</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>50</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>51</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>53</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>54</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>57</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>58</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BN2" t="s">
         <v>60</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BO2" t="s">
         <v>61</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BP2" t="s">
         <v>62</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>63</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>64</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BS2" t="s">
         <v>65</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BT2" t="s">
         <v>66</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BU2" t="s">
         <v>67</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>68</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>69</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>70</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BY2" t="s">
         <v>71</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
         <v>72</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CA2" t="s">
         <v>73</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CB2" t="s">
         <v>74</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CC2" t="s">
         <v>75</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CD2" t="s">
         <v>76</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CE2" t="s">
         <v>77</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CF2" t="s">
         <v>78</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CG2" t="s">
         <v>79</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CH2" t="s">
         <v>80</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CI2" t="s">
         <v>81</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
         <v>82</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CK2" t="s">
         <v>83</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CL2" t="s">
         <v>84</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CM2" t="s">
         <v>85</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CN2" t="s">
         <v>86</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CO2" t="s">
         <v>87</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CP2" t="s">
         <v>88</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CQ2" t="s">
         <v>89</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CR2" t="s">
         <v>90</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CS2" t="s">
         <v>91</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CT2" t="s">
         <v>486</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CU2" t="s">
         <v>487</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CV2" t="s">
         <v>92</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CW2" t="s">
         <v>93</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CX2" t="s">
         <v>94</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CY2" t="s">
         <v>95</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CZ2" t="s">
         <v>96</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DA2" t="s">
         <v>97</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DB2" t="s">
         <v>488</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DC2" t="s">
         <v>489</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DD2" t="s">
         <v>490</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DE2" t="s">
         <v>491</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DF2" t="s">
         <v>492</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DG2" t="s">
         <v>493</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DH2" t="s">
         <v>494</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DI2" t="s">
         <v>495</v>
       </c>
-      <c r="DH2" t="s">
-        <v>507</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>98</v>
       </c>
